--- a/Gestion_A_jmd.xlsx
+++ b/Gestion_A_jmd.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_66E4F7D92F826515BE0D76B96B3F4F5212E87F84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D9EA56B-7255-40BB-9441-5E3D488F4932}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cvmqc-my.sharepoint.com/personal/e_ldilion_etu_cvm_qc_ca/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{235565F7-C2FF-4BF8-9439-9B3205FDF89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -19,6 +24,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -26,6 +34,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="198">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -301,8 +311,100 @@
         <rFont val="arial,sans,sans-serif"/>
       </rPr>
       <t xml:space="preserve">
-(dans le texte)</t>
+</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="arial,sans,sans-serif"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="arial,sans,sans-serif"/>
+      </rPr>
+      <t>dans le texte</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="arial,sans,sans-serif"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>air de jeu</t>
+  </si>
+  <si>
+    <t>affiche</t>
+  </si>
+  <si>
+    <t>colonne et rangées</t>
+  </si>
+  <si>
+    <t>Dalek</t>
+  </si>
+  <si>
+    <t>S approcher du docteur</t>
+  </si>
+  <si>
+    <t>coordonée x y</t>
+  </si>
+  <si>
+    <t>Docteur</t>
+  </si>
+  <si>
+    <t>se deplacer</t>
+  </si>
+  <si>
+    <t>Feraille</t>
+  </si>
+  <si>
+    <t>collision</t>
+  </si>
+  <si>
+    <t>eliminer le docteur et créer des ferailles</t>
+  </si>
+  <si>
+    <t>docteur dalek feraille</t>
+  </si>
+  <si>
+    <t>Dalek_detruit</t>
+  </si>
+  <si>
+    <t>donner 5 points</t>
+  </si>
+  <si>
+    <t>points_joueur</t>
+  </si>
+  <si>
+    <t>Dalek-teleporter</t>
+  </si>
+  <si>
+    <t>teleporte != feraille et avance != ferraile</t>
+  </si>
+  <si>
+    <t>tablo</t>
+  </si>
+  <si>
+    <t>teleporteur</t>
+  </si>
+  <si>
+    <t>teleporter</t>
+  </si>
+  <si>
+    <t>niveau dalek</t>
+  </si>
+  <si>
+    <t>zappeur</t>
+  </si>
+  <si>
+    <t>volatiliser dalek</t>
   </si>
   <si>
     <r>
@@ -323,6 +425,9 @@
 explicites mais
 jamais mentionné)</t>
     </r>
+  </si>
+  <si>
+    <t>score</t>
   </si>
   <si>
     <r>
@@ -345,6 +450,9 @@
 mais peut-être
 ignorées)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">score moyen </t>
   </si>
   <si>
     <t>Cas d'usage et Scénario d'utilisation, ainsi que les rôles</t>
@@ -439,10 +547,73 @@
     </r>
   </si>
   <si>
-    <t>Ùtiliser le IF pour des sections conditionnelles</t>
-  </si>
-  <si>
-    <t>Utiliser le FOR pour des boucles</t>
+    <t>Joueur</t>
+  </si>
+  <si>
+    <t>L'humain lance le programme</t>
+  </si>
+  <si>
+    <t>main lance le controleur</t>
+  </si>
+  <si>
+    <t>controleur accede a la vue</t>
+  </si>
+  <si>
+    <t>Vue() affiche_menu_inital</t>
+  </si>
+  <si>
+    <t>le menu affiche differents choix aux joueurs</t>
+  </si>
+  <si>
+    <t>choix d'option du menu</t>
+  </si>
+  <si>
+    <t>while choix existant</t>
+  </si>
+  <si>
+    <t>lancer une partie</t>
+  </si>
+  <si>
+    <t>Jeu() créer partie</t>
+  </si>
+  <si>
+    <t>If choix == J ou  j</t>
+  </si>
+  <si>
+    <t>partie mise en cours</t>
+  </si>
+  <si>
+    <t>partie_en_cours == True</t>
+  </si>
+  <si>
+    <t>afficher_air_de_jeu</t>
+  </si>
+  <si>
+    <t>demande a l'humain de faire un choix</t>
+  </si>
+  <si>
+    <t>déplacer</t>
+  </si>
+  <si>
+    <t>Choix humain</t>
+  </si>
+  <si>
+    <t>while choix existant (If choix == deplacer)</t>
+  </si>
+  <si>
+    <t>deplacer le Docteur</t>
+  </si>
+  <si>
+    <t>changer l'emplacement du Docteur</t>
+  </si>
+  <si>
+    <t>while coord xy hors air de jeux or input &lt; 1</t>
+  </si>
+  <si>
+    <t>Dalek x et y +-1</t>
+  </si>
+  <si>
+    <t>for dalek in daleks: changer la pos du dalek</t>
   </si>
   <si>
     <t>Fin du cas d'usage</t>
@@ -673,7 +844,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -754,6 +925,17 @@
       <sz val="12"/>
       <name val="arial,sans,sans-serif"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -769,7 +951,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1104,19 +1286,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1446,7 +1615,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1461,7 +1629,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1471,14 +1639,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1486,7 +1653,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1495,10 +1662,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1523,9 +1690,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1541,10 +1708,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1555,24 +1722,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1610,35 +1777,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2003,8 +2176,8 @@
   </sheetPr>
   <dimension ref="B2:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A18" zoomScale="69" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2038,36 +2211,36 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="114"/>
+      <c r="H3" s="112"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
     </row>
     <row r="5" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
     </row>
     <row r="7" spans="2:8" ht="17.25" customHeight="1">
       <c r="B7" s="2" t="s">
@@ -2075,18 +2248,18 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="112"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" customHeight="1">
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="112"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="6" t="s">
         <v>4</v>
       </c>
@@ -2101,7 +2274,7 @@
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="112"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
@@ -2111,7 +2284,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="112"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="6"/>
       <c r="H10" s="5"/>
     </row>
@@ -2123,7 +2296,7 @@
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="112"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="6"/>
       <c r="G11" s="13" t="s">
         <v>10</v>
@@ -2136,7 +2309,7 @@
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="112"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="6"/>
       <c r="G12" s="13"/>
       <c r="H12" s="5" t="s">
@@ -2151,7 +2324,7 @@
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="110"/>
       <c r="F13" s="6"/>
       <c r="H13" s="5" t="s">
         <v>15</v>
@@ -2161,7 +2334,7 @@
       <c r="B14" s="6"/>
       <c r="C14" s="13"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="112"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="6"/>
       <c r="H14" s="5" t="s">
         <v>16</v>
@@ -2175,34 +2348,34 @@
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="112"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="6"/>
       <c r="H15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B16" s="39"/>
-      <c r="C16" s="114"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="39"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="38"/>
       <c r="H16" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B18" s="39"/>
-      <c r="C18" s="114" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="112" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="112"/>
-      <c r="F18" s="39"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="13" t="s">
         <v>24</v>
       </c>
@@ -2211,95 +2384,95 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B19" s="39"/>
-      <c r="C19" s="114"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="112"/>
       <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="112"/>
-      <c r="F19" s="39"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="13"/>
       <c r="H19" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B20" s="39"/>
-      <c r="C20" s="114"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="39"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="38"/>
       <c r="H20" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B21" s="39"/>
-      <c r="C21" s="114" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="112" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="112"/>
-      <c r="F21" s="39"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="38"/>
       <c r="H21" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B22" s="39"/>
-      <c r="C22" s="114"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="114"/>
-      <c r="F22" s="39"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="38"/>
       <c r="H22" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B23" s="39"/>
-      <c r="C23" s="114"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="112"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="39"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="38"/>
       <c r="G23" s="13"/>
       <c r="H23" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B24" s="39"/>
-      <c r="C24" s="114" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="112" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="114"/>
-      <c r="F24" s="39"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="38"/>
       <c r="H24" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B25" s="39"/>
-      <c r="C25" s="114"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="114"/>
-      <c r="F25" s="39"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="38"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B26" s="39"/>
-      <c r="C26" s="112"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="110"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="39"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="38"/>
       <c r="G26" s="13" t="s">
         <v>39</v>
       </c>
@@ -2308,24 +2481,24 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B27" s="39"/>
-      <c r="C27" s="112"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="110"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="39"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="38"/>
       <c r="H27" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="112"/>
+      <c r="C28" s="110"/>
       <c r="D28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="114"/>
+      <c r="E28" s="112"/>
       <c r="F28" s="9"/>
       <c r="H28" s="8" t="s">
         <v>44</v>
@@ -2339,19 +2512,19 @@
       <c r="D29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="114"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="114"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="112"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B30" s="39"/>
-      <c r="C30" s="112"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="110"/>
       <c r="D30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="114"/>
-      <c r="F30" s="39"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="13" t="s">
         <v>48</v>
       </c>
@@ -2378,10 +2551,10 @@
       <c r="I38" s="135"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="112"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
       <c r="F40" s="134"/>
@@ -2402,16 +2575,16 @@
       <c r="I42" s="135"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="112"/>
     </row>
     <row r="44" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="112"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
       <c r="F45" s="134"/>
@@ -2460,91 +2633,95 @@
   </sheetPr>
   <dimension ref="B2:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="63" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="5" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
     <col min="6" max="7" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B2" s="114"/>
+      <c r="B2" s="112"/>
       <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B3" s="114"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
     </row>
     <row r="4" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B4" s="114"/>
-      <c r="C4" s="114" t="s">
+      <c r="B4" s="112"/>
+      <c r="C4" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
     </row>
     <row r="5" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B5" s="114"/>
-      <c r="C5" s="114" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
     </row>
     <row r="6" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B6" s="114"/>
-      <c r="C6" s="114" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
     </row>
     <row r="7" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B7" s="114"/>
-      <c r="C7" s="114" t="s">
+      <c r="B7" s="112"/>
+      <c r="C7" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
     </row>
     <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="114"/>
-      <c r="C8" s="114" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B9" s="114"/>
-      <c r="C9" s="114" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B10" s="114"/>
-      <c r="C10" s="114" t="s">
+      <c r="B10" s="112"/>
+      <c r="C10" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
     </row>
     <row r="11" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
     </row>
     <row r="12" spans="2:5" ht="12.75" customHeight="1">
       <c r="B12" s="14"/>
@@ -2562,175 +2739,229 @@
       <c r="B13" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="38"/>
+      <c r="C13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="12.75" customHeight="1">
       <c r="B14" s="137"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="42"/>
+      <c r="C14" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="2:5" ht="12.75" customHeight="1">
       <c r="B15" s="137"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="42"/>
+      <c r="C15" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="2:5" ht="12.75" customHeight="1">
       <c r="B16" s="137"/>
-      <c r="C16" s="22"/>
+      <c r="C16" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="D16" s="18"/>
-      <c r="E16" s="42"/>
+      <c r="E16" s="41" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
       <c r="B17" s="137"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="42"/>
+      <c r="C17" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
       <c r="B18" s="137"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="42"/>
+      <c r="C18" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
       <c r="B19" s="137"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="42"/>
+      <c r="C19" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
       <c r="B20" s="137"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="42"/>
+      <c r="C20" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
       <c r="B21" s="138"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="41"/>
+      <c r="C21" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
       <c r="B22" s="136" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="40"/>
+        <v>84</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="39"/>
       <c r="E22" s="21"/>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
       <c r="B23" s="137"/>
       <c r="C23" s="22"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="42"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1">
       <c r="B24" s="137"/>
       <c r="C24" s="22"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="42"/>
+      <c r="E24" s="41"/>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1">
       <c r="B25" s="137"/>
       <c r="C25" s="22"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="42"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
       <c r="B26" s="137"/>
       <c r="C26" s="22"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="42"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="27" spans="2:5" ht="12.75" customHeight="1">
       <c r="B27" s="137"/>
       <c r="C27" s="22"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="42"/>
+      <c r="E27" s="41"/>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
       <c r="B28" s="137"/>
       <c r="C28" s="22"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="42"/>
+      <c r="E28" s="41"/>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
       <c r="B29" s="137"/>
       <c r="C29" s="22"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="42"/>
+      <c r="E29" s="41"/>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
       <c r="B30" s="138"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="41"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="20"/>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
       <c r="B31" s="136" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="40"/>
+        <v>86</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="39"/>
       <c r="E31" s="21"/>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
       <c r="B32" s="137"/>
       <c r="C32" s="22"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="42"/>
+      <c r="E32" s="41"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
       <c r="B33" s="137"/>
       <c r="C33" s="22"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="42"/>
+      <c r="E33" s="41"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
       <c r="B34" s="137"/>
       <c r="C34" s="22"/>
       <c r="D34" s="18"/>
-      <c r="E34" s="42"/>
+      <c r="E34" s="41"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
       <c r="B35" s="137"/>
       <c r="C35" s="22"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="42"/>
+      <c r="E35" s="41"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
       <c r="B36" s="137"/>
       <c r="C36" s="22"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="42"/>
+      <c r="E36" s="41"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
       <c r="B37" s="137"/>
       <c r="C37" s="22"/>
       <c r="D37" s="18"/>
-      <c r="E37" s="42"/>
+      <c r="E37" s="41"/>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
       <c r="B38" s="137"/>
       <c r="C38" s="22"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="42"/>
+      <c r="E38" s="41"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
       <c r="B39" s="137"/>
       <c r="C39" s="22"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="42"/>
+      <c r="E39" s="41"/>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
       <c r="B40" s="138"/>
       <c r="C40" s="24"/>
       <c r="D40" s="25"/>
-      <c r="E40" s="47"/>
+      <c r="E40" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2747,9 +2978,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:F28"/>
+  <dimension ref="B2:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2758,129 +2991,231 @@
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="44.42578125" customWidth="1"/>
     <col min="5" max="5" width="49.5703125" customWidth="1"/>
-    <col min="6" max="6" width="46.140625" customWidth="1"/>
+    <col min="6" max="6" width="70.7109375" customWidth="1"/>
     <col min="7" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.25" customHeight="1">
-      <c r="B2" s="111"/>
+      <c r="B2" s="109"/>
       <c r="C2" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-    </row>
-    <row r="3" spans="2:6" ht="56.25" customHeight="1">
-      <c r="B3" s="111"/>
+        <v>88</v>
+      </c>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+    </row>
+    <row r="3" spans="2:6" ht="89.45" customHeight="1">
+      <c r="B3" s="109"/>
       <c r="C3" s="139" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D3" s="135"/>
       <c r="E3" s="135"/>
-      <c r="F3" s="111"/>
+      <c r="F3" s="109"/>
     </row>
     <row r="4" spans="2:6" ht="30.75" customHeight="1">
-      <c r="B4" s="112"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="140" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D4" s="135"/>
       <c r="E4" s="135"/>
-      <c r="F4" s="112"/>
+      <c r="F4" s="110"/>
     </row>
     <row r="5" spans="2:6" ht="21" customHeight="1">
-      <c r="B5" s="111"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
+        <v>91</v>
+      </c>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
     </row>
     <row r="6" spans="2:6" ht="21" customHeight="1">
-      <c r="B6" s="112"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="112"/>
+        <v>92</v>
+      </c>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="110"/>
     </row>
     <row r="7" spans="2:6" ht="18" customHeight="1">
-      <c r="B7" s="112"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="110"/>
     </row>
     <row r="8" spans="2:6" ht="18" customHeight="1">
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
-      <c r="E8" s="112"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="28"/>
     </row>
     <row r="9" spans="2:6" ht="19.5" customHeight="1">
       <c r="B9" s="29" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F9" s="29"/>
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1">
-      <c r="B10" s="112"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
     </row>
     <row r="11" spans="2:6" ht="18" customHeight="1">
       <c r="B11" s="28" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18" customHeight="1">
-      <c r="B12" s="112"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="112" t="s">
-        <v>77</v>
-      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1">
-      <c r="B13" s="112"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="112" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4" ht="18" customHeight="1">
-      <c r="D28" s="114" t="s">
-        <v>79</v>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="132" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18" customHeight="1">
+      <c r="B14" s="110"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="133" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18" customHeight="1">
+      <c r="B15" s="110"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="133"/>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" customHeight="1">
+      <c r="E16" s="133" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="15.75" customHeight="1">
+      <c r="D17" s="133"/>
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="15.75" customHeight="1">
+      <c r="D18" s="133" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="133" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="15.75" customHeight="1">
+      <c r="E20" s="133" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="133" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="15.75" customHeight="1">
+      <c r="E21" s="133" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="15.75" customHeight="1">
+      <c r="E22" s="133" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="133" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="133" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="15.75" customHeight="1">
+      <c r="D24" s="133"/>
+      <c r="F24" s="133"/>
+    </row>
+    <row r="25" spans="3:6" ht="15.75" customHeight="1">
+      <c r="D25" s="133"/>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="15.75" customHeight="1">
+      <c r="E26" s="133" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="133" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="15.75" customHeight="1">
+      <c r="E27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" ht="18" customHeight="1">
+      <c r="D34" s="112"/>
+    </row>
+    <row r="82" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D82" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2889,6 +3224,7 @@
     <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2908,7 +3244,7 @@
   <sheetData>
     <row r="1" spans="7:19" ht="21.75" customHeight="1">
       <c r="G1" s="14" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
@@ -2923,459 +3259,459 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
     </row>
-    <row r="2" spans="7:19">
+    <row r="2" spans="7:19" ht="15">
       <c r="G2" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-    </row>
-    <row r="3" spans="7:19">
-      <c r="G3" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-    </row>
-    <row r="4" spans="7:19">
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-    </row>
-    <row r="5" spans="7:19">
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-    </row>
-    <row r="6" spans="7:19">
-      <c r="G6" s="114" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-    </row>
-    <row r="7" spans="7:19">
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-    </row>
-    <row r="8" spans="7:19">
-      <c r="G8" s="114" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-    </row>
-    <row r="9" spans="7:19">
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="114"/>
-      <c r="R9" s="114"/>
-      <c r="S9" s="114"/>
-    </row>
-    <row r="10" spans="7:19">
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="38"/>
-    </row>
-    <row r="11" spans="7:19">
-      <c r="G11" s="39"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
+        <v>127</v>
+      </c>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+    </row>
+    <row r="3" spans="7:19" ht="15">
+      <c r="G3" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+    </row>
+    <row r="4" spans="7:19" ht="15">
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+    </row>
+    <row r="5" spans="7:19" ht="15">
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+    </row>
+    <row r="6" spans="7:19" ht="15">
+      <c r="G6" s="112" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="112"/>
+    </row>
+    <row r="7" spans="7:19" ht="15">
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+    </row>
+    <row r="8" spans="7:19" ht="15">
+      <c r="G8" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+    </row>
+    <row r="9" spans="7:19" ht="15">
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+    </row>
+    <row r="10" spans="7:19" ht="15.6">
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="37"/>
+    </row>
+    <row r="11" spans="7:19" ht="15">
+      <c r="G11" s="38"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
       <c r="M11" s="141"/>
       <c r="N11" s="135"/>
       <c r="O11" s="135"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="114"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
       <c r="R11" s="141"/>
       <c r="S11" s="142"/>
     </row>
-    <row r="12" spans="7:19">
-      <c r="G12" s="39"/>
-      <c r="H12" s="114" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="42"/>
-    </row>
-    <row r="13" spans="7:19">
-      <c r="G13" s="39"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="42"/>
-    </row>
-    <row r="14" spans="7:19">
-      <c r="G14" s="39"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="114"/>
-      <c r="S14" s="42"/>
-    </row>
-    <row r="15" spans="7:19">
-      <c r="G15" s="39"/>
-      <c r="H15" s="114" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="42"/>
-    </row>
-    <row r="16" spans="7:19">
-      <c r="G16" s="39"/>
-      <c r="H16" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="42"/>
-    </row>
-    <row r="18" spans="7:23">
-      <c r="G18" s="39"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="50"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="114"/>
-      <c r="U18" s="114"/>
-      <c r="V18" s="114"/>
-      <c r="W18" s="114"/>
-    </row>
-    <row r="19" spans="7:23">
-      <c r="G19" s="39"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="114"/>
-      <c r="U19" s="114"/>
-      <c r="V19" s="114"/>
-      <c r="W19" s="114"/>
-    </row>
-    <row r="20" spans="7:23">
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="114"/>
-      <c r="U20" s="114"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="114"/>
-    </row>
-    <row r="21" spans="7:23">
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="114"/>
-      <c r="R21" s="114"/>
-      <c r="S21" s="114"/>
-      <c r="T21" s="114"/>
-      <c r="U21" s="114"/>
-      <c r="V21" s="114"/>
-      <c r="W21" s="114"/>
-    </row>
-    <row r="22" spans="7:23">
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="114"/>
-      <c r="R22" s="114"/>
-      <c r="S22" s="114"/>
-      <c r="T22" s="114"/>
-      <c r="U22" s="114"/>
-      <c r="V22" s="114"/>
-      <c r="W22" s="114"/>
-    </row>
-    <row r="23" spans="7:23">
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="114"/>
-      <c r="R23" s="114"/>
-      <c r="S23" s="114"/>
-      <c r="T23" s="114"/>
-      <c r="U23" s="114"/>
-      <c r="V23" s="114"/>
-      <c r="W23" s="114"/>
-    </row>
-    <row r="24" spans="7:23">
+    <row r="12" spans="7:19" ht="15">
+      <c r="G12" s="38"/>
+      <c r="H12" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="41"/>
+    </row>
+    <row r="13" spans="7:19" ht="15">
+      <c r="G13" s="38"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="41"/>
+    </row>
+    <row r="14" spans="7:19" ht="15">
+      <c r="G14" s="38"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="41"/>
+    </row>
+    <row r="15" spans="7:19" ht="15">
+      <c r="G15" s="38"/>
+      <c r="H15" s="112" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="41"/>
+    </row>
+    <row r="16" spans="7:19" ht="15">
+      <c r="G16" s="38"/>
+      <c r="H16" s="112" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="41"/>
+    </row>
+    <row r="18" spans="7:23" ht="15.6">
+      <c r="G18" s="38"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" s="49"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="112"/>
+      <c r="U18" s="112"/>
+      <c r="V18" s="112"/>
+      <c r="W18" s="112"/>
+    </row>
+    <row r="19" spans="7:23" ht="15">
+      <c r="G19" s="38"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="112"/>
+      <c r="U19" s="112"/>
+      <c r="V19" s="112"/>
+      <c r="W19" s="112"/>
+    </row>
+    <row r="20" spans="7:23" ht="15">
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="112"/>
+      <c r="U20" s="112"/>
+      <c r="V20" s="112"/>
+      <c r="W20" s="112"/>
+    </row>
+    <row r="21" spans="7:23" ht="15">
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="112"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="112"/>
+      <c r="W21" s="112"/>
+    </row>
+    <row r="22" spans="7:23" ht="15">
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="112"/>
+      <c r="W22" s="112"/>
+    </row>
+    <row r="23" spans="7:23" ht="15">
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="112"/>
+    </row>
+    <row r="24" spans="7:23" ht="15">
       <c r="G24" s="146"/>
       <c r="H24" s="135"/>
       <c r="I24" s="135"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="114"/>
-      <c r="R24" s="114"/>
-      <c r="S24" s="114"/>
-      <c r="T24" s="114"/>
-      <c r="U24" s="114"/>
-      <c r="V24" s="114"/>
-      <c r="W24" s="114"/>
-    </row>
-    <row r="25" spans="7:23">
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="114"/>
-      <c r="R25" s="114"/>
-      <c r="S25" s="114"/>
-      <c r="T25" s="114"/>
-      <c r="U25" s="114"/>
-      <c r="V25" s="114"/>
-      <c r="W25" s="114"/>
-    </row>
-    <row r="26" spans="7:23">
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="112"/>
+    </row>
+    <row r="25" spans="7:23" ht="15">
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="112"/>
+      <c r="W25" s="112"/>
+    </row>
+    <row r="26" spans="7:23" ht="15">
       <c r="G26" s="146"/>
       <c r="H26" s="135"/>
       <c r="I26" s="135"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="114"/>
-      <c r="R26" s="114"/>
-      <c r="S26" s="114"/>
-      <c r="T26" s="114"/>
-      <c r="U26" s="114"/>
-      <c r="V26" s="114"/>
-      <c r="W26" s="114"/>
-    </row>
-    <row r="27" spans="7:23">
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="114"/>
-      <c r="R27" s="114"/>
-      <c r="S27" s="114"/>
-      <c r="T27" s="114"/>
-      <c r="U27" s="114"/>
-      <c r="V27" s="114"/>
-      <c r="W27" s="114"/>
-    </row>
-    <row r="28" spans="7:23">
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
+    </row>
+    <row r="27" spans="7:23" ht="15">
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="112"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="112"/>
+      <c r="W27" s="112"/>
+    </row>
+    <row r="28" spans="7:23" ht="15">
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
       <c r="P28" s="146"/>
       <c r="Q28" s="135"/>
       <c r="R28" s="135"/>
-      <c r="S28" s="114"/>
+      <c r="S28" s="112"/>
       <c r="T28" s="146"/>
       <c r="U28" s="135"/>
       <c r="V28" s="135"/>
@@ -3420,9 +3756,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="87" customHeight="1">
-      <c r="B1" s="112"/>
+      <c r="B1" s="110"/>
       <c r="C1" s="139" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="D1" s="135"/>
       <c r="E1" s="135"/>
@@ -3431,99 +3767,99 @@
       <c r="H1" s="135"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
     </row>
     <row r="3" spans="2:8" ht="12.75" customHeight="1">
       <c r="B3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+        <v>140</v>
+      </c>
+      <c r="C3" s="112"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="2:8" ht="18" customHeight="1">
-      <c r="B4" s="114"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1">
-      <c r="B5" s="114"/>
-      <c r="C5" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="114"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="112"/>
     </row>
     <row r="6" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="112"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="110"/>
     </row>
     <row r="7" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="112"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="110"/>
     </row>
     <row r="8" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="112"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="110"/>
     </row>
     <row r="9" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="112"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="110"/>
     </row>
     <row r="10" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="112"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="52"/>
+      <c r="H10" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3552,112 +3888,112 @@
   <sheetData>
     <row r="1" spans="2:11" ht="64.5" customHeight="1">
       <c r="C1" s="143" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="D1" s="135"/>
       <c r="E1" s="135"/>
       <c r="F1" s="135"/>
     </row>
-    <row r="2" spans="2:11"/>
-    <row r="3" spans="2:11">
-      <c r="B3" s="58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="59"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-    </row>
-    <row r="7" spans="2:11">
+    <row r="2" spans="2:11" ht="13.15"/>
+    <row r="3" spans="2:11" ht="13.15">
+      <c r="B3" s="56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="13.15">
+      <c r="B4" s="57"/>
+    </row>
+    <row r="5" spans="2:11" ht="13.15">
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+    </row>
+    <row r="6" spans="2:11" ht="13.15">
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+    </row>
+    <row r="7" spans="2:11" ht="26.45">
       <c r="B7" s="144" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="C7" s="135"/>
-      <c r="G7" s="115" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="115"/>
-      <c r="G8" s="115" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="65" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="110"/>
-      <c r="D10" s="69"/>
-      <c r="G10" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="115"/>
-      <c r="K10" s="113"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="115" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" s="113"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="110"/>
-      <c r="D12" s="69"/>
-      <c r="G12" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" s="113"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="110"/>
-      <c r="D13" s="69"/>
-      <c r="G13" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="113"/>
+      <c r="G7" s="113" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+    </row>
+    <row r="8" spans="2:11" ht="13.15">
+      <c r="B8" s="113"/>
+      <c r="G8" s="113" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+    </row>
+    <row r="9" spans="2:11" ht="13.15">
+      <c r="B9" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="J9" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" s="63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="13.15">
+      <c r="B10" s="108"/>
+      <c r="D10" s="67"/>
+      <c r="G10" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" s="113"/>
+      <c r="K10" s="111"/>
+    </row>
+    <row r="11" spans="2:11" ht="26.45">
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" s="111"/>
+    </row>
+    <row r="12" spans="2:11" ht="13.15">
+      <c r="B12" s="108"/>
+      <c r="D12" s="67"/>
+      <c r="G12" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12" s="111"/>
+    </row>
+    <row r="13" spans="2:11" ht="13.15">
+      <c r="B13" s="108"/>
+      <c r="D13" s="67"/>
+      <c r="G13" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="K13" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3675,7 +4011,9 @@
   </sheetPr>
   <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3689,10 +4027,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="57" customHeight="1">
-      <c r="B1" s="117"/>
-      <c r="C1" s="118"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="116"/>
       <c r="D1" s="143" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="E1" s="135"/>
       <c r="F1" s="135"/>
@@ -3700,111 +4038,111 @@
       <c r="H1" s="135"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B2" s="117"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="H2" s="117"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="H2" s="115"/>
     </row>
     <row r="3" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B3" s="117"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="H3" s="117"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="H3" s="115"/>
     </row>
     <row r="4" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B4" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="H4" s="117"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="117"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
+      <c r="B4" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="116"/>
+      <c r="D4" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="H4" s="115"/>
+    </row>
+    <row r="5" spans="2:8" ht="13.15">
+      <c r="B5" s="115"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
     </row>
     <row r="6" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B6" s="117"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="H6" s="117"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="H6" s="115"/>
     </row>
     <row r="7" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B7" s="115" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="120" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="121" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="121" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="121" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="122" t="s">
-        <v>125</v>
+      <c r="B7" s="113" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="116"/>
+      <c r="D7" s="118" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="120" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="13.5" customHeight="1">
-      <c r="C8" s="118"/>
-      <c r="D8" s="123" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="125"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="121" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="123"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B9" s="117"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="129"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="127"/>
     </row>
     <row r="10" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B10" s="115" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="132"/>
+      <c r="B10" s="113" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="116"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="130"/>
     </row>
     <row r="11" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B11" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="132"/>
+      <c r="B11" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="116"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3821,7 +4159,7 @@
   </sheetPr>
   <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -3842,27 +4180,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B2" s="72"/>
-      <c r="C2" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
     </row>
     <row r="3" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="B3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="145"/>
       <c r="I3" s="135"/>
       <c r="J3" s="135"/>
@@ -3871,262 +4209,262 @@
       <c r="M3" s="135"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
+      <c r="B4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="76"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B7" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="78"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="102"/>
+      <c r="D7" s="76"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B8" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="82" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="83"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="84"/>
+      <c r="B8" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="L8" s="81"/>
+      <c r="M8" s="82"/>
     </row>
     <row r="9" spans="2:13" ht="9.75" customHeight="1">
-      <c r="B9" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
+      <c r="B9" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="88"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1">
-      <c r="B10" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
+      <c r="B10" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1">
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="95" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="96" t="s">
-        <v>142</v>
-      </c>
-      <c r="I11" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="J11" s="95" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="96" t="s">
-        <v>142</v>
-      </c>
-      <c r="L11" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="M11" s="95" t="s">
-        <v>144</v>
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="L11" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="M11" s="93" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B12" s="97"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="101"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="99"/>
     </row>
     <row r="13" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B13" s="107" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="101"/>
+      <c r="B13" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="102"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="99"/>
     </row>
     <row r="14" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B14" s="103" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="104" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="105">
+      <c r="B14" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="106"/>
+      <c r="E14" s="103">
         <v>44090</v>
       </c>
-      <c r="F14" s="106">
+      <c r="F14" s="104">
         <v>44177</v>
       </c>
-      <c r="G14" s="101"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="101"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="99"/>
     </row>
     <row r="15" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B15" s="107"/>
-      <c r="C15" s="104" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="105">
+      <c r="B15" s="105"/>
+      <c r="C15" s="102" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="106"/>
+      <c r="E15" s="103">
         <v>44091</v>
       </c>
-      <c r="F15" s="104"/>
-      <c r="G15" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="101"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="99" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="99"/>
     </row>
     <row r="16" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B16" s="107"/>
-      <c r="C16" s="104" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="108"/>
-      <c r="E16" s="105">
+      <c r="B16" s="105"/>
+      <c r="C16" s="102" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="106"/>
+      <c r="E16" s="103">
         <v>44092</v>
       </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="101"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="99"/>
     </row>
     <row r="20" spans="3:3" ht="20.25" customHeight="1">
-      <c r="C20" s="109" t="s">
-        <v>149</v>
+      <c r="C20" s="107" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="20.25" customHeight="1">
-      <c r="C21" s="109" t="s">
-        <v>150</v>
+      <c r="C21" s="107" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="3:3" ht="20.25" customHeight="1">
-      <c r="C22" s="109" t="s">
-        <v>151</v>
+      <c r="C22" s="107" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4140,4 +4478,208 @@
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003344BE67D7EB984A84C06E190413FBFD" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9bce8fe95ceaf62c75926160740d41e2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9de94308-2297-4d04-a77d-26fce9df9395" xmlns:ns4="22375818-dcd7-42e4-9660-6b33e030de66" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d88e73fd87162f28f317e92bcb9f946" ns3:_="" ns4:_="">
+    <xsd:import namespace="9de94308-2297-4d04-a77d-26fce9df9395"/>
+    <xsd:import namespace="22375818-dcd7-42e4-9660-6b33e030de66"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9de94308-2297-4d04-a77d-26fce9df9395" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="13" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="22375818-dcd7-42e4-9660-6b33e030de66" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B130DE0C-7A28-4B03-98EC-F451E5EF5DFD}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E8D0FC-D0F3-4D81-9707-E82360EDBF19}"/>
 </file>
--- a/Gestion_A_jmd.xlsx
+++ b/Gestion_A_jmd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cvmqc-my.sharepoint.com/personal/e_ldilion_etu_cvm_qc_ca/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irvan PC\Documents\ecole\DEC\2023 - automne\GÉNIE LOGICIEL 1\ProjetDaleks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{235565F7-C2FF-4BF8-9439-9B3205FDF89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5826D61B-05A8-4F6F-A288-D7D957A32706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="250">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -341,18 +341,12 @@
     <t>air de jeu</t>
   </si>
   <si>
-    <t>affiche</t>
-  </si>
-  <si>
     <t>colonne et rangées</t>
   </si>
   <si>
     <t>Dalek</t>
   </si>
   <si>
-    <t>S approcher du docteur</t>
-  </si>
-  <si>
     <t>coordonée x y</t>
   </si>
   <si>
@@ -362,27 +356,12 @@
     <t>se deplacer</t>
   </si>
   <si>
-    <t>Feraille</t>
-  </si>
-  <si>
     <t>collision</t>
   </si>
   <si>
-    <t>eliminer le docteur et créer des ferailles</t>
-  </si>
-  <si>
     <t>docteur dalek feraille</t>
   </si>
   <si>
-    <t>Dalek_detruit</t>
-  </si>
-  <si>
-    <t>donner 5 points</t>
-  </si>
-  <si>
-    <t>points_joueur</t>
-  </si>
-  <si>
     <t>Dalek-teleporter</t>
   </si>
   <si>
@@ -396,9 +375,6 @@
   </si>
   <si>
     <t>teleporter</t>
-  </si>
-  <si>
-    <t>niveau dalek</t>
   </si>
   <si>
     <t>zappeur</t>
@@ -425,9 +401,6 @@
 explicites mais
 jamais mentionné)</t>
     </r>
-  </si>
-  <si>
-    <t>score</t>
   </si>
   <si>
     <r>
@@ -568,9 +541,6 @@
     <t>choix d'option du menu</t>
   </si>
   <si>
-    <t>while choix existant</t>
-  </si>
-  <si>
     <t>lancer une partie</t>
   </si>
   <si>
@@ -583,9 +553,6 @@
     <t>partie mise en cours</t>
   </si>
   <si>
-    <t>partie_en_cours == True</t>
-  </si>
-  <si>
     <t>afficher_air_de_jeu</t>
   </si>
   <si>
@@ -604,18 +571,6 @@
     <t>deplacer le Docteur</t>
   </si>
   <si>
-    <t>changer l'emplacement du Docteur</t>
-  </si>
-  <si>
-    <t>while coord xy hors air de jeux or input &lt; 1</t>
-  </si>
-  <si>
-    <t>Dalek x et y +-1</t>
-  </si>
-  <si>
-    <t>for dalek in daleks: changer la pos du dalek</t>
-  </si>
-  <si>
     <t>Fin du cas d'usage</t>
   </si>
   <si>
@@ -833,6 +788,207 @@
   </si>
   <si>
     <t>mise en forme conditionelle</t>
+  </si>
+  <si>
+    <t>creer air de jeu</t>
+  </si>
+  <si>
+    <t>Vue</t>
+  </si>
+  <si>
+    <t>afficher air de jeux, afficher score, affciher daleks docteur ferraille</t>
+  </si>
+  <si>
+    <t>Partie</t>
+  </si>
+  <si>
+    <t>niveau,air de jeux, docteur,daleks,ferraile,</t>
+  </si>
+  <si>
+    <t>creer un niveau,reglementer la partie,enregistrer le score, Vérifier les conditions de victoire/défaite,Passer au niveau suivant</t>
+  </si>
+  <si>
+    <t>lancer programe</t>
+  </si>
+  <si>
+    <t>press choix jeux</t>
+  </si>
+  <si>
+    <t>while choix = choix_existant</t>
+  </si>
+  <si>
+    <t>facile,moyen,difficil</t>
+  </si>
+  <si>
+    <t>affiche les differents niveau</t>
+  </si>
+  <si>
+    <t>choisi le niveau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partie initialiser avec ses attribut </t>
+  </si>
+  <si>
+    <t>attribut en fonction de son niveau(nombre daleks,type de teleporteur et de zappeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifier choix mouvement </t>
+  </si>
+  <si>
+    <t>deplacer daleks</t>
+  </si>
+  <si>
+    <t>if mouvement existe(entre 1 et 9) and mouvement possible(reste dans l'air de jeux)</t>
+  </si>
+  <si>
+    <t>en fonction du docteur</t>
+  </si>
+  <si>
+    <t>verifier collision</t>
+  </si>
+  <si>
+    <t>collision daleks docteur</t>
+  </si>
+  <si>
+    <t>collision daleks daleks</t>
+  </si>
+  <si>
+    <t>collision daleks ferraile</t>
+  </si>
+  <si>
+    <t>if position_dacleks = postion_docteur si vrai fin de partie(perdu)</t>
+  </si>
+  <si>
+    <t>if position_dacleks = postion_ferraile si vrai -1 daleks, +5 score et si nb_daleks = 0 alors fin de partiefin de partie(gagné)</t>
+  </si>
+  <si>
+    <t>if position_dacleks = postion_daleks si vrai creer_une_ferraile = position collision , -2 daleks , +5score et si nb_daleks = 0 alors fin de partie(gagné)</t>
+  </si>
+  <si>
+    <t>deplace le joueur aleatoirement</t>
+  </si>
+  <si>
+    <t>deplacement en fonction du niveau le plus pres (facile 2 case distance,oridanaire 0 case distance, meme case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verififier collision </t>
+  </si>
+  <si>
+    <t>zapper</t>
+  </si>
+  <si>
+    <t>air de jeux, docteur,daleks,,</t>
+  </si>
+  <si>
+    <t>niveau dalek,docteur,ferraille,air de jeux</t>
+  </si>
+  <si>
+    <t>verifier si daleks a proximité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for daleks in tous_les_daleks if daleks is next to docteur daleks-1 </t>
+  </si>
+  <si>
+    <t>S approcher du docteur , supprimer un daleck</t>
+  </si>
+  <si>
+    <t>creer une ferraile</t>
+  </si>
+  <si>
+    <t>ferraille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si fin partie </t>
+  </si>
+  <si>
+    <t>fin de partie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partie_en_cours == False </t>
+  </si>
+  <si>
+    <t>verifie la cause de la fin de la partie</t>
+  </si>
+  <si>
+    <t>if nb _daleks = 0 partiewin else partieloose</t>
+  </si>
+  <si>
+    <t>en fonction de si la partie est gagné ou perdu</t>
+  </si>
+  <si>
+    <t>Vu affiche l'ecran de fin de partie et le score</t>
+  </si>
+  <si>
+    <t>interacton quelquonque</t>
+  </si>
+  <si>
+    <t>pour leave l'ecran de fin de partie</t>
+  </si>
+  <si>
+    <t>affciher les differentes score</t>
+  </si>
+  <si>
+    <t>press choix score</t>
+  </si>
+  <si>
+    <t>while choix = choix_existant =t</t>
+  </si>
+  <si>
+    <t>while choix = choix_existant = z and if zapper &gt; 0</t>
+  </si>
+  <si>
+    <t>If choix == s ou  S</t>
+  </si>
+  <si>
+    <t>vue accede a score</t>
+  </si>
+  <si>
+    <t>affiche l'ensemble des partie déja realisé avec le nom du jours ainsi que son score</t>
+  </si>
+  <si>
+    <t>demande au joueur de rentrer son nom</t>
+  </si>
+  <si>
+    <t>le jouer ecrit son nom</t>
+  </si>
+  <si>
+    <t>creation ferraille</t>
+  </si>
+  <si>
+    <t>si ferraille creer</t>
+  </si>
+  <si>
+    <t>supprime daleks</t>
+  </si>
+  <si>
+    <t>si daleks supprimé</t>
+  </si>
+  <si>
+    <t>while partie_en_cours == True</t>
+  </si>
+  <si>
+    <t>plateau et toutes les entité qui le compose (docteur position defini au prealable ou aleatoire) (daleks placer aleatoirement0</t>
+  </si>
+  <si>
+    <t>et if  nb_daleks =0 fin de partie</t>
+  </si>
+  <si>
+    <t>quitter le programe</t>
+  </si>
+  <si>
+    <t>If choix == q ou  Q</t>
+  </si>
+  <si>
+    <t>press choix  quitter</t>
+  </si>
+  <si>
+    <t>sort de la fonction controle</t>
+  </si>
+  <si>
+    <t>fin de main</t>
+  </si>
+  <si>
+    <t>fin de l'execution du programme</t>
   </si>
 </sst>
 </file>
@@ -844,7 +1000,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -936,6 +1092,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1539,7 +1700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1804,6 +1965,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1825,6 +1991,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1840,7 +2007,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1875,7 +2041,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2180,7 +2346,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" customWidth="1"/>
@@ -2193,7 +2359,7 @@
     <col min="9" max="28" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="17.25" customHeight="1">
+    <row r="2" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2204,7 +2370,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="2:8" ht="17.25" customHeight="1">
+    <row r="3" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -2213,7 +2379,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="112"/>
     </row>
-    <row r="4" spans="2:8" ht="17.25" customHeight="1">
+    <row r="4" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
@@ -2224,7 +2390,7 @@
       <c r="G4" s="110"/>
       <c r="H4" s="110"/>
     </row>
-    <row r="5" spans="2:8" ht="17.25" customHeight="1">
+    <row r="5" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="110"/>
       <c r="C5" s="110"/>
       <c r="D5" s="110"/>
@@ -2233,7 +2399,7 @@
       <c r="G5" s="110"/>
       <c r="H5" s="110"/>
     </row>
-    <row r="6" spans="2:8" ht="17.25" customHeight="1">
+    <row r="6" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="110"/>
       <c r="C6" s="110"/>
       <c r="D6" s="110"/>
@@ -2242,7 +2408,7 @@
       <c r="G6" s="110"/>
       <c r="H6" s="110"/>
     </row>
-    <row r="7" spans="2:8" ht="17.25" customHeight="1">
+    <row r="7" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2255,7 +2421,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:8" ht="17.25" customHeight="1">
+    <row r="8" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
       <c r="D8" s="5"/>
@@ -2266,7 +2432,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="17.25" customHeight="1">
+    <row r="9" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="13" t="s">
         <v>5</v>
@@ -2280,7 +2446,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:8" ht="17.25" customHeight="1">
+    <row r="10" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
       <c r="D10" s="5"/>
@@ -2288,7 +2454,7 @@
       <c r="F10" s="6"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="17.25" customHeight="1">
+    <row r="11" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="13" t="s">
         <v>8</v>
@@ -2305,7 +2471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="17.25" customHeight="1">
+    <row r="12" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
       <c r="D12" s="5"/>
@@ -2316,7 +2482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="17.25" customHeight="1">
+    <row r="13" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="13" t="s">
         <v>13</v>
@@ -2330,7 +2496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="17.25" customHeight="1">
+    <row r="14" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="13"/>
       <c r="D14" s="5"/>
@@ -2340,7 +2506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="17.25" customHeight="1">
+    <row r="15" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="13" t="s">
         <v>17</v>
@@ -2354,7 +2520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="17.25" customHeight="1">
+    <row r="16" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="38"/>
       <c r="C16" s="112"/>
       <c r="D16" s="8" t="s">
@@ -2366,7 +2532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="17.25" customHeight="1">
+    <row r="18" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="38"/>
       <c r="C18" s="112" t="s">
         <v>22</v>
@@ -2383,7 +2549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="17.25" customHeight="1">
+    <row r="19" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="38"/>
       <c r="C19" s="112"/>
       <c r="D19" s="8" t="s">
@@ -2396,7 +2562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="17.25" customHeight="1">
+    <row r="20" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="38"/>
       <c r="C20" s="112"/>
       <c r="D20" s="8"/>
@@ -2406,7 +2572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="17.25" customHeight="1">
+    <row r="21" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="38"/>
       <c r="C21" s="112" t="s">
         <v>29</v>
@@ -2420,7 +2586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="17.25" customHeight="1">
+    <row r="22" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="38"/>
       <c r="C22" s="112"/>
       <c r="D22" s="8" t="s">
@@ -2432,7 +2598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="17.25" customHeight="1">
+    <row r="23" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="38"/>
       <c r="C23" s="112"/>
       <c r="D23" s="8"/>
@@ -2443,7 +2609,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.25" customHeight="1">
+    <row r="24" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="38"/>
       <c r="C24" s="112" t="s">
         <v>35</v>
@@ -2457,7 +2623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="17.25" customHeight="1">
+    <row r="25" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="38"/>
       <c r="C25" s="112"/>
       <c r="D25" s="8" t="s">
@@ -2467,7 +2633,7 @@
       <c r="F25" s="38"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="2:8" ht="17.25" customHeight="1">
+    <row r="26" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="38"/>
       <c r="C26" s="110"/>
       <c r="D26" s="8"/>
@@ -2480,7 +2646,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.25" customHeight="1">
+    <row r="27" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="38"/>
       <c r="C27" s="110"/>
       <c r="D27" s="8"/>
@@ -2490,7 +2656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="17.25" customHeight="1">
+    <row r="28" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="101" t="s">
         <v>42</v>
       </c>
@@ -2504,7 +2670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="17.25" customHeight="1">
+    <row r="29" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>45</v>
       </c>
@@ -2517,7 +2683,7 @@
       <c r="G29" s="112"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:8" ht="17.25" customHeight="1">
+    <row r="30" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="38"/>
       <c r="C30" s="110"/>
       <c r="D30" s="12" t="s">
@@ -2532,89 +2698,89 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="134"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-    </row>
-    <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="135"/>
-    </row>
-    <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="135"/>
-      <c r="G38" s="135"/>
-      <c r="H38" s="135"/>
-      <c r="I38" s="135"/>
-    </row>
-    <row r="39" spans="6:9" ht="17.25" customHeight="1">
+    <row r="36" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="139"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="140"/>
+    </row>
+    <row r="37" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="140"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="140"/>
+    </row>
+    <row r="38" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="140"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="140"/>
+    </row>
+    <row r="39" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="112"/>
       <c r="G39" s="112"/>
       <c r="H39" s="112"/>
       <c r="I39" s="112"/>
     </row>
-    <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="134"/>
-      <c r="G40" s="135"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="135"/>
-    </row>
-    <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
-    </row>
-    <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="135"/>
-    </row>
-    <row r="43" spans="6:9" ht="17.25" customHeight="1">
+    <row r="40" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="139"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="140"/>
+    </row>
+    <row r="41" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="140"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+    </row>
+    <row r="42" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="140"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="140"/>
+    </row>
+    <row r="43" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" s="112"/>
       <c r="G43" s="112"/>
       <c r="H43" s="112"/>
       <c r="I43" s="112"/>
     </row>
-    <row r="44" spans="6:9" ht="17.25" customHeight="1">
+    <row r="44" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F44" s="112"/>
       <c r="G44" s="112"/>
       <c r="H44" s="112"/>
       <c r="I44" s="112"/>
     </row>
-    <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="134"/>
-      <c r="G45" s="135"/>
-      <c r="H45" s="135"/>
-      <c r="I45" s="135"/>
-    </row>
-    <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="135"/>
-    </row>
-    <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="135"/>
-      <c r="G47" s="135"/>
-      <c r="H47" s="135"/>
-      <c r="I47" s="135"/>
-    </row>
-    <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="135"/>
-      <c r="G48" s="135"/>
-      <c r="H48" s="135"/>
-      <c r="I48" s="135"/>
-    </row>
-    <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="135"/>
-      <c r="G49" s="135"/>
-      <c r="H49" s="135"/>
-      <c r="I49" s="135"/>
+    <row r="45" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="139"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="140"/>
+    </row>
+    <row r="46" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="140"/>
+      <c r="G46" s="140"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="140"/>
+    </row>
+    <row r="47" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="140"/>
+      <c r="G47" s="140"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="140"/>
+    </row>
+    <row r="48" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="140"/>
+      <c r="G48" s="140"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="140"/>
+    </row>
+    <row r="49" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="140"/>
+      <c r="G49" s="140"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2634,20 +2800,20 @@
   <dimension ref="B2:E40"/>
   <sheetViews>
     <sheetView zoomScale="63" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="138.7109375" customWidth="1"/>
+    <col min="5" max="5" width="48" customWidth="1"/>
     <col min="6" max="7" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="12.75" customHeight="1">
+    <row r="2" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="112"/>
       <c r="C2" s="14" t="s">
         <v>8</v>
@@ -2655,13 +2821,13 @@
       <c r="D2" s="112"/>
       <c r="E2" s="112"/>
     </row>
-    <row r="3" spans="2:5" ht="12.75" customHeight="1">
+    <row r="3" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="112"/>
       <c r="C3" s="110"/>
       <c r="D3" s="112"/>
       <c r="E3" s="112"/>
     </row>
-    <row r="4" spans="2:5" ht="12.75" customHeight="1">
+    <row r="4" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="112"/>
       <c r="C4" s="112" t="s">
         <v>50</v>
@@ -2669,7 +2835,7 @@
       <c r="D4" s="112"/>
       <c r="E4" s="112"/>
     </row>
-    <row r="5" spans="2:5" ht="12.75" customHeight="1">
+    <row r="5" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="112"/>
       <c r="C5" s="112" t="s">
         <v>51</v>
@@ -2677,7 +2843,7 @@
       <c r="D5" s="112"/>
       <c r="E5" s="112"/>
     </row>
-    <row r="6" spans="2:5" ht="12.75" customHeight="1">
+    <row r="6" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="112"/>
       <c r="C6" s="112" t="s">
         <v>52</v>
@@ -2685,7 +2851,7 @@
       <c r="D6" s="112"/>
       <c r="E6" s="112"/>
     </row>
-    <row r="7" spans="2:5" ht="12.75" customHeight="1">
+    <row r="7" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="112"/>
       <c r="C7" s="112" t="s">
         <v>53</v>
@@ -2693,7 +2859,7 @@
       <c r="D7" s="112"/>
       <c r="E7" s="112"/>
     </row>
-    <row r="8" spans="2:5" ht="12.75" customHeight="1">
+    <row r="8" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="112"/>
       <c r="C8" s="112" t="s">
         <v>54</v>
@@ -2701,7 +2867,7 @@
       <c r="D8" s="112"/>
       <c r="E8" s="112"/>
     </row>
-    <row r="9" spans="2:5" ht="15.75" customHeight="1">
+    <row r="9" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="112"/>
       <c r="C9" s="112" t="s">
         <v>55</v>
@@ -2709,7 +2875,7 @@
       <c r="D9" s="112"/>
       <c r="E9" s="112"/>
     </row>
-    <row r="10" spans="2:5" ht="15.75" customHeight="1">
+    <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="112"/>
       <c r="C10" s="112" t="s">
         <v>56</v>
@@ -2717,13 +2883,13 @@
       <c r="D10" s="112"/>
       <c r="E10" s="112"/>
     </row>
-    <row r="11" spans="2:5" ht="15.75" customHeight="1">
+    <row r="11" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="112"/>
       <c r="C11" s="112"/>
       <c r="D11" s="112"/>
       <c r="E11" s="112"/>
     </row>
-    <row r="12" spans="2:5" ht="12.75" customHeight="1">
+    <row r="12" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="15" t="s">
         <v>57</v>
@@ -2735,230 +2901,236 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B13" s="136" t="s">
+    <row r="13" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="141" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="37" t="s">
+    </row>
+    <row r="14" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="142"/>
+      <c r="C14" s="22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B14" s="137"/>
-      <c r="C14" s="22" t="s">
+      <c r="D14" s="137" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="18" t="s">
+    </row>
+    <row r="15" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="142"/>
+      <c r="C15" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="D15" s="18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B15" s="137"/>
-      <c r="C15" s="22" t="s">
+      <c r="E15" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="142"/>
+      <c r="C16" s="138" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="137" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="142"/>
+      <c r="C17" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D17" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="137"/>
-      <c r="C16" s="22" t="s">
+    </row>
+    <row r="18" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="142"/>
+      <c r="C18" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="142"/>
+      <c r="C19" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="137"/>
-      <c r="C17" s="22" t="s">
+      <c r="D19" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="E19" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="41" t="s">
+    </row>
+    <row r="20" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="142"/>
+      <c r="C20" s="22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="137"/>
-      <c r="C18" s="22" t="s">
+      <c r="D20" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="E20" s="136" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="143"/>
+      <c r="C21" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="D21" s="40" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="137"/>
-      <c r="C19" s="22" t="s">
+      <c r="E21" s="135" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="137"/>
-      <c r="C20" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="138"/>
-      <c r="C21" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="136" t="s">
-        <v>84</v>
-      </c>
       <c r="C22" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="21"/>
-    </row>
-    <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="137"/>
+        <v>186</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="142"/>
       <c r="C23" s="22"/>
       <c r="D23" s="18"/>
       <c r="E23" s="41"/>
     </row>
-    <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="137"/>
+    <row r="24" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="142"/>
       <c r="C24" s="22"/>
       <c r="D24" s="18"/>
       <c r="E24" s="41"/>
     </row>
-    <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="137"/>
+    <row r="25" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="142"/>
       <c r="C25" s="22"/>
       <c r="D25" s="18"/>
       <c r="E25" s="41"/>
     </row>
-    <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="137"/>
+    <row r="26" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="142"/>
       <c r="C26" s="22"/>
       <c r="D26" s="18"/>
       <c r="E26" s="41"/>
     </row>
-    <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="137"/>
+    <row r="27" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="142"/>
       <c r="C27" s="22"/>
       <c r="D27" s="18"/>
       <c r="E27" s="41"/>
     </row>
-    <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="137"/>
+    <row r="28" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="142"/>
       <c r="C28" s="22"/>
       <c r="D28" s="18"/>
       <c r="E28" s="41"/>
     </row>
-    <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="137"/>
+    <row r="29" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="142"/>
       <c r="C29" s="22"/>
       <c r="D29" s="18"/>
       <c r="E29" s="41"/>
     </row>
-    <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="138"/>
+    <row r="30" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="143"/>
       <c r="C30" s="19"/>
       <c r="D30" s="40"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="136" t="s">
-        <v>86</v>
+    <row r="31" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="141" t="s">
+        <v>77</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="137"/>
+    <row r="32" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="142"/>
       <c r="C32" s="22"/>
       <c r="D32" s="18"/>
       <c r="E32" s="41"/>
     </row>
-    <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="137"/>
+    <row r="33" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="142"/>
       <c r="C33" s="22"/>
       <c r="D33" s="18"/>
       <c r="E33" s="41"/>
     </row>
-    <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="137"/>
+    <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="142"/>
       <c r="C34" s="22"/>
       <c r="D34" s="18"/>
       <c r="E34" s="41"/>
     </row>
-    <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="137"/>
+    <row r="35" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="142"/>
       <c r="C35" s="22"/>
       <c r="D35" s="18"/>
       <c r="E35" s="41"/>
     </row>
-    <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="137"/>
+    <row r="36" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="142"/>
       <c r="C36" s="22"/>
       <c r="D36" s="18"/>
       <c r="E36" s="41"/>
     </row>
-    <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="137"/>
+    <row r="37" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="142"/>
       <c r="C37" s="22"/>
       <c r="D37" s="18"/>
       <c r="E37" s="41"/>
     </row>
-    <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="137"/>
+    <row r="38" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="142"/>
       <c r="C38" s="22"/>
       <c r="D38" s="18"/>
       <c r="E38" s="41"/>
     </row>
-    <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="137"/>
+    <row r="39" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="142"/>
       <c r="C39" s="22"/>
       <c r="D39" s="18"/>
       <c r="E39" s="41"/>
     </row>
-    <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="138"/>
+    <row r="40" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="143"/>
       <c r="C40" s="24"/>
       <c r="D40" s="25"/>
       <c r="E40" s="46"/>
@@ -2978,244 +3150,596 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:F82"/>
+  <dimension ref="B2:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="C47" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="44.42578125" customWidth="1"/>
     <col min="5" max="5" width="49.5703125" customWidth="1"/>
-    <col min="6" max="6" width="70.7109375" customWidth="1"/>
+    <col min="6" max="6" width="138.7109375" customWidth="1"/>
     <col min="7" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.25" customHeight="1">
+    <row r="2" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="109"/>
       <c r="C2" s="28" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D2" s="109"/>
       <c r="E2" s="109"/>
       <c r="F2" s="109"/>
     </row>
-    <row r="3" spans="2:6" ht="89.45" customHeight="1">
+    <row r="3" spans="2:6" ht="89.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="109"/>
-      <c r="C3" s="139" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
+      <c r="C3" s="144" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="109"/>
     </row>
-    <row r="4" spans="2:6" ht="30.75" customHeight="1">
+    <row r="4" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="110"/>
-      <c r="C4" s="140" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
+      <c r="C4" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
       <c r="F4" s="110"/>
     </row>
-    <row r="5" spans="2:6" ht="21" customHeight="1">
+    <row r="5" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="109"/>
       <c r="C5" s="26" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D5" s="109"/>
       <c r="E5" s="109"/>
       <c r="F5" s="109"/>
     </row>
-    <row r="6" spans="2:6" ht="21" customHeight="1">
+    <row r="6" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="110"/>
       <c r="C6" s="27" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D6" s="112"/>
       <c r="E6" s="112"/>
       <c r="F6" s="110"/>
     </row>
-    <row r="7" spans="2:6" ht="18" customHeight="1">
+    <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="110"/>
       <c r="C7" s="112"/>
       <c r="D7" s="112"/>
       <c r="E7" s="112"/>
       <c r="F7" s="110"/>
     </row>
-    <row r="8" spans="2:6" ht="18" customHeight="1">
+    <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="110"/>
       <c r="F8" s="28"/>
     </row>
-    <row r="9" spans="2:6" ht="19.5" customHeight="1">
+    <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="29" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F9" s="29"/>
     </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1">
+    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="110"/>
       <c r="C10" s="112"/>
       <c r="D10" s="110"/>
       <c r="E10" s="110"/>
       <c r="F10" s="110"/>
     </row>
-    <row r="11" spans="2:6" ht="18" customHeight="1">
+    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="18" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
       <c r="C12" s="14"/>
       <c r="D12" s="32"/>
     </row>
-    <row r="13" spans="2:6" ht="18" customHeight="1">
+    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="14"/>
+        <v>93</v>
+      </c>
+      <c r="C13" s="134" t="s">
+        <v>189</v>
+      </c>
       <c r="D13" s="132" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="18" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="110"/>
       <c r="C14" s="112"/>
       <c r="D14" s="110"/>
       <c r="E14" s="133" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="18" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="110"/>
       <c r="C15" s="32"/>
       <c r="D15" s="110"/>
       <c r="E15" s="133" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F15" s="133"/>
     </row>
-    <row r="16" spans="2:6" ht="15.75" customHeight="1">
+    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="133" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="15.75" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="133"/>
       <c r="E17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="133" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="133" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="133" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="133" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="133"/>
+      <c r="E20" s="133" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="133"/>
+    </row>
+    <row r="21" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="133"/>
+      <c r="E21" s="133" t="s">
+        <v>235</v>
+      </c>
+      <c r="F21" s="133"/>
+    </row>
+    <row r="22" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="133" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+    </row>
+    <row r="23" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="133"/>
+      <c r="E23" s="133" t="s">
+        <v>193</v>
+      </c>
+      <c r="F23" s="133" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="133" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+    </row>
+    <row r="25" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="133"/>
+      <c r="E25" s="133" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="133" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="133" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="133" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="133" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="133" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="133" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="133" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="133"/>
+      <c r="E30" s="133" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="133" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="133"/>
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="133"/>
+    </row>
+    <row r="32" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="133"/>
+      <c r="E32" s="133" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="133" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="133" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" s="133" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" s="133" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="133" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="133" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="133" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="133" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" s="133" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="133" t="s">
+        <v>237</v>
+      </c>
+      <c r="F37" s="133" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="133" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="133"/>
+    </row>
+    <row r="39" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="133" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" ht="15.75" customHeight="1">
-      <c r="D18" s="133" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="F39" s="133" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="133" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="133" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C19" t="s">
+      <c r="F41" s="133"/>
+    </row>
+    <row r="42" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="133" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" s="133" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="133"/>
+      <c r="E43" s="133" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="133"/>
+      <c r="E44" s="133" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="133"/>
+      <c r="E45" s="133" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="133"/>
+      <c r="E46" s="133" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="133"/>
+      <c r="E47" s="133" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="133" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" s="133" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="133" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="133" t="s">
+        <v>214</v>
+      </c>
+      <c r="F49" s="133" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="133" t="s">
+        <v>239</v>
+      </c>
+      <c r="F50" s="133" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="133" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" s="133"/>
+    </row>
+    <row r="52" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="133" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="112"/>
+      <c r="E52" s="133" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="133"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="133" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="133"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="133" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="133"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="133" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="133"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="133" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="133"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="133" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="F58" s="133" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="133"/>
+      <c r="E59" s="133" t="s">
+        <v>222</v>
+      </c>
+      <c r="F59" s="133" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E60" s="133" t="s">
+        <v>225</v>
+      </c>
+      <c r="F60" s="133" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D61" s="133" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" s="133" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E62" s="133" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E64" s="133" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" s="133" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="133" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65" s="133" t="s">
+        <v>229</v>
+      </c>
+      <c r="F65" s="133" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E66" s="133" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E67" s="133" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D68" s="133" t="s">
+        <v>226</v>
+      </c>
+      <c r="F68" s="133" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E69" s="133" t="s">
+        <v>99</v>
+      </c>
+      <c r="F69" s="133" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="133" t="s">
+        <v>244</v>
+      </c>
+      <c r="D70" s="133" t="s">
+        <v>246</v>
+      </c>
+      <c r="F70" s="133" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E71" s="133" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E72" s="133" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E73" s="133" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
         <v>110</v>
-      </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="133" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="15.75" customHeight="1">
-      <c r="E20" s="133" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="133" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="15.75" customHeight="1">
-      <c r="E21" s="133" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="15.75" customHeight="1">
-      <c r="E22" s="133" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" ht="15.75" customHeight="1">
-      <c r="C23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="133" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="133" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="15.75" customHeight="1">
-      <c r="D24" s="133"/>
-      <c r="F24" s="133"/>
-    </row>
-    <row r="25" spans="3:6" ht="15.75" customHeight="1">
-      <c r="D25" s="133"/>
-      <c r="E25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="15.75" customHeight="1">
-      <c r="E26" s="133" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="133" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" ht="15.75" customHeight="1">
-      <c r="E27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" ht="18" customHeight="1">
-      <c r="D34" s="112"/>
-    </row>
-    <row r="82" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D82" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3237,14 +3761,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="101" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:19" ht="21.75" customHeight="1">
+    <row r="1" spans="7:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G1" s="14" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
@@ -3259,9 +3783,9 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
     </row>
-    <row r="2" spans="7:19" ht="15">
+    <row r="2" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G2" s="13" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H2" s="112"/>
       <c r="I2" s="112"/>
@@ -3276,9 +3800,9 @@
       <c r="R2" s="112"/>
       <c r="S2" s="112"/>
     </row>
-    <row r="3" spans="7:19" ht="15">
+    <row r="3" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G3" s="33" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="H3" s="112"/>
       <c r="I3" s="112"/>
@@ -3293,7 +3817,7 @@
       <c r="R3" s="112"/>
       <c r="S3" s="112"/>
     </row>
-    <row r="4" spans="7:19" ht="15">
+    <row r="4" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
       <c r="I4" s="112"/>
@@ -3308,7 +3832,7 @@
       <c r="R4" s="112"/>
       <c r="S4" s="112"/>
     </row>
-    <row r="5" spans="7:19" ht="15">
+    <row r="5" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
       <c r="I5" s="112"/>
@@ -3323,9 +3847,9 @@
       <c r="R5" s="112"/>
       <c r="S5" s="112"/>
     </row>
-    <row r="6" spans="7:19" ht="15">
+    <row r="6" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G6" s="112" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="H6" s="112"/>
       <c r="I6" s="112"/>
@@ -3340,7 +3864,7 @@
       <c r="R6" s="112"/>
       <c r="S6" s="112"/>
     </row>
-    <row r="7" spans="7:19" ht="15">
+    <row r="7" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G7" s="112"/>
       <c r="H7" s="112"/>
       <c r="I7" s="112"/>
@@ -3355,9 +3879,9 @@
       <c r="R7" s="112"/>
       <c r="S7" s="112"/>
     </row>
-    <row r="8" spans="7:19" ht="15">
+    <row r="8" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G8" s="112" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H8" s="112"/>
       <c r="I8" s="112"/>
@@ -3372,7 +3896,7 @@
       <c r="R8" s="112"/>
       <c r="S8" s="112"/>
     </row>
-    <row r="9" spans="7:19" ht="15">
+    <row r="9" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G9" s="112"/>
       <c r="H9" s="112"/>
       <c r="I9" s="112"/>
@@ -3387,7 +3911,7 @@
       <c r="R9" s="112"/>
       <c r="S9" s="112"/>
     </row>
-    <row r="10" spans="7:19" ht="15.6">
+    <row r="10" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G10" s="34"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
@@ -3395,7 +3919,7 @@
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
       <c r="M10" s="36" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
@@ -3404,31 +3928,31 @@
       <c r="R10" s="35"/>
       <c r="S10" s="37"/>
     </row>
-    <row r="11" spans="7:19" ht="15">
+    <row r="11" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G11" s="38"/>
       <c r="H11" s="112"/>
       <c r="I11" s="112"/>
       <c r="J11" s="112"/>
       <c r="K11" s="112"/>
       <c r="L11" s="112"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
+      <c r="M11" s="147"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
       <c r="P11" s="112"/>
       <c r="Q11" s="112"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="142"/>
-    </row>
-    <row r="12" spans="7:19" ht="15">
+      <c r="R11" s="147"/>
+      <c r="S11" s="148"/>
+    </row>
+    <row r="12" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G12" s="38"/>
       <c r="H12" s="112" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I12" s="112"/>
       <c r="J12" s="112"/>
       <c r="K12" s="112"/>
       <c r="L12" s="42" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
@@ -3438,7 +3962,7 @@
       <c r="R12" s="39"/>
       <c r="S12" s="41"/>
     </row>
-    <row r="13" spans="7:19" ht="15">
+    <row r="13" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G13" s="38"/>
       <c r="H13" s="112"/>
       <c r="I13" s="112"/>
@@ -3453,7 +3977,7 @@
       <c r="R13" s="40"/>
       <c r="S13" s="41"/>
     </row>
-    <row r="14" spans="7:19" ht="15">
+    <row r="14" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G14" s="38"/>
       <c r="H14" s="112"/>
       <c r="I14" s="112"/>
@@ -3468,16 +3992,16 @@
       <c r="R14" s="112"/>
       <c r="S14" s="41"/>
     </row>
-    <row r="15" spans="7:19" ht="15">
+    <row r="15" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G15" s="38"/>
       <c r="H15" s="112" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
       <c r="L15" s="42" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="M15" s="49"/>
       <c r="N15" s="49"/>
@@ -3487,10 +4011,10 @@
       <c r="R15" s="39"/>
       <c r="S15" s="41"/>
     </row>
-    <row r="16" spans="7:19" ht="15">
+    <row r="16" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G16" s="38"/>
       <c r="H16" s="112" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I16" s="112"/>
       <c r="J16" s="112"/>
@@ -3504,12 +4028,12 @@
       <c r="R16" s="40"/>
       <c r="S16" s="41"/>
     </row>
-    <row r="18" spans="7:23" ht="15.6">
+    <row r="18" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G18" s="38"/>
       <c r="H18" s="42"/>
       <c r="I18" s="49"/>
       <c r="J18" s="43" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="K18" s="49"/>
       <c r="L18" s="39"/>
@@ -3517,7 +4041,7 @@
       <c r="N18" s="42"/>
       <c r="O18" s="49"/>
       <c r="P18" s="43" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="49"/>
       <c r="R18" s="39"/>
@@ -3527,7 +4051,7 @@
       <c r="V18" s="112"/>
       <c r="W18" s="112"/>
     </row>
-    <row r="19" spans="7:23" ht="15">
+    <row r="19" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G19" s="38"/>
       <c r="H19" s="53"/>
       <c r="I19" s="54"/>
@@ -3546,7 +4070,7 @@
       <c r="V19" s="112"/>
       <c r="W19" s="112"/>
     </row>
-    <row r="20" spans="7:23" ht="15">
+    <row r="20" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G20" s="44"/>
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
@@ -3565,7 +4089,7 @@
       <c r="V20" s="112"/>
       <c r="W20" s="112"/>
     </row>
-    <row r="21" spans="7:23" ht="15">
+    <row r="21" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G21" s="112"/>
       <c r="H21" s="112"/>
       <c r="I21" s="112"/>
@@ -3584,7 +4108,7 @@
       <c r="V21" s="112"/>
       <c r="W21" s="112"/>
     </row>
-    <row r="22" spans="7:23" ht="15">
+    <row r="22" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G22" s="112"/>
       <c r="H22" s="112"/>
       <c r="I22" s="112"/>
@@ -3603,7 +4127,7 @@
       <c r="V22" s="112"/>
       <c r="W22" s="112"/>
     </row>
-    <row r="23" spans="7:23" ht="15">
+    <row r="23" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G23" s="112"/>
       <c r="H23" s="112"/>
       <c r="I23" s="112"/>
@@ -3622,10 +4146,10 @@
       <c r="V23" s="112"/>
       <c r="W23" s="112"/>
     </row>
-    <row r="24" spans="7:23" ht="15">
+    <row r="24" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G24" s="146"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140"/>
       <c r="J24" s="112"/>
       <c r="K24" s="112"/>
       <c r="L24" s="112"/>
@@ -3641,7 +4165,7 @@
       <c r="V24" s="112"/>
       <c r="W24" s="112"/>
     </row>
-    <row r="25" spans="7:23" ht="15">
+    <row r="25" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G25" s="112"/>
       <c r="H25" s="112"/>
       <c r="I25" s="112"/>
@@ -3660,10 +4184,10 @@
       <c r="V25" s="112"/>
       <c r="W25" s="112"/>
     </row>
-    <row r="26" spans="7:23" ht="15">
+    <row r="26" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G26" s="146"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
       <c r="J26" s="112"/>
       <c r="K26" s="112"/>
       <c r="L26" s="112"/>
@@ -3679,7 +4203,7 @@
       <c r="V26" s="112"/>
       <c r="W26" s="112"/>
     </row>
-    <row r="27" spans="7:23" ht="15">
+    <row r="27" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G27" s="112"/>
       <c r="H27" s="112"/>
       <c r="I27" s="112"/>
@@ -3698,7 +4222,7 @@
       <c r="V27" s="112"/>
       <c r="W27" s="112"/>
     </row>
-    <row r="28" spans="7:23" ht="15">
+    <row r="28" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G28" s="112"/>
       <c r="H28" s="112"/>
       <c r="I28" s="112"/>
@@ -3709,13 +4233,13 @@
       <c r="N28" s="112"/>
       <c r="O28" s="112"/>
       <c r="P28" s="146"/>
-      <c r="Q28" s="135"/>
-      <c r="R28" s="135"/>
+      <c r="Q28" s="140"/>
+      <c r="R28" s="140"/>
       <c r="S28" s="112"/>
       <c r="T28" s="146"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
+      <c r="U28" s="140"/>
+      <c r="V28" s="140"/>
+      <c r="W28" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3739,7 +4263,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -3755,18 +4279,18 @@
     <col min="12" max="30" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="87" customHeight="1">
+    <row r="1" spans="2:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="110"/>
-      <c r="C1" s="139" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-    </row>
-    <row r="2" spans="2:8" ht="12.75" customHeight="1">
+      <c r="C1" s="144" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+    </row>
+    <row r="2" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="112"/>
       <c r="C2" s="112"/>
       <c r="D2" s="112"/>
@@ -3775,9 +4299,9 @@
       <c r="G2" s="112"/>
       <c r="H2" s="112"/>
     </row>
-    <row r="3" spans="2:8" ht="12.75" customHeight="1">
+    <row r="3" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C3" s="112"/>
       <c r="D3" s="47"/>
@@ -3786,7 +4310,7 @@
       <c r="G3" s="47"/>
       <c r="H3" s="47"/>
     </row>
-    <row r="4" spans="2:8" ht="18" customHeight="1">
+    <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="112"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
@@ -3795,10 +4319,10 @@
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
     </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1">
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="112"/>
       <c r="C5" s="47" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
@@ -3806,7 +4330,7 @@
       <c r="G5" s="47"/>
       <c r="H5" s="112"/>
     </row>
-    <row r="6" spans="2:8" ht="12.75" customHeight="1">
+    <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="110"/>
       <c r="C6" s="110"/>
       <c r="D6" s="110"/>
@@ -3815,31 +4339,31 @@
       <c r="G6" s="112"/>
       <c r="H6" s="110"/>
     </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1">
+    <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="110"/>
       <c r="C7" s="110"/>
       <c r="D7" s="48" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E7" s="49"/>
       <c r="F7" s="49"/>
       <c r="G7" s="50" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H7" s="110"/>
     </row>
-    <row r="8" spans="2:8" ht="12.75" customHeight="1">
+    <row r="8" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="110"/>
       <c r="C8" s="110"/>
       <c r="D8" s="51" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E8" s="112"/>
       <c r="F8" s="112"/>
       <c r="G8" s="52"/>
       <c r="H8" s="110"/>
     </row>
-    <row r="9" spans="2:8" ht="12.75" customHeight="1">
+    <row r="9" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="110"/>
       <c r="C9" s="110"/>
       <c r="D9" s="53"/>
@@ -3848,15 +4372,15 @@
       <c r="G9" s="52"/>
       <c r="H9" s="110"/>
     </row>
-    <row r="10" spans="2:8" ht="12.75" customHeight="1">
+    <row r="10" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="110"/>
       <c r="C10" s="110"/>
       <c r="D10" s="55" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E10" s="112"/>
       <c r="F10" s="112" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="G10" s="52"/>
       <c r="H10" s="110"/>
@@ -3878,7 +4402,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="5" width="17" customWidth="1"/>
@@ -3886,112 +4410,112 @@
     <col min="7" max="26" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="64.5" customHeight="1">
-      <c r="C1" s="143" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-    </row>
-    <row r="2" spans="2:11" ht="13.15"/>
-    <row r="3" spans="2:11" ht="13.15">
+    <row r="1" spans="2:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="149" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+    </row>
+    <row r="2" spans="2:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="13.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="57"/>
     </row>
-    <row r="5" spans="2:11" ht="13.15">
+    <row r="5" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="113"/>
       <c r="C5" s="113"/>
       <c r="D5" s="113"/>
     </row>
-    <row r="6" spans="2:11" ht="13.15">
+    <row r="6" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="113"/>
       <c r="C6" s="113"/>
       <c r="D6" s="113"/>
       <c r="E6" s="113"/>
     </row>
-    <row r="7" spans="2:11" ht="26.45">
-      <c r="B7" s="144" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="135"/>
+    <row r="7" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="140"/>
       <c r="G7" s="113" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H7" s="113"/>
       <c r="I7" s="113"/>
       <c r="J7" s="113"/>
     </row>
-    <row r="8" spans="2:11" ht="13.15">
+    <row r="8" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="113"/>
       <c r="G8" s="113" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H8" s="113"/>
       <c r="I8" s="113"/>
     </row>
-    <row r="9" spans="2:11" ht="13.15">
+    <row r="9" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="58" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G9" s="61"/>
       <c r="H9" s="62" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="I9" s="62" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="13.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="108"/>
       <c r="D10" s="67"/>
       <c r="G10" s="68" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="J10" s="113"/>
       <c r="K10" s="111"/>
     </row>
-    <row r="11" spans="2:11" ht="26.45">
+    <row r="11" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="64"/>
       <c r="C11" s="65"/>
       <c r="D11" s="66"/>
       <c r="E11" s="113" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="G11" s="68" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K11" s="111"/>
     </row>
-    <row r="12" spans="2:11" ht="13.15">
+    <row r="12" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="108"/>
       <c r="D12" s="67"/>
       <c r="G12" s="68" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K12" s="111"/>
     </row>
-    <row r="13" spans="2:11" ht="13.15">
+    <row r="13" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="108"/>
       <c r="D13" s="67"/>
       <c r="G13" s="68" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K13" s="111"/>
     </row>
@@ -4015,7 +4539,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
@@ -4026,18 +4550,18 @@
     <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="57" customHeight="1">
+    <row r="1" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="115"/>
       <c r="C1" s="116"/>
-      <c r="D1" s="143" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-    </row>
-    <row r="2" spans="2:8" ht="12.75" customHeight="1">
+      <c r="D1" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+    </row>
+    <row r="2" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="115"/>
       <c r="C2" s="116"/>
       <c r="D2" s="115"/>
@@ -4045,7 +4569,7 @@
       <c r="F2" s="115"/>
       <c r="H2" s="115"/>
     </row>
-    <row r="3" spans="2:8" ht="12.75" customHeight="1">
+    <row r="3" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="115"/>
       <c r="C3" s="116"/>
       <c r="D3" s="115"/>
@@ -4053,19 +4577,19 @@
       <c r="F3" s="115"/>
       <c r="H3" s="115"/>
     </row>
-    <row r="4" spans="2:8" ht="12.75" customHeight="1">
+    <row r="4" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="56" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C4" s="116"/>
       <c r="D4" s="56" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E4" s="115"/>
       <c r="F4" s="115"/>
       <c r="H4" s="115"/>
     </row>
-    <row r="5" spans="2:8" ht="13.15">
+    <row r="5" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="115"/>
       <c r="C5" s="116"/>
       <c r="D5" s="117"/>
@@ -4074,7 +4598,7 @@
       <c r="G5" s="117"/>
       <c r="H5" s="117"/>
     </row>
-    <row r="6" spans="2:8" ht="12.75" customHeight="1">
+    <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="115"/>
       <c r="C6" s="116"/>
       <c r="D6" s="115"/>
@@ -4082,38 +4606,38 @@
       <c r="F6" s="115"/>
       <c r="H6" s="115"/>
     </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1">
+    <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C7" s="116"/>
       <c r="D7" s="118" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E7" s="119" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F7" s="119" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="G7" s="119" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="H7" s="120" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="13.5" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="116"/>
       <c r="D8" s="121" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E8" s="122"/>
       <c r="F8" s="122"/>
       <c r="G8" s="122"/>
       <c r="H8" s="123"/>
     </row>
-    <row r="9" spans="2:8" ht="14.25" customHeight="1">
+    <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="115"/>
       <c r="C9" s="124"/>
       <c r="D9" s="125"/>
@@ -4122,9 +4646,9 @@
       <c r="G9" s="126"/>
       <c r="H9" s="127"/>
     </row>
-    <row r="10" spans="2:8" ht="12.75" customHeight="1">
+    <row r="10" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="113" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C10" s="116"/>
       <c r="D10" s="128"/>
@@ -4133,9 +4657,9 @@
       <c r="G10" s="129"/>
       <c r="H10" s="130"/>
     </row>
-    <row r="11" spans="2:8" ht="12.75" customHeight="1">
+    <row r="11" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="56" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C11" s="116"/>
       <c r="D11" s="128"/>
@@ -4163,7 +4687,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -4179,10 +4703,10 @@
     <col min="14" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="21.75" customHeight="1">
+    <row r="2" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="70"/>
       <c r="C2" s="71" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D2" s="71"/>
       <c r="E2" s="71"/>
@@ -4195,20 +4719,20 @@
       <c r="L2" s="114"/>
       <c r="M2" s="114"/>
     </row>
-    <row r="3" spans="2:13" ht="21.75" customHeight="1">
+    <row r="3" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="70"/>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-    </row>
-    <row r="4" spans="2:13" ht="21.75" customHeight="1">
+      <c r="H3" s="151"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+    </row>
+    <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="102"/>
       <c r="H4" s="102"/>
       <c r="I4" s="102"/>
@@ -4217,14 +4741,14 @@
       <c r="L4" s="102"/>
       <c r="M4" s="102"/>
     </row>
-    <row r="5" spans="2:13" ht="21.75" customHeight="1">
+    <row r="5" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="72" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="73"/>
       <c r="D5" s="74"/>
       <c r="E5" s="72" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F5" s="73"/>
       <c r="G5" s="73"/>
@@ -4235,7 +4759,7 @@
       <c r="L5" s="73"/>
       <c r="M5" s="74"/>
     </row>
-    <row r="6" spans="2:13" ht="21.75" customHeight="1">
+    <row r="6" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="102"/>
       <c r="C6" s="102"/>
       <c r="D6" s="102"/>
@@ -4249,9 +4773,9 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="2:13" ht="21.75" customHeight="1">
+    <row r="7" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="75" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C7" s="102"/>
       <c r="D7" s="76"/>
@@ -4264,41 +4788,41 @@
       <c r="L7" s="102"/>
       <c r="M7" s="102"/>
     </row>
-    <row r="8" spans="2:13" ht="21.75" customHeight="1">
+    <row r="8" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="77" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="F8" s="81"/>
       <c r="G8" s="82"/>
       <c r="H8" s="83" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="I8" s="81"/>
       <c r="J8" s="82"/>
       <c r="K8" s="83" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="L8" s="81"/>
       <c r="M8" s="82"/>
     </row>
-    <row r="9" spans="2:13" ht="9.75" customHeight="1">
+    <row r="9" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="84" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E9" s="87"/>
       <c r="F9" s="87"/>
@@ -4310,15 +4834,15 @@
       <c r="L9" s="87"/>
       <c r="M9" s="88"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1">
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="84" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C10" s="131" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E10" s="87"/>
       <c r="F10" s="87"/>
@@ -4330,39 +4854,39 @@
       <c r="L10" s="87"/>
       <c r="M10" s="88"/>
     </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1">
+    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="90"/>
       <c r="C11" s="91"/>
       <c r="D11" s="69"/>
       <c r="E11" s="92" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F11" s="92" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="G11" s="93" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="H11" s="94" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="I11" s="92" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="J11" s="93" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="K11" s="94" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="L11" s="92" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="M11" s="93" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="20.25" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="95"/>
       <c r="C12" s="96"/>
       <c r="D12" s="97"/>
@@ -4376,9 +4900,9 @@
       <c r="L12" s="102"/>
       <c r="M12" s="99"/>
     </row>
-    <row r="13" spans="2:13" ht="20.25" customHeight="1">
+    <row r="13" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="105" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C13" s="102"/>
       <c r="D13" s="106"/>
@@ -4392,12 +4916,12 @@
       <c r="L13" s="102"/>
       <c r="M13" s="99"/>
     </row>
-    <row r="14" spans="2:13" ht="20.25" customHeight="1">
+    <row r="14" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="101" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D14" s="106"/>
       <c r="E14" s="103">
@@ -4414,10 +4938,10 @@
       <c r="L14" s="102"/>
       <c r="M14" s="99"/>
     </row>
-    <row r="15" spans="2:13" ht="20.25" customHeight="1">
+    <row r="15" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="105"/>
       <c r="C15" s="102" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D15" s="106"/>
       <c r="E15" s="103">
@@ -4425,7 +4949,7 @@
       </c>
       <c r="F15" s="102"/>
       <c r="G15" s="99" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="H15" s="102"/>
       <c r="I15" s="102"/>
@@ -4434,10 +4958,10 @@
       <c r="L15" s="102"/>
       <c r="M15" s="99"/>
     </row>
-    <row r="16" spans="2:13" ht="20.25" customHeight="1">
+    <row r="16" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="105"/>
       <c r="C16" s="102" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D16" s="106"/>
       <c r="E16" s="103">
@@ -4452,19 +4976,19 @@
       <c r="L16" s="102"/>
       <c r="M16" s="99"/>
     </row>
-    <row r="20" spans="3:3" ht="20.25" customHeight="1">
+    <row r="20" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="107" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" ht="20.25" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="107" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" ht="20.25" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="107" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4481,21 +5005,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003344BE67D7EB984A84C06E190413FBFD" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9bce8fe95ceaf62c75926160740d41e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9de94308-2297-4d04-a77d-26fce9df9395" xmlns:ns4="22375818-dcd7-42e4-9660-6b33e030de66" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d88e73fd87162f28f317e92bcb9f946" ns3:_="" ns4:_="">
     <xsd:import namespace="9de94308-2297-4d04-a77d-26fce9df9395"/>
@@ -4672,14 +5181,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B130DE0C-7A28-4B03-98EC-F451E5EF5DFD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E8D0FC-D0F3-4D81-9707-E82360EDBF19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9de94308-2297-4d04-a77d-26fce9df9395"/>
+    <ds:schemaRef ds:uri="22375818-dcd7-42e4-9660-6b33e030de66"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B130DE0C-7A28-4B03-98EC-F451E5EF5DFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E8D0FC-D0F3-4D81-9707-E82360EDBF19}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Gestion_A_jmd.xlsx
+++ b/Gestion_A_jmd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irvan PC\Documents\ecole\DEC\2023 - automne\GÉNIE LOGICIEL 1\ProjetDaleks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilio\OneDrive\Bureau\ProjetDaleks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5826D61B-05A8-4F6F-A288-D7D957A32706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A7E4C6-A3B2-4DE2-BC26-179AA969F27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="273">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -368,9 +368,6 @@
     <t>teleporte != feraille et avance != ferraile</t>
   </si>
   <si>
-    <t>tablo</t>
-  </si>
-  <si>
     <t>teleporteur</t>
   </si>
   <si>
@@ -423,9 +420,6 @@
 mais peut-être
 ignorées)</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">score moyen </t>
   </si>
   <si>
     <t>Cas d'usage et Scénario d'utilisation, ainsi que les rôles</t>
@@ -892,9 +886,6 @@
     <t>S approcher du docteur , supprimer un daleck</t>
   </si>
   <si>
-    <t>creer une ferraile</t>
-  </si>
-  <si>
     <t>ferraille</t>
   </si>
   <si>
@@ -989,6 +980,84 @@
   </si>
   <si>
     <t>fin de l'execution du programme</t>
+  </si>
+  <si>
+    <t>Jeu</t>
+  </si>
+  <si>
+    <t>niveau</t>
+  </si>
+  <si>
+    <t>jeu.niveau</t>
+  </si>
+  <si>
+    <t>Position dalek</t>
+  </si>
+  <si>
+    <t>Position aéleatoir sauf même case</t>
+  </si>
+  <si>
+    <t>coordonée x y (différente)</t>
+  </si>
+  <si>
+    <t>Dalek extra</t>
+  </si>
+  <si>
+    <t>Dalek bouge sans que le docteur avance</t>
+  </si>
+  <si>
+    <t>position docteur</t>
+  </si>
+  <si>
+    <t>contrôle</t>
+  </si>
+  <si>
+    <t>pavé numérique (1 - 9)</t>
+  </si>
+  <si>
+    <t>limitation de la zone de jeu</t>
+  </si>
+  <si>
+    <t>tablo[][]</t>
+  </si>
+  <si>
+    <t>creer une ferraile, tue pas docteur, tue dalek</t>
+  </si>
+  <si>
+    <t>zone limiter</t>
+  </si>
+  <si>
+    <t>teleporteur facile</t>
+  </si>
+  <si>
+    <t>teleporteur ordinaire</t>
+  </si>
+  <si>
+    <t>teleporteur difficile</t>
+  </si>
+  <si>
+    <t>teleporter, case vide 2 xy de distance.</t>
+  </si>
+  <si>
+    <t>teleporter aleatoirement sans verification xy distance</t>
+  </si>
+  <si>
+    <t>teleporter, possibiliter sur dalek</t>
+  </si>
+  <si>
+    <t>teleporter tout sauf tas de feraille</t>
+  </si>
+  <si>
+    <t>volatiliser dalek, accumulable entre niveau</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>afficher nom, points</t>
+  </si>
+  <si>
+    <t>username, point</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1069,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1097,8 +1166,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1111,8 +1185,13 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1696,11 +1775,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1959,13 +2054,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2007,9 +2095,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="51" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2346,20 +2452,20 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="69.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="45.28515625" customWidth="1"/>
-    <col min="8" max="8" width="67.85546875" customWidth="1"/>
-    <col min="9" max="28" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="69.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" customWidth="1"/>
+    <col min="7" max="7" width="45.33203125" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" customWidth="1"/>
+    <col min="9" max="28" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="17.25" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2370,7 +2476,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" ht="17.25" customHeight="1">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -2379,7 +2485,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="112"/>
     </row>
-    <row r="4" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="17.25" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
@@ -2390,7 +2496,7 @@
       <c r="G4" s="110"/>
       <c r="H4" s="110"/>
     </row>
-    <row r="5" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="17.25" customHeight="1">
       <c r="B5" s="110"/>
       <c r="C5" s="110"/>
       <c r="D5" s="110"/>
@@ -2399,7 +2505,7 @@
       <c r="G5" s="110"/>
       <c r="H5" s="110"/>
     </row>
-    <row r="6" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="17.25" customHeight="1">
       <c r="B6" s="110"/>
       <c r="C6" s="110"/>
       <c r="D6" s="110"/>
@@ -2408,7 +2514,7 @@
       <c r="G6" s="110"/>
       <c r="H6" s="110"/>
     </row>
-    <row r="7" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="17.25" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2421,7 +2527,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="17.25" customHeight="1">
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
       <c r="D8" s="5"/>
@@ -2432,7 +2538,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="17.25" customHeight="1">
       <c r="B9" s="6"/>
       <c r="C9" s="13" t="s">
         <v>5</v>
@@ -2446,7 +2552,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="17.25" customHeight="1">
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
       <c r="D10" s="5"/>
@@ -2454,7 +2560,7 @@
       <c r="F10" s="6"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="17.25" customHeight="1">
       <c r="B11" s="6"/>
       <c r="C11" s="13" t="s">
         <v>8</v>
@@ -2471,7 +2577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="17.25" customHeight="1">
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
       <c r="D12" s="5"/>
@@ -2482,7 +2588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" ht="17.25" customHeight="1">
       <c r="B13" s="6"/>
       <c r="C13" s="13" t="s">
         <v>13</v>
@@ -2496,7 +2602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" ht="17.25" customHeight="1">
       <c r="B14" s="6"/>
       <c r="C14" s="13"/>
       <c r="D14" s="5"/>
@@ -2506,7 +2612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="17.25" customHeight="1">
       <c r="B15" s="6"/>
       <c r="C15" s="13" t="s">
         <v>17</v>
@@ -2520,7 +2626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" ht="17.25" customHeight="1">
       <c r="B16" s="38"/>
       <c r="C16" s="112"/>
       <c r="D16" s="8" t="s">
@@ -2532,7 +2638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="17.25" customHeight="1">
       <c r="B18" s="38"/>
       <c r="C18" s="112" t="s">
         <v>22</v>
@@ -2549,7 +2655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="17.25" customHeight="1">
       <c r="B19" s="38"/>
       <c r="C19" s="112"/>
       <c r="D19" s="8" t="s">
@@ -2562,7 +2668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="17.25" customHeight="1">
       <c r="B20" s="38"/>
       <c r="C20" s="112"/>
       <c r="D20" s="8"/>
@@ -2572,7 +2678,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" ht="17.25" customHeight="1">
       <c r="B21" s="38"/>
       <c r="C21" s="112" t="s">
         <v>29</v>
@@ -2586,7 +2692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" ht="17.25" customHeight="1">
       <c r="B22" s="38"/>
       <c r="C22" s="112"/>
       <c r="D22" s="8" t="s">
@@ -2598,7 +2704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="17.25" customHeight="1">
       <c r="B23" s="38"/>
       <c r="C23" s="112"/>
       <c r="D23" s="8"/>
@@ -2609,7 +2715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="17.25" customHeight="1">
       <c r="B24" s="38"/>
       <c r="C24" s="112" t="s">
         <v>35</v>
@@ -2623,7 +2729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" ht="17.25" customHeight="1">
       <c r="B25" s="38"/>
       <c r="C25" s="112"/>
       <c r="D25" s="8" t="s">
@@ -2633,7 +2739,7 @@
       <c r="F25" s="38"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" ht="17.25" customHeight="1">
       <c r="B26" s="38"/>
       <c r="C26" s="110"/>
       <c r="D26" s="8"/>
@@ -2646,7 +2752,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" ht="17.25" customHeight="1">
       <c r="B27" s="38"/>
       <c r="C27" s="110"/>
       <c r="D27" s="8"/>
@@ -2656,7 +2762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="17.25" customHeight="1">
       <c r="B28" s="101" t="s">
         <v>42</v>
       </c>
@@ -2670,7 +2776,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="17.25" customHeight="1">
       <c r="B29" s="10" t="s">
         <v>45</v>
       </c>
@@ -2683,7 +2789,7 @@
       <c r="G29" s="112"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="17.25" customHeight="1">
       <c r="B30" s="38"/>
       <c r="C30" s="110"/>
       <c r="D30" s="12" t="s">
@@ -2698,89 +2804,89 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F36" s="139"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140"/>
-    </row>
-    <row r="37" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F37" s="140"/>
-      <c r="G37" s="140"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="140"/>
-    </row>
-    <row r="38" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F38" s="140"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="140"/>
-    </row>
-    <row r="39" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:9" ht="17.25" customHeight="1">
+      <c r="F36" s="136"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+    </row>
+    <row r="37" spans="6:9" ht="17.25" customHeight="1">
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+    </row>
+    <row r="38" spans="6:9" ht="17.25" customHeight="1">
+      <c r="F38" s="137"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+    </row>
+    <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="112"/>
       <c r="G39" s="112"/>
       <c r="H39" s="112"/>
       <c r="I39" s="112"/>
     </row>
-    <row r="40" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F40" s="139"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-    </row>
-    <row r="41" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F41" s="140"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-    </row>
-    <row r="42" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F42" s="140"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-    </row>
-    <row r="43" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:9" ht="17.25" customHeight="1">
+      <c r="F40" s="136"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+    </row>
+    <row r="41" spans="6:9" ht="17.25" customHeight="1">
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+    </row>
+    <row r="42" spans="6:9" ht="17.25" customHeight="1">
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+    </row>
+    <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="112"/>
       <c r="G43" s="112"/>
       <c r="H43" s="112"/>
       <c r="I43" s="112"/>
     </row>
-    <row r="44" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:9" ht="17.25" customHeight="1">
       <c r="F44" s="112"/>
       <c r="G44" s="112"/>
       <c r="H44" s="112"/>
       <c r="I44" s="112"/>
     </row>
-    <row r="45" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F45" s="139"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
-    </row>
-    <row r="46" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F46" s="140"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="140"/>
-    </row>
-    <row r="47" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F47" s="140"/>
-      <c r="G47" s="140"/>
-      <c r="H47" s="140"/>
-      <c r="I47" s="140"/>
-    </row>
-    <row r="48" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F48" s="140"/>
-      <c r="G48" s="140"/>
-      <c r="H48" s="140"/>
-      <c r="I48" s="140"/>
-    </row>
-    <row r="49" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
+    <row r="45" spans="6:9" ht="17.25" customHeight="1">
+      <c r="F45" s="136"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
+    </row>
+    <row r="46" spans="6:9" ht="17.25" customHeight="1">
+      <c r="F46" s="137"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
+    </row>
+    <row r="47" spans="6:9" ht="17.25" customHeight="1">
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+    </row>
+    <row r="48" spans="6:9" ht="17.25" customHeight="1">
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="137"/>
+    </row>
+    <row r="49" spans="6:9" ht="17.25" customHeight="1">
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2797,23 +2903,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:E40"/>
+  <dimension ref="B2:E46"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
-    <col min="4" max="4" width="138.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="138.6640625" customWidth="1"/>
     <col min="5" max="5" width="48" customWidth="1"/>
-    <col min="6" max="7" width="8.5703125" customWidth="1"/>
+    <col min="6" max="7" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="12.75" customHeight="1">
       <c r="B2" s="112"/>
       <c r="C2" s="14" t="s">
         <v>8</v>
@@ -2821,13 +2927,13 @@
       <c r="D2" s="112"/>
       <c r="E2" s="112"/>
     </row>
-    <row r="3" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="12.75" customHeight="1">
       <c r="B3" s="112"/>
       <c r="C3" s="110"/>
       <c r="D3" s="112"/>
       <c r="E3" s="112"/>
     </row>
-    <row r="4" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="12.75" customHeight="1">
       <c r="B4" s="112"/>
       <c r="C4" s="112" t="s">
         <v>50</v>
@@ -2835,7 +2941,7 @@
       <c r="D4" s="112"/>
       <c r="E4" s="112"/>
     </row>
-    <row r="5" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="12.75" customHeight="1">
       <c r="B5" s="112"/>
       <c r="C5" s="112" t="s">
         <v>51</v>
@@ -2843,7 +2949,7 @@
       <c r="D5" s="112"/>
       <c r="E5" s="112"/>
     </row>
-    <row r="6" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="12.75" customHeight="1">
       <c r="B6" s="112"/>
       <c r="C6" s="112" t="s">
         <v>52</v>
@@ -2851,7 +2957,7 @@
       <c r="D6" s="112"/>
       <c r="E6" s="112"/>
     </row>
-    <row r="7" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" ht="12.75" customHeight="1">
       <c r="B7" s="112"/>
       <c r="C7" s="112" t="s">
         <v>53</v>
@@ -2859,7 +2965,7 @@
       <c r="D7" s="112"/>
       <c r="E7" s="112"/>
     </row>
-    <row r="8" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="12.75" customHeight="1">
       <c r="B8" s="112"/>
       <c r="C8" s="112" t="s">
         <v>54</v>
@@ -2867,7 +2973,7 @@
       <c r="D8" s="112"/>
       <c r="E8" s="112"/>
     </row>
-    <row r="9" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="15.75" customHeight="1">
       <c r="B9" s="112"/>
       <c r="C9" s="112" t="s">
         <v>55</v>
@@ -2875,7 +2981,7 @@
       <c r="D9" s="112"/>
       <c r="E9" s="112"/>
     </row>
-    <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="15.75" customHeight="1">
       <c r="B10" s="112"/>
       <c r="C10" s="112" t="s">
         <v>56</v>
@@ -2883,13 +2989,13 @@
       <c r="D10" s="112"/>
       <c r="E10" s="112"/>
     </row>
-    <row r="11" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="15.75" customHeight="1">
       <c r="B11" s="112"/>
       <c r="C11" s="112"/>
       <c r="D11" s="112"/>
       <c r="E11" s="112"/>
     </row>
-    <row r="12" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="12.75" customHeight="1">
       <c r="B12" s="14"/>
       <c r="C12" s="15" t="s">
         <v>57</v>
@@ -2901,34 +3007,34 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="141" t="s">
+    <row r="13" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B13" s="138" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E13" s="37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="142"/>
+    <row r="14" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B14" s="139"/>
       <c r="C14" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="137" t="s">
-        <v>216</v>
+      <c r="D14" s="134" t="s">
+        <v>214</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="142"/>
+    <row r="15" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B15" s="139"/>
       <c r="C15" s="22" t="s">
         <v>65</v>
       </c>
@@ -2939,42 +3045,42 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="142"/>
-      <c r="C16" s="138" t="s">
-        <v>218</v>
-      </c>
-      <c r="D16" s="137" t="s">
-        <v>217</v>
+    <row r="16" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B16" s="139"/>
+      <c r="C16" s="135" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="134" t="s">
+        <v>260</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="142"/>
+    <row r="17" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B17" s="139"/>
       <c r="C17" s="22" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="41" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="142"/>
+    <row r="18" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B18" s="139"/>
       <c r="C18" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E18" s="41"/>
     </row>
-    <row r="19" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="142"/>
+    <row r="19" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B19" s="139"/>
       <c r="C19" s="22" t="s">
         <v>69</v>
       </c>
@@ -2982,164 +3088,258 @@
         <v>70</v>
       </c>
       <c r="E19" s="41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B20" s="139"/>
+      <c r="C20" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B21" s="139"/>
+      <c r="C21" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B22" s="139"/>
+      <c r="C22" s="22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="142"/>
-      <c r="C20" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="D22" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="E22" s="133" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B23" s="139"/>
+      <c r="C23" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="133" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B24" s="139"/>
+      <c r="C24" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24" s="133" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B25" s="139"/>
+      <c r="C25" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" s="133" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B26" s="140"/>
+      <c r="C26" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="136" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="143"/>
-      <c r="C21" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="40" t="s">
+      <c r="D26" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" s="132" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B27" s="108"/>
+      <c r="C27" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="133" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B28" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="135" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="141" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="23" t="s">
+      <c r="C28" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="142"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="41"/>
-    </row>
-    <row r="24" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="142"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="41"/>
-    </row>
-    <row r="25" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="142"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="41"/>
-    </row>
-    <row r="26" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="142"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="41"/>
-    </row>
-    <row r="27" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="142"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="41"/>
-    </row>
-    <row r="28" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="142"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="41"/>
-    </row>
-    <row r="29" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="142"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="41"/>
-    </row>
-    <row r="30" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="143"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="141" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="21"/>
-    </row>
-    <row r="32" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="142"/>
+      <c r="E28" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B29" s="139"/>
+      <c r="C29" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B30" s="139"/>
+      <c r="C30" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B31" s="139"/>
+      <c r="C31" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B32" s="139"/>
       <c r="C32" s="22"/>
       <c r="D32" s="18"/>
       <c r="E32" s="41"/>
     </row>
-    <row r="33" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="142"/>
+    <row r="33" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B33" s="139"/>
       <c r="C33" s="22"/>
       <c r="D33" s="18"/>
       <c r="E33" s="41"/>
     </row>
-    <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="142"/>
+    <row r="34" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B34" s="139"/>
       <c r="C34" s="22"/>
       <c r="D34" s="18"/>
       <c r="E34" s="41"/>
     </row>
-    <row r="35" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="142"/>
+    <row r="35" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B35" s="139"/>
       <c r="C35" s="22"/>
       <c r="D35" s="18"/>
       <c r="E35" s="41"/>
     </row>
-    <row r="36" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="142"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="41"/>
-    </row>
-    <row r="37" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="142"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="41"/>
-    </row>
-    <row r="38" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="142"/>
+    <row r="36" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B36" s="140"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B37" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B38" s="139"/>
       <c r="C38" s="22"/>
       <c r="D38" s="18"/>
       <c r="E38" s="41"/>
     </row>
-    <row r="39" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="142"/>
+    <row r="39" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B39" s="139"/>
       <c r="C39" s="22"/>
       <c r="D39" s="18"/>
       <c r="E39" s="41"/>
     </row>
-    <row r="40" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="143"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="46"/>
+    <row r="40" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B40" s="139"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="41"/>
+    </row>
+    <row r="41" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B41" s="139"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="41"/>
+    </row>
+    <row r="42" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B42" s="139"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="41"/>
+    </row>
+    <row r="43" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B43" s="139"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="41"/>
+    </row>
+    <row r="44" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B44" s="139"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="41"/>
+    </row>
+    <row r="45" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B45" s="139"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="41"/>
+    </row>
+    <row r="46" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B46" s="140"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="B13:B26"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B37:B46"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -3152,594 +3352,756 @@
   </sheetPr>
   <dimension ref="B2:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C47" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView topLeftCell="A41" zoomScale="72" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" customWidth="1"/>
-    <col min="6" max="6" width="138.7109375" customWidth="1"/>
-    <col min="7" max="8" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.5546875" customWidth="1"/>
+    <col min="6" max="6" width="138.6640625" customWidth="1"/>
+    <col min="7" max="8" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="20.25" customHeight="1">
       <c r="B2" s="109"/>
       <c r="C2" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="109"/>
       <c r="E2" s="109"/>
       <c r="F2" s="109"/>
     </row>
-    <row r="3" spans="2:6" ht="89.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="89.4" customHeight="1">
       <c r="B3" s="109"/>
-      <c r="C3" s="144" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
+      <c r="C3" s="141" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
       <c r="F3" s="109"/>
     </row>
-    <row r="4" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="30.75" customHeight="1">
       <c r="B4" s="110"/>
-      <c r="C4" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
+      <c r="C4" s="142" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
       <c r="F4" s="110"/>
     </row>
-    <row r="5" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="21" customHeight="1">
       <c r="B5" s="109"/>
       <c r="C5" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" s="109"/>
       <c r="E5" s="109"/>
       <c r="F5" s="109"/>
     </row>
-    <row r="6" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="21" customHeight="1">
       <c r="B6" s="110"/>
       <c r="C6" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="112"/>
       <c r="E6" s="112"/>
       <c r="F6" s="110"/>
     </row>
-    <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="18" customHeight="1">
       <c r="B7" s="110"/>
       <c r="C7" s="112"/>
       <c r="D7" s="112"/>
       <c r="E7" s="112"/>
       <c r="F7" s="110"/>
     </row>
-    <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="18" customHeight="1">
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="110"/>
       <c r="F8" s="28"/>
     </row>
-    <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="19.5" customHeight="1">
       <c r="B9" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="E9" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>87</v>
-      </c>
       <c r="F9" s="29"/>
     </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="18" customHeight="1">
       <c r="B10" s="110"/>
       <c r="C10" s="112"/>
       <c r="D10" s="110"/>
       <c r="E10" s="110"/>
       <c r="F10" s="110"/>
     </row>
-    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="18" customHeight="1">
       <c r="B11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="E11" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="F11" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:6" ht="18" customHeight="1">
       <c r="B12" s="28"/>
       <c r="C12" s="14"/>
       <c r="D12" s="32"/>
     </row>
-    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="13" spans="2:6" ht="18" customHeight="1">
+      <c r="B13" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="150" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="151" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+    </row>
+    <row r="14" spans="2:6" ht="18" customHeight="1">
+      <c r="B14" s="152"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="F14" s="149"/>
+    </row>
+    <row r="15" spans="2:6" ht="18" customHeight="1">
+      <c r="B15" s="152"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="154" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="154"/>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="154" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="149"/>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="149"/>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B18" s="149"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="154" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="154" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="132" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="110"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="133" t="s">
+    </row>
+    <row r="19" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B19" s="149"/>
+      <c r="C19" s="154" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="154" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="149"/>
+      <c r="F19" s="154" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B20" s="149"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="154"/>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B21" s="149"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" s="154"/>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B22" s="149"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="154" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="154" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="154" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15" customHeight="1">
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="154" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="154" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B27" s="149"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="154" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="154" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="154" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="154" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B29" s="149"/>
+      <c r="C29" s="149" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="154" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="154" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="149" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="154"/>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B32" s="149"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="154" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B33" s="149"/>
+      <c r="C33" s="154" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="149"/>
+      <c r="E33" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" s="154" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="154" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="154" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="154" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" s="154" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="154" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="154" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="154" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="154" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B38" s="149"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="154" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="154"/>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B39" s="149"/>
+      <c r="C39" s="154" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="154" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="149"/>
+      <c r="F39" s="154" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B40" s="149"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="154" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" s="154" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B41" s="149"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="154"/>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B42" s="149"/>
+      <c r="C42" s="154" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="F42" s="149"/>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B43" s="149"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="154" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="149"/>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B44" s="149"/>
+      <c r="C44" s="154"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="154" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" s="149"/>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B45" s="149"/>
+      <c r="C45" s="154"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="154" t="s">
+        <v>236</v>
+      </c>
+      <c r="F45" s="149"/>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B46" s="149"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="154" t="s">
+        <v>234</v>
+      </c>
+      <c r="F46" s="149"/>
+    </row>
+    <row r="47" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B47" s="149"/>
+      <c r="C47" s="154"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="154" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="149"/>
+    </row>
+    <row r="48" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B48" s="149"/>
+      <c r="C48" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="154" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="149"/>
+      <c r="F48" s="154" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B49" s="149"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="149"/>
+      <c r="E49" s="154" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" s="154" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B50" s="149"/>
+      <c r="C50" s="149"/>
+      <c r="D50" s="149"/>
+      <c r="E50" s="154" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" s="154" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B51" s="149"/>
+      <c r="C51" s="149"/>
+      <c r="D51" s="149"/>
+      <c r="E51" s="154" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="154"/>
+    </row>
+    <row r="52" spans="2:6" ht="18" customHeight="1">
+      <c r="B52" s="149"/>
+      <c r="C52" s="154" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" s="153"/>
+      <c r="E52" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="F52" s="149"/>
+    </row>
+    <row r="53" spans="2:6" ht="18" customHeight="1">
+      <c r="B53" s="149"/>
+      <c r="C53" s="154"/>
+      <c r="D53" s="153"/>
+      <c r="E53" s="154" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" s="149"/>
+    </row>
+    <row r="54" spans="2:6" ht="18" customHeight="1">
+      <c r="B54" s="149"/>
+      <c r="C54" s="154"/>
+      <c r="D54" s="153"/>
+      <c r="E54" s="154" t="s">
+        <v>202</v>
+      </c>
+      <c r="F54" s="149"/>
+    </row>
+    <row r="55" spans="2:6" ht="18" customHeight="1">
+      <c r="B55" s="149"/>
+      <c r="C55" s="154"/>
+      <c r="D55" s="153"/>
+      <c r="E55" s="154" t="s">
+        <v>236</v>
+      </c>
+      <c r="F55" s="149"/>
+    </row>
+    <row r="56" spans="2:6" ht="18" customHeight="1">
+      <c r="B56" s="149"/>
+      <c r="C56" s="154"/>
+      <c r="D56" s="153"/>
+      <c r="E56" s="154" t="s">
+        <v>234</v>
+      </c>
+      <c r="F56" s="149"/>
+    </row>
+    <row r="57" spans="2:6" ht="18" customHeight="1">
+      <c r="B57" s="149"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="154" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" s="149"/>
+    </row>
+    <row r="58" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B58" s="149"/>
+      <c r="C58" s="154" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" s="149"/>
+      <c r="E58" s="154" t="s">
+        <v>216</v>
+      </c>
+      <c r="F58" s="154" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B59" s="149"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="149"/>
+      <c r="E59" s="154" t="s">
+        <v>219</v>
+      </c>
+      <c r="F59" s="154" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B60" s="149"/>
+      <c r="C60" s="149"/>
+      <c r="D60" s="149"/>
+      <c r="E60" s="154" t="s">
+        <v>222</v>
+      </c>
+      <c r="F60" s="154" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B61" s="149"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="154" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61" s="149"/>
+      <c r="F61" s="154" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B62" s="149"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="149"/>
+      <c r="E62" s="154" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="110"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="133" t="s">
+      <c r="F62" s="149"/>
+    </row>
+    <row r="63" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B63" s="149"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="133"/>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E16" s="133" t="s">
+      <c r="F63" s="149"/>
+    </row>
+    <row r="64" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B64" s="149"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="149"/>
+      <c r="E64" s="154" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="133"/>
-      <c r="E17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E18" s="133" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="133" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="133" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="133" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="133" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="133"/>
-      <c r="E20" s="133" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="133"/>
-    </row>
-    <row r="21" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="133"/>
-      <c r="E21" s="133" t="s">
-        <v>235</v>
-      </c>
-      <c r="F21" s="133"/>
-    </row>
-    <row r="22" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="133" t="s">
-        <v>236</v>
-      </c>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-    </row>
-    <row r="23" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="133"/>
-      <c r="E23" s="133" t="s">
-        <v>193</v>
-      </c>
-      <c r="F23" s="133" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="133" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-    </row>
-    <row r="25" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="133"/>
-      <c r="E25" s="133" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" s="133" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="133" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="133" t="s">
+      <c r="F64" s="154" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B65" s="149"/>
+      <c r="C65" s="154" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" s="154" t="s">
+        <v>226</v>
+      </c>
+      <c r="E65" s="149"/>
+      <c r="F65" s="154" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B66" s="149"/>
+      <c r="C66" s="149"/>
+      <c r="D66" s="149"/>
+      <c r="E66" s="154" t="s">
+        <v>230</v>
+      </c>
+      <c r="F66" s="149"/>
+    </row>
+    <row r="67" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B67" s="149"/>
+      <c r="C67" s="149"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="154" t="s">
+        <v>231</v>
+      </c>
+      <c r="F67" s="149"/>
+    </row>
+    <row r="68" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B68" s="149"/>
+      <c r="C68" s="149"/>
+      <c r="D68" s="154" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" s="149"/>
+      <c r="F68" s="154" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B69" s="149"/>
+      <c r="C69" s="149"/>
+      <c r="D69" s="149"/>
+      <c r="E69" s="154" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69" s="154" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B70" s="149"/>
+      <c r="C70" s="154" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="133" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="133" t="s">
+      <c r="D70" s="154" t="s">
+        <v>243</v>
+      </c>
+      <c r="E70" s="149"/>
+      <c r="F70" s="154" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="133" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="133" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="133" t="s">
+    <row r="71" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B71" s="149"/>
+      <c r="C71" s="149"/>
+      <c r="D71" s="149"/>
+      <c r="E71" s="154" t="s">
+        <v>244</v>
+      </c>
+      <c r="F71" s="149"/>
+    </row>
+    <row r="72" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B72" s="149"/>
+      <c r="C72" s="149"/>
+      <c r="D72" s="149"/>
+      <c r="E72" s="154" t="s">
+        <v>245</v>
+      </c>
+      <c r="F72" s="149"/>
+    </row>
+    <row r="73" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B73" s="149"/>
+      <c r="C73" s="149"/>
+      <c r="D73" s="149"/>
+      <c r="E73" s="154" t="s">
+        <v>246</v>
+      </c>
+      <c r="F73" s="149"/>
+    </row>
+    <row r="105" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D105" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="133"/>
-      <c r="E30" s="133" t="s">
-        <v>197</v>
-      </c>
-      <c r="F30" s="133" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="133"/>
-      <c r="E31" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="133"/>
-    </row>
-    <row r="32" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="133"/>
-      <c r="E32" s="133" t="s">
-        <v>198</v>
-      </c>
-      <c r="F32" s="133" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="133" t="s">
-        <v>201</v>
-      </c>
-      <c r="E33" s="133" t="s">
-        <v>202</v>
-      </c>
-      <c r="F33" s="133" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E34" s="133" t="s">
-        <v>203</v>
-      </c>
-      <c r="F34" s="133" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="133" t="s">
-        <v>204</v>
-      </c>
-      <c r="F35" s="133" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E36" s="133" t="s">
-        <v>239</v>
-      </c>
-      <c r="F36" s="133" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E37" s="133" t="s">
-        <v>237</v>
-      </c>
-      <c r="F37" s="133" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E38" s="133" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" s="133"/>
-    </row>
-    <row r="39" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="133" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="133" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E40" s="133" t="s">
-        <v>208</v>
-      </c>
-      <c r="F40" s="133" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" s="133"/>
-    </row>
-    <row r="42" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="133" t="s">
-        <v>210</v>
-      </c>
-      <c r="E42" s="133" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="133"/>
-      <c r="E43" s="133" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="133"/>
-      <c r="E44" s="133" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="133"/>
-      <c r="E45" s="133" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="133"/>
-      <c r="E46" s="133" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="133"/>
-      <c r="E47" s="133" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="133" t="s">
-        <v>211</v>
-      </c>
-      <c r="D48" s="133" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="133" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E49" s="133" t="s">
-        <v>214</v>
-      </c>
-      <c r="F49" s="133" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E50" s="133" t="s">
-        <v>239</v>
-      </c>
-      <c r="F50" s="133" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E51" s="133" t="s">
-        <v>198</v>
-      </c>
-      <c r="F51" s="133"/>
-    </row>
-    <row r="52" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="133" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="112"/>
-      <c r="E52" s="133" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="133"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="133" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="133"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="133" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="133"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="133" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="133"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="133" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="133"/>
-      <c r="D57" s="112"/>
-      <c r="E57" s="133" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="133" t="s">
-        <v>220</v>
-      </c>
-      <c r="E58" s="133" t="s">
-        <v>219</v>
-      </c>
-      <c r="F58" s="133" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="133"/>
-      <c r="E59" s="133" t="s">
-        <v>222</v>
-      </c>
-      <c r="F59" s="133" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E60" s="133" t="s">
-        <v>225</v>
-      </c>
-      <c r="F60" s="133" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D61" s="133" t="s">
-        <v>226</v>
-      </c>
-      <c r="F61" s="133" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E62" s="133" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E64" s="133" t="s">
-        <v>99</v>
-      </c>
-      <c r="F64" s="133" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="133" t="s">
-        <v>228</v>
-      </c>
-      <c r="D65" s="133" t="s">
-        <v>229</v>
-      </c>
-      <c r="F65" s="133" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E66" s="133" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E67" s="133" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D68" s="133" t="s">
-        <v>226</v>
-      </c>
-      <c r="F68" s="133" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E69" s="133" t="s">
-        <v>99</v>
-      </c>
-      <c r="F69" s="133" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="133" t="s">
-        <v>244</v>
-      </c>
-      <c r="D70" s="133" t="s">
-        <v>246</v>
-      </c>
-      <c r="F70" s="133" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E71" s="133" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E72" s="133" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E73" s="133" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="105" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D105" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3761,14 +4123,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="101" width="4.140625" customWidth="1"/>
+    <col min="1" max="101" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="7:19" ht="21.75" customHeight="1">
       <c r="G1" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
@@ -3783,9 +4145,9 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
     </row>
-    <row r="2" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="7:19" ht="15">
       <c r="G2" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H2" s="112"/>
       <c r="I2" s="112"/>
@@ -3800,9 +4162,9 @@
       <c r="R2" s="112"/>
       <c r="S2" s="112"/>
     </row>
-    <row r="3" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="7:19" ht="15">
       <c r="G3" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H3" s="112"/>
       <c r="I3" s="112"/>
@@ -3817,7 +4179,7 @@
       <c r="R3" s="112"/>
       <c r="S3" s="112"/>
     </row>
-    <row r="4" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="7:19" ht="15">
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
       <c r="I4" s="112"/>
@@ -3832,7 +4194,7 @@
       <c r="R4" s="112"/>
       <c r="S4" s="112"/>
     </row>
-    <row r="5" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="7:19" ht="15">
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
       <c r="I5" s="112"/>
@@ -3847,9 +4209,9 @@
       <c r="R5" s="112"/>
       <c r="S5" s="112"/>
     </row>
-    <row r="6" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="7:19" ht="15">
       <c r="G6" s="112" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H6" s="112"/>
       <c r="I6" s="112"/>
@@ -3864,7 +4226,7 @@
       <c r="R6" s="112"/>
       <c r="S6" s="112"/>
     </row>
-    <row r="7" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="7:19" ht="15">
       <c r="G7" s="112"/>
       <c r="H7" s="112"/>
       <c r="I7" s="112"/>
@@ -3879,9 +4241,9 @@
       <c r="R7" s="112"/>
       <c r="S7" s="112"/>
     </row>
-    <row r="8" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="7:19" ht="15">
       <c r="G8" s="112" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H8" s="112"/>
       <c r="I8" s="112"/>
@@ -3896,7 +4258,7 @@
       <c r="R8" s="112"/>
       <c r="S8" s="112"/>
     </row>
-    <row r="9" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="7:19" ht="15">
       <c r="G9" s="112"/>
       <c r="H9" s="112"/>
       <c r="I9" s="112"/>
@@ -3911,7 +4273,7 @@
       <c r="R9" s="112"/>
       <c r="S9" s="112"/>
     </row>
-    <row r="10" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:19" ht="15.6">
       <c r="G10" s="34"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
@@ -3919,7 +4281,7 @@
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
       <c r="M10" s="36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
@@ -3928,31 +4290,31 @@
       <c r="R10" s="35"/>
       <c r="S10" s="37"/>
     </row>
-    <row r="11" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="7:19" ht="15">
       <c r="G11" s="38"/>
       <c r="H11" s="112"/>
       <c r="I11" s="112"/>
       <c r="J11" s="112"/>
       <c r="K11" s="112"/>
       <c r="L11" s="112"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="140"/>
-      <c r="O11" s="140"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="137"/>
       <c r="P11" s="112"/>
       <c r="Q11" s="112"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="148"/>
-    </row>
-    <row r="12" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="R11" s="144"/>
+      <c r="S11" s="145"/>
+    </row>
+    <row r="12" spans="7:19" ht="15">
       <c r="G12" s="38"/>
       <c r="H12" s="112" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I12" s="112"/>
       <c r="J12" s="112"/>
       <c r="K12" s="112"/>
       <c r="L12" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
@@ -3962,7 +4324,7 @@
       <c r="R12" s="39"/>
       <c r="S12" s="41"/>
     </row>
-    <row r="13" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="7:19" ht="15">
       <c r="G13" s="38"/>
       <c r="H13" s="112"/>
       <c r="I13" s="112"/>
@@ -3977,7 +4339,7 @@
       <c r="R13" s="40"/>
       <c r="S13" s="41"/>
     </row>
-    <row r="14" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="7:19" ht="15">
       <c r="G14" s="38"/>
       <c r="H14" s="112"/>
       <c r="I14" s="112"/>
@@ -3992,16 +4354,16 @@
       <c r="R14" s="112"/>
       <c r="S14" s="41"/>
     </row>
-    <row r="15" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="7:19" ht="15">
       <c r="G15" s="38"/>
       <c r="H15" s="112" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
       <c r="L15" s="42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M15" s="49"/>
       <c r="N15" s="49"/>
@@ -4011,10 +4373,10 @@
       <c r="R15" s="39"/>
       <c r="S15" s="41"/>
     </row>
-    <row r="16" spans="7:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="7:19" ht="15">
       <c r="G16" s="38"/>
       <c r="H16" s="112" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I16" s="112"/>
       <c r="J16" s="112"/>
@@ -4028,12 +4390,12 @@
       <c r="R16" s="40"/>
       <c r="S16" s="41"/>
     </row>
-    <row r="18" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:23" ht="15.6">
       <c r="G18" s="38"/>
       <c r="H18" s="42"/>
       <c r="I18" s="49"/>
       <c r="J18" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K18" s="49"/>
       <c r="L18" s="39"/>
@@ -4041,7 +4403,7 @@
       <c r="N18" s="42"/>
       <c r="O18" s="49"/>
       <c r="P18" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="49"/>
       <c r="R18" s="39"/>
@@ -4051,7 +4413,7 @@
       <c r="V18" s="112"/>
       <c r="W18" s="112"/>
     </row>
-    <row r="19" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:23" ht="15">
       <c r="G19" s="38"/>
       <c r="H19" s="53"/>
       <c r="I19" s="54"/>
@@ -4070,7 +4432,7 @@
       <c r="V19" s="112"/>
       <c r="W19" s="112"/>
     </row>
-    <row r="20" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:23" ht="15">
       <c r="G20" s="44"/>
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
@@ -4089,7 +4451,7 @@
       <c r="V20" s="112"/>
       <c r="W20" s="112"/>
     </row>
-    <row r="21" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:23" ht="15">
       <c r="G21" s="112"/>
       <c r="H21" s="112"/>
       <c r="I21" s="112"/>
@@ -4108,7 +4470,7 @@
       <c r="V21" s="112"/>
       <c r="W21" s="112"/>
     </row>
-    <row r="22" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:23" ht="15">
       <c r="G22" s="112"/>
       <c r="H22" s="112"/>
       <c r="I22" s="112"/>
@@ -4127,7 +4489,7 @@
       <c r="V22" s="112"/>
       <c r="W22" s="112"/>
     </row>
-    <row r="23" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:23" ht="15">
       <c r="G23" s="112"/>
       <c r="H23" s="112"/>
       <c r="I23" s="112"/>
@@ -4146,10 +4508,10 @@
       <c r="V23" s="112"/>
       <c r="W23" s="112"/>
     </row>
-    <row r="24" spans="7:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="G24" s="146"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
+    <row r="24" spans="7:23" ht="15">
+      <c r="G24" s="143"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
       <c r="J24" s="112"/>
       <c r="K24" s="112"/>
       <c r="L24" s="112"/>
@@ -4165,7 +4527,7 @@
       <c r="V24" s="112"/>
       <c r="W24" s="112"/>
     </row>
-    <row r="25" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="7:23" ht="15">
       <c r="G25" s="112"/>
       <c r="H25" s="112"/>
       <c r="I25" s="112"/>
@@ -4184,10 +4546,10 @@
       <c r="V25" s="112"/>
       <c r="W25" s="112"/>
     </row>
-    <row r="26" spans="7:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="G26" s="146"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
+    <row r="26" spans="7:23" ht="15">
+      <c r="G26" s="143"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
       <c r="J26" s="112"/>
       <c r="K26" s="112"/>
       <c r="L26" s="112"/>
@@ -4203,7 +4565,7 @@
       <c r="V26" s="112"/>
       <c r="W26" s="112"/>
     </row>
-    <row r="27" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="7:23" ht="15">
       <c r="G27" s="112"/>
       <c r="H27" s="112"/>
       <c r="I27" s="112"/>
@@ -4222,7 +4584,7 @@
       <c r="V27" s="112"/>
       <c r="W27" s="112"/>
     </row>
-    <row r="28" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="7:23" ht="15">
       <c r="G28" s="112"/>
       <c r="H28" s="112"/>
       <c r="I28" s="112"/>
@@ -4232,14 +4594,14 @@
       <c r="M28" s="112"/>
       <c r="N28" s="112"/>
       <c r="O28" s="112"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="140"/>
-      <c r="R28" s="140"/>
+      <c r="P28" s="143"/>
+      <c r="Q28" s="137"/>
+      <c r="R28" s="137"/>
       <c r="S28" s="112"/>
-      <c r="T28" s="146"/>
-      <c r="U28" s="140"/>
-      <c r="V28" s="140"/>
-      <c r="W28" s="140"/>
+      <c r="T28" s="143"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4263,34 +4625,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1"/>
     <col min="12" max="30" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="87" customHeight="1">
       <c r="B1" s="110"/>
-      <c r="C1" s="144" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-    </row>
-    <row r="2" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="141" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+    </row>
+    <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="112"/>
       <c r="C2" s="112"/>
       <c r="D2" s="112"/>
@@ -4299,9 +4661,9 @@
       <c r="G2" s="112"/>
       <c r="H2" s="112"/>
     </row>
-    <row r="3" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="12.75" customHeight="1">
       <c r="B3" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" s="112"/>
       <c r="D3" s="47"/>
@@ -4310,7 +4672,7 @@
       <c r="G3" s="47"/>
       <c r="H3" s="47"/>
     </row>
-    <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" ht="18" customHeight="1">
       <c r="B4" s="112"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
@@ -4319,10 +4681,10 @@
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
     </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="15" customHeight="1">
       <c r="B5" s="112"/>
       <c r="C5" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
@@ -4330,7 +4692,7 @@
       <c r="G5" s="47"/>
       <c r="H5" s="112"/>
     </row>
-    <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="12.75" customHeight="1">
       <c r="B6" s="110"/>
       <c r="C6" s="110"/>
       <c r="D6" s="110"/>
@@ -4339,31 +4701,31 @@
       <c r="G6" s="112"/>
       <c r="H6" s="110"/>
     </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="12.75" customHeight="1">
       <c r="B7" s="110"/>
       <c r="C7" s="110"/>
       <c r="D7" s="48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" s="49"/>
       <c r="F7" s="49"/>
       <c r="G7" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H7" s="110"/>
     </row>
-    <row r="8" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="12.75" customHeight="1">
       <c r="B8" s="110"/>
       <c r="C8" s="110"/>
       <c r="D8" s="51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E8" s="112"/>
       <c r="F8" s="112"/>
       <c r="G8" s="52"/>
       <c r="H8" s="110"/>
     </row>
-    <row r="9" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="12.75" customHeight="1">
       <c r="B9" s="110"/>
       <c r="C9" s="110"/>
       <c r="D9" s="53"/>
@@ -4372,15 +4734,15 @@
       <c r="G9" s="52"/>
       <c r="H9" s="110"/>
     </row>
-    <row r="10" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="12.75" customHeight="1">
       <c r="B10" s="110"/>
       <c r="C10" s="110"/>
       <c r="D10" s="55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E10" s="112"/>
       <c r="F10" s="112" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G10" s="52"/>
       <c r="H10" s="110"/>
@@ -4402,120 +4764,120 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="26" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-    </row>
-    <row r="2" spans="2:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="64.5" customHeight="1">
+      <c r="C1" s="146" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+    </row>
+    <row r="2" spans="2:11" ht="13.2"/>
+    <row r="3" spans="2:11" ht="13.2">
       <c r="B3" s="56" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="13.2">
       <c r="B4" s="57"/>
     </row>
-    <row r="5" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="13.2">
       <c r="B5" s="113"/>
       <c r="C5" s="113"/>
       <c r="D5" s="113"/>
     </row>
-    <row r="6" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" ht="13.2">
       <c r="B6" s="113"/>
       <c r="C6" s="113"/>
       <c r="D6" s="113"/>
       <c r="E6" s="113"/>
     </row>
-    <row r="7" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="150" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="140"/>
+    <row r="7" spans="2:11" ht="26.4">
+      <c r="B7" s="147" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="137"/>
       <c r="G7" s="113" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H7" s="113"/>
       <c r="I7" s="113"/>
       <c r="J7" s="113"/>
     </row>
-    <row r="8" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" ht="13.2">
       <c r="B8" s="113"/>
       <c r="G8" s="113" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H8" s="113"/>
       <c r="I8" s="113"/>
     </row>
-    <row r="9" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" ht="13.2">
       <c r="B9" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="60" t="s">
         <v>137</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>139</v>
       </c>
       <c r="G9" s="61"/>
       <c r="H9" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="K9" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="J9" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="K9" s="63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:11" ht="13.2">
       <c r="B10" s="108"/>
       <c r="D10" s="67"/>
       <c r="G10" s="68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J10" s="113"/>
       <c r="K10" s="111"/>
     </row>
-    <row r="11" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="26.4">
       <c r="B11" s="64"/>
       <c r="C11" s="65"/>
       <c r="D11" s="66"/>
       <c r="E11" s="113" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G11" s="68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K11" s="111"/>
     </row>
-    <row r="12" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="13.2">
       <c r="B12" s="108"/>
       <c r="D12" s="67"/>
       <c r="G12" s="68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K12" s="111"/>
     </row>
-    <row r="13" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="13.2">
       <c r="B13" s="108"/>
       <c r="D13" s="67"/>
       <c r="G13" s="68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K13" s="111"/>
     </row>
@@ -4539,29 +4901,29 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="6" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="57" customHeight="1">
       <c r="B1" s="115"/>
       <c r="C1" s="116"/>
-      <c r="D1" s="149" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-    </row>
-    <row r="2" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="146" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+    </row>
+    <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="115"/>
       <c r="C2" s="116"/>
       <c r="D2" s="115"/>
@@ -4569,7 +4931,7 @@
       <c r="F2" s="115"/>
       <c r="H2" s="115"/>
     </row>
-    <row r="3" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" ht="12.75" customHeight="1">
       <c r="B3" s="115"/>
       <c r="C3" s="116"/>
       <c r="D3" s="115"/>
@@ -4577,19 +4939,19 @@
       <c r="F3" s="115"/>
       <c r="H3" s="115"/>
     </row>
-    <row r="4" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" ht="12.75" customHeight="1">
       <c r="B4" s="56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="116"/>
       <c r="D4" s="56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E4" s="115"/>
       <c r="F4" s="115"/>
       <c r="H4" s="115"/>
     </row>
-    <row r="5" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="13.2">
       <c r="B5" s="115"/>
       <c r="C5" s="116"/>
       <c r="D5" s="117"/>
@@ -4598,7 +4960,7 @@
       <c r="G5" s="117"/>
       <c r="H5" s="117"/>
     </row>
-    <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="12.75" customHeight="1">
       <c r="B6" s="115"/>
       <c r="C6" s="116"/>
       <c r="D6" s="115"/>
@@ -4606,38 +4968,38 @@
       <c r="F6" s="115"/>
       <c r="H6" s="115"/>
     </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="12.75" customHeight="1">
       <c r="B7" s="113" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="116"/>
       <c r="D7" s="118" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="119" t="s">
+      <c r="G7" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="119" t="s">
+      <c r="H7" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="119" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="120" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:8" ht="13.5" customHeight="1">
       <c r="C8" s="116"/>
       <c r="D8" s="121" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E8" s="122"/>
       <c r="F8" s="122"/>
       <c r="G8" s="122"/>
       <c r="H8" s="123"/>
     </row>
-    <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="14.25" customHeight="1">
       <c r="B9" s="115"/>
       <c r="C9" s="124"/>
       <c r="D9" s="125"/>
@@ -4646,9 +5008,9 @@
       <c r="G9" s="126"/>
       <c r="H9" s="127"/>
     </row>
-    <row r="10" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="12.75" customHeight="1">
       <c r="B10" s="113" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C10" s="116"/>
       <c r="D10" s="128"/>
@@ -4657,9 +5019,9 @@
       <c r="G10" s="129"/>
       <c r="H10" s="130"/>
     </row>
-    <row r="11" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="12.75" customHeight="1">
       <c r="B11" s="56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C11" s="116"/>
       <c r="D11" s="128"/>
@@ -4687,26 +5049,26 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
-    <col min="8" max="9" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" customWidth="1"/>
+    <col min="8" max="9" width="10.5546875" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="12" width="10.5703125" customWidth="1"/>
+    <col min="11" max="12" width="10.5546875" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
-    <col min="14" max="23" width="11.42578125" customWidth="1"/>
+    <col min="14" max="23" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="21.75" customHeight="1">
       <c r="B2" s="70"/>
       <c r="C2" s="71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D2" s="71"/>
       <c r="E2" s="71"/>
@@ -4719,20 +5081,20 @@
       <c r="L2" s="114"/>
       <c r="M2" s="114"/>
     </row>
-    <row r="3" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="21.75" customHeight="1">
       <c r="B3" s="70"/>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-    </row>
-    <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="148"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+    </row>
+    <row r="4" spans="2:13" ht="21.75" customHeight="1">
       <c r="B4" s="102"/>
       <c r="H4" s="102"/>
       <c r="I4" s="102"/>
@@ -4741,14 +5103,14 @@
       <c r="L4" s="102"/>
       <c r="M4" s="102"/>
     </row>
-    <row r="5" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="21.75" customHeight="1">
       <c r="B5" s="72" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="73"/>
       <c r="D5" s="74"/>
       <c r="E5" s="72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F5" s="73"/>
       <c r="G5" s="73"/>
@@ -4759,7 +5121,7 @@
       <c r="L5" s="73"/>
       <c r="M5" s="74"/>
     </row>
-    <row r="6" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="21.75" customHeight="1">
       <c r="B6" s="102"/>
       <c r="C6" s="102"/>
       <c r="D6" s="102"/>
@@ -4773,9 +5135,9 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="21.75" customHeight="1">
       <c r="B7" s="75" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" s="102"/>
       <c r="D7" s="76"/>
@@ -4788,41 +5150,41 @@
       <c r="L7" s="102"/>
       <c r="M7" s="102"/>
     </row>
-    <row r="8" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="21.75" customHeight="1">
       <c r="B8" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="E8" s="80" t="s">
         <v>164</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="80" t="s">
-        <v>166</v>
       </c>
       <c r="F8" s="81"/>
       <c r="G8" s="82"/>
       <c r="H8" s="83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I8" s="81"/>
       <c r="J8" s="82"/>
       <c r="K8" s="83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L8" s="81"/>
       <c r="M8" s="82"/>
     </row>
-    <row r="9" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="9.75" customHeight="1">
       <c r="B9" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="86" t="s">
         <v>167</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>169</v>
       </c>
       <c r="E9" s="87"/>
       <c r="F9" s="87"/>
@@ -4834,15 +5196,15 @@
       <c r="L9" s="87"/>
       <c r="M9" s="88"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="15" customHeight="1">
       <c r="B10" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="86" t="s">
         <v>170</v>
-      </c>
-      <c r="C10" s="131" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>172</v>
       </c>
       <c r="E10" s="87"/>
       <c r="F10" s="87"/>
@@ -4854,39 +5216,39 @@
       <c r="L10" s="87"/>
       <c r="M10" s="88"/>
     </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="15" customHeight="1">
       <c r="B11" s="90"/>
       <c r="C11" s="91"/>
       <c r="D11" s="69"/>
       <c r="E11" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="93" t="s">
-        <v>175</v>
-      </c>
       <c r="H11" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="I11" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="J11" s="93" t="s">
-        <v>175</v>
-      </c>
       <c r="K11" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="M11" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="L11" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="M11" s="93" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:13" ht="20.25" customHeight="1">
       <c r="B12" s="95"/>
       <c r="C12" s="96"/>
       <c r="D12" s="97"/>
@@ -4900,9 +5262,9 @@
       <c r="L12" s="102"/>
       <c r="M12" s="99"/>
     </row>
-    <row r="13" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="20.25" customHeight="1">
       <c r="B13" s="105" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="102"/>
       <c r="D13" s="106"/>
@@ -4916,12 +5278,12 @@
       <c r="L13" s="102"/>
       <c r="M13" s="99"/>
     </row>
-    <row r="14" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="20.25" customHeight="1">
       <c r="B14" s="101" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D14" s="106"/>
       <c r="E14" s="103">
@@ -4938,10 +5300,10 @@
       <c r="L14" s="102"/>
       <c r="M14" s="99"/>
     </row>
-    <row r="15" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="20.25" customHeight="1">
       <c r="B15" s="105"/>
       <c r="C15" s="102" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D15" s="106"/>
       <c r="E15" s="103">
@@ -4949,7 +5311,7 @@
       </c>
       <c r="F15" s="102"/>
       <c r="G15" s="99" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H15" s="102"/>
       <c r="I15" s="102"/>
@@ -4958,10 +5320,10 @@
       <c r="L15" s="102"/>
       <c r="M15" s="99"/>
     </row>
-    <row r="16" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" ht="20.25" customHeight="1">
       <c r="B16" s="105"/>
       <c r="C16" s="102" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D16" s="106"/>
       <c r="E16" s="103">
@@ -4976,19 +5338,19 @@
       <c r="L16" s="102"/>
       <c r="M16" s="99"/>
     </row>
-    <row r="20" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" ht="20.25" customHeight="1">
       <c r="C20" s="107" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="20.25" customHeight="1">
+      <c r="C21" s="107" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="20.25" customHeight="1">
+      <c r="C22" s="107" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="107" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="107" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5182,18 +5544,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5216,18 +5578,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B130DE0C-7A28-4B03-98EC-F451E5EF5DFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Gestion_A_jmd.xlsx
+++ b/Gestion_A_jmd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilio\OneDrive\Bureau\ProjetDaleks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A7E4C6-A3B2-4DE2-BC26-179AA969F27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F77A27-B6D9-43B1-BED3-16D965CC7C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -2058,6 +2058,23 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="51" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2094,23 +2111,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="51" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2805,22 +2805,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="136"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="144"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="144"/>
+      <c r="H38" s="144"/>
+      <c r="I38" s="144"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="112"/>
@@ -2829,22 +2829,22 @@
       <c r="I39" s="112"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="136"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="144"/>
+      <c r="H40" s="144"/>
+      <c r="I40" s="144"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
+      <c r="F42" s="144"/>
+      <c r="G42" s="144"/>
+      <c r="H42" s="144"/>
+      <c r="I42" s="144"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="112"/>
@@ -2859,34 +2859,34 @@
       <c r="I44" s="112"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="136"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="144"/>
+      <c r="H47" s="144"/>
+      <c r="I47" s="144"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="144"/>
+      <c r="H48" s="144"/>
+      <c r="I48" s="144"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="144"/>
+      <c r="H49" s="144"/>
+      <c r="I49" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2905,8 +2905,8 @@
   </sheetPr>
   <dimension ref="B2:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A3" zoomScale="66" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3008,7 +3008,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B13" s="138" t="s">
+      <c r="B13" s="145" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -3022,7 +3022,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B14" s="139"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="22" t="s">
         <v>63</v>
       </c>
@@ -3034,7 +3034,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B15" s="139"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="22" t="s">
         <v>65</v>
       </c>
@@ -3046,7 +3046,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="139"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="135" t="s">
         <v>215</v>
       </c>
@@ -3058,7 +3058,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="139"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="22" t="s">
         <v>67</v>
       </c>
@@ -3070,7 +3070,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="139"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="22" t="s">
         <v>182</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="E18" s="41"/>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="139"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="22" t="s">
         <v>69</v>
       </c>
@@ -3092,7 +3092,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="139"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="22" t="s">
         <v>247</v>
       </c>
@@ -3104,7 +3104,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="139"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="22" t="s">
         <v>91</v>
       </c>
@@ -3116,7 +3116,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="139"/>
+      <c r="B22" s="146"/>
       <c r="C22" s="22" t="s">
         <v>71</v>
       </c>
@@ -3128,7 +3128,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="139"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="22" t="s">
         <v>262</v>
       </c>
@@ -3140,7 +3140,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="139"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="22" t="s">
         <v>263</v>
       </c>
@@ -3152,7 +3152,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="139"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="22" t="s">
         <v>264</v>
       </c>
@@ -3164,7 +3164,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="140"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="19" t="s">
         <v>73</v>
       </c>
@@ -3188,7 +3188,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="145" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -3202,7 +3202,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="139"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="22" t="s">
         <v>250</v>
       </c>
@@ -3214,7 +3214,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="139"/>
+      <c r="B30" s="146"/>
       <c r="C30" s="22" t="s">
         <v>61</v>
       </c>
@@ -3226,7 +3226,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="139"/>
+      <c r="B31" s="146"/>
       <c r="C31" s="22" t="s">
         <v>71</v>
       </c>
@@ -3238,37 +3238,37 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="139"/>
+      <c r="B32" s="146"/>
       <c r="C32" s="22"/>
       <c r="D32" s="18"/>
       <c r="E32" s="41"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="139"/>
+      <c r="B33" s="146"/>
       <c r="C33" s="22"/>
       <c r="D33" s="18"/>
       <c r="E33" s="41"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="139"/>
+      <c r="B34" s="146"/>
       <c r="C34" s="22"/>
       <c r="D34" s="18"/>
       <c r="E34" s="41"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="139"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="22"/>
       <c r="D35" s="18"/>
       <c r="E35" s="41"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="140"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="19"/>
       <c r="D36" s="40"/>
       <c r="E36" s="20"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="138" t="s">
+      <c r="B37" s="145" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="23" t="s">
@@ -3282,55 +3282,55 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="139"/>
+      <c r="B38" s="146"/>
       <c r="C38" s="22"/>
       <c r="D38" s="18"/>
       <c r="E38" s="41"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="139"/>
+      <c r="B39" s="146"/>
       <c r="C39" s="22"/>
       <c r="D39" s="18"/>
       <c r="E39" s="41"/>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="139"/>
+      <c r="B40" s="146"/>
       <c r="C40" s="22"/>
       <c r="D40" s="18"/>
       <c r="E40" s="41"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="139"/>
+      <c r="B41" s="146"/>
       <c r="C41" s="22"/>
       <c r="D41" s="18"/>
       <c r="E41" s="41"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="139"/>
+      <c r="B42" s="146"/>
       <c r="C42" s="22"/>
       <c r="D42" s="18"/>
       <c r="E42" s="41"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="139"/>
+      <c r="B43" s="146"/>
       <c r="C43" s="22"/>
       <c r="D43" s="18"/>
       <c r="E43" s="41"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="139"/>
+      <c r="B44" s="146"/>
       <c r="C44" s="22"/>
       <c r="D44" s="18"/>
       <c r="E44" s="41"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="139"/>
+      <c r="B45" s="146"/>
       <c r="C45" s="22"/>
       <c r="D45" s="18"/>
       <c r="E45" s="41"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="140"/>
+      <c r="B46" s="147"/>
       <c r="C46" s="24"/>
       <c r="D46" s="25"/>
       <c r="E46" s="46"/>
@@ -3352,8 +3352,8 @@
   </sheetPr>
   <dimension ref="B2:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="72" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="73" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3378,20 +3378,20 @@
     </row>
     <row r="3" spans="2:6" ht="89.4" customHeight="1">
       <c r="B3" s="109"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
       <c r="F3" s="109"/>
     </row>
     <row r="4" spans="2:6" ht="30.75" customHeight="1">
       <c r="B4" s="110"/>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
       <c r="F4" s="110"/>
     </row>
     <row r="5" spans="2:6" ht="21" customHeight="1">
@@ -3471,633 +3471,633 @@
       <c r="D12" s="32"/>
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1">
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="150" t="s">
+      <c r="C13" s="137" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="151" t="s">
+      <c r="D13" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
     </row>
     <row r="14" spans="2:6" ht="18" customHeight="1">
-      <c r="B14" s="152"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="154" t="s">
+      <c r="B14" s="139"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="149"/>
+      <c r="F14" s="136"/>
     </row>
     <row r="15" spans="2:6" ht="18" customHeight="1">
-      <c r="B15" s="152"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="154" t="s">
+      <c r="B15" s="139"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="154"/>
+      <c r="F15" s="141"/>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B16" s="149"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="154" t="s">
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="149"/>
+      <c r="F16" s="136"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="149" t="s">
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="149"/>
+      <c r="F17" s="136"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B18" s="149"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="154" t="s">
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="154" t="s">
+      <c r="F18" s="141" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B19" s="149"/>
-      <c r="C19" s="154" t="s">
+      <c r="B19" s="136"/>
+      <c r="C19" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="154" t="s">
+      <c r="D19" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="E19" s="149"/>
-      <c r="F19" s="154" t="s">
+      <c r="E19" s="136"/>
+      <c r="F19" s="141" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B20" s="149"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154" t="s">
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="154"/>
+      <c r="F20" s="141"/>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B21" s="149"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154" t="s">
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141" t="s">
         <v>232</v>
       </c>
-      <c r="F21" s="154"/>
+      <c r="F21" s="141"/>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B22" s="149"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="154" t="s">
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="141" t="s">
         <v>233</v>
       </c>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B23" s="149"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154" t="s">
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="154" t="s">
+      <c r="F23" s="141" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B24" s="149"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="154" t="s">
+      <c r="B24" s="136"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154" t="s">
+      <c r="B25" s="136"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="F25" s="154" t="s">
+      <c r="F25" s="141" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" customHeight="1">
-      <c r="B26" s="149"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="154" t="s">
+      <c r="B26" s="136"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="154" t="s">
+      <c r="F26" s="141" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B27" s="149"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="154" t="s">
+      <c r="B27" s="136"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="154" t="s">
+      <c r="F27" s="141" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="154" t="s">
+      <c r="B28" s="136"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="141" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="154" t="s">
+      <c r="F28" s="141" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B29" s="149"/>
-      <c r="C29" s="149" t="s">
+      <c r="B29" s="136"/>
+      <c r="C29" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="154" t="s">
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="141" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B30" s="149"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154" t="s">
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="154" t="s">
+      <c r="F30" s="141" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B31" s="149"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="149" t="s">
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="F31" s="154"/>
+      <c r="F31" s="141"/>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B32" s="149"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154" t="s">
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="F32" s="154" t="s">
+      <c r="F32" s="141" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B33" s="149"/>
-      <c r="C33" s="154" t="s">
+      <c r="B33" s="136"/>
+      <c r="C33" s="141" t="s">
         <v>199</v>
       </c>
-      <c r="D33" s="149"/>
-      <c r="E33" s="154" t="s">
+      <c r="D33" s="136"/>
+      <c r="E33" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="F33" s="154" t="s">
+      <c r="F33" s="141" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B34" s="149"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="154" t="s">
+      <c r="B34" s="136"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="141" t="s">
         <v>201</v>
       </c>
-      <c r="F34" s="154" t="s">
+      <c r="F34" s="141" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B35" s="149"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="154" t="s">
+      <c r="B35" s="136"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="141" t="s">
         <v>202</v>
       </c>
-      <c r="F35" s="154" t="s">
+      <c r="F35" s="141" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B36" s="149"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="154" t="s">
+      <c r="B36" s="136"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="141" t="s">
         <v>236</v>
       </c>
-      <c r="F36" s="154" t="s">
+      <c r="F36" s="141" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B37" s="149"/>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="154" t="s">
+      <c r="B37" s="136"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="141" t="s">
         <v>234</v>
       </c>
-      <c r="F37" s="154" t="s">
+      <c r="F37" s="141" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B38" s="149"/>
-      <c r="C38" s="149"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="154" t="s">
+      <c r="B38" s="136"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="154"/>
+      <c r="F38" s="141"/>
     </row>
     <row r="39" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B39" s="149"/>
-      <c r="C39" s="154" t="s">
+      <c r="B39" s="136"/>
+      <c r="C39" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="154" t="s">
+      <c r="D39" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="149"/>
-      <c r="F39" s="154" t="s">
+      <c r="E39" s="136"/>
+      <c r="F39" s="141" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B40" s="149"/>
-      <c r="C40" s="149"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="154" t="s">
+      <c r="B40" s="136"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="136"/>
+      <c r="E40" s="141" t="s">
         <v>206</v>
       </c>
-      <c r="F40" s="154" t="s">
+      <c r="F40" s="141" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B41" s="149"/>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149" t="s">
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="154"/>
+      <c r="F41" s="141"/>
     </row>
     <row r="42" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B42" s="149"/>
-      <c r="C42" s="154" t="s">
+      <c r="B42" s="136"/>
+      <c r="C42" s="141" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="154" t="s">
+      <c r="D42" s="136"/>
+      <c r="E42" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="F42" s="149"/>
+      <c r="F42" s="136"/>
     </row>
     <row r="43" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B43" s="149"/>
-      <c r="C43" s="154"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="154" t="s">
+      <c r="B43" s="136"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="141" t="s">
         <v>201</v>
       </c>
-      <c r="F43" s="149"/>
+      <c r="F43" s="136"/>
     </row>
     <row r="44" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B44" s="149"/>
-      <c r="C44" s="154"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="154" t="s">
+      <c r="B44" s="136"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="141" t="s">
         <v>202</v>
       </c>
-      <c r="F44" s="149"/>
+      <c r="F44" s="136"/>
     </row>
     <row r="45" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B45" s="149"/>
-      <c r="C45" s="154"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="154" t="s">
+      <c r="B45" s="136"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="141" t="s">
         <v>236</v>
       </c>
-      <c r="F45" s="149"/>
+      <c r="F45" s="136"/>
     </row>
     <row r="46" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B46" s="149"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="154" t="s">
+      <c r="B46" s="136"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="141" t="s">
         <v>234</v>
       </c>
-      <c r="F46" s="149"/>
+      <c r="F46" s="136"/>
     </row>
     <row r="47" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B47" s="149"/>
-      <c r="C47" s="154"/>
-      <c r="D47" s="149"/>
-      <c r="E47" s="154" t="s">
+      <c r="B47" s="136"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="149"/>
+      <c r="F47" s="136"/>
     </row>
     <row r="48" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B48" s="149"/>
-      <c r="C48" s="154" t="s">
+      <c r="B48" s="136"/>
+      <c r="C48" s="141" t="s">
         <v>209</v>
       </c>
-      <c r="D48" s="154" t="s">
+      <c r="D48" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="149"/>
-      <c r="F48" s="154" t="s">
+      <c r="E48" s="136"/>
+      <c r="F48" s="141" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B49" s="149"/>
-      <c r="C49" s="149"/>
-      <c r="D49" s="149"/>
-      <c r="E49" s="154" t="s">
+      <c r="B49" s="136"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="F49" s="154" t="s">
+      <c r="F49" s="141" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B50" s="149"/>
-      <c r="C50" s="149"/>
-      <c r="D50" s="149"/>
-      <c r="E50" s="154" t="s">
+      <c r="B50" s="136"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="141" t="s">
         <v>236</v>
       </c>
-      <c r="F50" s="154" t="s">
+      <c r="F50" s="141" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B51" s="149"/>
-      <c r="C51" s="149"/>
-      <c r="D51" s="149"/>
-      <c r="E51" s="154" t="s">
+      <c r="B51" s="136"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="F51" s="154"/>
+      <c r="F51" s="141"/>
     </row>
     <row r="52" spans="2:6" ht="18" customHeight="1">
-      <c r="B52" s="149"/>
-      <c r="C52" s="154" t="s">
+      <c r="B52" s="136"/>
+      <c r="C52" s="141" t="s">
         <v>199</v>
       </c>
-      <c r="D52" s="153"/>
-      <c r="E52" s="154" t="s">
+      <c r="D52" s="140"/>
+      <c r="E52" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="F52" s="149"/>
+      <c r="F52" s="136"/>
     </row>
     <row r="53" spans="2:6" ht="18" customHeight="1">
-      <c r="B53" s="149"/>
-      <c r="C53" s="154"/>
-      <c r="D53" s="153"/>
-      <c r="E53" s="154" t="s">
+      <c r="B53" s="136"/>
+      <c r="C53" s="141"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="141" t="s">
         <v>201</v>
       </c>
-      <c r="F53" s="149"/>
+      <c r="F53" s="136"/>
     </row>
     <row r="54" spans="2:6" ht="18" customHeight="1">
-      <c r="B54" s="149"/>
-      <c r="C54" s="154"/>
-      <c r="D54" s="153"/>
-      <c r="E54" s="154" t="s">
+      <c r="B54" s="136"/>
+      <c r="C54" s="141"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="141" t="s">
         <v>202</v>
       </c>
-      <c r="F54" s="149"/>
+      <c r="F54" s="136"/>
     </row>
     <row r="55" spans="2:6" ht="18" customHeight="1">
-      <c r="B55" s="149"/>
-      <c r="C55" s="154"/>
-      <c r="D55" s="153"/>
-      <c r="E55" s="154" t="s">
+      <c r="B55" s="136"/>
+      <c r="C55" s="141"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="141" t="s">
         <v>236</v>
       </c>
-      <c r="F55" s="149"/>
+      <c r="F55" s="136"/>
     </row>
     <row r="56" spans="2:6" ht="18" customHeight="1">
-      <c r="B56" s="149"/>
-      <c r="C56" s="154"/>
-      <c r="D56" s="153"/>
-      <c r="E56" s="154" t="s">
+      <c r="B56" s="136"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="141" t="s">
         <v>234</v>
       </c>
-      <c r="F56" s="149"/>
+      <c r="F56" s="136"/>
     </row>
     <row r="57" spans="2:6" ht="18" customHeight="1">
-      <c r="B57" s="149"/>
-      <c r="C57" s="154"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="154" t="s">
+      <c r="B57" s="136"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="F57" s="149"/>
+      <c r="F57" s="136"/>
     </row>
     <row r="58" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B58" s="149"/>
-      <c r="C58" s="154" t="s">
+      <c r="B58" s="136"/>
+      <c r="C58" s="141" t="s">
         <v>217</v>
       </c>
-      <c r="D58" s="149"/>
-      <c r="E58" s="154" t="s">
+      <c r="D58" s="136"/>
+      <c r="E58" s="141" t="s">
         <v>216</v>
       </c>
-      <c r="F58" s="154" t="s">
+      <c r="F58" s="141" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B59" s="149"/>
-      <c r="C59" s="154"/>
-      <c r="D59" s="149"/>
-      <c r="E59" s="154" t="s">
+      <c r="B59" s="136"/>
+      <c r="C59" s="141"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="141" t="s">
         <v>219</v>
       </c>
-      <c r="F59" s="154" t="s">
+      <c r="F59" s="141" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B60" s="149"/>
-      <c r="C60" s="149"/>
-      <c r="D60" s="149"/>
-      <c r="E60" s="154" t="s">
+      <c r="B60" s="136"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="141" t="s">
         <v>222</v>
       </c>
-      <c r="F60" s="154" t="s">
+      <c r="F60" s="141" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B61" s="149"/>
-      <c r="C61" s="149"/>
-      <c r="D61" s="154" t="s">
+      <c r="B61" s="136"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="141" t="s">
         <v>223</v>
       </c>
-      <c r="E61" s="149"/>
-      <c r="F61" s="154" t="s">
+      <c r="E61" s="136"/>
+      <c r="F61" s="141" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B62" s="149"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="149"/>
-      <c r="E62" s="154" t="s">
+      <c r="B62" s="136"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="F62" s="149"/>
+      <c r="F62" s="136"/>
     </row>
     <row r="63" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B63" s="149"/>
-      <c r="C63" s="149"/>
-      <c r="D63" s="149"/>
-      <c r="E63" s="149" t="s">
+      <c r="B63" s="136"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="136"/>
+      <c r="E63" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="F63" s="149"/>
+      <c r="F63" s="136"/>
     </row>
     <row r="64" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B64" s="149"/>
-      <c r="C64" s="149"/>
-      <c r="D64" s="149"/>
-      <c r="E64" s="154" t="s">
+      <c r="B64" s="136"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="136"/>
+      <c r="E64" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="F64" s="154" t="s">
+      <c r="F64" s="141" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B65" s="149"/>
-      <c r="C65" s="154" t="s">
+      <c r="B65" s="136"/>
+      <c r="C65" s="141" t="s">
         <v>225</v>
       </c>
-      <c r="D65" s="154" t="s">
+      <c r="D65" s="141" t="s">
         <v>226</v>
       </c>
-      <c r="E65" s="149"/>
-      <c r="F65" s="154" t="s">
+      <c r="E65" s="136"/>
+      <c r="F65" s="141" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B66" s="149"/>
-      <c r="C66" s="149"/>
-      <c r="D66" s="149"/>
-      <c r="E66" s="154" t="s">
+      <c r="B66" s="136"/>
+      <c r="C66" s="136"/>
+      <c r="D66" s="136"/>
+      <c r="E66" s="141" t="s">
         <v>230</v>
       </c>
-      <c r="F66" s="149"/>
+      <c r="F66" s="136"/>
     </row>
     <row r="67" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B67" s="149"/>
-      <c r="C67" s="149"/>
-      <c r="D67" s="149"/>
-      <c r="E67" s="154" t="s">
+      <c r="B67" s="136"/>
+      <c r="C67" s="136"/>
+      <c r="D67" s="136"/>
+      <c r="E67" s="141" t="s">
         <v>231</v>
       </c>
-      <c r="F67" s="149"/>
+      <c r="F67" s="136"/>
     </row>
     <row r="68" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B68" s="149"/>
-      <c r="C68" s="149"/>
-      <c r="D68" s="154" t="s">
+      <c r="B68" s="136"/>
+      <c r="C68" s="136"/>
+      <c r="D68" s="141" t="s">
         <v>223</v>
       </c>
-      <c r="E68" s="149"/>
-      <c r="F68" s="154" t="s">
+      <c r="E68" s="136"/>
+      <c r="F68" s="141" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B69" s="149"/>
-      <c r="C69" s="149"/>
-      <c r="D69" s="149"/>
-      <c r="E69" s="154" t="s">
+      <c r="B69" s="136"/>
+      <c r="C69" s="136"/>
+      <c r="D69" s="136"/>
+      <c r="E69" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="F69" s="154" t="s">
+      <c r="F69" s="141" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B70" s="149"/>
-      <c r="C70" s="154" t="s">
+      <c r="B70" s="136"/>
+      <c r="C70" s="141" t="s">
         <v>241</v>
       </c>
-      <c r="D70" s="154" t="s">
+      <c r="D70" s="141" t="s">
         <v>243</v>
       </c>
-      <c r="E70" s="149"/>
-      <c r="F70" s="154" t="s">
+      <c r="E70" s="136"/>
+      <c r="F70" s="141" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B71" s="149"/>
-      <c r="C71" s="149"/>
-      <c r="D71" s="149"/>
-      <c r="E71" s="154" t="s">
+      <c r="B71" s="136"/>
+      <c r="C71" s="136"/>
+      <c r="D71" s="136"/>
+      <c r="E71" s="141" t="s">
         <v>244</v>
       </c>
-      <c r="F71" s="149"/>
+      <c r="F71" s="136"/>
     </row>
     <row r="72" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B72" s="149"/>
-      <c r="C72" s="149"/>
-      <c r="D72" s="149"/>
-      <c r="E72" s="154" t="s">
+      <c r="B72" s="136"/>
+      <c r="C72" s="136"/>
+      <c r="D72" s="136"/>
+      <c r="E72" s="141" t="s">
         <v>245</v>
       </c>
-      <c r="F72" s="149"/>
+      <c r="F72" s="136"/>
     </row>
     <row r="73" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B73" s="149"/>
-      <c r="C73" s="149"/>
-      <c r="D73" s="149"/>
-      <c r="E73" s="154" t="s">
+      <c r="B73" s="136"/>
+      <c r="C73" s="136"/>
+      <c r="D73" s="136"/>
+      <c r="E73" s="141" t="s">
         <v>246</v>
       </c>
-      <c r="F73" s="149"/>
+      <c r="F73" s="136"/>
     </row>
     <row r="105" spans="4:4" ht="15.75" customHeight="1">
       <c r="D105" t="s">
@@ -4297,13 +4297,13 @@
       <c r="J11" s="112"/>
       <c r="K11" s="112"/>
       <c r="L11" s="112"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="137"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
       <c r="P11" s="112"/>
       <c r="Q11" s="112"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="145"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="152"/>
     </row>
     <row r="12" spans="7:19" ht="15">
       <c r="G12" s="38"/>
@@ -4509,9 +4509,9 @@
       <c r="W23" s="112"/>
     </row>
     <row r="24" spans="7:23" ht="15">
-      <c r="G24" s="143"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
       <c r="J24" s="112"/>
       <c r="K24" s="112"/>
       <c r="L24" s="112"/>
@@ -4547,9 +4547,9 @@
       <c r="W25" s="112"/>
     </row>
     <row r="26" spans="7:23" ht="15">
-      <c r="G26" s="143"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
       <c r="J26" s="112"/>
       <c r="K26" s="112"/>
       <c r="L26" s="112"/>
@@ -4594,14 +4594,14 @@
       <c r="M28" s="112"/>
       <c r="N28" s="112"/>
       <c r="O28" s="112"/>
-      <c r="P28" s="143"/>
-      <c r="Q28" s="137"/>
-      <c r="R28" s="137"/>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="144"/>
+      <c r="R28" s="144"/>
       <c r="S28" s="112"/>
-      <c r="T28" s="143"/>
-      <c r="U28" s="137"/>
-      <c r="V28" s="137"/>
-      <c r="W28" s="137"/>
+      <c r="T28" s="150"/>
+      <c r="U28" s="144"/>
+      <c r="V28" s="144"/>
+      <c r="W28" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4643,14 +4643,14 @@
   <sheetData>
     <row r="1" spans="2:8" ht="87" customHeight="1">
       <c r="B1" s="110"/>
-      <c r="C1" s="141" t="s">
+      <c r="C1" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="112"/>
@@ -4773,12 +4773,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="64.5" customHeight="1">
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
     </row>
     <row r="2" spans="2:11" ht="13.2"/>
     <row r="3" spans="2:11" ht="13.2">
@@ -4801,10 +4801,10 @@
       <c r="E6" s="113"/>
     </row>
     <row r="7" spans="2:11" ht="26.4">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="154" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="137"/>
+      <c r="C7" s="144"/>
       <c r="G7" s="113" t="s">
         <v>133</v>
       </c>
@@ -4915,13 +4915,13 @@
     <row r="1" spans="2:8" ht="57" customHeight="1">
       <c r="B1" s="115"/>
       <c r="C1" s="116"/>
-      <c r="D1" s="146" t="s">
+      <c r="D1" s="153" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="115"/>
@@ -5087,12 +5087,12 @@
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1">
       <c r="B4" s="102"/>
@@ -5544,18 +5544,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5578,18 +5578,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B130DE0C-7A28-4B03-98EC-F451E5EF5DFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Gestion_A_jmd.xlsx
+++ b/Gestion_A_jmd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilio\OneDrive\Bureau\ProjetDaleks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F77A27-B6D9-43B1-BED3-16D965CC7C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745BF8D5-3E86-44F5-9CD9-AAD9AAA3DBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="290">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -811,9 +811,6 @@
     <t>while choix = choix_existant</t>
   </si>
   <si>
-    <t>facile,moyen,difficil</t>
-  </si>
-  <si>
     <t>affiche les differents niveau</t>
   </si>
   <si>
@@ -841,15 +838,6 @@
     <t>verifier collision</t>
   </si>
   <si>
-    <t>collision daleks docteur</t>
-  </si>
-  <si>
-    <t>collision daleks daleks</t>
-  </si>
-  <si>
-    <t>collision daleks ferraile</t>
-  </si>
-  <si>
     <t>if position_dacleks = postion_docteur si vrai fin de partie(perdu)</t>
   </si>
   <si>
@@ -922,9 +910,6 @@
     <t>press choix score</t>
   </si>
   <si>
-    <t>while choix = choix_existant =t</t>
-  </si>
-  <si>
     <t>while choix = choix_existant = z and if zapper &gt; 0</t>
   </si>
   <si>
@@ -961,9 +946,6 @@
     <t>plateau et toutes les entité qui le compose (docteur position defini au prealable ou aleatoire) (daleks placer aleatoirement0</t>
   </si>
   <si>
-    <t>et if  nb_daleks =0 fin de partie</t>
-  </si>
-  <si>
     <t>quitter le programe</t>
   </si>
   <si>
@@ -1058,6 +1040,75 @@
   </si>
   <si>
     <t>username, point</t>
+  </si>
+  <si>
+    <t>Airdejeu</t>
+  </si>
+  <si>
+    <t>Feraille</t>
+  </si>
+  <si>
+    <t>if collision daleks docteur</t>
+  </si>
+  <si>
+    <t>if collision daleks daleks</t>
+  </si>
+  <si>
+    <t>if collision daleks ferraile</t>
+  </si>
+  <si>
+    <t>print("facile - moyen - difficile")</t>
+  </si>
+  <si>
+    <t>if collision daleks et docteur = feraille</t>
+  </si>
+  <si>
+    <t>if  nb_daleks = 0 fin de partie, nb_zappeur += 1</t>
+  </si>
+  <si>
+    <t>fin_de_partie</t>
+  </si>
+  <si>
+    <t>while choix = choix_existant = t</t>
+  </si>
+  <si>
+    <t>Creer un fichier CSV</t>
+  </si>
+  <si>
+    <t>mouvement_permis</t>
+  </si>
+  <si>
+    <t>Haute</t>
+  </si>
+  <si>
+    <t>Nos fonctions</t>
+  </si>
+  <si>
+    <t>choix_possible</t>
+  </si>
+  <si>
+    <t>contact_dalek_docteur</t>
+  </si>
+  <si>
+    <t>contact_dalek_dalek</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1h &lt;</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>score_joueur</t>
+  </si>
+  <si>
+    <t>moyenne</t>
+  </si>
+  <si>
+    <t>2h</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1120,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1171,8 +1222,27 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1190,8 +1260,62 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD9797"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="52">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1790,12 +1914,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2039,18 +2200,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2061,18 +2213,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="51" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2111,6 +2252,132 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2135,6 +2402,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFD9797"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2805,22 +3077,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="143"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="130"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="130"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="112"/>
@@ -2829,22 +3101,22 @@
       <c r="I39" s="112"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="143"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="112"/>
@@ -2859,34 +3131,34 @@
       <c r="I44" s="112"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="143"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="144"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="144"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="144"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="144"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="144"/>
-      <c r="I48" s="144"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="130"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="144"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="144"/>
-      <c r="I49" s="144"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2906,7 +3178,7 @@
   <dimension ref="B2:E46"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="66" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3008,7 +3280,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="131" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -3022,19 +3294,19 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B14" s="146"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="134" t="s">
-        <v>214</v>
+      <c r="D14" s="125" t="s">
+        <v>210</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B15" s="146"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="22" t="s">
         <v>65</v>
       </c>
@@ -3046,19 +3318,19 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="146"/>
-      <c r="C16" s="135" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="134" t="s">
-        <v>260</v>
+      <c r="B16" s="132"/>
+      <c r="C16" s="126" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="125" t="s">
+        <v>254</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="146"/>
+      <c r="B17" s="132"/>
       <c r="C17" s="22" t="s">
         <v>67</v>
       </c>
@@ -3070,7 +3342,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="146"/>
+      <c r="B18" s="132"/>
       <c r="C18" s="22" t="s">
         <v>182</v>
       </c>
@@ -3080,7 +3352,7 @@
       <c r="E18" s="41"/>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="146"/>
+      <c r="B19" s="132"/>
       <c r="C19" s="22" t="s">
         <v>69</v>
       </c>
@@ -3088,107 +3360,107 @@
         <v>70</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="146"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="22" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="146"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="22" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="146"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E22" s="133" t="s">
-        <v>211</v>
+        <v>262</v>
+      </c>
+      <c r="E22" s="124" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="146"/>
+      <c r="B23" s="132"/>
       <c r="C23" s="22" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="E23" s="133" t="s">
         <v>259</v>
       </c>
+      <c r="E23" s="124" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="146"/>
+      <c r="B24" s="132"/>
       <c r="C24" s="22" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="E24" s="133" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="E24" s="124" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="146"/>
+      <c r="B25" s="132"/>
       <c r="C25" s="22" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="E25" s="133" t="s">
-        <v>259</v>
+        <v>261</v>
+      </c>
+      <c r="E25" s="124" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="147"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="E26" s="132" t="s">
-        <v>210</v>
+        <v>263</v>
+      </c>
+      <c r="E26" s="123" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="12.75" customHeight="1">
       <c r="B27" s="108"/>
       <c r="C27" s="22" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="E27" s="133" t="s">
-        <v>272</v>
+        <v>265</v>
+      </c>
+      <c r="E27" s="124" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="131" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -3202,135 +3474,135 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="146"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="146"/>
+      <c r="B30" s="132"/>
       <c r="C30" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="146"/>
+      <c r="B31" s="132"/>
       <c r="C31" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="146"/>
+      <c r="B32" s="132"/>
       <c r="C32" s="22"/>
       <c r="D32" s="18"/>
       <c r="E32" s="41"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="146"/>
+      <c r="B33" s="132"/>
       <c r="C33" s="22"/>
       <c r="D33" s="18"/>
       <c r="E33" s="41"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="146"/>
+      <c r="B34" s="132"/>
       <c r="C34" s="22"/>
       <c r="D34" s="18"/>
       <c r="E34" s="41"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="146"/>
+      <c r="B35" s="132"/>
       <c r="C35" s="22"/>
       <c r="D35" s="18"/>
       <c r="E35" s="41"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="147"/>
+      <c r="B36" s="133"/>
       <c r="C36" s="19"/>
       <c r="D36" s="40"/>
       <c r="E36" s="20"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="145" t="s">
+      <c r="B37" s="131" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="146"/>
+      <c r="B38" s="132"/>
       <c r="C38" s="22"/>
       <c r="D38" s="18"/>
       <c r="E38" s="41"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="146"/>
+      <c r="B39" s="132"/>
       <c r="C39" s="22"/>
       <c r="D39" s="18"/>
       <c r="E39" s="41"/>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="146"/>
+      <c r="B40" s="132"/>
       <c r="C40" s="22"/>
       <c r="D40" s="18"/>
       <c r="E40" s="41"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="146"/>
+      <c r="B41" s="132"/>
       <c r="C41" s="22"/>
       <c r="D41" s="18"/>
       <c r="E41" s="41"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="146"/>
+      <c r="B42" s="132"/>
       <c r="C42" s="22"/>
       <c r="D42" s="18"/>
       <c r="E42" s="41"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="146"/>
+      <c r="B43" s="132"/>
       <c r="C43" s="22"/>
       <c r="D43" s="18"/>
       <c r="E43" s="41"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="146"/>
+      <c r="B44" s="132"/>
       <c r="C44" s="22"/>
       <c r="D44" s="18"/>
       <c r="E44" s="41"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="146"/>
+      <c r="B45" s="132"/>
       <c r="C45" s="22"/>
       <c r="D45" s="18"/>
       <c r="E45" s="41"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="147"/>
+      <c r="B46" s="133"/>
       <c r="C46" s="24"/>
       <c r="D46" s="25"/>
       <c r="E46" s="46"/>
@@ -3350,10 +3622,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:F105"/>
+  <dimension ref="B2:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="73" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="F9" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3378,20 +3650,20 @@
     </row>
     <row r="3" spans="2:6" ht="89.4" customHeight="1">
       <c r="B3" s="109"/>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
       <c r="F3" s="109"/>
     </row>
     <row r="4" spans="2:6" ht="30.75" customHeight="1">
       <c r="B4" s="110"/>
-      <c r="C4" s="149" t="s">
+      <c r="C4" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
       <c r="F4" s="110"/>
     </row>
     <row r="5" spans="2:6" ht="21" customHeight="1">
@@ -3471,636 +3743,654 @@
       <c r="D12" s="32"/>
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1">
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="159" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="138" t="s">
+      <c r="D13" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
     </row>
     <row r="14" spans="2:6" ht="18" customHeight="1">
-      <c r="B14" s="139"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="141" t="s">
+      <c r="B14" s="144"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="136"/>
+      <c r="F14" s="142"/>
     </row>
     <row r="15" spans="2:6" ht="18" customHeight="1">
-      <c r="B15" s="139"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="141" t="s">
+      <c r="B15" s="144"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="141"/>
+      <c r="F15" s="146"/>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B16" s="136"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="141" t="s">
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="136"/>
+      <c r="F16" s="142"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B17" s="136"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="136" t="s">
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="136"/>
+      <c r="F17" s="142"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B18" s="136"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="141" t="s">
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="146" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="141" t="s">
+      <c r="F18" s="146" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B19" s="136"/>
-      <c r="C19" s="141" t="s">
+      <c r="B19" s="127" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="141" t="s">
+      <c r="D19" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="E19" s="136"/>
-      <c r="F19" s="141" t="s">
+      <c r="E19" s="127"/>
+      <c r="F19" s="128" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="141"/>
+      <c r="F20" s="128"/>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141" t="s">
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" s="128"/>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="128" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128" t="s">
+        <v>277</v>
+      </c>
+      <c r="F23" s="128"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B24" s="128" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="127"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="128" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B25" s="128" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="127"/>
+      <c r="D25" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="128" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15" customHeight="1">
+      <c r="B27" s="127"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="128" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="128" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="128" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B30" s="148" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="149" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B31" s="148"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" s="149" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B32" s="148"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="148" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="149"/>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" s="149" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B34" s="148" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="161" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="148"/>
+      <c r="E34" s="149" t="s">
+        <v>269</v>
+      </c>
+      <c r="F34" s="149" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B35" s="148"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="149" t="s">
+        <v>270</v>
+      </c>
+      <c r="F35" s="149" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B36" s="148"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="149" t="s">
+        <v>271</v>
+      </c>
+      <c r="F36" s="149" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B37" s="148"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="149" t="s">
+        <v>231</v>
+      </c>
+      <c r="F37" s="149" t="s">
         <v>232</v>
       </c>
-      <c r="F21" s="141"/>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B22" s="136"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="141" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="F23" s="141" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B24" s="136"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="141" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B25" s="136"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141" t="s">
-        <v>193</v>
-      </c>
-      <c r="F25" s="141" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1">
-      <c r="B26" s="136"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="141" t="s">
+    </row>
+    <row r="38" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="149" t="s">
+        <v>229</v>
+      </c>
+      <c r="F38" s="149" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B39" s="148"/>
+      <c r="C39" s="148"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="149" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="149"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B40" s="150" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="162" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="151" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="150"/>
+      <c r="F40" s="151" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B41" s="150"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="151" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" s="151" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B42" s="150"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="151"/>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B43" s="150" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="162" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="150"/>
+      <c r="E43" s="151" t="s">
+        <v>269</v>
+      </c>
+      <c r="F43" s="151" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B44" s="150"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="151" t="s">
+        <v>270</v>
+      </c>
+      <c r="F44" s="151" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B45" s="150"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="151" t="s">
+        <v>271</v>
+      </c>
+      <c r="F45" s="151" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B46" s="150"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="150"/>
+      <c r="E46" s="151" t="s">
+        <v>273</v>
+      </c>
+      <c r="F46" s="150"/>
+    </row>
+    <row r="47" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B47" s="150"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="151" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="150"/>
+    </row>
+    <row r="48" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B48" s="152" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="152"/>
+      <c r="F48" s="153" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B49" s="152"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="153" t="s">
+        <v>208</v>
+      </c>
+      <c r="F49" s="153" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B50" s="152"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="153" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" s="153" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B51" s="152"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="153" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" s="153"/>
+    </row>
+    <row r="52" spans="2:6" ht="18" customHeight="1">
+      <c r="B52" s="152" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="163" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" s="154"/>
+      <c r="E52" s="153" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" s="153" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="18" customHeight="1">
+      <c r="B53" s="152"/>
+      <c r="C53" s="153"/>
+      <c r="D53" s="154"/>
+      <c r="E53" s="153" t="s">
+        <v>270</v>
+      </c>
+      <c r="F53" s="153" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="18" customHeight="1">
+      <c r="B54" s="152"/>
+      <c r="C54" s="153"/>
+      <c r="D54" s="154"/>
+      <c r="E54" s="153" t="s">
+        <v>273</v>
+      </c>
+      <c r="F54" s="153" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="18" customHeight="1">
+      <c r="B55" s="152"/>
+      <c r="C55" s="153"/>
+      <c r="D55" s="154"/>
+      <c r="E55" s="153" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="152"/>
+    </row>
+    <row r="56" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B56" s="155" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="164" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" s="155"/>
+      <c r="E56" s="156" t="s">
+        <v>212</v>
+      </c>
+      <c r="F56" s="156" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B57" s="155"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="155"/>
+      <c r="E57" s="156" t="s">
+        <v>215</v>
+      </c>
+      <c r="F57" s="156" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B58" s="155"/>
+      <c r="C58" s="155"/>
+      <c r="D58" s="155"/>
+      <c r="E58" s="156" t="s">
+        <v>218</v>
+      </c>
+      <c r="F58" s="156" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B59" s="155"/>
+      <c r="C59" s="155"/>
+      <c r="D59" s="156" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" s="155"/>
+      <c r="F59" s="156" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B60" s="155"/>
+      <c r="C60" s="155"/>
+      <c r="D60" s="155"/>
+      <c r="E60" s="156" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" s="155"/>
+    </row>
+    <row r="61" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B61" s="155"/>
+      <c r="C61" s="155"/>
+      <c r="D61" s="155"/>
+      <c r="E61" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="155"/>
+    </row>
+    <row r="62" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B62" s="155"/>
+      <c r="C62" s="155"/>
+      <c r="D62" s="155"/>
+      <c r="E62" s="156" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" s="156" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B63" s="157" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="165" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" s="158" t="s">
+        <v>222</v>
+      </c>
+      <c r="E63" s="157"/>
+      <c r="F63" s="158" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B64" s="157"/>
+      <c r="C64" s="157"/>
+      <c r="D64" s="157"/>
+      <c r="E64" s="158" t="s">
+        <v>225</v>
+      </c>
+      <c r="F64" s="157"/>
+    </row>
+    <row r="65" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B65" s="157"/>
+      <c r="C65" s="157"/>
+      <c r="D65" s="157"/>
+      <c r="E65" s="158" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" s="157"/>
+    </row>
+    <row r="66" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B66" s="157"/>
+      <c r="C66" s="157"/>
+      <c r="D66" s="158" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" s="157"/>
+      <c r="F66" s="158" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B67" s="157"/>
+      <c r="C67" s="157"/>
+      <c r="D67" s="157"/>
+      <c r="E67" s="158" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="158" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B68" s="157" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="165" t="s">
+        <v>235</v>
+      </c>
+      <c r="D68" s="158" t="s">
+        <v>237</v>
+      </c>
+      <c r="E68" s="157"/>
+      <c r="F68" s="158" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B69" s="157"/>
+      <c r="C69" s="157"/>
+      <c r="D69" s="157"/>
+      <c r="E69" s="158" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B27" s="136"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="141" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="141" t="s">
+      <c r="F69" s="157"/>
+    </row>
+    <row r="70" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B70" s="157"/>
+      <c r="C70" s="157"/>
+      <c r="D70" s="157"/>
+      <c r="E70" s="158" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B28" s="136"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="141" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="141" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B29" s="136"/>
-      <c r="C29" s="136" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="141" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B30" s="136"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="141" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B31" s="136"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="136" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="141"/>
-    </row>
-    <row r="32" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B32" s="136"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141" t="s">
-        <v>196</v>
-      </c>
-      <c r="F32" s="141" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B33" s="136"/>
-      <c r="C33" s="141" t="s">
-        <v>199</v>
-      </c>
-      <c r="D33" s="136"/>
-      <c r="E33" s="141" t="s">
-        <v>200</v>
-      </c>
-      <c r="F33" s="141" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B34" s="136"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="141" t="s">
-        <v>201</v>
-      </c>
-      <c r="F34" s="141" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B35" s="136"/>
-      <c r="C35" s="136"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="141" t="s">
-        <v>202</v>
-      </c>
-      <c r="F35" s="141" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B36" s="136"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="141" t="s">
-        <v>236</v>
-      </c>
-      <c r="F36" s="141" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B37" s="136"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="141" t="s">
-        <v>234</v>
-      </c>
-      <c r="F37" s="141" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B38" s="136"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="141" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="141"/>
-    </row>
-    <row r="39" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B39" s="136"/>
-      <c r="C39" s="141" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="136"/>
-      <c r="F39" s="141" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B40" s="136"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="136"/>
-      <c r="E40" s="141" t="s">
-        <v>206</v>
-      </c>
-      <c r="F40" s="141" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B41" s="136"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="141"/>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B42" s="136"/>
-      <c r="C42" s="141" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42" s="136"/>
-      <c r="E42" s="141" t="s">
-        <v>200</v>
-      </c>
-      <c r="F42" s="136"/>
-    </row>
-    <row r="43" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B43" s="136"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="141" t="s">
-        <v>201</v>
-      </c>
-      <c r="F43" s="136"/>
-    </row>
-    <row r="44" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B44" s="136"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="141" t="s">
-        <v>202</v>
-      </c>
-      <c r="F44" s="136"/>
-    </row>
-    <row r="45" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B45" s="136"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="141" t="s">
-        <v>236</v>
-      </c>
-      <c r="F45" s="136"/>
-    </row>
-    <row r="46" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B46" s="136"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="141" t="s">
-        <v>234</v>
-      </c>
-      <c r="F46" s="136"/>
-    </row>
-    <row r="47" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B47" s="136"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="141" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" s="136"/>
-    </row>
-    <row r="48" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B48" s="136"/>
-      <c r="C48" s="141" t="s">
-        <v>209</v>
-      </c>
-      <c r="D48" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="136"/>
-      <c r="F48" s="141" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B49" s="136"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="141" t="s">
-        <v>212</v>
-      </c>
-      <c r="F49" s="141" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B50" s="136"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="141" t="s">
-        <v>236</v>
-      </c>
-      <c r="F50" s="141" t="s">
+      <c r="F70" s="157"/>
+    </row>
+    <row r="71" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B71" s="157"/>
+      <c r="C71" s="157"/>
+      <c r="D71" s="157"/>
+      <c r="E71" s="158" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B51" s="136"/>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="141" t="s">
-        <v>196</v>
-      </c>
-      <c r="F51" s="141"/>
-    </row>
-    <row r="52" spans="2:6" ht="18" customHeight="1">
-      <c r="B52" s="136"/>
-      <c r="C52" s="141" t="s">
-        <v>199</v>
-      </c>
-      <c r="D52" s="140"/>
-      <c r="E52" s="141" t="s">
-        <v>200</v>
-      </c>
-      <c r="F52" s="136"/>
-    </row>
-    <row r="53" spans="2:6" ht="18" customHeight="1">
-      <c r="B53" s="136"/>
-      <c r="C53" s="141"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="141" t="s">
-        <v>201</v>
-      </c>
-      <c r="F53" s="136"/>
-    </row>
-    <row r="54" spans="2:6" ht="18" customHeight="1">
-      <c r="B54" s="136"/>
-      <c r="C54" s="141"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="141" t="s">
-        <v>202</v>
-      </c>
-      <c r="F54" s="136"/>
-    </row>
-    <row r="55" spans="2:6" ht="18" customHeight="1">
-      <c r="B55" s="136"/>
-      <c r="C55" s="141"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="141" t="s">
-        <v>236</v>
-      </c>
-      <c r="F55" s="136"/>
-    </row>
-    <row r="56" spans="2:6" ht="18" customHeight="1">
-      <c r="B56" s="136"/>
-      <c r="C56" s="141"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="141" t="s">
-        <v>234</v>
-      </c>
-      <c r="F56" s="136"/>
-    </row>
-    <row r="57" spans="2:6" ht="18" customHeight="1">
-      <c r="B57" s="136"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="141" t="s">
-        <v>102</v>
-      </c>
-      <c r="F57" s="136"/>
-    </row>
-    <row r="58" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B58" s="136"/>
-      <c r="C58" s="141" t="s">
-        <v>217</v>
-      </c>
-      <c r="D58" s="136"/>
-      <c r="E58" s="141" t="s">
-        <v>216</v>
-      </c>
-      <c r="F58" s="141" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B59" s="136"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="141" t="s">
-        <v>219</v>
-      </c>
-      <c r="F59" s="141" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B60" s="136"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="141" t="s">
-        <v>222</v>
-      </c>
-      <c r="F60" s="141" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B61" s="136"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="141" t="s">
-        <v>223</v>
-      </c>
-      <c r="E61" s="136"/>
-      <c r="F61" s="141" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B62" s="136"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="141" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" s="136"/>
-    </row>
-    <row r="63" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B63" s="136"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="136" t="s">
-        <v>96</v>
-      </c>
-      <c r="F63" s="136"/>
-    </row>
-    <row r="64" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B64" s="136"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="141" t="s">
-        <v>97</v>
-      </c>
-      <c r="F64" s="141" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B65" s="136"/>
-      <c r="C65" s="141" t="s">
-        <v>225</v>
-      </c>
-      <c r="D65" s="141" t="s">
-        <v>226</v>
-      </c>
-      <c r="E65" s="136"/>
-      <c r="F65" s="141" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B66" s="136"/>
-      <c r="C66" s="136"/>
-      <c r="D66" s="136"/>
-      <c r="E66" s="141" t="s">
-        <v>230</v>
-      </c>
-      <c r="F66" s="136"/>
-    </row>
-    <row r="67" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B67" s="136"/>
-      <c r="C67" s="136"/>
-      <c r="D67" s="136"/>
-      <c r="E67" s="141" t="s">
-        <v>231</v>
-      </c>
-      <c r="F67" s="136"/>
-    </row>
-    <row r="68" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B68" s="136"/>
-      <c r="C68" s="136"/>
-      <c r="D68" s="141" t="s">
-        <v>223</v>
-      </c>
-      <c r="E68" s="136"/>
-      <c r="F68" s="141" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B69" s="136"/>
-      <c r="C69" s="136"/>
-      <c r="D69" s="136"/>
-      <c r="E69" s="141" t="s">
-        <v>97</v>
-      </c>
-      <c r="F69" s="141" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B70" s="136"/>
-      <c r="C70" s="141" t="s">
-        <v>241</v>
-      </c>
-      <c r="D70" s="141" t="s">
-        <v>243</v>
-      </c>
-      <c r="E70" s="136"/>
-      <c r="F70" s="141" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B71" s="136"/>
-      <c r="C71" s="136"/>
-      <c r="D71" s="136"/>
-      <c r="E71" s="141" t="s">
-        <v>244</v>
-      </c>
-      <c r="F71" s="136"/>
-    </row>
-    <row r="72" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B72" s="136"/>
-      <c r="C72" s="136"/>
-      <c r="D72" s="136"/>
-      <c r="E72" s="141" t="s">
-        <v>245</v>
-      </c>
-      <c r="F72" s="136"/>
-    </row>
-    <row r="73" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B73" s="136"/>
-      <c r="C73" s="136"/>
-      <c r="D73" s="136"/>
-      <c r="E73" s="141" t="s">
-        <v>246</v>
-      </c>
-      <c r="F73" s="136"/>
-    </row>
-    <row r="105" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D105" t="s">
+      <c r="F71" s="157"/>
+    </row>
+    <row r="103" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D103" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4121,7 +4411,7 @@
   </sheetPr>
   <dimension ref="G1:W28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="CI1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -4297,13 +4587,13 @@
       <c r="J11" s="112"/>
       <c r="K11" s="112"/>
       <c r="L11" s="112"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
       <c r="P11" s="112"/>
       <c r="Q11" s="112"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="152"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="138"/>
     </row>
     <row r="12" spans="7:19" ht="15">
       <c r="G12" s="38"/>
@@ -4509,9 +4799,9 @@
       <c r="W23" s="112"/>
     </row>
     <row r="24" spans="7:23" ht="15">
-      <c r="G24" s="150"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
       <c r="J24" s="112"/>
       <c r="K24" s="112"/>
       <c r="L24" s="112"/>
@@ -4547,9 +4837,9 @@
       <c r="W25" s="112"/>
     </row>
     <row r="26" spans="7:23" ht="15">
-      <c r="G26" s="150"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
       <c r="J26" s="112"/>
       <c r="K26" s="112"/>
       <c r="L26" s="112"/>
@@ -4594,14 +4884,14 @@
       <c r="M28" s="112"/>
       <c r="N28" s="112"/>
       <c r="O28" s="112"/>
-      <c r="P28" s="150"/>
-      <c r="Q28" s="144"/>
-      <c r="R28" s="144"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="130"/>
+      <c r="R28" s="130"/>
       <c r="S28" s="112"/>
-      <c r="T28" s="150"/>
-      <c r="U28" s="144"/>
-      <c r="V28" s="144"/>
-      <c r="W28" s="144"/>
+      <c r="T28" s="136"/>
+      <c r="U28" s="130"/>
+      <c r="V28" s="130"/>
+      <c r="W28" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4643,14 +4933,14 @@
   <sheetData>
     <row r="1" spans="2:8" ht="87" customHeight="1">
       <c r="B1" s="110"/>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="112"/>
@@ -4773,12 +5063,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="64.5" customHeight="1">
-      <c r="C1" s="153" t="s">
+      <c r="C1" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
     </row>
     <row r="2" spans="2:11" ht="13.2"/>
     <row r="3" spans="2:11" ht="13.2">
@@ -4801,10 +5091,10 @@
       <c r="E6" s="113"/>
     </row>
     <row r="7" spans="2:11" ht="26.4">
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="140" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="144"/>
+      <c r="C7" s="130"/>
       <c r="G7" s="113" t="s">
         <v>133</v>
       </c>
@@ -4895,10 +5185,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:H11"/>
+  <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4907,7 +5197,7 @@
     <col min="2" max="2" width="38.5546875" customWidth="1"/>
     <col min="3" max="3" width="7.109375" customWidth="1"/>
     <col min="4" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
@@ -4915,13 +5205,13 @@
     <row r="1" spans="2:8" ht="57" customHeight="1">
       <c r="B1" s="115"/>
       <c r="C1" s="116"/>
-      <c r="D1" s="153" t="s">
+      <c r="D1" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="115"/>
@@ -4991,48 +5281,293 @@
     </row>
     <row r="8" spans="2:8" ht="13.5" customHeight="1">
       <c r="C8" s="116"/>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="174" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="123"/>
+      <c r="E8" s="175" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="176" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" s="175"/>
+      <c r="H8" s="177"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1">
       <c r="B9" s="115"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="127"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="178" t="s">
+        <v>241</v>
+      </c>
+      <c r="E9" s="167" t="s">
+        <v>279</v>
+      </c>
+      <c r="F9" s="179" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" s="180"/>
+      <c r="H9" s="181"/>
     </row>
     <row r="10" spans="2:8" ht="12.75" customHeight="1">
       <c r="B10" s="113" t="s">
         <v>156</v>
       </c>
       <c r="C10" s="116"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="130"/>
+      <c r="D10" s="166" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="168" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="167" t="s">
+        <v>284</v>
+      </c>
+      <c r="G10" s="168"/>
+      <c r="H10" s="169"/>
     </row>
     <row r="11" spans="2:8" ht="12.75" customHeight="1">
       <c r="B11" s="56" t="s">
         <v>157</v>
       </c>
       <c r="C11" s="116"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="130"/>
+      <c r="D11" s="166" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="167" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="167" t="s">
+        <v>284</v>
+      </c>
+      <c r="G11" s="168"/>
+      <c r="H11" s="169"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D12" s="166" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="168" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" s="167" t="s">
+        <v>284</v>
+      </c>
+      <c r="G12" s="168"/>
+      <c r="H12" s="169"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D13" s="166" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="168" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="167" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="168"/>
+      <c r="H13" s="169"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D14" s="166" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="168" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="167" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="168"/>
+      <c r="H14" s="169"/>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D15" s="166" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="167" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" s="167" t="s">
+        <v>284</v>
+      </c>
+      <c r="G15" s="168"/>
+      <c r="H15" s="169"/>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D16" s="170" t="s">
+        <v>280</v>
+      </c>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="172"/>
+    </row>
+    <row r="17" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D17" s="178" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" s="184" t="s">
+        <v>279</v>
+      </c>
+      <c r="F17" s="173" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="168"/>
+      <c r="H17" s="183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D18" s="178" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="184" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="173" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="168"/>
+      <c r="H18" s="183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D19" s="178" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="184" t="s">
+        <v>279</v>
+      </c>
+      <c r="F19" s="173" t="s">
+        <v>286</v>
+      </c>
+      <c r="G19" s="168"/>
+      <c r="H19" s="183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D20" s="178" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" s="184" t="s">
+        <v>279</v>
+      </c>
+      <c r="F20" s="173" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" s="168"/>
+      <c r="H20" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D21" s="178" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21" s="182" t="s">
+        <v>288</v>
+      </c>
+      <c r="F21" s="167" t="s">
+        <v>286</v>
+      </c>
+      <c r="G21" s="168"/>
+      <c r="H21" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D22" s="178" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="182" t="s">
+        <v>288</v>
+      </c>
+      <c r="F22" s="167" t="s">
+        <v>289</v>
+      </c>
+      <c r="G22" s="168"/>
+      <c r="H22" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D23" s="178" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="182" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" s="167" t="s">
+        <v>289</v>
+      </c>
+      <c r="G23" s="168"/>
+      <c r="H23" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D24" s="166"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="169"/>
+    </row>
+    <row r="25" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D25" s="166"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="169"/>
+    </row>
+    <row r="26" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D26" s="166"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="169"/>
+    </row>
+    <row r="27" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D27" s="166"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="169"/>
+    </row>
+    <row r="28" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D28" s="166"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="169"/>
+    </row>
+    <row r="29" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D29" s="166"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="169"/>
+    </row>
+    <row r="30" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D30" s="166"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="169"/>
+    </row>
+    <row r="31" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D31" s="166"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="169"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D16:H16"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -5087,12 +5622,12 @@
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1">
       <c r="B4" s="102"/>
@@ -5200,7 +5735,7 @@
       <c r="B10" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="122" t="s">
         <v>169</v>
       </c>
       <c r="D10" s="86" t="s">
@@ -5544,18 +6079,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5578,18 +6113,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B130DE0C-7A28-4B03-98EC-F451E5EF5DFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Gestion_A_jmd.xlsx
+++ b/Gestion_A_jmd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilio\OneDrive\Bureau\ProjetDaleks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ouaiouaihashish\Desktop\ProjetDaleks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745BF8D5-3E86-44F5-9CD9-AAD9AAA3DBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D30532-572E-4940-A228-F9578A94228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -976,9 +976,6 @@
     <t>Position dalek</t>
   </si>
   <si>
-    <t>Position aéleatoir sauf même case</t>
-  </si>
-  <si>
     <t>coordonée x y (différente)</t>
   </si>
   <si>
@@ -1109,6 +1106,9 @@
   </si>
   <si>
     <t>2h</t>
+  </si>
+  <si>
+    <t>Position aléatoir sauf même case</t>
   </si>
 </sst>
 </file>
@@ -2216,6 +2216,120 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2250,133 +2364,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2724,17 +2724,17 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
-    <col min="4" max="4" width="69.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" customWidth="1"/>
-    <col min="7" max="7" width="45.33203125" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" customWidth="1"/>
-    <col min="9" max="28" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="69.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="45.28515625" customWidth="1"/>
+    <col min="8" max="8" width="67.85546875" customWidth="1"/>
+    <col min="9" max="28" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17.25" customHeight="1">
@@ -3077,22 +3077,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="129"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="130"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="170"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="130"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="130"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="170"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="112"/>
@@ -3101,22 +3101,22 @@
       <c r="I39" s="112"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="129"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
+      <c r="F40" s="169"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="130"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="170"/>
+      <c r="H41" s="170"/>
+      <c r="I41" s="170"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="130"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="130"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="112"/>
@@ -3131,34 +3131,34 @@
       <c r="I44" s="112"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="129"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
+      <c r="F45" s="169"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="130"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="130"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="130"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="130"/>
+      <c r="F47" s="170"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="170"/>
+      <c r="I47" s="170"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="130"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="130"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="170"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
+      <c r="F49" s="170"/>
+      <c r="G49" s="170"/>
+      <c r="H49" s="170"/>
+      <c r="I49" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3177,18 +3177,18 @@
   </sheetPr>
   <dimension ref="B2:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="66" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" customWidth="1"/>
-    <col min="4" max="4" width="138.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="138.7109375" customWidth="1"/>
     <col min="5" max="5" width="48" customWidth="1"/>
-    <col min="6" max="7" width="8.5546875" customWidth="1"/>
+    <col min="6" max="7" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="12.75" customHeight="1">
@@ -3280,7 +3280,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="171" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -3294,7 +3294,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B14" s="132"/>
+      <c r="B14" s="172"/>
       <c r="C14" s="22" t="s">
         <v>63</v>
       </c>
@@ -3306,7 +3306,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B15" s="132"/>
+      <c r="B15" s="172"/>
       <c r="C15" s="22" t="s">
         <v>65</v>
       </c>
@@ -3318,19 +3318,19 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="132"/>
+      <c r="B16" s="172"/>
       <c r="C16" s="126" t="s">
         <v>211</v>
       </c>
       <c r="D16" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="132"/>
+      <c r="B17" s="172"/>
       <c r="C17" s="22" t="s">
         <v>67</v>
       </c>
@@ -3342,7 +3342,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="132"/>
+      <c r="B18" s="172"/>
       <c r="C18" s="22" t="s">
         <v>182</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="E18" s="41"/>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="132"/>
+      <c r="B19" s="172"/>
       <c r="C19" s="22" t="s">
         <v>69</v>
       </c>
@@ -3360,11 +3360,11 @@
         <v>70</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="132"/>
+      <c r="B20" s="172"/>
       <c r="C20" s="22" t="s">
         <v>241</v>
       </c>
@@ -3376,72 +3376,72 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="132"/>
+      <c r="B21" s="172"/>
       <c r="C21" s="22" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E21" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="E21" s="41" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="132"/>
+      <c r="B22" s="172"/>
       <c r="C22" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E22" s="124" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="132"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" s="124" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B24" s="172"/>
+      <c r="C24" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="E23" s="124" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="132"/>
-      <c r="C24" s="22" t="s">
+      <c r="E24" s="124" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B25" s="172"/>
+      <c r="C25" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D25" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="124" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="132"/>
-      <c r="C25" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>261</v>
-      </c>
       <c r="E25" s="124" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="133"/>
+      <c r="B26" s="173"/>
       <c r="C26" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E26" s="123" t="s">
         <v>206</v>
@@ -3450,17 +3450,17 @@
     <row r="27" spans="2:5" ht="12.75" customHeight="1">
       <c r="B27" s="108"/>
       <c r="C27" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="E27" s="124" t="s">
         <v>265</v>
       </c>
-      <c r="E27" s="124" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="131" t="s">
+      <c r="B28" s="171" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -3474,135 +3474,135 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="132"/>
+      <c r="B29" s="172"/>
       <c r="C29" s="22" t="s">
         <v>244</v>
       </c>
       <c r="D29" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="E29" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="E29" s="41" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="132"/>
+      <c r="B30" s="172"/>
       <c r="C30" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E30" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="E30" s="41" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="132"/>
+      <c r="B31" s="172"/>
       <c r="C31" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="132"/>
+      <c r="B32" s="172"/>
       <c r="C32" s="22"/>
       <c r="D32" s="18"/>
       <c r="E32" s="41"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="132"/>
+      <c r="B33" s="172"/>
       <c r="C33" s="22"/>
       <c r="D33" s="18"/>
       <c r="E33" s="41"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="132"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="22"/>
       <c r="D34" s="18"/>
       <c r="E34" s="41"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="132"/>
+      <c r="B35" s="172"/>
       <c r="C35" s="22"/>
       <c r="D35" s="18"/>
       <c r="E35" s="41"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="133"/>
+      <c r="B36" s="173"/>
       <c r="C36" s="19"/>
       <c r="D36" s="40"/>
       <c r="E36" s="20"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="131" t="s">
+      <c r="B37" s="171" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="E37" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E37" s="21" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="132"/>
+      <c r="B38" s="172"/>
       <c r="C38" s="22"/>
       <c r="D38" s="18"/>
       <c r="E38" s="41"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="132"/>
+      <c r="B39" s="172"/>
       <c r="C39" s="22"/>
       <c r="D39" s="18"/>
       <c r="E39" s="41"/>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="132"/>
+      <c r="B40" s="172"/>
       <c r="C40" s="22"/>
       <c r="D40" s="18"/>
       <c r="E40" s="41"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="132"/>
+      <c r="B41" s="172"/>
       <c r="C41" s="22"/>
       <c r="D41" s="18"/>
       <c r="E41" s="41"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="132"/>
+      <c r="B42" s="172"/>
       <c r="C42" s="22"/>
       <c r="D42" s="18"/>
       <c r="E42" s="41"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="132"/>
+      <c r="B43" s="172"/>
       <c r="C43" s="22"/>
       <c r="D43" s="18"/>
       <c r="E43" s="41"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="132"/>
+      <c r="B44" s="172"/>
       <c r="C44" s="22"/>
       <c r="D44" s="18"/>
       <c r="E44" s="41"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="132"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="22"/>
       <c r="D45" s="18"/>
       <c r="E45" s="41"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="133"/>
+      <c r="B46" s="173"/>
       <c r="C46" s="24"/>
       <c r="D46" s="25"/>
       <c r="E46" s="46"/>
@@ -3624,19 +3624,19 @@
   </sheetPr>
   <dimension ref="B2:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="F9" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" customWidth="1"/>
-    <col min="4" max="4" width="44.44140625" customWidth="1"/>
-    <col min="5" max="5" width="49.5546875" customWidth="1"/>
-    <col min="6" max="6" width="138.6640625" customWidth="1"/>
-    <col min="7" max="8" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" customWidth="1"/>
+    <col min="6" max="6" width="138.7109375" customWidth="1"/>
+    <col min="7" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.25" customHeight="1">
@@ -3648,22 +3648,22 @@
       <c r="E2" s="109"/>
       <c r="F2" s="109"/>
     </row>
-    <row r="3" spans="2:6" ht="89.4" customHeight="1">
+    <row r="3" spans="2:6" ht="89.45" customHeight="1">
       <c r="B3" s="109"/>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
       <c r="F3" s="109"/>
     </row>
     <row r="4" spans="2:6" ht="30.75" customHeight="1">
       <c r="B4" s="110"/>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
       <c r="F4" s="110"/>
     </row>
     <row r="5" spans="2:6" ht="21" customHeight="1">
@@ -3743,62 +3743,62 @@
       <c r="D12" s="32"/>
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1">
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="146" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="143" t="s">
+      <c r="D13" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
     </row>
     <row r="14" spans="2:6" ht="18" customHeight="1">
-      <c r="B14" s="144"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="146" t="s">
+      <c r="B14" s="131"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="142"/>
+      <c r="F14" s="129"/>
     </row>
     <row r="15" spans="2:6" ht="18" customHeight="1">
-      <c r="B15" s="144"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="146" t="s">
+      <c r="B15" s="131"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="146"/>
+      <c r="F15" s="133"/>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="146" t="s">
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="142"/>
+      <c r="F16" s="129"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="142" t="s">
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="142"/>
+      <c r="F17" s="129"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="146" t="s">
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="146" t="s">
+      <c r="F18" s="133" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3806,7 +3806,7 @@
       <c r="B19" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="160" t="s">
+      <c r="C19" s="147" t="s">
         <v>98</v>
       </c>
       <c r="D19" s="128" t="s">
@@ -3849,7 +3849,7 @@
       <c r="C23" s="127"/>
       <c r="D23" s="128"/>
       <c r="E23" s="128" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F23" s="128"/>
     </row>
@@ -3863,7 +3863,7 @@
         <v>190</v>
       </c>
       <c r="F24" s="128" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1">
@@ -3922,472 +3922,472 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B30" s="148" t="s">
+      <c r="B30" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="161" t="s">
+      <c r="C30" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="149" t="s">
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="136" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B31" s="148"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149" t="s">
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="F31" s="149" t="s">
+      <c r="F31" s="136" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B32" s="148"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="148" t="s">
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="149"/>
+      <c r="F32" s="136"/>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149" t="s">
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="F33" s="149" t="s">
+      <c r="F33" s="136" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="161" t="s">
+      <c r="C34" s="148" t="s">
         <v>198</v>
       </c>
-      <c r="D34" s="148"/>
-      <c r="E34" s="149" t="s">
+      <c r="D34" s="135"/>
+      <c r="E34" s="136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F34" s="136" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="136" t="s">
         <v>269</v>
       </c>
-      <c r="F34" s="149" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B35" s="148"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="149" t="s">
+      <c r="F35" s="136" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="136" t="s">
         <v>270</v>
       </c>
-      <c r="F35" s="149" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B36" s="148"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="149" t="s">
-        <v>271</v>
-      </c>
-      <c r="F36" s="149" t="s">
+      <c r="F36" s="136" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B37" s="148"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="149" t="s">
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="136" t="s">
         <v>231</v>
       </c>
-      <c r="F37" s="149" t="s">
+      <c r="F37" s="136" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="149" t="s">
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="136" t="s">
         <v>229</v>
       </c>
-      <c r="F38" s="149" t="s">
+      <c r="F38" s="136" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B39" s="148"/>
-      <c r="C39" s="148"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="149" t="s">
+      <c r="B39" s="135"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="149"/>
+      <c r="F39" s="136"/>
     </row>
     <row r="40" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B40" s="150" t="s">
+      <c r="B40" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="162" t="s">
+      <c r="C40" s="149" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="151" t="s">
+      <c r="D40" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="150"/>
-      <c r="F40" s="151" t="s">
-        <v>276</v>
+      <c r="E40" s="137"/>
+      <c r="F40" s="138" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B41" s="150"/>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="151" t="s">
+      <c r="B41" s="137"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="F41" s="151" t="s">
+      <c r="F41" s="138" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B42" s="150"/>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150" t="s">
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="F42" s="151"/>
+      <c r="F42" s="138"/>
     </row>
     <row r="43" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B43" s="150" t="s">
+      <c r="B43" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="162" t="s">
+      <c r="C43" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="D43" s="150"/>
-      <c r="E43" s="151" t="s">
+      <c r="D43" s="137"/>
+      <c r="E43" s="138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F43" s="138" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B44" s="137"/>
+      <c r="C44" s="138"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="138" t="s">
         <v>269</v>
       </c>
-      <c r="F43" s="151" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B44" s="150"/>
-      <c r="C44" s="151"/>
-      <c r="D44" s="150"/>
-      <c r="E44" s="151" t="s">
+      <c r="F44" s="138" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B45" s="137"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="138" t="s">
         <v>270</v>
       </c>
-      <c r="F44" s="151" t="s">
+      <c r="F45" s="138" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B46" s="137"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F46" s="137"/>
+    </row>
+    <row r="47" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B47" s="137"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="137"/>
+    </row>
+    <row r="48" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B48" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="150" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" s="140" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="139"/>
+      <c r="F48" s="140" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B49" s="139"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="140" t="s">
+        <v>208</v>
+      </c>
+      <c r="F49" s="140" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B50" s="139"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="140" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" s="140" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B51" s="139"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="139"/>
+      <c r="E51" s="140" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" s="140"/>
+    </row>
+    <row r="52" spans="2:6" ht="18" customHeight="1">
+      <c r="B52" s="139" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="150" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" s="141"/>
+      <c r="E52" s="140" t="s">
+        <v>268</v>
+      </c>
+      <c r="F52" s="140" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="18" customHeight="1">
+      <c r="B53" s="139"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="141"/>
+      <c r="E53" s="140" t="s">
+        <v>269</v>
+      </c>
+      <c r="F53" s="140" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B45" s="150"/>
-      <c r="C45" s="151"/>
-      <c r="D45" s="150"/>
-      <c r="E45" s="151" t="s">
-        <v>271</v>
-      </c>
-      <c r="F45" s="151" t="s">
+    <row r="54" spans="2:6" ht="18" customHeight="1">
+      <c r="B54" s="139"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="141"/>
+      <c r="E54" s="140" t="s">
+        <v>272</v>
+      </c>
+      <c r="F54" s="140" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B46" s="150"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="150"/>
-      <c r="E46" s="151" t="s">
-        <v>273</v>
-      </c>
-      <c r="F46" s="150"/>
-    </row>
-    <row r="47" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B47" s="150"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="150"/>
-      <c r="E47" s="151" t="s">
+    <row r="55" spans="2:6" ht="18" customHeight="1">
+      <c r="B55" s="139"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="141"/>
+      <c r="E55" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="150"/>
-    </row>
-    <row r="48" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B48" s="152" t="s">
+      <c r="F55" s="139"/>
+    </row>
+    <row r="56" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B56" s="142" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="151" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" s="142"/>
+      <c r="E56" s="143" t="s">
+        <v>212</v>
+      </c>
+      <c r="F56" s="143" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B57" s="142"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="143" t="s">
+        <v>215</v>
+      </c>
+      <c r="F57" s="143" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B58" s="142"/>
+      <c r="C58" s="142"/>
+      <c r="D58" s="142"/>
+      <c r="E58" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="F58" s="143" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B59" s="142"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="143" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" s="142"/>
+      <c r="F59" s="143" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B60" s="142"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="143" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" s="142"/>
+    </row>
+    <row r="61" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B61" s="142"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="142"/>
+      <c r="E61" s="142" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="142"/>
+    </row>
+    <row r="62" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B62" s="142"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="142"/>
+      <c r="E62" s="143" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" s="143" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B63" s="144" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="152" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" s="145" t="s">
+        <v>222</v>
+      </c>
+      <c r="E63" s="144"/>
+      <c r="F63" s="145" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B64" s="144"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="144"/>
+      <c r="E64" s="145" t="s">
+        <v>225</v>
+      </c>
+      <c r="F64" s="144"/>
+    </row>
+    <row r="65" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B65" s="144"/>
+      <c r="C65" s="144"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="145" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" s="144"/>
+    </row>
+    <row r="66" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B66" s="144"/>
+      <c r="C66" s="144"/>
+      <c r="D66" s="145" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" s="144"/>
+      <c r="F66" s="145" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B67" s="144"/>
+      <c r="C67" s="144"/>
+      <c r="D67" s="144"/>
+      <c r="E67" s="145" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="145" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B68" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="163" t="s">
-        <v>205</v>
-      </c>
-      <c r="D48" s="153" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="152"/>
-      <c r="F48" s="153" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B49" s="152"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="153" t="s">
-        <v>208</v>
-      </c>
-      <c r="F49" s="153" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B50" s="152"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="152"/>
-      <c r="E50" s="153" t="s">
-        <v>231</v>
-      </c>
-      <c r="F50" s="153" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B51" s="152"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="153" t="s">
-        <v>195</v>
-      </c>
-      <c r="F51" s="153"/>
-    </row>
-    <row r="52" spans="2:6" ht="18" customHeight="1">
-      <c r="B52" s="152" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="163" t="s">
-        <v>198</v>
-      </c>
-      <c r="D52" s="154"/>
-      <c r="E52" s="153" t="s">
-        <v>269</v>
-      </c>
-      <c r="F52" s="153" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="18" customHeight="1">
-      <c r="B53" s="152"/>
-      <c r="C53" s="153"/>
-      <c r="D53" s="154"/>
-      <c r="E53" s="153" t="s">
-        <v>270</v>
-      </c>
-      <c r="F53" s="153" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="18" customHeight="1">
-      <c r="B54" s="152"/>
-      <c r="C54" s="153"/>
-      <c r="D54" s="154"/>
-      <c r="E54" s="153" t="s">
-        <v>273</v>
-      </c>
-      <c r="F54" s="153" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="18" customHeight="1">
-      <c r="B55" s="152"/>
-      <c r="C55" s="153"/>
-      <c r="D55" s="154"/>
-      <c r="E55" s="153" t="s">
-        <v>102</v>
-      </c>
-      <c r="F55" s="152"/>
-    </row>
-    <row r="56" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B56" s="155" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="164" t="s">
-        <v>213</v>
-      </c>
-      <c r="D56" s="155"/>
-      <c r="E56" s="156" t="s">
-        <v>212</v>
-      </c>
-      <c r="F56" s="156" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B57" s="155"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="155"/>
-      <c r="E57" s="156" t="s">
-        <v>215</v>
-      </c>
-      <c r="F57" s="156" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B58" s="155"/>
-      <c r="C58" s="155"/>
-      <c r="D58" s="155"/>
-      <c r="E58" s="156" t="s">
-        <v>218</v>
-      </c>
-      <c r="F58" s="156" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B59" s="155"/>
-      <c r="C59" s="155"/>
-      <c r="D59" s="156" t="s">
-        <v>219</v>
-      </c>
-      <c r="E59" s="155"/>
-      <c r="F59" s="156" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B60" s="155"/>
-      <c r="C60" s="155"/>
-      <c r="D60" s="155"/>
-      <c r="E60" s="156" t="s">
-        <v>95</v>
-      </c>
-      <c r="F60" s="155"/>
-    </row>
-    <row r="61" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B61" s="155"/>
-      <c r="C61" s="155"/>
-      <c r="D61" s="155"/>
-      <c r="E61" s="155" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="155"/>
-    </row>
-    <row r="62" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B62" s="155"/>
-      <c r="C62" s="155"/>
-      <c r="D62" s="155"/>
-      <c r="E62" s="156" t="s">
-        <v>97</v>
-      </c>
-      <c r="F62" s="156" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B63" s="157" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="165" t="s">
-        <v>221</v>
-      </c>
-      <c r="D63" s="158" t="s">
-        <v>222</v>
-      </c>
-      <c r="E63" s="157"/>
-      <c r="F63" s="158" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B64" s="157"/>
-      <c r="C64" s="157"/>
-      <c r="D64" s="157"/>
-      <c r="E64" s="158" t="s">
-        <v>225</v>
-      </c>
-      <c r="F64" s="157"/>
-    </row>
-    <row r="65" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B65" s="157"/>
-      <c r="C65" s="157"/>
-      <c r="D65" s="157"/>
-      <c r="E65" s="158" t="s">
-        <v>226</v>
-      </c>
-      <c r="F65" s="157"/>
-    </row>
-    <row r="66" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B66" s="157"/>
-      <c r="C66" s="157"/>
-      <c r="D66" s="158" t="s">
-        <v>219</v>
-      </c>
-      <c r="E66" s="157"/>
-      <c r="F66" s="158" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B67" s="157"/>
-      <c r="C67" s="157"/>
-      <c r="D67" s="157"/>
-      <c r="E67" s="158" t="s">
-        <v>97</v>
-      </c>
-      <c r="F67" s="158" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B68" s="157" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68" s="165" t="s">
+      <c r="C68" s="152" t="s">
         <v>235</v>
       </c>
-      <c r="D68" s="158" t="s">
+      <c r="D68" s="145" t="s">
         <v>237</v>
       </c>
-      <c r="E68" s="157"/>
-      <c r="F68" s="158" t="s">
+      <c r="E68" s="144"/>
+      <c r="F68" s="145" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B69" s="157"/>
-      <c r="C69" s="157"/>
-      <c r="D69" s="157"/>
-      <c r="E69" s="158" t="s">
+      <c r="B69" s="144"/>
+      <c r="C69" s="144"/>
+      <c r="D69" s="144"/>
+      <c r="E69" s="145" t="s">
         <v>238</v>
       </c>
-      <c r="F69" s="157"/>
+      <c r="F69" s="144"/>
     </row>
     <row r="70" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B70" s="157"/>
-      <c r="C70" s="157"/>
-      <c r="D70" s="157"/>
-      <c r="E70" s="158" t="s">
+      <c r="B70" s="144"/>
+      <c r="C70" s="144"/>
+      <c r="D70" s="144"/>
+      <c r="E70" s="145" t="s">
         <v>239</v>
       </c>
-      <c r="F70" s="157"/>
+      <c r="F70" s="144"/>
     </row>
     <row r="71" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B71" s="157"/>
-      <c r="C71" s="157"/>
-      <c r="D71" s="157"/>
-      <c r="E71" s="158" t="s">
+      <c r="B71" s="144"/>
+      <c r="C71" s="144"/>
+      <c r="D71" s="144"/>
+      <c r="E71" s="145" t="s">
         <v>240</v>
       </c>
-      <c r="F71" s="157"/>
+      <c r="F71" s="144"/>
     </row>
     <row r="103" spans="4:4" ht="15.75" customHeight="1">
       <c r="D103" t="s">
@@ -4413,9 +4413,9 @@
   <sheetViews>
     <sheetView topLeftCell="CI1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="101" width="4.109375" customWidth="1"/>
+    <col min="1" max="101" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="7:19" ht="21.75" customHeight="1">
@@ -4563,7 +4563,7 @@
       <c r="R9" s="112"/>
       <c r="S9" s="112"/>
     </row>
-    <row r="10" spans="7:19" ht="15.6">
+    <row r="10" spans="7:19">
       <c r="G10" s="34"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
@@ -4587,13 +4587,13 @@
       <c r="J11" s="112"/>
       <c r="K11" s="112"/>
       <c r="L11" s="112"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
+      <c r="M11" s="177"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
       <c r="P11" s="112"/>
       <c r="Q11" s="112"/>
-      <c r="R11" s="137"/>
-      <c r="S11" s="138"/>
+      <c r="R11" s="177"/>
+      <c r="S11" s="178"/>
     </row>
     <row r="12" spans="7:19" ht="15">
       <c r="G12" s="38"/>
@@ -4680,7 +4680,7 @@
       <c r="R16" s="40"/>
       <c r="S16" s="41"/>
     </row>
-    <row r="18" spans="7:23" ht="15.6">
+    <row r="18" spans="7:23" ht="15">
       <c r="G18" s="38"/>
       <c r="H18" s="42"/>
       <c r="I18" s="49"/>
@@ -4799,9 +4799,9 @@
       <c r="W23" s="112"/>
     </row>
     <row r="24" spans="7:23" ht="15">
-      <c r="G24" s="136"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
       <c r="J24" s="112"/>
       <c r="K24" s="112"/>
       <c r="L24" s="112"/>
@@ -4837,9 +4837,9 @@
       <c r="W25" s="112"/>
     </row>
     <row r="26" spans="7:23" ht="15">
-      <c r="G26" s="136"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
       <c r="J26" s="112"/>
       <c r="K26" s="112"/>
       <c r="L26" s="112"/>
@@ -4884,14 +4884,14 @@
       <c r="M28" s="112"/>
       <c r="N28" s="112"/>
       <c r="O28" s="112"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="130"/>
-      <c r="R28" s="130"/>
+      <c r="P28" s="176"/>
+      <c r="Q28" s="170"/>
+      <c r="R28" s="170"/>
       <c r="S28" s="112"/>
-      <c r="T28" s="136"/>
-      <c r="U28" s="130"/>
-      <c r="V28" s="130"/>
-      <c r="W28" s="130"/>
+      <c r="T28" s="176"/>
+      <c r="U28" s="170"/>
+      <c r="V28" s="170"/>
+      <c r="W28" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4915,32 +4915,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
     <col min="12" max="30" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="87" customHeight="1">
       <c r="B1" s="110"/>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="174" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="112"/>
@@ -5054,47 +5054,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="26" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="64.5" customHeight="1">
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="179" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-    </row>
-    <row r="2" spans="2:11" ht="13.2"/>
-    <row r="3" spans="2:11" ht="13.2">
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+    </row>
+    <row r="2" spans="2:11" ht="12.75"/>
+    <row r="3" spans="2:11" ht="12.75">
       <c r="B3" s="56" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="13.2">
+    <row r="4" spans="2:11" ht="12.75">
       <c r="B4" s="57"/>
     </row>
-    <row r="5" spans="2:11" ht="13.2">
+    <row r="5" spans="2:11" ht="12.75">
       <c r="B5" s="113"/>
       <c r="C5" s="113"/>
       <c r="D5" s="113"/>
     </row>
-    <row r="6" spans="2:11" ht="13.2">
+    <row r="6" spans="2:11" ht="12.75">
       <c r="B6" s="113"/>
       <c r="C6" s="113"/>
       <c r="D6" s="113"/>
       <c r="E6" s="113"/>
     </row>
-    <row r="7" spans="2:11" ht="26.4">
-      <c r="B7" s="140" t="s">
+    <row r="7" spans="2:11" ht="25.5">
+      <c r="B7" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="130"/>
+      <c r="C7" s="170"/>
       <c r="G7" s="113" t="s">
         <v>133</v>
       </c>
@@ -5102,7 +5102,7 @@
       <c r="I7" s="113"/>
       <c r="J7" s="113"/>
     </row>
-    <row r="8" spans="2:11" ht="13.2">
+    <row r="8" spans="2:11" ht="12.75">
       <c r="B8" s="113"/>
       <c r="G8" s="113" t="s">
         <v>134</v>
@@ -5110,7 +5110,7 @@
       <c r="H8" s="113"/>
       <c r="I8" s="113"/>
     </row>
-    <row r="9" spans="2:11" ht="13.2">
+    <row r="9" spans="2:11" ht="12.75">
       <c r="B9" s="58" t="s">
         <v>135</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="13.2">
+    <row r="10" spans="2:11" ht="12.75">
       <c r="B10" s="108"/>
       <c r="D10" s="67"/>
       <c r="G10" s="68" t="s">
@@ -5143,7 +5143,7 @@
       <c r="J10" s="113"/>
       <c r="K10" s="111"/>
     </row>
-    <row r="11" spans="2:11" ht="26.4">
+    <row r="11" spans="2:11" ht="25.5">
       <c r="B11" s="64"/>
       <c r="C11" s="65"/>
       <c r="D11" s="66"/>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K11" s="111"/>
     </row>
-    <row r="12" spans="2:11" ht="13.2">
+    <row r="12" spans="2:11" ht="12.75">
       <c r="B12" s="108"/>
       <c r="D12" s="67"/>
       <c r="G12" s="68" t="s">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="K12" s="111"/>
     </row>
-    <row r="13" spans="2:11" ht="13.2">
+    <row r="13" spans="2:11" ht="12.75">
       <c r="B13" s="108"/>
       <c r="D13" s="67"/>
       <c r="G13" s="68" t="s">
@@ -5187,31 +5187,31 @@
   </sheetPr>
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="88" workbookViewId="0">
       <selection activeCell="D16" sqref="D16:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="56.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="57" customHeight="1">
       <c r="B1" s="115"/>
       <c r="C1" s="116"/>
-      <c r="D1" s="139" t="s">
+      <c r="D1" s="179" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="115"/>
@@ -5241,7 +5241,7 @@
       <c r="F4" s="115"/>
       <c r="H4" s="115"/>
     </row>
-    <row r="5" spans="2:8" ht="13.2">
+    <row r="5" spans="2:8" ht="12.75">
       <c r="B5" s="115"/>
       <c r="C5" s="116"/>
       <c r="D5" s="117"/>
@@ -5281,294 +5281,303 @@
     </row>
     <row r="8" spans="2:8" ht="13.5" customHeight="1">
       <c r="C8" s="116"/>
-      <c r="D8" s="174" t="s">
+      <c r="D8" s="158" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="175" t="s">
-        <v>279</v>
-      </c>
-      <c r="F8" s="176" t="s">
-        <v>284</v>
-      </c>
-      <c r="G8" s="175"/>
-      <c r="H8" s="177"/>
+      <c r="E8" s="159" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="160" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" s="159"/>
+      <c r="H8" s="185"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1">
       <c r="B9" s="115"/>
       <c r="C9" s="121"/>
-      <c r="D9" s="178" t="s">
+      <c r="D9" s="161" t="s">
         <v>241</v>
       </c>
-      <c r="E9" s="167" t="s">
-        <v>279</v>
-      </c>
-      <c r="F9" s="179" t="s">
-        <v>284</v>
-      </c>
-      <c r="G9" s="180"/>
-      <c r="H9" s="181"/>
+      <c r="E9" s="154" t="s">
+        <v>278</v>
+      </c>
+      <c r="F9" s="162" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="163"/>
+      <c r="H9" s="164"/>
     </row>
     <row r="10" spans="2:8" ht="12.75" customHeight="1">
       <c r="B10" s="113" t="s">
         <v>156</v>
       </c>
       <c r="C10" s="116"/>
-      <c r="D10" s="166" t="s">
+      <c r="D10" s="153" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="168" t="s">
-        <v>279</v>
-      </c>
-      <c r="F10" s="167" t="s">
-        <v>284</v>
-      </c>
-      <c r="G10" s="168"/>
-      <c r="H10" s="169"/>
+      <c r="E10" s="155" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="154" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="155"/>
+      <c r="H10" s="156"/>
     </row>
     <row r="11" spans="2:8" ht="12.75" customHeight="1">
       <c r="B11" s="56" t="s">
         <v>157</v>
       </c>
       <c r="C11" s="116"/>
-      <c r="D11" s="166" t="s">
+      <c r="D11" s="153" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="154" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="154" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="155"/>
+      <c r="H11" s="156"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D12" s="153" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="155" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="154" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" s="155"/>
+      <c r="H12" s="156"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D13" s="153" t="s">
         <v>267</v>
       </c>
-      <c r="E11" s="167" t="s">
+      <c r="E13" s="155" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="154" t="s">
+        <v>283</v>
+      </c>
+      <c r="G13" s="155"/>
+      <c r="H13" s="156"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D14" s="153" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="155" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="154" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="155"/>
+      <c r="H14" s="156"/>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D15" s="153" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="154" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="154" t="s">
+        <v>283</v>
+      </c>
+      <c r="G15" s="155"/>
+      <c r="H15" s="156"/>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D16" s="181" t="s">
         <v>279</v>
       </c>
-      <c r="F11" s="167" t="s">
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="183"/>
+    </row>
+    <row r="17" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D17" s="161" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="167" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="157" t="s">
         <v>284</v>
       </c>
-      <c r="G11" s="168"/>
-      <c r="H11" s="169"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D12" s="166" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="168" t="s">
-        <v>279</v>
-      </c>
-      <c r="F12" s="167" t="s">
+      <c r="G17" s="155"/>
+      <c r="H17" s="166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D18" s="161" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="167" t="s">
+        <v>278</v>
+      </c>
+      <c r="F18" s="157" t="s">
         <v>284</v>
       </c>
-      <c r="G12" s="168"/>
-      <c r="H12" s="169"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D13" s="166" t="s">
-        <v>268</v>
-      </c>
-      <c r="E13" s="168" t="s">
-        <v>279</v>
-      </c>
-      <c r="F13" s="167" t="s">
-        <v>284</v>
-      </c>
-      <c r="G13" s="168"/>
-      <c r="H13" s="169"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D14" s="166" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="168" t="s">
-        <v>279</v>
-      </c>
-      <c r="F14" s="167" t="s">
-        <v>284</v>
-      </c>
-      <c r="G14" s="168"/>
-      <c r="H14" s="169"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D15" s="166" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="167" t="s">
-        <v>279</v>
-      </c>
-      <c r="F15" s="167" t="s">
-        <v>284</v>
-      </c>
-      <c r="G15" s="168"/>
-      <c r="H15" s="169"/>
-    </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D16" s="170" t="s">
-        <v>280</v>
-      </c>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="172"/>
-    </row>
-    <row r="17" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D17" s="178" t="s">
+      <c r="G18" s="155"/>
+      <c r="H18" s="166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D19" s="161" t="s">
+        <v>281</v>
+      </c>
+      <c r="E19" s="167" t="s">
         <v>278</v>
       </c>
-      <c r="E17" s="184" t="s">
-        <v>279</v>
-      </c>
-      <c r="F17" s="173" t="s">
+      <c r="F19" s="157" t="s">
         <v>285</v>
       </c>
-      <c r="G17" s="168"/>
-      <c r="H17" s="183">
+      <c r="G19" s="155"/>
+      <c r="H19" s="166">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D18" s="178" t="s">
-        <v>281</v>
-      </c>
-      <c r="E18" s="184" t="s">
-        <v>279</v>
-      </c>
-      <c r="F18" s="173" t="s">
+    <row r="20" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D20" s="161" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" s="167" t="s">
+        <v>278</v>
+      </c>
+      <c r="F20" s="157" t="s">
         <v>285</v>
       </c>
-      <c r="G18" s="168"/>
-      <c r="H18" s="183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D19" s="178" t="s">
-        <v>282</v>
-      </c>
-      <c r="E19" s="184" t="s">
-        <v>279</v>
-      </c>
-      <c r="F19" s="173" t="s">
+      <c r="G20" s="155"/>
+      <c r="H20" s="168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D21" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="G19" s="168"/>
-      <c r="H19" s="183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D20" s="178" t="s">
-        <v>283</v>
-      </c>
-      <c r="E20" s="184" t="s">
-        <v>279</v>
-      </c>
-      <c r="F20" s="173" t="s">
-        <v>286</v>
-      </c>
-      <c r="G20" s="168"/>
-      <c r="H20" s="185">
+      <c r="E21" s="165" t="s">
+        <v>287</v>
+      </c>
+      <c r="F21" s="154" t="s">
+        <v>285</v>
+      </c>
+      <c r="G21" s="155"/>
+      <c r="H21" s="168">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D21" s="178" t="s">
+    <row r="22" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D22" s="161" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="165" t="s">
         <v>287</v>
       </c>
-      <c r="E21" s="182" t="s">
+      <c r="F22" s="154" t="s">
         <v>288</v>
       </c>
-      <c r="F21" s="167" t="s">
-        <v>286</v>
-      </c>
-      <c r="G21" s="168"/>
-      <c r="H21" s="185">
+      <c r="G22" s="155"/>
+      <c r="H22" s="168">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D22" s="178" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="182" t="s">
+    <row r="23" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D23" s="161" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="165" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" s="154" t="s">
         <v>288</v>
       </c>
-      <c r="F22" s="167" t="s">
-        <v>289</v>
-      </c>
-      <c r="G22" s="168"/>
-      <c r="H22" s="185">
+      <c r="G23" s="155"/>
+      <c r="H23" s="168">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D23" s="178" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="182" t="s">
-        <v>288</v>
-      </c>
-      <c r="F23" s="167" t="s">
-        <v>289</v>
-      </c>
-      <c r="G23" s="168"/>
-      <c r="H23" s="185">
-        <v>0</v>
-      </c>
-    </row>
     <row r="24" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D24" s="166"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="169"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="156"/>
     </row>
     <row r="25" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D25" s="166"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="169"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="156"/>
     </row>
     <row r="26" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D26" s="166"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="169"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="156"/>
     </row>
     <row r="27" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D27" s="166"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="169"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="156"/>
     </row>
     <row r="28" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D28" s="166"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="169"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="156"/>
     </row>
     <row r="29" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D29" s="166"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="169"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="156"/>
     </row>
     <row r="30" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D30" s="166"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="169"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="156"/>
     </row>
     <row r="31" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D31" s="166"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="169"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
+  <conditionalFormatting sqref="E17:E20">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Flags">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
@@ -5584,20 +5593,20 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" customWidth="1"/>
-    <col min="8" max="9" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="12" width="10.5546875" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
-    <col min="14" max="23" width="11.44140625" customWidth="1"/>
+    <col min="14" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21.75" customHeight="1">
@@ -5622,12 +5631,12 @@
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1">
       <c r="B4" s="102"/>

--- a/Gestion_A_jmd.xlsx
+++ b/Gestion_A_jmd.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ouaiouaihashish\Desktop\ProjetDaleks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D30532-572E-4940-A228-F9578A94228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A55D616-D6CD-4311-A4CC-BA779DB722F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="2" activeTab="2" xr2:uid="{E687526C-779E-492B-BB96-71999BB7EE79}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="285">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -371,9 +372,6 @@
     <t>teleporteur</t>
   </si>
   <si>
-    <t>teleporter</t>
-  </si>
-  <si>
     <t>zappeur</t>
   </si>
   <si>
@@ -553,9 +551,6 @@
     <t>demande a l'humain de faire un choix</t>
   </si>
   <si>
-    <t>déplacer</t>
-  </si>
-  <si>
     <t>Choix humain</t>
   </si>
   <si>
@@ -835,9 +830,6 @@
     <t>en fonction du docteur</t>
   </si>
   <si>
-    <t>verifier collision</t>
-  </si>
-  <si>
     <t>if position_dacleks = postion_docteur si vrai fin de partie(perdu)</t>
   </si>
   <si>
@@ -853,12 +845,6 @@
     <t>deplacement en fonction du niveau le plus pres (facile 2 case distance,oridanaire 0 case distance, meme case</t>
   </si>
   <si>
-    <t xml:space="preserve">verififier collision </t>
-  </si>
-  <si>
-    <t>zapper</t>
-  </si>
-  <si>
     <t>air de jeux, docteur,daleks,,</t>
   </si>
   <si>
@@ -880,9 +866,6 @@
     <t xml:space="preserve">si fin partie </t>
   </si>
   <si>
-    <t>fin de partie</t>
-  </si>
-  <si>
     <t xml:space="preserve">partie_en_cours == False </t>
   </si>
   <si>
@@ -904,9 +887,6 @@
     <t>pour leave l'ecran de fin de partie</t>
   </si>
   <si>
-    <t>affciher les differentes score</t>
-  </si>
-  <si>
     <t>press choix score</t>
   </si>
   <si>
@@ -946,9 +926,6 @@
     <t>plateau et toutes les entité qui le compose (docteur position defini au prealable ou aleatoire) (daleks placer aleatoirement0</t>
   </si>
   <si>
-    <t>quitter le programe</t>
-  </si>
-  <si>
     <t>If choix == q ou  Q</t>
   </si>
   <si>
@@ -1069,9 +1046,6 @@
     <t>while choix = choix_existant = t</t>
   </si>
   <si>
-    <t>Creer un fichier CSV</t>
-  </si>
-  <si>
     <t>mouvement_permis</t>
   </si>
   <si>
@@ -1109,6 +1083,19 @@
   </si>
   <si>
     <t>Position aléatoir sauf même case</t>
+  </si>
+  <si>
+    <t>quitter_jeux</t>
+  </si>
+  <si>
+    <t>contact_dalek_dalek (ferraille)</t>
+  </si>
+  <si>
+    <t>limitation_cadre_jeux</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if  rep_x &lt; 0) or rep_x &gt;= airdejeux.largeur or rep_y &lt; 0 or rep_y &gt;= airdejeux.hauteur
+           </t>
   </si>
 </sst>
 </file>
@@ -1956,7 +1943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2210,78 +2197,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2328,6 +2243,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="12" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2376,8 +2294,152 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2723,6 +2785,7 @@
     <sheetView topLeftCell="A18" zoomScale="69" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3077,22 +3140,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="169"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="170"/>
-      <c r="I36" s="170"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="145"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="170"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="112"/>
@@ -3101,22 +3164,22 @@
       <c r="I39" s="112"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="169"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="170"/>
+      <c r="F40" s="144"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="170"/>
-      <c r="G41" s="170"/>
-      <c r="H41" s="170"/>
-      <c r="I41" s="170"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
-      <c r="I42" s="170"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="112"/>
@@ -3131,34 +3194,34 @@
       <c r="I44" s="112"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="169"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="170"/>
-      <c r="I45" s="170"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="145"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="170"/>
-      <c r="G46" s="170"/>
-      <c r="H46" s="170"/>
-      <c r="I46" s="170"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="145"/>
+      <c r="I46" s="145"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="170"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="170"/>
-      <c r="I47" s="170"/>
+      <c r="F47" s="145"/>
+      <c r="G47" s="145"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="145"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="170"/>
-      <c r="G48" s="170"/>
-      <c r="H48" s="170"/>
-      <c r="I48" s="170"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="145"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="170"/>
-      <c r="G49" s="170"/>
-      <c r="H49" s="170"/>
-      <c r="I49" s="170"/>
+      <c r="F49" s="145"/>
+      <c r="G49" s="145"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3180,6 +3243,7 @@
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3280,33 +3344,33 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="146" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E13" s="37" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B14" s="172"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="125" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B15" s="172"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="22" t="s">
         <v>65</v>
       </c>
@@ -3318,41 +3382,41 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="172"/>
+      <c r="B16" s="147"/>
       <c r="C16" s="126" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D16" s="125" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="172"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="22" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="41" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="172"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E18" s="41"/>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="172"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="22" t="s">
         <v>69</v>
       </c>
@@ -3360,249 +3424,249 @@
         <v>70</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="172"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B21" s="147"/>
+      <c r="C21" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="E21" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="41" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="172"/>
-      <c r="C21" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="172"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E22" s="124" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="172"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="22" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E23" s="124" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B24" s="147"/>
+      <c r="C24" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="124" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B25" s="147"/>
+      <c r="C25" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="172"/>
-      <c r="C24" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="E24" s="124" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="172"/>
-      <c r="C25" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>260</v>
-      </c>
       <c r="E25" s="124" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="173"/>
+      <c r="B26" s="148"/>
       <c r="C26" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E26" s="123" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="12.75" customHeight="1">
       <c r="B27" s="108"/>
       <c r="C27" s="22" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E27" s="124" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="171" t="s">
-        <v>75</v>
+      <c r="B28" s="146" t="s">
+        <v>74</v>
       </c>
       <c r="C28" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="39" t="s">
-        <v>186</v>
-      </c>
       <c r="E28" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="172"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="22" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="172"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="172"/>
+      <c r="B31" s="147"/>
       <c r="C31" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="172"/>
+      <c r="B32" s="147"/>
       <c r="C32" s="22"/>
       <c r="D32" s="18"/>
       <c r="E32" s="41"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="172"/>
+      <c r="B33" s="147"/>
       <c r="C33" s="22"/>
       <c r="D33" s="18"/>
       <c r="E33" s="41"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="172"/>
+      <c r="B34" s="147"/>
       <c r="C34" s="22"/>
       <c r="D34" s="18"/>
       <c r="E34" s="41"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="172"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="22"/>
       <c r="D35" s="18"/>
       <c r="E35" s="41"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="173"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="19"/>
       <c r="D36" s="40"/>
       <c r="E36" s="20"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="171" t="s">
-        <v>76</v>
+      <c r="B37" s="146" t="s">
+        <v>75</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="172"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="22"/>
       <c r="D38" s="18"/>
       <c r="E38" s="41"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="172"/>
+      <c r="B39" s="147"/>
       <c r="C39" s="22"/>
       <c r="D39" s="18"/>
       <c r="E39" s="41"/>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="172"/>
+      <c r="B40" s="147"/>
       <c r="C40" s="22"/>
       <c r="D40" s="18"/>
       <c r="E40" s="41"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="172"/>
+      <c r="B41" s="147"/>
       <c r="C41" s="22"/>
       <c r="D41" s="18"/>
       <c r="E41" s="41"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="172"/>
+      <c r="B42" s="147"/>
       <c r="C42" s="22"/>
       <c r="D42" s="18"/>
       <c r="E42" s="41"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="172"/>
+      <c r="B43" s="147"/>
       <c r="C43" s="22"/>
       <c r="D43" s="18"/>
       <c r="E43" s="41"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="172"/>
+      <c r="B44" s="147"/>
       <c r="C44" s="22"/>
       <c r="D44" s="18"/>
       <c r="E44" s="41"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="172"/>
+      <c r="B45" s="147"/>
       <c r="C45" s="22"/>
       <c r="D45" s="18"/>
       <c r="E45" s="41"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="173"/>
+      <c r="B46" s="148"/>
       <c r="C46" s="24"/>
       <c r="D46" s="25"/>
       <c r="E46" s="46"/>
@@ -3624,8 +3688,11 @@
   </sheetPr>
   <dimension ref="B2:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="1">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3642,7 +3709,7 @@
     <row r="2" spans="2:6" ht="20.25" customHeight="1">
       <c r="B2" s="109"/>
       <c r="C2" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="109"/>
       <c r="E2" s="109"/>
@@ -3650,26 +3717,26 @@
     </row>
     <row r="3" spans="2:6" ht="89.45" customHeight="1">
       <c r="B3" s="109"/>
-      <c r="C3" s="174" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
+      <c r="C3" s="149" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
       <c r="F3" s="109"/>
     </row>
     <row r="4" spans="2:6" ht="30.75" customHeight="1">
       <c r="B4" s="110"/>
-      <c r="C4" s="175" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
+      <c r="C4" s="150" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
       <c r="F4" s="110"/>
     </row>
     <row r="5" spans="2:6" ht="21" customHeight="1">
       <c r="B5" s="109"/>
       <c r="C5" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="109"/>
       <c r="E5" s="109"/>
@@ -3678,7 +3745,7 @@
     <row r="6" spans="2:6" ht="21" customHeight="1">
       <c r="B6" s="110"/>
       <c r="C6" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="112"/>
       <c r="E6" s="112"/>
@@ -3700,16 +3767,16 @@
     </row>
     <row r="9" spans="2:6" ht="19.5" customHeight="1">
       <c r="B9" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="D9" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="E9" s="29" t="s">
         <v>84</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>85</v>
       </c>
       <c r="F9" s="29"/>
     </row>
@@ -3722,19 +3789,19 @@
     </row>
     <row r="11" spans="2:6" ht="18" customHeight="1">
       <c r="B11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="F11" s="32" t="s">
         <v>89</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18" customHeight="1">
@@ -3743,655 +3810,663 @@
       <c r="D12" s="32"/>
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1">
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="161" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="146" t="s">
+      <c r="E13" s="161"/>
+      <c r="F13" s="197"/>
+    </row>
+    <row r="14" spans="2:6" ht="18" customHeight="1">
+      <c r="B14" s="163"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="164" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="197"/>
+    </row>
+    <row r="15" spans="2:6" ht="18" customHeight="1">
+      <c r="B15" s="163"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="164" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="198"/>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B16" s="161"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="164" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="197"/>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B17" s="161"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="161" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="197"/>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B18" s="161"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="164" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="198" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="130" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-    </row>
-    <row r="14" spans="2:6" ht="18" customHeight="1">
-      <c r="B14" s="131"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="133" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="129"/>
-    </row>
-    <row r="15" spans="2:6" ht="18" customHeight="1">
-      <c r="B15" s="131"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="133" t="s">
+    </row>
+    <row r="19" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B19" s="165" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="182" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="166" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="165"/>
+      <c r="F19" s="199" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B20" s="165"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="199"/>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B21" s="165"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="199"/>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B22" s="165"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="166"/>
+      <c r="F22" s="199"/>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B23" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="183"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="199" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B24" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="183"/>
+      <c r="D24" s="166" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="166"/>
+      <c r="F24" s="199"/>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B25" s="165"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="166" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="199" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15" customHeight="1">
+      <c r="B26" s="165"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="166" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="199" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B27" s="165"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="166" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="199" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B28" s="165"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="166" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="199" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="B29" s="167" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="184" t="s">
+        <v>268</v>
+      </c>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="200" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B30" s="167"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="168" t="s">
+        <v>283</v>
+      </c>
+      <c r="F30" s="200" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B31" s="167"/>
+      <c r="C31" s="185"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" s="200" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B32" s="167"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="167" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="200"/>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B33" s="167"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="168" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="200" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B34" s="167" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="184" t="s">
+        <v>272</v>
+      </c>
+      <c r="D34" s="167"/>
+      <c r="E34" s="168" t="s">
+        <v>260</v>
+      </c>
+      <c r="F34" s="200" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B35" s="167"/>
+      <c r="C35" s="184" t="s">
+        <v>273</v>
+      </c>
+      <c r="D35" s="167"/>
+      <c r="E35" s="168" t="s">
+        <v>261</v>
+      </c>
+      <c r="F35" s="200" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B36" s="167"/>
+      <c r="C36" s="185"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="168" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="200" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B37" s="167"/>
+      <c r="C37" s="185"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="168" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37" s="200" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B38" s="167"/>
+      <c r="C38" s="185"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="168" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" s="200" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B39" s="167"/>
+      <c r="C39" s="185"/>
+      <c r="D39" s="167"/>
+      <c r="E39" s="168" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="200"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B40" s="169" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="186" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="170" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="169"/>
+      <c r="F40" s="201" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B41" s="169"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="169"/>
+      <c r="E41" s="170" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B42" s="169"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="169"/>
+      <c r="E42" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="201"/>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B43" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="186" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43" s="169"/>
+      <c r="E43" s="170" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" s="201" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B44" s="169"/>
+      <c r="C44" s="186" t="s">
+        <v>273</v>
+      </c>
+      <c r="D44" s="169"/>
+      <c r="E44" s="170" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="201" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B45" s="169"/>
+      <c r="C45" s="188"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="170" t="s">
+        <v>262</v>
+      </c>
+      <c r="F45" s="201" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B46" s="169"/>
+      <c r="C46" s="188"/>
+      <c r="D46" s="169"/>
+      <c r="E46" s="170" t="s">
+        <v>264</v>
+      </c>
+      <c r="F46" s="202"/>
+    </row>
+    <row r="47" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B47" s="169"/>
+      <c r="C47" s="188"/>
+      <c r="D47" s="169"/>
+      <c r="E47" s="170" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="202"/>
+    </row>
+    <row r="48" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B48" s="171" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="189" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="172" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="171"/>
+      <c r="F48" s="203" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B49" s="171"/>
+      <c r="C49" s="190"/>
+      <c r="D49" s="171"/>
+      <c r="E49" s="172" t="s">
+        <v>203</v>
+      </c>
+      <c r="F49" s="203" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B50" s="171"/>
+      <c r="C50" s="190"/>
+      <c r="D50" s="171"/>
+      <c r="E50" s="172" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50" s="203" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B51" s="171"/>
+      <c r="C51" s="190"/>
+      <c r="D51" s="171"/>
+      <c r="E51" s="172" t="s">
+        <v>193</v>
+      </c>
+      <c r="F51" s="203"/>
+    </row>
+    <row r="52" spans="2:6" ht="18" customHeight="1">
+      <c r="B52" s="171" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="189" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" s="173"/>
+      <c r="E52" s="172" t="s">
+        <v>260</v>
+      </c>
+      <c r="F52" s="203" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="18" customHeight="1">
+      <c r="B53" s="171"/>
+      <c r="C53" s="189" t="s">
+        <v>273</v>
+      </c>
+      <c r="D53" s="173"/>
+      <c r="E53" s="172" t="s">
+        <v>261</v>
+      </c>
+      <c r="F53" s="203" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="18" customHeight="1">
+      <c r="B54" s="171"/>
+      <c r="C54" s="191"/>
+      <c r="D54" s="173"/>
+      <c r="E54" s="172" t="s">
+        <v>264</v>
+      </c>
+      <c r="F54" s="203" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="18" customHeight="1">
+      <c r="B55" s="171"/>
+      <c r="C55" s="191"/>
+      <c r="D55" s="173"/>
+      <c r="E55" s="172" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="204"/>
+    </row>
+    <row r="56" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B56" s="174" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="192" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="174"/>
+      <c r="E56" s="175" t="s">
+        <v>207</v>
+      </c>
+      <c r="F56" s="205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B57" s="174"/>
+      <c r="C57" s="193"/>
+      <c r="D57" s="174"/>
+      <c r="E57" s="175" t="s">
+        <v>209</v>
+      </c>
+      <c r="F57" s="205" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B58" s="174"/>
+      <c r="C58" s="194"/>
+      <c r="D58" s="174"/>
+      <c r="E58" s="175" t="s">
+        <v>212</v>
+      </c>
+      <c r="F58" s="205" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B59" s="174"/>
+      <c r="C59" s="194"/>
+      <c r="D59" s="175" t="s">
+        <v>213</v>
+      </c>
+      <c r="E59" s="174"/>
+      <c r="F59" s="205" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B60" s="174"/>
+      <c r="C60" s="194"/>
+      <c r="D60" s="174"/>
+      <c r="E60" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="133"/>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="133" t="s">
+      <c r="F60" s="206"/>
+    </row>
+    <row r="61" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B61" s="174"/>
+      <c r="C61" s="194"/>
+      <c r="D61" s="174"/>
+      <c r="E61" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="129"/>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="129" t="s">
+      <c r="F61" s="206"/>
+    </row>
+    <row r="62" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B62" s="174"/>
+      <c r="C62" s="194"/>
+      <c r="D62" s="174"/>
+      <c r="E62" s="175" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="129"/>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="133" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="133" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B19" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="147" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="128" t="s">
-        <v>188</v>
-      </c>
-      <c r="E19" s="127"/>
-      <c r="F19" s="128" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B20" s="127"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="128"/>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128" t="s">
-        <v>227</v>
-      </c>
-      <c r="F21" s="128"/>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="128" t="s">
+      <c r="F62" s="205" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B63" s="176" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="195" t="s">
+        <v>277</v>
+      </c>
+      <c r="D63" s="177" t="s">
+        <v>215</v>
+      </c>
+      <c r="E63" s="176"/>
+      <c r="F63" s="207" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B64" s="176"/>
+      <c r="C64" s="196"/>
+      <c r="D64" s="176"/>
+      <c r="E64" s="177" t="s">
+        <v>218</v>
+      </c>
+      <c r="F64" s="208"/>
+    </row>
+    <row r="65" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B65" s="176"/>
+      <c r="C65" s="196"/>
+      <c r="D65" s="176"/>
+      <c r="E65" s="177" t="s">
+        <v>219</v>
+      </c>
+      <c r="F65" s="208"/>
+    </row>
+    <row r="66" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B66" s="176"/>
+      <c r="C66" s="196"/>
+      <c r="D66" s="177" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" s="176"/>
+      <c r="F66" s="207" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B67" s="176"/>
+      <c r="C67" s="196"/>
+      <c r="D67" s="176"/>
+      <c r="E67" s="177" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" s="207" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B68" s="176" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="195" t="s">
+        <v>281</v>
+      </c>
+      <c r="D68" s="177" t="s">
+        <v>229</v>
+      </c>
+      <c r="E68" s="176"/>
+      <c r="F68" s="207" t="s">
         <v>228</v>
       </c>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128" t="s">
-        <v>276</v>
-      </c>
-      <c r="F23" s="128"/>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B24" s="128" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="127"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="128" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B25" s="128" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="127"/>
-      <c r="D25" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-    </row>
-    <row r="26" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128" t="s">
-        <v>192</v>
-      </c>
-      <c r="F26" s="128" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1">
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="128" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="128" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="128" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="128" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B30" s="135" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="148" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="136" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136" t="s">
-        <v>194</v>
-      </c>
-      <c r="F31" s="136" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="135" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="136"/>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="136" t="s">
-        <v>195</v>
-      </c>
-      <c r="F33" s="136" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B34" s="135" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="148" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="135"/>
-      <c r="E34" s="136" t="s">
-        <v>268</v>
-      </c>
-      <c r="F34" s="136" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="136" t="s">
-        <v>269</v>
-      </c>
-      <c r="F35" s="136" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="136" t="s">
-        <v>270</v>
-      </c>
-      <c r="F36" s="136" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="136" t="s">
+    </row>
+    <row r="69" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B69" s="176"/>
+      <c r="C69" s="196"/>
+      <c r="D69" s="176"/>
+      <c r="E69" s="177" t="s">
+        <v>230</v>
+      </c>
+      <c r="F69" s="208"/>
+    </row>
+    <row r="70" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B70" s="176"/>
+      <c r="C70" s="196"/>
+      <c r="D70" s="176"/>
+      <c r="E70" s="177" t="s">
         <v>231</v>
       </c>
-      <c r="F37" s="136" t="s">
+      <c r="F70" s="208"/>
+    </row>
+    <row r="71" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B71" s="176"/>
+      <c r="C71" s="196"/>
+      <c r="D71" s="176"/>
+      <c r="E71" s="177" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="136" t="s">
-        <v>229</v>
-      </c>
-      <c r="F38" s="136" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="136" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" s="136"/>
-    </row>
-    <row r="40" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B40" s="137" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="149" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="138" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="137"/>
-      <c r="F40" s="138" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B41" s="137"/>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="138" t="s">
-        <v>202</v>
-      </c>
-      <c r="F41" s="138" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B42" s="137"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" s="138"/>
-    </row>
-    <row r="43" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B43" s="137" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="149" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" s="137"/>
-      <c r="E43" s="138" t="s">
-        <v>268</v>
-      </c>
-      <c r="F43" s="138" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B44" s="137"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="138" t="s">
-        <v>269</v>
-      </c>
-      <c r="F44" s="138" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B45" s="137"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="138" t="s">
-        <v>270</v>
-      </c>
-      <c r="F45" s="138" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B46" s="137"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="138" t="s">
-        <v>272</v>
-      </c>
-      <c r="F46" s="137"/>
-    </row>
-    <row r="47" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B47" s="137"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="138" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" s="137"/>
-    </row>
-    <row r="48" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B48" s="139" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="150" t="s">
-        <v>205</v>
-      </c>
-      <c r="D48" s="140" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="139"/>
-      <c r="F48" s="140" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B49" s="139"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="139"/>
-      <c r="E49" s="140" t="s">
-        <v>208</v>
-      </c>
-      <c r="F49" s="140" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B50" s="139"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="139"/>
-      <c r="E50" s="140" t="s">
-        <v>231</v>
-      </c>
-      <c r="F50" s="140" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B51" s="139"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="139"/>
-      <c r="E51" s="140" t="s">
-        <v>195</v>
-      </c>
-      <c r="F51" s="140"/>
-    </row>
-    <row r="52" spans="2:6" ht="18" customHeight="1">
-      <c r="B52" s="139" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="150" t="s">
-        <v>198</v>
-      </c>
-      <c r="D52" s="141"/>
-      <c r="E52" s="140" t="s">
-        <v>268</v>
-      </c>
-      <c r="F52" s="140" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="18" customHeight="1">
-      <c r="B53" s="139"/>
-      <c r="C53" s="140"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="140" t="s">
-        <v>269</v>
-      </c>
-      <c r="F53" s="140" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="18" customHeight="1">
-      <c r="B54" s="139"/>
-      <c r="C54" s="140"/>
-      <c r="D54" s="141"/>
-      <c r="E54" s="140" t="s">
-        <v>272</v>
-      </c>
-      <c r="F54" s="140" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="18" customHeight="1">
-      <c r="B55" s="139"/>
-      <c r="C55" s="140"/>
-      <c r="D55" s="141"/>
-      <c r="E55" s="140" t="s">
-        <v>102</v>
-      </c>
-      <c r="F55" s="139"/>
-    </row>
-    <row r="56" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B56" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="151" t="s">
-        <v>213</v>
-      </c>
-      <c r="D56" s="142"/>
-      <c r="E56" s="143" t="s">
-        <v>212</v>
-      </c>
-      <c r="F56" s="143" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B57" s="142"/>
-      <c r="C57" s="143"/>
-      <c r="D57" s="142"/>
-      <c r="E57" s="143" t="s">
-        <v>215</v>
-      </c>
-      <c r="F57" s="143" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B58" s="142"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="142"/>
-      <c r="E58" s="143" t="s">
-        <v>218</v>
-      </c>
-      <c r="F58" s="143" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B59" s="142"/>
-      <c r="C59" s="142"/>
-      <c r="D59" s="143" t="s">
-        <v>219</v>
-      </c>
-      <c r="E59" s="142"/>
-      <c r="F59" s="143" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B60" s="142"/>
-      <c r="C60" s="142"/>
-      <c r="D60" s="142"/>
-      <c r="E60" s="143" t="s">
-        <v>95</v>
-      </c>
-      <c r="F60" s="142"/>
-    </row>
-    <row r="61" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B61" s="142"/>
-      <c r="C61" s="142"/>
-      <c r="D61" s="142"/>
-      <c r="E61" s="142" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="142"/>
-    </row>
-    <row r="62" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B62" s="142"/>
-      <c r="C62" s="142"/>
-      <c r="D62" s="142"/>
-      <c r="E62" s="143" t="s">
-        <v>97</v>
-      </c>
-      <c r="F62" s="143" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B63" s="144" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="152" t="s">
-        <v>221</v>
-      </c>
-      <c r="D63" s="145" t="s">
-        <v>222</v>
-      </c>
-      <c r="E63" s="144"/>
-      <c r="F63" s="145" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B64" s="144"/>
-      <c r="C64" s="144"/>
-      <c r="D64" s="144"/>
-      <c r="E64" s="145" t="s">
-        <v>225</v>
-      </c>
-      <c r="F64" s="144"/>
-    </row>
-    <row r="65" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B65" s="144"/>
-      <c r="C65" s="144"/>
-      <c r="D65" s="144"/>
-      <c r="E65" s="145" t="s">
-        <v>226</v>
-      </c>
-      <c r="F65" s="144"/>
-    </row>
-    <row r="66" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B66" s="144"/>
-      <c r="C66" s="144"/>
-      <c r="D66" s="145" t="s">
-        <v>219</v>
-      </c>
-      <c r="E66" s="144"/>
-      <c r="F66" s="145" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B67" s="144"/>
-      <c r="C67" s="144"/>
-      <c r="D67" s="144"/>
-      <c r="E67" s="145" t="s">
-        <v>97</v>
-      </c>
-      <c r="F67" s="145" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B68" s="144" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68" s="152" t="s">
-        <v>235</v>
-      </c>
-      <c r="D68" s="145" t="s">
-        <v>237</v>
-      </c>
-      <c r="E68" s="144"/>
-      <c r="F68" s="145" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B69" s="144"/>
-      <c r="C69" s="144"/>
-      <c r="D69" s="144"/>
-      <c r="E69" s="145" t="s">
-        <v>238</v>
-      </c>
-      <c r="F69" s="144"/>
-    </row>
-    <row r="70" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B70" s="144"/>
-      <c r="C70" s="144"/>
-      <c r="D70" s="144"/>
-      <c r="E70" s="145" t="s">
-        <v>239</v>
-      </c>
-      <c r="F70" s="144"/>
-    </row>
-    <row r="71" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B71" s="144"/>
-      <c r="C71" s="144"/>
-      <c r="D71" s="144"/>
-      <c r="E71" s="145" t="s">
-        <v>240</v>
-      </c>
-      <c r="F71" s="144"/>
+      <c r="F71" s="208"/>
     </row>
     <row r="103" spans="4:4" ht="15.75" customHeight="1">
       <c r="D103" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4412,6 +4487,7 @@
   <dimension ref="G1:W28"/>
   <sheetViews>
     <sheetView topLeftCell="CI1" workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -4420,7 +4496,7 @@
   <sheetData>
     <row r="1" spans="7:19" ht="21.75" customHeight="1">
       <c r="G1" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
@@ -4437,7 +4513,7 @@
     </row>
     <row r="2" spans="7:19" ht="15">
       <c r="G2" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H2" s="112"/>
       <c r="I2" s="112"/>
@@ -4454,7 +4530,7 @@
     </row>
     <row r="3" spans="7:19" ht="15">
       <c r="G3" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H3" s="112"/>
       <c r="I3" s="112"/>
@@ -4501,7 +4577,7 @@
     </row>
     <row r="6" spans="7:19" ht="15">
       <c r="G6" s="112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H6" s="112"/>
       <c r="I6" s="112"/>
@@ -4533,7 +4609,7 @@
     </row>
     <row r="8" spans="7:19" ht="15">
       <c r="G8" s="112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H8" s="112"/>
       <c r="I8" s="112"/>
@@ -4571,7 +4647,7 @@
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
       <c r="M10" s="36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
@@ -4587,24 +4663,24 @@
       <c r="J11" s="112"/>
       <c r="K11" s="112"/>
       <c r="L11" s="112"/>
-      <c r="M11" s="177"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
+      <c r="M11" s="152"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
       <c r="P11" s="112"/>
       <c r="Q11" s="112"/>
-      <c r="R11" s="177"/>
-      <c r="S11" s="178"/>
+      <c r="R11" s="152"/>
+      <c r="S11" s="153"/>
     </row>
     <row r="12" spans="7:19" ht="15">
       <c r="G12" s="38"/>
       <c r="H12" s="112" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I12" s="112"/>
       <c r="J12" s="112"/>
       <c r="K12" s="112"/>
       <c r="L12" s="42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
@@ -4647,13 +4723,13 @@
     <row r="15" spans="7:19" ht="15">
       <c r="G15" s="38"/>
       <c r="H15" s="112" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
       <c r="L15" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M15" s="49"/>
       <c r="N15" s="49"/>
@@ -4666,7 +4742,7 @@
     <row r="16" spans="7:19" ht="15">
       <c r="G16" s="38"/>
       <c r="H16" s="112" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I16" s="112"/>
       <c r="J16" s="112"/>
@@ -4685,7 +4761,7 @@
       <c r="H18" s="42"/>
       <c r="I18" s="49"/>
       <c r="J18" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K18" s="49"/>
       <c r="L18" s="39"/>
@@ -4693,7 +4769,7 @@
       <c r="N18" s="42"/>
       <c r="O18" s="49"/>
       <c r="P18" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="49"/>
       <c r="R18" s="39"/>
@@ -4799,9 +4875,9 @@
       <c r="W23" s="112"/>
     </row>
     <row r="24" spans="7:23" ht="15">
-      <c r="G24" s="176"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
       <c r="J24" s="112"/>
       <c r="K24" s="112"/>
       <c r="L24" s="112"/>
@@ -4837,9 +4913,9 @@
       <c r="W25" s="112"/>
     </row>
     <row r="26" spans="7:23" ht="15">
-      <c r="G26" s="176"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
       <c r="J26" s="112"/>
       <c r="K26" s="112"/>
       <c r="L26" s="112"/>
@@ -4884,14 +4960,14 @@
       <c r="M28" s="112"/>
       <c r="N28" s="112"/>
       <c r="O28" s="112"/>
-      <c r="P28" s="176"/>
-      <c r="Q28" s="170"/>
-      <c r="R28" s="170"/>
+      <c r="P28" s="151"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
       <c r="S28" s="112"/>
-      <c r="T28" s="176"/>
-      <c r="U28" s="170"/>
-      <c r="V28" s="170"/>
-      <c r="W28" s="170"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="145"/>
+      <c r="V28" s="145"/>
+      <c r="W28" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4914,6 +4990,7 @@
   <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -4933,14 +5010,14 @@
   <sheetData>
     <row r="1" spans="2:8" ht="87" customHeight="1">
       <c r="B1" s="110"/>
-      <c r="C1" s="174" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
+      <c r="C1" s="149" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="112"/>
@@ -4953,7 +5030,7 @@
     </row>
     <row r="3" spans="2:8" ht="12.75" customHeight="1">
       <c r="B3" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="112"/>
       <c r="D3" s="47"/>
@@ -4974,7 +5051,7 @@
     <row r="5" spans="2:8" ht="15" customHeight="1">
       <c r="B5" s="112"/>
       <c r="C5" s="47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
@@ -4995,12 +5072,12 @@
       <c r="B7" s="110"/>
       <c r="C7" s="110"/>
       <c r="D7" s="48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E7" s="49"/>
       <c r="F7" s="49"/>
       <c r="G7" s="50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H7" s="110"/>
     </row>
@@ -5008,7 +5085,7 @@
       <c r="B8" s="110"/>
       <c r="C8" s="110"/>
       <c r="D8" s="51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E8" s="112"/>
       <c r="F8" s="112"/>
@@ -5028,11 +5105,11 @@
       <c r="B10" s="110"/>
       <c r="C10" s="110"/>
       <c r="D10" s="55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E10" s="112"/>
       <c r="F10" s="112" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G10" s="52"/>
       <c r="H10" s="110"/>
@@ -5053,6 +5130,7 @@
   <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5063,17 +5141,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="64.5" customHeight="1">
-      <c r="C1" s="179" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
+      <c r="C1" s="154" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
     </row>
     <row r="2" spans="2:11" ht="12.75"/>
     <row r="3" spans="2:11" ht="12.75">
       <c r="B3" s="56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="12.75">
@@ -5091,12 +5169,12 @@
       <c r="E6" s="113"/>
     </row>
     <row r="7" spans="2:11" ht="25.5">
-      <c r="B7" s="180" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="170"/>
+      <c r="B7" s="155" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="145"/>
       <c r="G7" s="113" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H7" s="113"/>
       <c r="I7" s="113"/>
@@ -5105,40 +5183,40 @@
     <row r="8" spans="2:11" ht="12.75">
       <c r="B8" s="113"/>
       <c r="G8" s="113" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H8" s="113"/>
       <c r="I8" s="113"/>
     </row>
     <row r="9" spans="2:11" ht="12.75">
       <c r="B9" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="60" t="s">
         <v>135</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>137</v>
       </c>
       <c r="G9" s="61"/>
       <c r="H9" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="K9" s="63" t="s">
         <v>139</v>
-      </c>
-      <c r="J9" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="63" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="12.75">
       <c r="B10" s="108"/>
       <c r="D10" s="67"/>
       <c r="G10" s="68" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J10" s="113"/>
       <c r="K10" s="111"/>
@@ -5148,10 +5226,10 @@
       <c r="C11" s="65"/>
       <c r="D11" s="66"/>
       <c r="E11" s="113" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G11" s="68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K11" s="111"/>
     </row>
@@ -5159,7 +5237,7 @@
       <c r="B12" s="108"/>
       <c r="D12" s="67"/>
       <c r="G12" s="68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K12" s="111"/>
     </row>
@@ -5167,7 +5245,7 @@
       <c r="B13" s="108"/>
       <c r="D13" s="67"/>
       <c r="G13" s="68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K13" s="111"/>
     </row>
@@ -5187,8 +5265,11 @@
   </sheetPr>
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:H16"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="88" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="1">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5196,7 +5277,8 @@
     <col min="1" max="1" width="56.5703125" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="6" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
@@ -5205,13 +5287,13 @@
     <row r="1" spans="2:8" ht="57" customHeight="1">
       <c r="B1" s="115"/>
       <c r="C1" s="116"/>
-      <c r="D1" s="179" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
+      <c r="D1" s="154" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="115"/>
@@ -5231,11 +5313,11 @@
     </row>
     <row r="4" spans="2:8" ht="12.75" customHeight="1">
       <c r="B4" s="56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" s="116"/>
       <c r="D4" s="56" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E4" s="115"/>
       <c r="F4" s="115"/>
@@ -5260,309 +5342,325 @@
     </row>
     <row r="7" spans="2:8" ht="12.75" customHeight="1">
       <c r="B7" s="113" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C7" s="116"/>
       <c r="D7" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="119" t="s">
+      <c r="G7" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="119" t="s">
+      <c r="H7" s="120" t="s">
         <v>152</v>
-      </c>
-      <c r="G7" s="119" t="s">
-        <v>153</v>
-      </c>
-      <c r="H7" s="120" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="13.5" customHeight="1">
       <c r="C8" s="116"/>
-      <c r="D8" s="158" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="159" t="s">
-        <v>278</v>
-      </c>
-      <c r="F8" s="160" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" s="159"/>
-      <c r="H8" s="185"/>
+      <c r="D8" s="132" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="133" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="134" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" s="133"/>
+      <c r="H8" s="143"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1">
       <c r="B9" s="115"/>
       <c r="C9" s="121"/>
-      <c r="D9" s="161" t="s">
-        <v>241</v>
-      </c>
-      <c r="E9" s="154" t="s">
-        <v>278</v>
-      </c>
-      <c r="F9" s="162" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" s="163"/>
-      <c r="H9" s="164"/>
+      <c r="D9" s="135" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="128" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" s="136" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" s="137"/>
+      <c r="H9" s="138"/>
     </row>
     <row r="10" spans="2:8" ht="12.75" customHeight="1">
       <c r="B10" s="113" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" s="116"/>
-      <c r="D10" s="153" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="155" t="s">
-        <v>278</v>
-      </c>
-      <c r="F10" s="154" t="s">
-        <v>283</v>
-      </c>
-      <c r="G10" s="155"/>
-      <c r="H10" s="156"/>
+      <c r="D10" s="127" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="129" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="128" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" s="129"/>
+      <c r="H10" s="130"/>
     </row>
     <row r="11" spans="2:8" ht="12.75" customHeight="1">
       <c r="B11" s="56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" s="116"/>
-      <c r="D11" s="153" t="s">
+      <c r="D11" s="127" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="128" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="128" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" s="129"/>
+      <c r="H11" s="130"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D12" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="129" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" s="128" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" s="129"/>
+      <c r="H12" s="130"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D13" s="127" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="129" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="128" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" s="129"/>
+      <c r="H13" s="130"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D14" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="129" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="128" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" s="129"/>
+      <c r="H14" s="130"/>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D15" s="127" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="128" t="s">
+        <v>269</v>
+      </c>
+      <c r="F15" s="128" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" s="129"/>
+      <c r="H15" s="130"/>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D16" s="156" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="158"/>
+    </row>
+    <row r="17" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D17" s="135" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="141" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="131" t="s">
+        <v>275</v>
+      </c>
+      <c r="G17" s="129"/>
+      <c r="H17" s="140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D18" s="135" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18" s="141" t="s">
+        <v>269</v>
+      </c>
+      <c r="F18" s="131" t="s">
+        <v>275</v>
+      </c>
+      <c r="G18" s="129"/>
+      <c r="H18" s="140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D19" s="135" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="141" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="131" t="s">
+        <v>276</v>
+      </c>
+      <c r="G19" s="129"/>
+      <c r="H19" s="140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D20" s="135" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" s="141" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="131" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" s="129"/>
+      <c r="H20" s="140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D21" s="135" t="s">
+        <v>277</v>
+      </c>
+      <c r="E21" s="139" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="128" t="s">
+        <v>276</v>
+      </c>
+      <c r="G21" s="129"/>
+      <c r="H21" s="160">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D22" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="139" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" s="128" t="s">
+        <v>279</v>
+      </c>
+      <c r="G22" s="129"/>
+      <c r="H22" s="142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D23" s="135" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="139" t="s">
+        <v>278</v>
+      </c>
+      <c r="F23" s="128" t="s">
+        <v>279</v>
+      </c>
+      <c r="G23" s="129"/>
+      <c r="H23" s="142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D24" s="127" t="s">
+        <v>281</v>
+      </c>
+      <c r="E24" s="141" t="s">
+        <v>269</v>
+      </c>
+      <c r="F24" s="131" t="s">
+        <v>275</v>
+      </c>
+      <c r="G24" s="129"/>
+      <c r="H24" s="140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D25" s="135" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="154" t="s">
-        <v>278</v>
-      </c>
-      <c r="F11" s="154" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" s="155"/>
-      <c r="H11" s="156"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D12" s="153" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="155" t="s">
-        <v>278</v>
-      </c>
-      <c r="F12" s="154" t="s">
-        <v>283</v>
-      </c>
-      <c r="G12" s="155"/>
-      <c r="H12" s="156"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D13" s="153" t="s">
-        <v>267</v>
-      </c>
-      <c r="E13" s="155" t="s">
-        <v>278</v>
-      </c>
-      <c r="F13" s="154" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" s="155"/>
-      <c r="H13" s="156"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D14" s="153" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="155" t="s">
-        <v>278</v>
-      </c>
-      <c r="F14" s="154" t="s">
-        <v>283</v>
-      </c>
-      <c r="G14" s="155"/>
-      <c r="H14" s="156"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D15" s="153" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="154" t="s">
-        <v>278</v>
-      </c>
-      <c r="F15" s="154" t="s">
-        <v>283</v>
-      </c>
-      <c r="G15" s="155"/>
-      <c r="H15" s="156"/>
-    </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D16" s="181" t="s">
-        <v>279</v>
-      </c>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="183"/>
-    </row>
-    <row r="17" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D17" s="161" t="s">
-        <v>277</v>
-      </c>
-      <c r="E17" s="167" t="s">
-        <v>278</v>
-      </c>
-      <c r="F17" s="157" t="s">
-        <v>284</v>
-      </c>
-      <c r="G17" s="155"/>
-      <c r="H17" s="166">
+      <c r="E25" s="141" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" s="131" t="s">
+        <v>275</v>
+      </c>
+      <c r="G25" s="129"/>
+      <c r="H25" s="140">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D18" s="161" t="s">
-        <v>280</v>
-      </c>
-      <c r="E18" s="167" t="s">
-        <v>278</v>
-      </c>
-      <c r="F18" s="157" t="s">
-        <v>284</v>
-      </c>
-      <c r="G18" s="155"/>
-      <c r="H18" s="166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D19" s="161" t="s">
-        <v>281</v>
-      </c>
-      <c r="E19" s="167" t="s">
-        <v>278</v>
-      </c>
-      <c r="F19" s="157" t="s">
-        <v>285</v>
-      </c>
-      <c r="G19" s="155"/>
-      <c r="H19" s="166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D20" s="161" t="s">
-        <v>282</v>
-      </c>
-      <c r="E20" s="167" t="s">
-        <v>278</v>
-      </c>
-      <c r="F20" s="157" t="s">
-        <v>285</v>
-      </c>
-      <c r="G20" s="155"/>
-      <c r="H20" s="168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D21" s="161" t="s">
-        <v>286</v>
-      </c>
-      <c r="E21" s="165" t="s">
-        <v>287</v>
-      </c>
-      <c r="F21" s="154" t="s">
-        <v>285</v>
-      </c>
-      <c r="G21" s="155"/>
-      <c r="H21" s="168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D22" s="161" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="165" t="s">
-        <v>287</v>
-      </c>
-      <c r="F22" s="154" t="s">
-        <v>288</v>
-      </c>
-      <c r="G22" s="155"/>
-      <c r="H22" s="168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D23" s="161" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="165" t="s">
-        <v>287</v>
-      </c>
-      <c r="F23" s="154" t="s">
-        <v>288</v>
-      </c>
-      <c r="G23" s="155"/>
-      <c r="H23" s="168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D24" s="153"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="156"/>
-    </row>
-    <row r="25" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D25" s="153"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="156"/>
-    </row>
     <row r="26" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D26" s="153"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="156"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="130"/>
     </row>
     <row r="27" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D27" s="153"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="156"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="130"/>
     </row>
     <row r="28" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D28" s="153"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="156"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="130"/>
     </row>
     <row r="29" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D29" s="153"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="156"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="130"/>
     </row>
     <row r="30" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D30" s="153"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="156"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="130"/>
     </row>
     <row r="31" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D31" s="153"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="156"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5570,7 +5668,16 @@
     <mergeCell ref="D16:H16"/>
   </mergeCells>
   <conditionalFormatting sqref="E17:E20">
-    <cfRule type="iconSet" priority="1">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Flags">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E25">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Flags">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5592,6 +5699,7 @@
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5612,7 +5720,7 @@
     <row r="2" spans="2:13" ht="21.75" customHeight="1">
       <c r="B2" s="70"/>
       <c r="C2" s="71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="71"/>
       <c r="E2" s="71"/>
@@ -5631,12 +5739,12 @@
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1">
       <c r="B4" s="102"/>
@@ -5654,7 +5762,7 @@
       <c r="C5" s="73"/>
       <c r="D5" s="74"/>
       <c r="E5" s="72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F5" s="73"/>
       <c r="G5" s="73"/>
@@ -5681,7 +5789,7 @@
     </row>
     <row r="7" spans="2:13" ht="21.75" customHeight="1">
       <c r="B7" s="75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" s="102"/>
       <c r="D7" s="76"/>
@@ -5696,39 +5804,39 @@
     </row>
     <row r="8" spans="2:13" ht="21.75" customHeight="1">
       <c r="B8" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="E8" s="80" t="s">
         <v>162</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="80" t="s">
-        <v>164</v>
       </c>
       <c r="F8" s="81"/>
       <c r="G8" s="82"/>
       <c r="H8" s="83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I8" s="81"/>
       <c r="J8" s="82"/>
       <c r="K8" s="83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L8" s="81"/>
       <c r="M8" s="82"/>
     </row>
     <row r="9" spans="2:13" ht="9.75" customHeight="1">
       <c r="B9" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="86" t="s">
         <v>165</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>167</v>
       </c>
       <c r="E9" s="87"/>
       <c r="F9" s="87"/>
@@ -5742,13 +5850,13 @@
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1">
       <c r="B10" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="86" t="s">
         <v>168</v>
-      </c>
-      <c r="C10" s="122" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>170</v>
       </c>
       <c r="E10" s="87"/>
       <c r="F10" s="87"/>
@@ -5765,31 +5873,31 @@
       <c r="C11" s="91"/>
       <c r="D11" s="69"/>
       <c r="E11" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="93" t="s">
-        <v>173</v>
-      </c>
       <c r="H11" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="J11" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="I11" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="J11" s="93" t="s">
-        <v>173</v>
-      </c>
       <c r="K11" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="L11" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="M11" s="93" t="s">
         <v>171</v>
-      </c>
-      <c r="L11" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="M11" s="93" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="20.25" customHeight="1">
@@ -5808,7 +5916,7 @@
     </row>
     <row r="13" spans="2:13" ht="20.25" customHeight="1">
       <c r="B13" s="105" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="102"/>
       <c r="D13" s="106"/>
@@ -5824,10 +5932,10 @@
     </row>
     <row r="14" spans="2:13" ht="20.25" customHeight="1">
       <c r="B14" s="101" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14" s="106"/>
       <c r="E14" s="103">
@@ -5847,7 +5955,7 @@
     <row r="15" spans="2:13" ht="20.25" customHeight="1">
       <c r="B15" s="105"/>
       <c r="C15" s="102" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D15" s="106"/>
       <c r="E15" s="103">
@@ -5855,7 +5963,7 @@
       </c>
       <c r="F15" s="102"/>
       <c r="G15" s="99" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H15" s="102"/>
       <c r="I15" s="102"/>
@@ -5867,7 +5975,7 @@
     <row r="16" spans="2:13" ht="20.25" customHeight="1">
       <c r="B16" s="105"/>
       <c r="C16" s="102" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D16" s="106"/>
       <c r="E16" s="103">
@@ -5884,17 +5992,17 @@
     </row>
     <row r="20" spans="3:3" ht="20.25" customHeight="1">
       <c r="C20" s="107" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="20.25" customHeight="1">
       <c r="C21" s="107" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="3:3" ht="20.25" customHeight="1">
       <c r="C22" s="107" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6088,18 +6196,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6122,18 +6230,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B130DE0C-7A28-4B03-98EC-F451E5EF5DFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Gestion_A_jmd.xlsx
+++ b/Gestion_A_jmd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2239131\Desktop\ProjetDaleks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilio\OneDrive\Bureau\ProjetDaleks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8DF4FA-DC65-4380-B74F-A9F2CAE69087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885A67B2-28E0-47DB-809C-2D7617DDC763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{E687526C-779E-492B-BB96-71999BB7EE79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{E687526C-779E-492B-BB96-71999BB7EE79}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="303">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -1122,6 +1122,33 @@
   </si>
   <si>
     <t>Touche 4</t>
+  </si>
+  <si>
+    <t>if touche == 1: x -= 1 y += 1</t>
+  </si>
+  <si>
+    <t>elif touche == 2: x += 0 y += 1</t>
+  </si>
+  <si>
+    <t>elif touche == 9: x += 1 y -= 1</t>
+  </si>
+  <si>
+    <t>elif touche == 8: x += 0 y -= 1</t>
+  </si>
+  <si>
+    <t>elif touche == 7: x -= 1 y -= 1</t>
+  </si>
+  <si>
+    <t>elif touche == 6: x += 1 y += 0</t>
+  </si>
+  <si>
+    <t>elif touche == 5: x += 0 y += 0</t>
+  </si>
+  <si>
+    <t>elif touche == 3: x += 1 y += 1</t>
+  </si>
+  <si>
+    <t>elif touche == 4: x -= 1 y += 0</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2782,9 +2809,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3175,17 +3199,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="69.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="45.28515625" customWidth="1"/>
-    <col min="8" max="8" width="67.85546875" customWidth="1"/>
-    <col min="9" max="28" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="69.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" customWidth="1"/>
+    <col min="7" max="7" width="45.33203125" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" customWidth="1"/>
+    <col min="9" max="28" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17.25" customHeight="1">
@@ -3528,22 +3552,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="271"/>
-      <c r="G36" s="272"/>
-      <c r="H36" s="272"/>
-      <c r="I36" s="272"/>
+      <c r="F36" s="270"/>
+      <c r="G36" s="271"/>
+      <c r="H36" s="271"/>
+      <c r="I36" s="271"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="272"/>
-      <c r="G37" s="272"/>
-      <c r="H37" s="272"/>
-      <c r="I37" s="272"/>
+      <c r="F37" s="271"/>
+      <c r="G37" s="271"/>
+      <c r="H37" s="271"/>
+      <c r="I37" s="271"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="272"/>
-      <c r="G38" s="272"/>
-      <c r="H38" s="272"/>
-      <c r="I38" s="272"/>
+      <c r="F38" s="271"/>
+      <c r="G38" s="271"/>
+      <c r="H38" s="271"/>
+      <c r="I38" s="271"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="112"/>
@@ -3552,22 +3576,22 @@
       <c r="I39" s="112"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="271"/>
-      <c r="G40" s="272"/>
-      <c r="H40" s="272"/>
-      <c r="I40" s="272"/>
+      <c r="F40" s="270"/>
+      <c r="G40" s="271"/>
+      <c r="H40" s="271"/>
+      <c r="I40" s="271"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="272"/>
-      <c r="G41" s="272"/>
-      <c r="H41" s="272"/>
-      <c r="I41" s="272"/>
+      <c r="F41" s="271"/>
+      <c r="G41" s="271"/>
+      <c r="H41" s="271"/>
+      <c r="I41" s="271"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="272"/>
-      <c r="G42" s="272"/>
-      <c r="H42" s="272"/>
-      <c r="I42" s="272"/>
+      <c r="F42" s="271"/>
+      <c r="G42" s="271"/>
+      <c r="H42" s="271"/>
+      <c r="I42" s="271"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="112"/>
@@ -3582,34 +3606,34 @@
       <c r="I44" s="112"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="271"/>
-      <c r="G45" s="272"/>
-      <c r="H45" s="272"/>
-      <c r="I45" s="272"/>
+      <c r="F45" s="270"/>
+      <c r="G45" s="271"/>
+      <c r="H45" s="271"/>
+      <c r="I45" s="271"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="272"/>
-      <c r="G46" s="272"/>
-      <c r="H46" s="272"/>
-      <c r="I46" s="272"/>
+      <c r="F46" s="271"/>
+      <c r="G46" s="271"/>
+      <c r="H46" s="271"/>
+      <c r="I46" s="271"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="272"/>
-      <c r="G47" s="272"/>
-      <c r="H47" s="272"/>
-      <c r="I47" s="272"/>
+      <c r="F47" s="271"/>
+      <c r="G47" s="271"/>
+      <c r="H47" s="271"/>
+      <c r="I47" s="271"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="272"/>
-      <c r="G48" s="272"/>
-      <c r="H48" s="272"/>
-      <c r="I48" s="272"/>
+      <c r="F48" s="271"/>
+      <c r="G48" s="271"/>
+      <c r="H48" s="271"/>
+      <c r="I48" s="271"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="272"/>
-      <c r="G49" s="272"/>
-      <c r="H49" s="272"/>
-      <c r="I49" s="272"/>
+      <c r="F49" s="271"/>
+      <c r="G49" s="271"/>
+      <c r="H49" s="271"/>
+      <c r="I49" s="271"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3630,14 +3654,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
-    <col min="4" max="4" width="138.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="138.6640625" customWidth="1"/>
     <col min="5" max="5" width="48" customWidth="1"/>
-    <col min="6" max="7" width="8.5703125" customWidth="1"/>
+    <col min="6" max="7" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="12.75" customHeight="1">
@@ -3729,7 +3753,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B13" s="273" t="s">
+      <c r="B13" s="272" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -3743,7 +3767,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B14" s="274"/>
+      <c r="B14" s="273"/>
       <c r="C14" s="22" t="s">
         <v>63</v>
       </c>
@@ -3755,7 +3779,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B15" s="274"/>
+      <c r="B15" s="273"/>
       <c r="C15" s="22" t="s">
         <v>65</v>
       </c>
@@ -3767,7 +3791,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="274"/>
+      <c r="B16" s="273"/>
       <c r="C16" s="126" t="s">
         <v>206</v>
       </c>
@@ -3779,7 +3803,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="274"/>
+      <c r="B17" s="273"/>
       <c r="C17" s="22" t="s">
         <v>67</v>
       </c>
@@ -3791,7 +3815,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="274"/>
+      <c r="B18" s="273"/>
       <c r="C18" s="22" t="s">
         <v>180</v>
       </c>
@@ -3801,7 +3825,7 @@
       <c r="E18" s="41"/>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="274"/>
+      <c r="B19" s="273"/>
       <c r="C19" s="22" t="s">
         <v>69</v>
       </c>
@@ -3813,7 +3837,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="274"/>
+      <c r="B20" s="273"/>
       <c r="C20" s="22" t="s">
         <v>233</v>
       </c>
@@ -3825,7 +3849,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="274"/>
+      <c r="B21" s="273"/>
       <c r="C21" s="22" t="s">
         <v>90</v>
       </c>
@@ -3837,7 +3861,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="274"/>
+      <c r="B22" s="273"/>
       <c r="C22" s="22" t="s">
         <v>71</v>
       </c>
@@ -3849,7 +3873,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="274"/>
+      <c r="B23" s="273"/>
       <c r="C23" s="22" t="s">
         <v>247</v>
       </c>
@@ -3861,7 +3885,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="274"/>
+      <c r="B24" s="273"/>
       <c r="C24" s="22" t="s">
         <v>248</v>
       </c>
@@ -3873,7 +3897,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="274"/>
+      <c r="B25" s="273"/>
       <c r="C25" s="22" t="s">
         <v>249</v>
       </c>
@@ -3885,7 +3909,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="275"/>
+      <c r="B26" s="274"/>
       <c r="C26" s="19" t="s">
         <v>72</v>
       </c>
@@ -3909,7 +3933,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="273" t="s">
+      <c r="B28" s="272" t="s">
         <v>74</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -3923,7 +3947,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="274"/>
+      <c r="B29" s="273"/>
       <c r="C29" s="22" t="s">
         <v>236</v>
       </c>
@@ -3935,7 +3959,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="274"/>
+      <c r="B30" s="273"/>
       <c r="C30" s="22" t="s">
         <v>61</v>
       </c>
@@ -3947,7 +3971,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="274"/>
+      <c r="B31" s="273"/>
       <c r="C31" s="22" t="s">
         <v>71</v>
       </c>
@@ -3959,37 +3983,37 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="274"/>
+      <c r="B32" s="273"/>
       <c r="C32" s="22"/>
       <c r="D32" s="18"/>
       <c r="E32" s="41"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="274"/>
+      <c r="B33" s="273"/>
       <c r="C33" s="22"/>
       <c r="D33" s="18"/>
       <c r="E33" s="41"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="274"/>
+      <c r="B34" s="273"/>
       <c r="C34" s="22"/>
       <c r="D34" s="18"/>
       <c r="E34" s="41"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="274"/>
+      <c r="B35" s="273"/>
       <c r="C35" s="22"/>
       <c r="D35" s="18"/>
       <c r="E35" s="41"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="275"/>
+      <c r="B36" s="274"/>
       <c r="C36" s="19"/>
       <c r="D36" s="40"/>
       <c r="E36" s="20"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="273" t="s">
+      <c r="B37" s="272" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="23" t="s">
@@ -4003,55 +4027,55 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="274"/>
+      <c r="B38" s="273"/>
       <c r="C38" s="22"/>
       <c r="D38" s="18"/>
       <c r="E38" s="41"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="274"/>
+      <c r="B39" s="273"/>
       <c r="C39" s="22"/>
       <c r="D39" s="18"/>
       <c r="E39" s="41"/>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="274"/>
+      <c r="B40" s="273"/>
       <c r="C40" s="22"/>
       <c r="D40" s="18"/>
       <c r="E40" s="41"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="274"/>
+      <c r="B41" s="273"/>
       <c r="C41" s="22"/>
       <c r="D41" s="18"/>
       <c r="E41" s="41"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="274"/>
+      <c r="B42" s="273"/>
       <c r="C42" s="22"/>
       <c r="D42" s="18"/>
       <c r="E42" s="41"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="274"/>
+      <c r="B43" s="273"/>
       <c r="C43" s="22"/>
       <c r="D43" s="18"/>
       <c r="E43" s="41"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="274"/>
+      <c r="B44" s="273"/>
       <c r="C44" s="22"/>
       <c r="D44" s="18"/>
       <c r="E44" s="41"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="274"/>
+      <c r="B45" s="273"/>
       <c r="C45" s="22"/>
       <c r="D45" s="18"/>
       <c r="E45" s="41"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="275"/>
+      <c r="B46" s="274"/>
       <c r="C46" s="24"/>
       <c r="D46" s="25"/>
       <c r="E46" s="46"/>
@@ -4071,21 +4095,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:F123"/>
+  <dimension ref="B2:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A42" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72:E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" customWidth="1"/>
-    <col min="6" max="6" width="138.7109375" customWidth="1"/>
-    <col min="7" max="8" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.5546875" customWidth="1"/>
+    <col min="6" max="6" width="138.6640625" customWidth="1"/>
+    <col min="7" max="8" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.25" customHeight="1">
@@ -4097,22 +4121,22 @@
       <c r="E2" s="109"/>
       <c r="F2" s="109"/>
     </row>
-    <row r="3" spans="2:6" ht="89.45" customHeight="1">
+    <row r="3" spans="2:6" ht="89.4" customHeight="1">
       <c r="B3" s="109"/>
-      <c r="C3" s="276" t="s">
+      <c r="C3" s="275" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="272"/>
-      <c r="E3" s="272"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="271"/>
       <c r="F3" s="109"/>
     </row>
     <row r="4" spans="2:6" ht="30.75" customHeight="1">
       <c r="B4" s="110"/>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="276" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
       <c r="F4" s="110"/>
     </row>
     <row r="5" spans="2:6" ht="21" customHeight="1">
@@ -4385,7 +4409,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="31" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="31" spans="2:6" ht="15.75" customHeight="1">
       <c r="B31" s="190"/>
       <c r="C31" s="191"/>
       <c r="D31" s="145"/>
@@ -4396,88 +4420,106 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="2:6" s="270" customFormat="1" ht="15.75" customHeight="1">
+    <row r="32" spans="2:6" ht="15.75" customHeight="1">
       <c r="B32" s="190"/>
       <c r="C32" s="191"/>
       <c r="D32" s="145"/>
       <c r="E32" s="145" t="s">
         <v>292</v>
       </c>
-      <c r="F32" s="192"/>
-    </row>
-    <row r="33" spans="2:6" s="270" customFormat="1" ht="15.75" customHeight="1">
+      <c r="F32" s="192" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" customHeight="1">
       <c r="B33" s="190"/>
       <c r="C33" s="191"/>
       <c r="D33" s="145"/>
       <c r="E33" s="145" t="s">
         <v>285</v>
       </c>
-      <c r="F33" s="192"/>
-    </row>
-    <row r="34" spans="2:6" s="270" customFormat="1" ht="15.75" customHeight="1">
+      <c r="F33" s="192" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" customHeight="1">
       <c r="B34" s="190"/>
       <c r="C34" s="191"/>
       <c r="D34" s="145"/>
       <c r="E34" s="145" t="s">
         <v>286</v>
       </c>
-      <c r="F34" s="192"/>
-    </row>
-    <row r="35" spans="2:6" s="270" customFormat="1" ht="15.75" customHeight="1">
+      <c r="F34" s="192" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" customHeight="1">
       <c r="B35" s="190"/>
       <c r="C35" s="191"/>
       <c r="D35" s="145"/>
       <c r="E35" s="145" t="s">
         <v>293</v>
       </c>
-      <c r="F35" s="192"/>
-    </row>
-    <row r="36" spans="2:6" s="270" customFormat="1" ht="15.75" customHeight="1">
+      <c r="F35" s="192" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" customHeight="1">
       <c r="B36" s="190"/>
       <c r="C36" s="191"/>
       <c r="D36" s="145"/>
       <c r="E36" s="145" t="s">
         <v>287</v>
       </c>
-      <c r="F36" s="192"/>
-    </row>
-    <row r="37" spans="2:6" s="270" customFormat="1" ht="15.75" customHeight="1">
+      <c r="F36" s="192" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" customHeight="1">
       <c r="B37" s="190"/>
       <c r="C37" s="191"/>
       <c r="D37" s="145"/>
       <c r="E37" s="145" t="s">
         <v>288</v>
       </c>
-      <c r="F37" s="192"/>
-    </row>
-    <row r="38" spans="2:6" s="270" customFormat="1" ht="15.75" customHeight="1">
+      <c r="F37" s="192" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" customHeight="1">
       <c r="B38" s="190"/>
       <c r="C38" s="191"/>
       <c r="D38" s="145"/>
       <c r="E38" s="145" t="s">
         <v>289</v>
       </c>
-      <c r="F38" s="192"/>
-    </row>
-    <row r="39" spans="2:6" s="270" customFormat="1" ht="15.75" customHeight="1">
+      <c r="F38" s="192" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" customHeight="1">
       <c r="B39" s="190"/>
       <c r="C39" s="191"/>
       <c r="D39" s="145"/>
       <c r="E39" s="145" t="s">
         <v>290</v>
       </c>
-      <c r="F39" s="192"/>
-    </row>
-    <row r="40" spans="2:6" s="270" customFormat="1" ht="15.75" customHeight="1">
+      <c r="F39" s="192" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" customHeight="1">
       <c r="B40" s="190"/>
       <c r="C40" s="191"/>
       <c r="D40" s="145"/>
       <c r="E40" s="145" t="s">
         <v>291</v>
       </c>
-      <c r="F40" s="192"/>
-    </row>
-    <row r="41" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="F40" s="192" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" customHeight="1">
       <c r="B41" s="190"/>
       <c r="C41" s="191"/>
       <c r="D41" s="145"/>
@@ -4486,7 +4528,7 @@
       </c>
       <c r="F41" s="192"/>
     </row>
-    <row r="42" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="42" spans="2:6" ht="15.75" customHeight="1">
       <c r="B42" s="190"/>
       <c r="C42" s="191"/>
       <c r="D42" s="145"/>
@@ -4497,7 +4539,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="43" spans="2:6" ht="15.75" customHeight="1">
       <c r="B43" s="190" t="s">
         <v>88</v>
       </c>
@@ -4512,7 +4554,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="44" spans="2:6" ht="15.75" customHeight="1">
       <c r="B44" s="190"/>
       <c r="C44" s="194" t="s">
         <v>273</v>
@@ -4525,7 +4567,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="45" spans="2:6" ht="15.75" customHeight="1">
       <c r="B45" s="190"/>
       <c r="C45" s="191"/>
       <c r="D45" s="193"/>
@@ -4536,7 +4578,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="46" spans="2:6" ht="15.75" customHeight="1">
       <c r="B46" s="190"/>
       <c r="C46" s="191"/>
       <c r="D46" s="193"/>
@@ -4547,7 +4589,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="47" spans="2:6" ht="15.75" customHeight="1">
       <c r="B47" s="190"/>
       <c r="C47" s="191"/>
       <c r="D47" s="193"/>
@@ -4558,7 +4600,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="48" spans="2:6" ht="15.75" customHeight="1">
       <c r="B48" s="195"/>
       <c r="C48" s="196"/>
       <c r="D48" s="197"/>
@@ -4567,7 +4609,7 @@
       </c>
       <c r="F48" s="199"/>
     </row>
-    <row r="49" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="49" spans="2:6" ht="15.75" customHeight="1">
       <c r="B49" s="200" t="s">
         <v>90</v>
       </c>
@@ -4582,7 +4624,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="50" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="50" spans="2:6" ht="15.75" customHeight="1">
       <c r="B50" s="205"/>
       <c r="C50" s="206"/>
       <c r="D50" s="207"/>
@@ -4593,7 +4635,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="51" spans="2:6" ht="15.75" customHeight="1">
       <c r="B51" s="205"/>
       <c r="C51" s="206"/>
       <c r="D51" s="207"/>
@@ -4602,7 +4644,7 @@
       </c>
       <c r="F51" s="209"/>
     </row>
-    <row r="52" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="52" spans="2:6" ht="15.75" customHeight="1">
       <c r="B52" s="205" t="s">
         <v>88</v>
       </c>
@@ -4617,7 +4659,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="53" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="53" spans="2:6" ht="15.75" customHeight="1">
       <c r="B53" s="205"/>
       <c r="C53" s="210" t="s">
         <v>273</v>
@@ -4630,7 +4672,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="54" spans="2:6" ht="15.75" customHeight="1">
       <c r="B54" s="205"/>
       <c r="C54" s="211"/>
       <c r="D54" s="207"/>
@@ -4641,7 +4683,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="55" spans="2:6" ht="15.75" customHeight="1">
       <c r="B55" s="205"/>
       <c r="C55" s="211"/>
       <c r="D55" s="207"/>
@@ -4650,7 +4692,7 @@
       </c>
       <c r="F55" s="212"/>
     </row>
-    <row r="56" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="56" spans="2:6" ht="15.75" customHeight="1">
       <c r="B56" s="213"/>
       <c r="C56" s="214"/>
       <c r="D56" s="215"/>
@@ -4659,7 +4701,7 @@
       </c>
       <c r="F56" s="217"/>
     </row>
-    <row r="57" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="57" spans="2:6" ht="15.75" customHeight="1">
       <c r="B57" s="218" t="s">
         <v>90</v>
       </c>
@@ -4674,7 +4716,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="58" spans="2:6" ht="15.75" customHeight="1">
       <c r="B58" s="223"/>
       <c r="C58" s="224"/>
       <c r="D58" s="225"/>
@@ -4685,7 +4727,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="59" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="59" spans="2:6" ht="15.75" customHeight="1">
       <c r="B59" s="223"/>
       <c r="C59" s="224"/>
       <c r="D59" s="225"/>
@@ -4696,7 +4738,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="60" spans="2:6" ht="15.75" customHeight="1">
       <c r="B60" s="223"/>
       <c r="C60" s="224"/>
       <c r="D60" s="225"/>
@@ -4705,7 +4747,7 @@
       </c>
       <c r="F60" s="227"/>
     </row>
-    <row r="61" spans="2:6" customFormat="1" ht="18" customHeight="1">
+    <row r="61" spans="2:6" ht="18" customHeight="1">
       <c r="B61" s="223" t="s">
         <v>88</v>
       </c>
@@ -4720,7 +4762,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="62" spans="2:6" customFormat="1" ht="18" customHeight="1">
+    <row r="62" spans="2:6" ht="18" customHeight="1">
       <c r="B62" s="223"/>
       <c r="C62" s="228" t="s">
         <v>273</v>
@@ -4733,7 +4775,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="63" spans="2:6" customFormat="1" ht="18" customHeight="1">
+    <row r="63" spans="2:6" ht="18" customHeight="1">
       <c r="B63" s="223"/>
       <c r="C63" s="230"/>
       <c r="D63" s="229"/>
@@ -4744,7 +4786,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="2:6" customFormat="1" ht="18" customHeight="1">
+    <row r="64" spans="2:6" ht="18" customHeight="1">
       <c r="B64" s="231"/>
       <c r="C64" s="232"/>
       <c r="D64" s="233"/>
@@ -4753,7 +4795,7 @@
       </c>
       <c r="F64" s="235"/>
     </row>
-    <row r="65" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="65" spans="2:6" ht="15.75" customHeight="1">
       <c r="B65" s="236" t="s">
         <v>88</v>
       </c>
@@ -4768,7 +4810,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="66" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="66" spans="2:6" ht="15.75" customHeight="1">
       <c r="B66" s="241"/>
       <c r="C66" s="242"/>
       <c r="D66" s="243"/>
@@ -4779,7 +4821,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="67" spans="2:6" ht="15.75" customHeight="1">
       <c r="B67" s="241"/>
       <c r="C67" s="246"/>
       <c r="D67" s="243"/>
@@ -4790,7 +4832,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="68" spans="2:6" ht="15.75" customHeight="1">
       <c r="B68" s="241"/>
       <c r="C68" s="246"/>
       <c r="D68" s="244" t="s">
@@ -4801,7 +4843,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="69" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="69" spans="2:6" ht="15.75" customHeight="1">
       <c r="B69" s="241"/>
       <c r="C69" s="246"/>
       <c r="D69" s="243"/>
@@ -4810,7 +4852,7 @@
       </c>
       <c r="F69" s="247"/>
     </row>
-    <row r="70" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="70" spans="2:6" ht="15.75" customHeight="1">
       <c r="B70" s="241"/>
       <c r="C70" s="246"/>
       <c r="D70" s="243"/>
@@ -4819,7 +4861,7 @@
       </c>
       <c r="F70" s="247"/>
     </row>
-    <row r="71" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="71" spans="2:6" ht="15.75" customHeight="1">
       <c r="B71" s="248"/>
       <c r="C71" s="249"/>
       <c r="D71" s="250"/>
@@ -4830,7 +4872,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="72" spans="2:6" ht="15.75" customHeight="1">
       <c r="B72" s="253" t="s">
         <v>88</v>
       </c>
@@ -4845,7 +4887,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="73" spans="2:6" ht="15.75" customHeight="1">
       <c r="B73" s="258"/>
       <c r="C73" s="259"/>
       <c r="D73" s="260"/>
@@ -4854,7 +4896,7 @@
       </c>
       <c r="F73" s="262"/>
     </row>
-    <row r="74" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="74" spans="2:6" ht="15.75" customHeight="1">
       <c r="B74" s="258"/>
       <c r="C74" s="259"/>
       <c r="D74" s="260"/>
@@ -4863,7 +4905,7 @@
       </c>
       <c r="F74" s="262"/>
     </row>
-    <row r="75" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="75" spans="2:6" ht="15.75" customHeight="1">
       <c r="B75" s="258"/>
       <c r="C75" s="259"/>
       <c r="D75" s="261" t="s">
@@ -4874,7 +4916,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="76" spans="2:6" ht="15.75" customHeight="1">
       <c r="B76" s="258"/>
       <c r="C76" s="259"/>
       <c r="D76" s="260"/>
@@ -4885,7 +4927,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="77" spans="2:6" ht="15.75" customHeight="1">
       <c r="B77" s="258" t="s">
         <v>90</v>
       </c>
@@ -4900,7 +4942,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="78" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="78" spans="2:6" ht="15.75" customHeight="1">
       <c r="B78" s="258"/>
       <c r="C78" s="259"/>
       <c r="D78" s="260"/>
@@ -4909,7 +4951,7 @@
       </c>
       <c r="F78" s="262"/>
     </row>
-    <row r="79" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="79" spans="2:6" ht="15.75" customHeight="1">
       <c r="B79" s="258"/>
       <c r="C79" s="259"/>
       <c r="D79" s="260"/>
@@ -4918,7 +4960,7 @@
       </c>
       <c r="F79" s="262"/>
     </row>
-    <row r="80" spans="2:6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="80" spans="2:6" ht="15.75" customHeight="1">
       <c r="B80" s="265"/>
       <c r="C80" s="266"/>
       <c r="D80" s="267"/>
@@ -4927,29 +4969,11 @@
       </c>
       <c r="F80" s="269"/>
     </row>
-    <row r="81" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="82" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="83" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="84" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="85" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="86" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="87" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="88" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="89" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="95" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="96" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="98" spans="4:4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="112" spans="4:4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="112" spans="4:4" ht="15.75" customHeight="1">
       <c r="D112" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="113" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="114" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="118" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="120" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="121" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="123" customFormat="1" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C3:E3"/>
@@ -4969,9 +4993,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="101" width="4.140625" customWidth="1"/>
+    <col min="1" max="101" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="7:19" ht="21.75" customHeight="1">
@@ -5119,7 +5143,7 @@
       <c r="R9" s="112"/>
       <c r="S9" s="112"/>
     </row>
-    <row r="10" spans="7:19">
+    <row r="10" spans="7:19" ht="15.6">
       <c r="G10" s="34"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
@@ -5143,13 +5167,13 @@
       <c r="J11" s="112"/>
       <c r="K11" s="112"/>
       <c r="L11" s="112"/>
-      <c r="M11" s="279"/>
-      <c r="N11" s="272"/>
-      <c r="O11" s="272"/>
+      <c r="M11" s="278"/>
+      <c r="N11" s="271"/>
+      <c r="O11" s="271"/>
       <c r="P11" s="112"/>
       <c r="Q11" s="112"/>
-      <c r="R11" s="279"/>
-      <c r="S11" s="280"/>
+      <c r="R11" s="278"/>
+      <c r="S11" s="279"/>
     </row>
     <row r="12" spans="7:19" ht="15">
       <c r="G12" s="38"/>
@@ -5236,7 +5260,7 @@
       <c r="R16" s="40"/>
       <c r="S16" s="41"/>
     </row>
-    <row r="18" spans="7:23" ht="15">
+    <row r="18" spans="7:23" ht="15.6">
       <c r="G18" s="38"/>
       <c r="H18" s="42"/>
       <c r="I18" s="49"/>
@@ -5355,9 +5379,9 @@
       <c r="W23" s="112"/>
     </row>
     <row r="24" spans="7:23" ht="15">
-      <c r="G24" s="278"/>
-      <c r="H24" s="272"/>
-      <c r="I24" s="272"/>
+      <c r="G24" s="277"/>
+      <c r="H24" s="271"/>
+      <c r="I24" s="271"/>
       <c r="J24" s="112"/>
       <c r="K24" s="112"/>
       <c r="L24" s="112"/>
@@ -5393,9 +5417,9 @@
       <c r="W25" s="112"/>
     </row>
     <row r="26" spans="7:23" ht="15">
-      <c r="G26" s="278"/>
-      <c r="H26" s="272"/>
-      <c r="I26" s="272"/>
+      <c r="G26" s="277"/>
+      <c r="H26" s="271"/>
+      <c r="I26" s="271"/>
       <c r="J26" s="112"/>
       <c r="K26" s="112"/>
       <c r="L26" s="112"/>
@@ -5440,14 +5464,14 @@
       <c r="M28" s="112"/>
       <c r="N28" s="112"/>
       <c r="O28" s="112"/>
-      <c r="P28" s="278"/>
-      <c r="Q28" s="272"/>
-      <c r="R28" s="272"/>
+      <c r="P28" s="277"/>
+      <c r="Q28" s="271"/>
+      <c r="R28" s="271"/>
       <c r="S28" s="112"/>
-      <c r="T28" s="278"/>
-      <c r="U28" s="272"/>
-      <c r="V28" s="272"/>
-      <c r="W28" s="272"/>
+      <c r="T28" s="277"/>
+      <c r="U28" s="271"/>
+      <c r="V28" s="271"/>
+      <c r="W28" s="271"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5471,32 +5495,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1"/>
     <col min="12" max="30" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="87" customHeight="1">
       <c r="B1" s="110"/>
-      <c r="C1" s="276" t="s">
+      <c r="C1" s="275" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="271"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="112"/>
@@ -5610,47 +5634,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="26" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="64.5" customHeight="1">
-      <c r="C1" s="281" t="s">
+      <c r="C1" s="280" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-    </row>
-    <row r="2" spans="2:11" ht="12.75"/>
-    <row r="3" spans="2:11" ht="12.75">
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+    </row>
+    <row r="2" spans="2:11" ht="13.2"/>
+    <row r="3" spans="2:11" ht="13.2">
       <c r="B3" s="56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="12.75">
+    <row r="4" spans="2:11" ht="13.2">
       <c r="B4" s="57"/>
     </row>
-    <row r="5" spans="2:11" ht="12.75">
+    <row r="5" spans="2:11" ht="13.2">
       <c r="B5" s="113"/>
       <c r="C5" s="113"/>
       <c r="D5" s="113"/>
     </row>
-    <row r="6" spans="2:11" ht="12.75">
+    <row r="6" spans="2:11" ht="13.2">
       <c r="B6" s="113"/>
       <c r="C6" s="113"/>
       <c r="D6" s="113"/>
       <c r="E6" s="113"/>
     </row>
-    <row r="7" spans="2:11" ht="25.5">
-      <c r="B7" s="282" t="s">
+    <row r="7" spans="2:11" ht="26.4">
+      <c r="B7" s="281" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="272"/>
+      <c r="C7" s="271"/>
       <c r="G7" s="113" t="s">
         <v>131</v>
       </c>
@@ -5658,7 +5682,7 @@
       <c r="I7" s="113"/>
       <c r="J7" s="113"/>
     </row>
-    <row r="8" spans="2:11" ht="12.75">
+    <row r="8" spans="2:11" ht="13.2">
       <c r="B8" s="113"/>
       <c r="G8" s="113" t="s">
         <v>132</v>
@@ -5666,7 +5690,7 @@
       <c r="H8" s="113"/>
       <c r="I8" s="113"/>
     </row>
-    <row r="9" spans="2:11" ht="12.75">
+    <row r="9" spans="2:11" ht="13.2">
       <c r="B9" s="58" t="s">
         <v>133</v>
       </c>
@@ -5690,7 +5714,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="12.75">
+    <row r="10" spans="2:11" ht="13.2">
       <c r="B10" s="108"/>
       <c r="D10" s="67"/>
       <c r="G10" s="68" t="s">
@@ -5699,7 +5723,7 @@
       <c r="J10" s="113"/>
       <c r="K10" s="111"/>
     </row>
-    <row r="11" spans="2:11" ht="25.5">
+    <row r="11" spans="2:11" ht="26.4">
       <c r="B11" s="64"/>
       <c r="C11" s="65"/>
       <c r="D11" s="66"/>
@@ -5711,7 +5735,7 @@
       </c>
       <c r="K11" s="111"/>
     </row>
-    <row r="12" spans="2:11" ht="12.75">
+    <row r="12" spans="2:11" ht="13.2">
       <c r="B12" s="108"/>
       <c r="D12" s="67"/>
       <c r="G12" s="68" t="s">
@@ -5719,7 +5743,7 @@
       </c>
       <c r="K12" s="111"/>
     </row>
-    <row r="13" spans="2:11" ht="12.75">
+    <row r="13" spans="2:11" ht="13.2">
       <c r="B13" s="108"/>
       <c r="D13" s="67"/>
       <c r="G13" s="68" t="s">
@@ -5743,32 +5767,32 @@
   </sheetPr>
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="56.5546875" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="57" customHeight="1">
       <c r="B1" s="115"/>
       <c r="C1" s="116"/>
-      <c r="D1" s="281" t="s">
+      <c r="D1" s="280" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="271"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="115"/>
@@ -5798,7 +5822,7 @@
       <c r="F4" s="115"/>
       <c r="H4" s="115"/>
     </row>
-    <row r="5" spans="2:8" ht="12.75">
+    <row r="5" spans="2:8" ht="13.2">
       <c r="B5" s="115"/>
       <c r="C5" s="116"/>
       <c r="D5" s="117"/>
@@ -5952,13 +5976,13 @@
       <c r="H15" s="130"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D16" s="283" t="s">
+      <c r="D16" s="282" t="s">
         <v>270</v>
       </c>
-      <c r="E16" s="284"/>
-      <c r="F16" s="284"/>
-      <c r="G16" s="284"/>
-      <c r="H16" s="285"/>
+      <c r="E16" s="283"/>
+      <c r="F16" s="283"/>
+      <c r="G16" s="283"/>
+      <c r="H16" s="284"/>
     </row>
     <row r="17" spans="4:8" ht="15.75" customHeight="1">
       <c r="D17" s="135" t="s">
@@ -6173,20 +6197,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
-    <col min="8" max="9" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" customWidth="1"/>
+    <col min="8" max="9" width="10.5546875" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="12" width="10.5703125" customWidth="1"/>
+    <col min="11" max="12" width="10.5546875" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
-    <col min="14" max="23" width="11.42578125" customWidth="1"/>
+    <col min="14" max="23" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21.75" customHeight="1">
@@ -6211,12 +6235,12 @@
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="272"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="272"/>
+      <c r="H3" s="285"/>
+      <c r="I3" s="271"/>
+      <c r="J3" s="271"/>
+      <c r="K3" s="271"/>
+      <c r="L3" s="271"/>
+      <c r="M3" s="271"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1">
       <c r="B4" s="102"/>
@@ -6668,18 +6692,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6702,18 +6726,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B130DE0C-7A28-4B03-98EC-F451E5EF5DFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Gestion_A_jmd.xlsx
+++ b/Gestion_A_jmd.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilio\OneDrive\Bureau\ProjetDaleks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\ProjetDaleks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885A67B2-28E0-47DB-809C-2D7617DDC763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF5558F-8EB4-4875-BBAB-74336512EBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{E687526C-779E-492B-BB96-71999BB7EE79}"/>
+    <workbookView xWindow="8370" yWindow="-240" windowWidth="18900" windowHeight="11055" firstSheet="3" activeTab="2" xr2:uid="{E687526C-779E-492B-BB96-71999BB7EE79}"/>
+    <workbookView xWindow="-8895" yWindow="5310" windowWidth="18900" windowHeight="11055" activeTab="1" xr2:uid="{44350D87-A585-4608-884F-E6D7378710D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="330">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -805,9 +806,6 @@
     <t>while choix = choix_existant</t>
   </si>
   <si>
-    <t>affiche les differents niveau</t>
-  </si>
-  <si>
     <t>choisi le niveau</t>
   </si>
   <si>
@@ -838,12 +836,6 @@
     <t>if position_dacleks = postion_daleks si vrai creer_une_ferraile = position collision , -2 daleks , +5score et si nb_daleks = 0 alors fin de partie(gagné)</t>
   </si>
   <si>
-    <t>deplace le joueur aleatoirement</t>
-  </si>
-  <si>
-    <t>deplacement en fonction du niveau le plus pres (facile 2 case distance,oridanaire 0 case distance, meme case</t>
-  </si>
-  <si>
     <t>air de jeux, docteur,daleks,,</t>
   </si>
   <si>
@@ -1030,9 +1022,6 @@
     <t>if collision daleks ferraile</t>
   </si>
   <si>
-    <t>print("facile - moyen - difficile")</t>
-  </si>
-  <si>
     <t>if collision daleks et docteur = feraille</t>
   </si>
   <si>
@@ -1054,40 +1043,19 @@
     <t>Nos fonctions</t>
   </si>
   <si>
-    <t>choix_possible</t>
-  </si>
-  <si>
     <t>contact_dalek_docteur</t>
   </si>
   <si>
     <t>contact_dalek_dalek</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>1h &lt;</t>
-  </si>
-  <si>
     <t>1h</t>
   </si>
   <si>
-    <t>score_joueur</t>
-  </si>
-  <si>
-    <t>moyenne</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
     <t>Position aléatoir sauf même case</t>
   </si>
   <si>
     <t>quitter_jeux</t>
-  </si>
-  <si>
-    <t>contact_dalek_dalek (ferraille)</t>
   </si>
   <si>
     <t>limitation_cadre_jeux</t>
@@ -1149,6 +1117,120 @@
   </si>
   <si>
     <t>elif touche == 4: x -= 1 y += 0</t>
+  </si>
+  <si>
+    <t>Demander la largeur et la hauteur de l air de jeux</t>
+  </si>
+  <si>
+    <t>if largeur.isnumeric() &lt;= 8 and hauteur.isnumeric() &lt;= 10</t>
+  </si>
+  <si>
+    <t>si partie_gagner</t>
+  </si>
+  <si>
+    <t>est_a_proximite</t>
+  </si>
+  <si>
+    <t>distace docteur x et y en difference des positions plus 2 x et y</t>
+  </si>
+  <si>
+    <t>attribut x y aleatoirement</t>
+  </si>
+  <si>
+    <t>verifie xy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>demande_air_de_jeux</t>
+  </si>
+  <si>
+    <t>demande_username</t>
+  </si>
+  <si>
+    <t>afficher-air_de_jeu</t>
+  </si>
+  <si>
+    <t>deplacer_docteur</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>Créer une partie</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>créer un niveau</t>
+  </si>
+  <si>
+    <t>haute</t>
+  </si>
+  <si>
+    <t>contact dalek ferraile</t>
+  </si>
+  <si>
+    <t>creation ferraile</t>
+  </si>
+  <si>
+    <t>afficher menu initial</t>
+  </si>
+  <si>
+    <t>afficher tout les scores</t>
+  </si>
+  <si>
+    <t>sauvegarder score joueur</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>20min</t>
+  </si>
+  <si>
+    <t>35min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1h </t>
+  </si>
+  <si>
+    <t>25min</t>
+  </si>
+  <si>
+    <t>15min</t>
+  </si>
+  <si>
+    <t>enregistre  le score du joueur</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>moyen</t>
+  </si>
+  <si>
+    <t>créer_niveau_suivant</t>
+  </si>
+  <si>
+    <t>Fabile</t>
+  </si>
+  <si>
+    <t>25 min</t>
+  </si>
+  <si>
+    <t>en classe</t>
   </si>
 </sst>
 </file>
@@ -1338,12 +1420,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1354,8 +1430,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="64">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1798,21 +1880,6 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
@@ -2125,9 +2192,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2278,9 +2345,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2310,24 +2377,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2381,7 +2448,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2390,9 +2457,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2402,10 +2466,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2414,401 +2475,389 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="50" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2844,17 +2893,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="50" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3198,18 +3259,19 @@
   <dimension ref="B2:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
-    <col min="4" max="4" width="69.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" customWidth="1"/>
-    <col min="7" max="7" width="45.33203125" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" customWidth="1"/>
-    <col min="9" max="28" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="69.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="45.28515625" customWidth="1"/>
+    <col min="8" max="8" width="67.85546875" customWidth="1"/>
+    <col min="9" max="28" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17.25" customHeight="1">
@@ -3552,22 +3614,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="270"/>
-      <c r="G36" s="271"/>
-      <c r="H36" s="271"/>
-      <c r="I36" s="271"/>
+      <c r="F36" s="264"/>
+      <c r="G36" s="265"/>
+      <c r="H36" s="265"/>
+      <c r="I36" s="265"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="271"/>
-      <c r="G37" s="271"/>
-      <c r="H37" s="271"/>
-      <c r="I37" s="271"/>
+      <c r="F37" s="265"/>
+      <c r="G37" s="265"/>
+      <c r="H37" s="265"/>
+      <c r="I37" s="265"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="271"/>
-      <c r="G38" s="271"/>
-      <c r="H38" s="271"/>
-      <c r="I38" s="271"/>
+      <c r="F38" s="265"/>
+      <c r="G38" s="265"/>
+      <c r="H38" s="265"/>
+      <c r="I38" s="265"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="112"/>
@@ -3576,22 +3638,22 @@
       <c r="I39" s="112"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="270"/>
-      <c r="G40" s="271"/>
-      <c r="H40" s="271"/>
-      <c r="I40" s="271"/>
+      <c r="F40" s="264"/>
+      <c r="G40" s="265"/>
+      <c r="H40" s="265"/>
+      <c r="I40" s="265"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="271"/>
-      <c r="G41" s="271"/>
-      <c r="H41" s="271"/>
-      <c r="I41" s="271"/>
+      <c r="F41" s="265"/>
+      <c r="G41" s="265"/>
+      <c r="H41" s="265"/>
+      <c r="I41" s="265"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="271"/>
-      <c r="G42" s="271"/>
-      <c r="H42" s="271"/>
-      <c r="I42" s="271"/>
+      <c r="F42" s="265"/>
+      <c r="G42" s="265"/>
+      <c r="H42" s="265"/>
+      <c r="I42" s="265"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="112"/>
@@ -3606,34 +3668,34 @@
       <c r="I44" s="112"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="270"/>
-      <c r="G45" s="271"/>
-      <c r="H45" s="271"/>
-      <c r="I45" s="271"/>
+      <c r="F45" s="264"/>
+      <c r="G45" s="265"/>
+      <c r="H45" s="265"/>
+      <c r="I45" s="265"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="271"/>
-      <c r="G46" s="271"/>
-      <c r="H46" s="271"/>
-      <c r="I46" s="271"/>
+      <c r="F46" s="265"/>
+      <c r="G46" s="265"/>
+      <c r="H46" s="265"/>
+      <c r="I46" s="265"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="271"/>
-      <c r="G47" s="271"/>
-      <c r="H47" s="271"/>
-      <c r="I47" s="271"/>
+      <c r="F47" s="265"/>
+      <c r="G47" s="265"/>
+      <c r="H47" s="265"/>
+      <c r="I47" s="265"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="271"/>
-      <c r="G48" s="271"/>
-      <c r="H48" s="271"/>
-      <c r="I48" s="271"/>
+      <c r="F48" s="265"/>
+      <c r="G48" s="265"/>
+      <c r="H48" s="265"/>
+      <c r="I48" s="265"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="271"/>
-      <c r="G49" s="271"/>
-      <c r="H49" s="271"/>
-      <c r="I49" s="271"/>
+      <c r="F49" s="265"/>
+      <c r="G49" s="265"/>
+      <c r="H49" s="265"/>
+      <c r="I49" s="265"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3652,16 +3714,21 @@
   </sheetPr>
   <dimension ref="B2:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="1">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" customWidth="1"/>
-    <col min="4" max="4" width="138.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="138.7109375" customWidth="1"/>
     <col min="5" max="5" width="48" customWidth="1"/>
-    <col min="6" max="7" width="8.5546875" customWidth="1"/>
+    <col min="6" max="7" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="12.75" customHeight="1">
@@ -3753,7 +3820,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="266" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -3767,19 +3834,19 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B14" s="273"/>
+      <c r="B14" s="267"/>
       <c r="C14" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="125" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B15" s="273"/>
+      <c r="B15" s="267"/>
       <c r="C15" s="22" t="s">
         <v>65</v>
       </c>
@@ -3791,19 +3858,19 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="273"/>
+      <c r="B16" s="267"/>
       <c r="C16" s="126" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D16" s="125" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="273"/>
+      <c r="B17" s="267"/>
       <c r="C17" s="22" t="s">
         <v>67</v>
       </c>
@@ -3815,7 +3882,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="273"/>
+      <c r="B18" s="267"/>
       <c r="C18" s="22" t="s">
         <v>180</v>
       </c>
@@ -3825,7 +3892,7 @@
       <c r="E18" s="41"/>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="273"/>
+      <c r="B19" s="267"/>
       <c r="C19" s="22" t="s">
         <v>69</v>
       </c>
@@ -3833,107 +3900,107 @@
         <v>70</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="273"/>
+      <c r="B20" s="267"/>
       <c r="C20" s="22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="273"/>
+      <c r="B21" s="267"/>
       <c r="C21" s="22" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="273"/>
+      <c r="B22" s="267"/>
       <c r="C22" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E22" s="124" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="273"/>
+      <c r="B23" s="267"/>
       <c r="C23" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>250</v>
-      </c>
       <c r="E23" s="124" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="273"/>
+      <c r="B24" s="267"/>
       <c r="C24" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>251</v>
-      </c>
       <c r="E24" s="124" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="273"/>
+      <c r="B25" s="267"/>
       <c r="C25" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>252</v>
-      </c>
       <c r="E25" s="124" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="274"/>
+      <c r="B26" s="268"/>
       <c r="C26" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E26" s="123" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="12.75" customHeight="1">
       <c r="B27" s="108"/>
       <c r="C27" s="22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E27" s="124" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="272" t="s">
+      <c r="B28" s="266" t="s">
         <v>74</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -3947,135 +4014,135 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="273"/>
+      <c r="B29" s="267"/>
       <c r="C29" s="22" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="273"/>
+      <c r="B30" s="267"/>
       <c r="C30" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="273"/>
+      <c r="B31" s="267"/>
       <c r="C31" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="273"/>
+      <c r="B32" s="267"/>
       <c r="C32" s="22"/>
       <c r="D32" s="18"/>
       <c r="E32" s="41"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="273"/>
+      <c r="B33" s="267"/>
       <c r="C33" s="22"/>
       <c r="D33" s="18"/>
       <c r="E33" s="41"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="273"/>
+      <c r="B34" s="267"/>
       <c r="C34" s="22"/>
       <c r="D34" s="18"/>
       <c r="E34" s="41"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="273"/>
+      <c r="B35" s="267"/>
       <c r="C35" s="22"/>
       <c r="D35" s="18"/>
       <c r="E35" s="41"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="274"/>
+      <c r="B36" s="268"/>
       <c r="C36" s="19"/>
       <c r="D36" s="40"/>
       <c r="E36" s="20"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="272" t="s">
+      <c r="B37" s="266" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="273"/>
+      <c r="B38" s="267"/>
       <c r="C38" s="22"/>
       <c r="D38" s="18"/>
       <c r="E38" s="41"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="273"/>
+      <c r="B39" s="267"/>
       <c r="C39" s="22"/>
       <c r="D39" s="18"/>
       <c r="E39" s="41"/>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="273"/>
+      <c r="B40" s="267"/>
       <c r="C40" s="22"/>
       <c r="D40" s="18"/>
       <c r="E40" s="41"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="273"/>
+      <c r="B41" s="267"/>
       <c r="C41" s="22"/>
       <c r="D41" s="18"/>
       <c r="E41" s="41"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="273"/>
+      <c r="B42" s="267"/>
       <c r="C42" s="22"/>
       <c r="D42" s="18"/>
       <c r="E42" s="41"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="273"/>
+      <c r="B43" s="267"/>
       <c r="C43" s="22"/>
       <c r="D43" s="18"/>
       <c r="E43" s="41"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="273"/>
+      <c r="B44" s="267"/>
       <c r="C44" s="22"/>
       <c r="D44" s="18"/>
       <c r="E44" s="41"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="273"/>
+      <c r="B45" s="267"/>
       <c r="C45" s="22"/>
       <c r="D45" s="18"/>
       <c r="E45" s="41"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="274"/>
+      <c r="B46" s="268"/>
       <c r="C46" s="24"/>
       <c r="D46" s="25"/>
       <c r="E46" s="46"/>
@@ -4095,21 +4162,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:F112"/>
+  <dimension ref="B2:F115"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72:E74"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C43" activeCellId="1" sqref="F68 C43"/>
     </sheetView>
+    <sheetView topLeftCell="C28" zoomScale="70" zoomScaleNormal="70" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" customWidth="1"/>
-    <col min="4" max="4" width="44.44140625" customWidth="1"/>
-    <col min="5" max="5" width="49.5546875" customWidth="1"/>
-    <col min="6" max="6" width="138.6640625" customWidth="1"/>
-    <col min="7" max="8" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" customWidth="1"/>
+    <col min="6" max="6" width="138.7109375" customWidth="1"/>
+    <col min="7" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.25" customHeight="1">
@@ -4121,22 +4189,22 @@
       <c r="E2" s="109"/>
       <c r="F2" s="109"/>
     </row>
-    <row r="3" spans="2:6" ht="89.4" customHeight="1">
+    <row r="3" spans="2:6" ht="89.45" customHeight="1">
       <c r="B3" s="109"/>
-      <c r="C3" s="275" t="s">
+      <c r="C3" s="269" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
       <c r="F3" s="109"/>
     </row>
     <row r="4" spans="2:6" ht="30.75" customHeight="1">
       <c r="B4" s="110"/>
-      <c r="C4" s="276" t="s">
+      <c r="C4" s="270" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="271"/>
-      <c r="E4" s="271"/>
+      <c r="D4" s="265"/>
+      <c r="E4" s="265"/>
       <c r="F4" s="110"/>
     </row>
     <row r="5" spans="2:6" ht="21" customHeight="1">
@@ -4216,761 +4284,804 @@
       <c r="D12" s="32"/>
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1">
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="155" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="163" t="s">
+      <c r="C13" s="156" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="164" t="s">
+      <c r="D13" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="165"/>
-      <c r="F13" s="166"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
     </row>
     <row r="14" spans="2:6" ht="18" customHeight="1">
-      <c r="B14" s="167"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="170" t="s">
+      <c r="B14" s="160"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="171"/>
+      <c r="F14" s="164"/>
     </row>
     <row r="15" spans="2:6" ht="18" customHeight="1">
-      <c r="B15" s="167"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="170" t="s">
+      <c r="B15" s="160"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="173"/>
+      <c r="F15" s="166"/>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B16" s="174"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="170" t="s">
+      <c r="B16" s="167"/>
+      <c r="C16" s="168" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="169"/>
+      <c r="E16" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="171"/>
+      <c r="F16" s="164"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B17" s="174"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="176" t="s">
+      <c r="B17" s="167"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="169" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="171"/>
+      <c r="F17" s="164"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B18" s="177"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="180" t="s">
+      <c r="B18" s="170"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="181" t="s">
+      <c r="F18" s="174" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="147" t="s">
+      <c r="C19" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="148" t="s">
+      <c r="D19" s="141" t="s">
         <v>186</v>
       </c>
-      <c r="E19" s="149"/>
-      <c r="F19" s="150" t="s">
+      <c r="E19" s="142"/>
+      <c r="F19" s="143" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B20" s="151"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153" t="s">
+      <c r="B20" s="144"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="154"/>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B21" s="151"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153" t="s">
+      <c r="F20" s="147"/>
+    </row>
+    <row r="21" spans="2:6" s="263" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B21" s="144" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="280" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146" t="s">
+        <v>292</v>
+      </c>
+      <c r="F21" s="147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B22" s="144"/>
+      <c r="C22" s="280" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" s="147"/>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B23" s="144"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="146" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" s="146"/>
+      <c r="F23" s="147"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B24" s="148" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="145"/>
+      <c r="D24" s="146" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="146"/>
+      <c r="F24" s="147"/>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B25" s="144"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="147" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15" customHeight="1">
+      <c r="B26" s="144"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="147" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B27" s="144"/>
+      <c r="C27" s="280" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="149"/>
+      <c r="E27" s="146" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="147" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B28" s="150"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="154" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="B29" s="175" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="176" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="177" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B30" s="178"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="180"/>
+      <c r="E30" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30" s="182" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B31" s="183"/>
+      <c r="C31" s="187" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="185" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B32" s="183"/>
+      <c r="C32" s="184"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138" t="s">
+        <v>281</v>
+      </c>
+      <c r="F32" s="185" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B33" s="183"/>
+      <c r="C33" s="184"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F33" s="185" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B34" s="183"/>
+      <c r="C34" s="184"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="F34" s="185" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B35" s="183"/>
+      <c r="C35" s="184"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="138" t="s">
+        <v>282</v>
+      </c>
+      <c r="F35" s="185" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B36" s="183"/>
+      <c r="C36" s="184"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="138" t="s">
+        <v>276</v>
+      </c>
+      <c r="F36" s="185" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B37" s="183"/>
+      <c r="C37" s="184"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="138" t="s">
+        <v>277</v>
+      </c>
+      <c r="F37" s="185" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B38" s="183"/>
+      <c r="C38" s="184"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" s="185" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B39" s="183"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="138" t="s">
+        <v>279</v>
+      </c>
+      <c r="F39" s="185" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B40" s="183"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138" t="s">
+        <v>280</v>
+      </c>
+      <c r="F40" s="185" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B41" s="183"/>
+      <c r="C41" s="187" t="s">
+        <v>303</v>
+      </c>
+      <c r="D41" s="138"/>
+      <c r="E41" s="186" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="185"/>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B42" s="183"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138" t="s">
+        <v>192</v>
+      </c>
+      <c r="F42" s="185" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B43" s="183" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="187" t="s">
+        <v>267</v>
+      </c>
+      <c r="D43" s="186"/>
+      <c r="E43" s="138" t="s">
+        <v>257</v>
+      </c>
+      <c r="F43" s="185" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B44" s="183"/>
+      <c r="C44" s="187" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" s="186"/>
+      <c r="E44" s="138" t="s">
+        <v>258</v>
+      </c>
+      <c r="F44" s="185" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B45" s="183"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="186"/>
+      <c r="E45" s="138" t="s">
+        <v>259</v>
+      </c>
+      <c r="F45" s="185" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B46" s="183"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="186"/>
+      <c r="E46" s="138" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="185" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B47" s="183"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="186"/>
+      <c r="E47" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" s="185" t="s">
         <v>220</v>
       </c>
-      <c r="F21" s="154"/>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B22" s="151"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="153" t="s">
+    </row>
+    <row r="48" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B48" s="188"/>
+      <c r="C48" s="189"/>
+      <c r="D48" s="190"/>
+      <c r="E48" s="191" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="192"/>
+    </row>
+    <row r="49" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B49" s="193" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="194" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="195" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="196"/>
+      <c r="F49" s="197" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B50" s="198"/>
+      <c r="C50" s="203" t="s">
+        <v>295</v>
+      </c>
+      <c r="D50" s="200"/>
+      <c r="E50" s="201" t="s">
+        <v>297</v>
+      </c>
+      <c r="F50" s="202" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" s="263" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B51" s="198"/>
+      <c r="C51" s="199"/>
+      <c r="D51" s="200"/>
+      <c r="E51" s="201" t="s">
+        <v>298</v>
+      </c>
+      <c r="F51" s="202" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B52" s="198"/>
+      <c r="C52" s="199"/>
+      <c r="D52" s="200"/>
+      <c r="E52" s="200" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="202"/>
+    </row>
+    <row r="53" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B53" s="198" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="203" t="s">
+        <v>267</v>
+      </c>
+      <c r="D53" s="200"/>
+      <c r="E53" s="201" t="s">
+        <v>257</v>
+      </c>
+      <c r="F53" s="202" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B54" s="198"/>
+      <c r="C54" s="203" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" s="200"/>
+      <c r="E54" s="201" t="s">
+        <v>258</v>
+      </c>
+      <c r="F54" s="202" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B55" s="198"/>
+      <c r="C55" s="204"/>
+      <c r="D55" s="200"/>
+      <c r="E55" s="201" t="s">
+        <v>259</v>
+      </c>
+      <c r="F55" s="202" t="s">
         <v>221</v>
       </c>
-      <c r="E22" s="153"/>
-      <c r="F22" s="154"/>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B23" s="155" t="s">
+    </row>
+    <row r="56" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B56" s="198"/>
+      <c r="C56" s="204"/>
+      <c r="D56" s="200"/>
+      <c r="E56" s="201" t="s">
+        <v>260</v>
+      </c>
+      <c r="F56" s="205"/>
+    </row>
+    <row r="57" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B57" s="206"/>
+      <c r="C57" s="207"/>
+      <c r="D57" s="208"/>
+      <c r="E57" s="209" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" s="210"/>
+    </row>
+    <row r="58" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B58" s="211" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="152"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="154" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B24" s="155" t="s">
+      <c r="C58" s="212" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="213" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="214"/>
+      <c r="F58" s="215" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B59" s="216"/>
+      <c r="C59" s="217"/>
+      <c r="D59" s="218"/>
+      <c r="E59" s="219" t="s">
+        <v>200</v>
+      </c>
+      <c r="F59" s="220" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B60" s="216"/>
+      <c r="C60" s="217"/>
+      <c r="D60" s="218"/>
+      <c r="E60" s="219" t="s">
+        <v>221</v>
+      </c>
+      <c r="F60" s="220" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B61" s="216"/>
+      <c r="C61" s="217"/>
+      <c r="D61" s="218"/>
+      <c r="E61" s="219" t="s">
+        <v>192</v>
+      </c>
+      <c r="F61" s="220"/>
+    </row>
+    <row r="62" spans="2:6" ht="18" customHeight="1">
+      <c r="B62" s="216" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="221" t="s">
+        <v>267</v>
+      </c>
+      <c r="D62" s="222"/>
+      <c r="E62" s="219" t="s">
+        <v>257</v>
+      </c>
+      <c r="F62" s="220" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="18" customHeight="1">
+      <c r="B63" s="216"/>
+      <c r="C63" s="221" t="s">
+        <v>268</v>
+      </c>
+      <c r="D63" s="222"/>
+      <c r="E63" s="219" t="s">
+        <v>258</v>
+      </c>
+      <c r="F63" s="220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="18" customHeight="1">
+      <c r="B64" s="216"/>
+      <c r="C64" s="223"/>
+      <c r="D64" s="222"/>
+      <c r="E64" s="219" t="s">
+        <v>260</v>
+      </c>
+      <c r="F64" s="220" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="18" customHeight="1">
+      <c r="B65" s="224"/>
+      <c r="C65" s="225"/>
+      <c r="D65" s="226"/>
+      <c r="E65" s="227" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="228"/>
+    </row>
+    <row r="66" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B66" s="229" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="230" t="s">
+        <v>262</v>
+      </c>
+      <c r="D66" s="231"/>
+      <c r="E66" s="232" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" s="233" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B67" s="234"/>
+      <c r="C67" s="235"/>
+      <c r="D67" s="236"/>
+      <c r="E67" s="237" t="s">
+        <v>206</v>
+      </c>
+      <c r="F67" s="238" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" s="263" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B68" s="234"/>
+      <c r="C68" s="283"/>
+      <c r="D68" s="236"/>
+      <c r="E68" s="237" t="s">
+        <v>294</v>
+      </c>
+      <c r="F68" s="238"/>
+    </row>
+    <row r="69" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B69" s="234"/>
+      <c r="C69" s="239"/>
+      <c r="D69" s="236"/>
+      <c r="E69" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="F69" s="238" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" s="263" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B70" s="234"/>
+      <c r="C70" s="235" t="s">
+        <v>323</v>
+      </c>
+      <c r="D70" s="236"/>
+      <c r="E70" s="237"/>
+      <c r="F70" s="238"/>
+    </row>
+    <row r="71" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B71" s="234"/>
+      <c r="C71" s="239"/>
+      <c r="D71" s="237" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" s="236"/>
+      <c r="F71" s="238" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B72" s="234"/>
+      <c r="C72" s="239"/>
+      <c r="D72" s="236"/>
+      <c r="E72" s="237" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="240"/>
+    </row>
+    <row r="73" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B73" s="234"/>
+      <c r="C73" s="239"/>
+      <c r="D73" s="236"/>
+      <c r="E73" s="236" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" s="240"/>
+    </row>
+    <row r="74" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B74" s="241"/>
+      <c r="C74" s="242"/>
+      <c r="D74" s="243"/>
+      <c r="E74" s="244" t="s">
+        <v>96</v>
+      </c>
+      <c r="F74" s="245" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B75" s="246" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="247" t="s">
+        <v>315</v>
+      </c>
+      <c r="D75" s="248" t="s">
+        <v>212</v>
+      </c>
+      <c r="E75" s="249"/>
+      <c r="F75" s="250" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B76" s="251"/>
+      <c r="C76" s="252"/>
+      <c r="D76" s="253"/>
+      <c r="E76" s="254" t="s">
+        <v>215</v>
+      </c>
+      <c r="F76" s="255"/>
+    </row>
+    <row r="77" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B77" s="251"/>
+      <c r="C77" s="252"/>
+      <c r="D77" s="253"/>
+      <c r="E77" s="254" t="s">
+        <v>216</v>
+      </c>
+      <c r="F77" s="255"/>
+    </row>
+    <row r="78" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B78" s="251"/>
+      <c r="C78" s="252"/>
+      <c r="D78" s="254" t="s">
+        <v>210</v>
+      </c>
+      <c r="E78" s="253"/>
+      <c r="F78" s="256" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B79" s="251"/>
+      <c r="C79" s="252"/>
+      <c r="D79" s="253"/>
+      <c r="E79" s="254" t="s">
+        <v>96</v>
+      </c>
+      <c r="F79" s="256" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B80" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="153" t="s">
-        <v>189</v>
-      </c>
-      <c r="E24" s="153"/>
-      <c r="F24" s="154"/>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B25" s="151"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" s="154" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1">
-      <c r="B26" s="151"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="153" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="154" t="s">
+      <c r="C80" s="257" t="s">
+        <v>271</v>
+      </c>
+      <c r="D80" s="254" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B27" s="151"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="153" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="154" t="s">
+      <c r="E80" s="253"/>
+      <c r="F80" s="256" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B81" s="251"/>
+      <c r="C81" s="252"/>
+      <c r="D81" s="253"/>
+      <c r="E81" s="254" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B28" s="157"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="160" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="161" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" hidden="1" customHeight="1">
-      <c r="B29" s="182" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="183" t="s">
-        <v>268</v>
-      </c>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="184" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B30" s="185"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="188" t="s">
-        <v>283</v>
-      </c>
-      <c r="F30" s="189" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B31" s="190"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145" t="s">
-        <v>192</v>
-      </c>
-      <c r="F31" s="192" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B32" s="190"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145" t="s">
-        <v>292</v>
-      </c>
-      <c r="F32" s="192" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B33" s="190"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145" t="s">
-        <v>285</v>
-      </c>
-      <c r="F33" s="192" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B34" s="190"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145" t="s">
-        <v>286</v>
-      </c>
-      <c r="F34" s="192" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B35" s="190"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="145" t="s">
-        <v>293</v>
-      </c>
-      <c r="F35" s="192" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B36" s="190"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145" t="s">
-        <v>287</v>
-      </c>
-      <c r="F36" s="192" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B37" s="190"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="145"/>
-      <c r="E37" s="145" t="s">
-        <v>288</v>
-      </c>
-      <c r="F37" s="192" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B38" s="190"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145" t="s">
-        <v>289</v>
-      </c>
-      <c r="F38" s="192" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B39" s="190"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145" t="s">
-        <v>290</v>
-      </c>
-      <c r="F39" s="192" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B40" s="190"/>
-      <c r="C40" s="191"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="145" t="s">
-        <v>291</v>
-      </c>
-      <c r="F40" s="192" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B41" s="190"/>
-      <c r="C41" s="191"/>
-      <c r="D41" s="145"/>
-      <c r="E41" s="193" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="192"/>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B42" s="190"/>
-      <c r="C42" s="191"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="145" t="s">
-        <v>193</v>
-      </c>
-      <c r="F42" s="192" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B43" s="190" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="194" t="s">
-        <v>272</v>
-      </c>
-      <c r="D43" s="193"/>
-      <c r="E43" s="145" t="s">
-        <v>260</v>
-      </c>
-      <c r="F43" s="192" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B44" s="190"/>
-      <c r="C44" s="194" t="s">
-        <v>273</v>
-      </c>
-      <c r="D44" s="193"/>
-      <c r="E44" s="145" t="s">
-        <v>261</v>
-      </c>
-      <c r="F44" s="192" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B45" s="190"/>
-      <c r="C45" s="191"/>
-      <c r="D45" s="193"/>
-      <c r="E45" s="145" t="s">
-        <v>262</v>
-      </c>
-      <c r="F45" s="192" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B46" s="190"/>
-      <c r="C46" s="191"/>
-      <c r="D46" s="193"/>
-      <c r="E46" s="145" t="s">
-        <v>224</v>
-      </c>
-      <c r="F46" s="192" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B47" s="190"/>
-      <c r="C47" s="191"/>
-      <c r="D47" s="193"/>
-      <c r="E47" s="145" t="s">
-        <v>222</v>
-      </c>
-      <c r="F47" s="192" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B48" s="195"/>
-      <c r="C48" s="196"/>
-      <c r="D48" s="197"/>
-      <c r="E48" s="198" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="199"/>
-    </row>
-    <row r="49" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B49" s="200" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="201" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="202" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="203"/>
-      <c r="F49" s="204" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B50" s="205"/>
-      <c r="C50" s="206"/>
-      <c r="D50" s="207"/>
-      <c r="E50" s="208" t="s">
-        <v>199</v>
-      </c>
-      <c r="F50" s="209" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B51" s="205"/>
-      <c r="C51" s="206"/>
-      <c r="D51" s="207"/>
-      <c r="E51" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" s="209"/>
-    </row>
-    <row r="52" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B52" s="205" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="210" t="s">
-        <v>272</v>
-      </c>
-      <c r="D52" s="207"/>
-      <c r="E52" s="208" t="s">
-        <v>260</v>
-      </c>
-      <c r="F52" s="209" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B53" s="205"/>
-      <c r="C53" s="210" t="s">
-        <v>273</v>
-      </c>
-      <c r="D53" s="207"/>
-      <c r="E53" s="208" t="s">
-        <v>261</v>
-      </c>
-      <c r="F53" s="209" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B54" s="205"/>
-      <c r="C54" s="211"/>
-      <c r="D54" s="207"/>
-      <c r="E54" s="208" t="s">
-        <v>262</v>
-      </c>
-      <c r="F54" s="209" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B55" s="205"/>
-      <c r="C55" s="211"/>
-      <c r="D55" s="207"/>
-      <c r="E55" s="208" t="s">
-        <v>264</v>
-      </c>
-      <c r="F55" s="212"/>
-    </row>
-    <row r="56" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B56" s="213"/>
-      <c r="C56" s="214"/>
-      <c r="D56" s="215"/>
-      <c r="E56" s="216" t="s">
-        <v>101</v>
-      </c>
-      <c r="F56" s="217"/>
-    </row>
-    <row r="57" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B57" s="218" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="219" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="220" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" s="221"/>
-      <c r="F57" s="222" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B58" s="223"/>
-      <c r="C58" s="224"/>
-      <c r="D58" s="225"/>
-      <c r="E58" s="226" t="s">
-        <v>203</v>
-      </c>
-      <c r="F58" s="227" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B59" s="223"/>
-      <c r="C59" s="224"/>
-      <c r="D59" s="225"/>
-      <c r="E59" s="226" t="s">
-        <v>224</v>
-      </c>
-      <c r="F59" s="227" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B60" s="223"/>
-      <c r="C60" s="224"/>
-      <c r="D60" s="225"/>
-      <c r="E60" s="226" t="s">
-        <v>193</v>
-      </c>
-      <c r="F60" s="227"/>
-    </row>
-    <row r="61" spans="2:6" ht="18" customHeight="1">
-      <c r="B61" s="223" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="228" t="s">
-        <v>272</v>
-      </c>
-      <c r="D61" s="229"/>
-      <c r="E61" s="226" t="s">
-        <v>260</v>
-      </c>
-      <c r="F61" s="227" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="18" customHeight="1">
-      <c r="B62" s="223"/>
-      <c r="C62" s="228" t="s">
-        <v>273</v>
-      </c>
-      <c r="D62" s="229"/>
-      <c r="E62" s="226" t="s">
-        <v>261</v>
-      </c>
-      <c r="F62" s="227" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="18" customHeight="1">
-      <c r="B63" s="223"/>
-      <c r="C63" s="230"/>
-      <c r="D63" s="229"/>
-      <c r="E63" s="226" t="s">
-        <v>264</v>
-      </c>
-      <c r="F63" s="227" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="18" customHeight="1">
-      <c r="B64" s="231"/>
-      <c r="C64" s="232"/>
-      <c r="D64" s="233"/>
-      <c r="E64" s="234" t="s">
-        <v>101</v>
-      </c>
-      <c r="F64" s="235"/>
-    </row>
-    <row r="65" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B65" s="236" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="237" t="s">
-        <v>266</v>
-      </c>
-      <c r="D65" s="238"/>
-      <c r="E65" s="239" t="s">
-        <v>207</v>
-      </c>
-      <c r="F65" s="240" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B66" s="241"/>
-      <c r="C66" s="242"/>
-      <c r="D66" s="243"/>
-      <c r="E66" s="244" t="s">
-        <v>209</v>
-      </c>
-      <c r="F66" s="245" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B67" s="241"/>
-      <c r="C67" s="246"/>
-      <c r="D67" s="243"/>
-      <c r="E67" s="244" t="s">
-        <v>212</v>
-      </c>
-      <c r="F67" s="245" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B68" s="241"/>
-      <c r="C68" s="246"/>
-      <c r="D68" s="244" t="s">
-        <v>213</v>
-      </c>
-      <c r="E68" s="243"/>
-      <c r="F68" s="245" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B69" s="241"/>
-      <c r="C69" s="246"/>
-      <c r="D69" s="243"/>
-      <c r="E69" s="244" t="s">
-        <v>94</v>
-      </c>
-      <c r="F69" s="247"/>
-    </row>
-    <row r="70" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B70" s="241"/>
-      <c r="C70" s="246"/>
-      <c r="D70" s="243"/>
-      <c r="E70" s="243" t="s">
-        <v>95</v>
-      </c>
-      <c r="F70" s="247"/>
-    </row>
-    <row r="71" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B71" s="248"/>
-      <c r="C71" s="249"/>
-      <c r="D71" s="250"/>
-      <c r="E71" s="251" t="s">
-        <v>96</v>
-      </c>
-      <c r="F71" s="252" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B72" s="253" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="254" t="s">
-        <v>277</v>
-      </c>
-      <c r="D72" s="255" t="s">
-        <v>215</v>
-      </c>
-      <c r="E72" s="256"/>
-      <c r="F72" s="257" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B73" s="258"/>
-      <c r="C73" s="259"/>
-      <c r="D73" s="260"/>
-      <c r="E73" s="261" t="s">
-        <v>218</v>
-      </c>
-      <c r="F73" s="262"/>
-    </row>
-    <row r="74" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B74" s="258"/>
-      <c r="C74" s="259"/>
-      <c r="D74" s="260"/>
-      <c r="E74" s="261" t="s">
-        <v>219</v>
-      </c>
-      <c r="F74" s="262"/>
-    </row>
-    <row r="75" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B75" s="258"/>
-      <c r="C75" s="259"/>
-      <c r="D75" s="261" t="s">
-        <v>213</v>
-      </c>
-      <c r="E75" s="260"/>
-      <c r="F75" s="263" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B76" s="258"/>
-      <c r="C76" s="259"/>
-      <c r="D76" s="260"/>
-      <c r="E76" s="261" t="s">
-        <v>96</v>
-      </c>
-      <c r="F76" s="263" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B77" s="258" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" s="264" t="s">
-        <v>281</v>
-      </c>
-      <c r="D77" s="261" t="s">
+      <c r="F81" s="255"/>
+    </row>
+    <row r="82" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B82" s="251"/>
+      <c r="C82" s="252"/>
+      <c r="D82" s="253"/>
+      <c r="E82" s="254" t="s">
+        <v>228</v>
+      </c>
+      <c r="F82" s="255"/>
+    </row>
+    <row r="83" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B83" s="258"/>
+      <c r="C83" s="259"/>
+      <c r="D83" s="260"/>
+      <c r="E83" s="261" t="s">
         <v>229</v>
       </c>
-      <c r="E77" s="260"/>
-      <c r="F77" s="263" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B78" s="258"/>
-      <c r="C78" s="259"/>
-      <c r="D78" s="260"/>
-      <c r="E78" s="261" t="s">
-        <v>230</v>
-      </c>
-      <c r="F78" s="262"/>
-    </row>
-    <row r="79" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B79" s="258"/>
-      <c r="C79" s="259"/>
-      <c r="D79" s="260"/>
-      <c r="E79" s="261" t="s">
-        <v>231</v>
-      </c>
-      <c r="F79" s="262"/>
-    </row>
-    <row r="80" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B80" s="265"/>
-      <c r="C80" s="266"/>
-      <c r="D80" s="267"/>
-      <c r="E80" s="268" t="s">
-        <v>232</v>
-      </c>
-      <c r="F80" s="269"/>
-    </row>
-    <row r="112" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D112" t="s">
+      <c r="F83" s="262"/>
+    </row>
+    <row r="115" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D115" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4992,10 +5103,11 @@
   <dimension ref="G1:W28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="101" width="4.109375" customWidth="1"/>
+    <col min="1" max="101" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="7:19" ht="21.75" customHeight="1">
@@ -5143,7 +5255,7 @@
       <c r="R9" s="112"/>
       <c r="S9" s="112"/>
     </row>
-    <row r="10" spans="7:19" ht="15.6">
+    <row r="10" spans="7:19">
       <c r="G10" s="34"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
@@ -5167,13 +5279,13 @@
       <c r="J11" s="112"/>
       <c r="K11" s="112"/>
       <c r="L11" s="112"/>
-      <c r="M11" s="278"/>
-      <c r="N11" s="271"/>
-      <c r="O11" s="271"/>
+      <c r="M11" s="272"/>
+      <c r="N11" s="265"/>
+      <c r="O11" s="265"/>
       <c r="P11" s="112"/>
       <c r="Q11" s="112"/>
-      <c r="R11" s="278"/>
-      <c r="S11" s="279"/>
+      <c r="R11" s="272"/>
+      <c r="S11" s="273"/>
     </row>
     <row r="12" spans="7:19" ht="15">
       <c r="G12" s="38"/>
@@ -5260,7 +5372,7 @@
       <c r="R16" s="40"/>
       <c r="S16" s="41"/>
     </row>
-    <row r="18" spans="7:23" ht="15.6">
+    <row r="18" spans="7:23" ht="15">
       <c r="G18" s="38"/>
       <c r="H18" s="42"/>
       <c r="I18" s="49"/>
@@ -5379,9 +5491,9 @@
       <c r="W23" s="112"/>
     </row>
     <row r="24" spans="7:23" ht="15">
-      <c r="G24" s="277"/>
-      <c r="H24" s="271"/>
-      <c r="I24" s="271"/>
+      <c r="G24" s="271"/>
+      <c r="H24" s="265"/>
+      <c r="I24" s="265"/>
       <c r="J24" s="112"/>
       <c r="K24" s="112"/>
       <c r="L24" s="112"/>
@@ -5417,9 +5529,9 @@
       <c r="W25" s="112"/>
     </row>
     <row r="26" spans="7:23" ht="15">
-      <c r="G26" s="277"/>
-      <c r="H26" s="271"/>
-      <c r="I26" s="271"/>
+      <c r="G26" s="271"/>
+      <c r="H26" s="265"/>
+      <c r="I26" s="265"/>
       <c r="J26" s="112"/>
       <c r="K26" s="112"/>
       <c r="L26" s="112"/>
@@ -5464,14 +5576,14 @@
       <c r="M28" s="112"/>
       <c r="N28" s="112"/>
       <c r="O28" s="112"/>
-      <c r="P28" s="277"/>
-      <c r="Q28" s="271"/>
-      <c r="R28" s="271"/>
+      <c r="P28" s="271"/>
+      <c r="Q28" s="265"/>
+      <c r="R28" s="265"/>
       <c r="S28" s="112"/>
-      <c r="T28" s="277"/>
-      <c r="U28" s="271"/>
-      <c r="V28" s="271"/>
-      <c r="W28" s="271"/>
+      <c r="T28" s="271"/>
+      <c r="U28" s="265"/>
+      <c r="V28" s="265"/>
+      <c r="W28" s="265"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5494,33 +5606,34 @@
   <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
     <col min="12" max="30" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="87" customHeight="1">
       <c r="B1" s="110"/>
-      <c r="C1" s="275" t="s">
+      <c r="C1" s="269" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="271"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="112"/>
@@ -5633,48 +5746,49 @@
   <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="26" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="64.5" customHeight="1">
-      <c r="C1" s="280" t="s">
+      <c r="C1" s="274" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-    </row>
-    <row r="2" spans="2:11" ht="13.2"/>
-    <row r="3" spans="2:11" ht="13.2">
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+    </row>
+    <row r="2" spans="2:11" ht="12.75"/>
+    <row r="3" spans="2:11" ht="12.75">
       <c r="B3" s="56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="13.2">
+    <row r="4" spans="2:11" ht="12.75">
       <c r="B4" s="57"/>
     </row>
-    <row r="5" spans="2:11" ht="13.2">
+    <row r="5" spans="2:11" ht="12.75">
       <c r="B5" s="113"/>
       <c r="C5" s="113"/>
       <c r="D5" s="113"/>
     </row>
-    <row r="6" spans="2:11" ht="13.2">
+    <row r="6" spans="2:11" ht="12.75">
       <c r="B6" s="113"/>
       <c r="C6" s="113"/>
       <c r="D6" s="113"/>
       <c r="E6" s="113"/>
     </row>
-    <row r="7" spans="2:11" ht="26.4">
-      <c r="B7" s="281" t="s">
+    <row r="7" spans="2:11" ht="25.5">
+      <c r="B7" s="275" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="271"/>
+      <c r="C7" s="265"/>
       <c r="G7" s="113" t="s">
         <v>131</v>
       </c>
@@ -5682,7 +5796,7 @@
       <c r="I7" s="113"/>
       <c r="J7" s="113"/>
     </row>
-    <row r="8" spans="2:11" ht="13.2">
+    <row r="8" spans="2:11" ht="12.75">
       <c r="B8" s="113"/>
       <c r="G8" s="113" t="s">
         <v>132</v>
@@ -5690,7 +5804,7 @@
       <c r="H8" s="113"/>
       <c r="I8" s="113"/>
     </row>
-    <row r="9" spans="2:11" ht="13.2">
+    <row r="9" spans="2:11" ht="12.75">
       <c r="B9" s="58" t="s">
         <v>133</v>
       </c>
@@ -5714,7 +5828,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="13.2">
+    <row r="10" spans="2:11" ht="12.75">
       <c r="B10" s="108"/>
       <c r="D10" s="67"/>
       <c r="G10" s="68" t="s">
@@ -5723,7 +5837,7 @@
       <c r="J10" s="113"/>
       <c r="K10" s="111"/>
     </row>
-    <row r="11" spans="2:11" ht="26.4">
+    <row r="11" spans="2:11" ht="25.5">
       <c r="B11" s="64"/>
       <c r="C11" s="65"/>
       <c r="D11" s="66"/>
@@ -5735,7 +5849,7 @@
       </c>
       <c r="K11" s="111"/>
     </row>
-    <row r="12" spans="2:11" ht="13.2">
+    <row r="12" spans="2:11" ht="12.75">
       <c r="B12" s="108"/>
       <c r="D12" s="67"/>
       <c r="G12" s="68" t="s">
@@ -5743,7 +5857,7 @@
       </c>
       <c r="K12" s="111"/>
     </row>
-    <row r="13" spans="2:11" ht="13.2">
+    <row r="13" spans="2:11" ht="12.75">
       <c r="B13" s="108"/>
       <c r="D13" s="67"/>
       <c r="G13" s="68" t="s">
@@ -5765,34 +5879,38 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:H31"/>
+  <dimension ref="B1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="C6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+    <sheetView topLeftCell="D10" zoomScaleNormal="100" workbookViewId="1">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="56.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="57" customHeight="1">
       <c r="B1" s="115"/>
       <c r="C1" s="116"/>
-      <c r="D1" s="280" t="s">
+      <c r="D1" s="274" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="271"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="115"/>
@@ -5822,7 +5940,7 @@
       <c r="F4" s="115"/>
       <c r="H4" s="115"/>
     </row>
-    <row r="5" spans="2:8" ht="13.2">
+    <row r="5" spans="2:8" ht="12.75">
       <c r="B5" s="115"/>
       <c r="C5" s="116"/>
       <c r="D5" s="117"/>
@@ -5839,7 +5957,7 @@
       <c r="F6" s="115"/>
       <c r="H6" s="115"/>
     </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1">
+    <row r="7" spans="2:8" ht="12.75" customHeight="1" thickBot="1">
       <c r="B7" s="113" t="s">
         <v>147</v>
       </c>
@@ -5862,32 +5980,36 @@
     </row>
     <row r="8" spans="2:8" ht="13.5" customHeight="1">
       <c r="C8" s="116"/>
-      <c r="D8" s="132" t="s">
+      <c r="D8" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="133" t="s">
-        <v>269</v>
+      <c r="E8" s="132" t="s">
+        <v>265</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" s="133"/>
-      <c r="H8" s="143"/>
+        <v>329</v>
+      </c>
+      <c r="G8" s="132"/>
+      <c r="H8" s="136">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1">
       <c r="B9" s="115"/>
       <c r="C9" s="121"/>
-      <c r="D9" s="135" t="s">
-        <v>233</v>
+      <c r="D9" s="133" t="s">
+        <v>230</v>
       </c>
       <c r="E9" s="128" t="s">
-        <v>269</v>
-      </c>
-      <c r="F9" s="136" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" s="137"/>
-      <c r="H9" s="138"/>
+        <v>265</v>
+      </c>
+      <c r="F9" s="134" t="s">
+        <v>329</v>
+      </c>
+      <c r="G9" s="135"/>
+      <c r="H9" s="136">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="12.75" customHeight="1">
       <c r="B10" s="113" t="s">
@@ -5898,13 +6020,15 @@
         <v>182</v>
       </c>
       <c r="E10" s="129" t="s">
-        <v>269</v>
-      </c>
-      <c r="F10" s="128" t="s">
-        <v>274</v>
+        <v>265</v>
+      </c>
+      <c r="F10" s="134" t="s">
+        <v>329</v>
       </c>
       <c r="G10" s="129"/>
-      <c r="H10" s="130"/>
+      <c r="H10" s="136">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="12.75" customHeight="1">
       <c r="B11" s="56" t="s">
@@ -5912,279 +6036,472 @@
       </c>
       <c r="C11" s="116"/>
       <c r="D11" s="127" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E11" s="128" t="s">
-        <v>269</v>
-      </c>
-      <c r="F11" s="128" t="s">
-        <v>274</v>
+        <v>265</v>
+      </c>
+      <c r="F11" s="134" t="s">
+        <v>329</v>
       </c>
       <c r="G11" s="129"/>
-      <c r="H11" s="130"/>
+      <c r="H11" s="136">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1">
       <c r="D12" s="127" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="129" t="s">
-        <v>269</v>
-      </c>
-      <c r="F12" s="128" t="s">
-        <v>274</v>
+        <v>265</v>
+      </c>
+      <c r="F12" s="134" t="s">
+        <v>329</v>
       </c>
       <c r="G12" s="129"/>
-      <c r="H12" s="130"/>
+      <c r="H12" s="136">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1">
       <c r="D13" s="127" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E13" s="129" t="s">
-        <v>269</v>
-      </c>
-      <c r="F13" s="128" t="s">
-        <v>274</v>
+        <v>265</v>
+      </c>
+      <c r="F13" s="134" t="s">
+        <v>329</v>
       </c>
       <c r="G13" s="129"/>
-      <c r="H13" s="130"/>
+      <c r="H13" s="136">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1">
       <c r="D14" s="127" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="129" t="s">
-        <v>269</v>
-      </c>
-      <c r="F14" s="128" t="s">
-        <v>274</v>
+        <v>265</v>
+      </c>
+      <c r="F14" s="134" t="s">
+        <v>329</v>
       </c>
       <c r="G14" s="129"/>
-      <c r="H14" s="130"/>
+      <c r="H14" s="136">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1">
       <c r="D15" s="127" t="s">
         <v>180</v>
       </c>
       <c r="E15" s="128" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="134" t="s">
+        <v>329</v>
+      </c>
+      <c r="G15" s="129"/>
+      <c r="H15" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D16" s="276" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="277"/>
+      <c r="F16" s="277"/>
+      <c r="G16" s="277"/>
+      <c r="H16" s="278"/>
+    </row>
+    <row r="17" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D17" s="133" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" s="281" t="s">
+        <v>265</v>
+      </c>
+      <c r="F17" s="130" t="s">
+        <v>305</v>
+      </c>
+      <c r="G17" s="129"/>
+      <c r="H17" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" s="263" customFormat="1" ht="15.75" customHeight="1">
+      <c r="D18" s="133" t="s">
+        <v>310</v>
+      </c>
+      <c r="E18" s="281" t="s">
+        <v>311</v>
+      </c>
+      <c r="F18" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="G18" s="129"/>
+      <c r="H18" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D19" s="133" t="s">
+        <v>300</v>
+      </c>
+      <c r="E19" s="281" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="130" t="s">
+        <v>307</v>
+      </c>
+      <c r="G19" s="129"/>
+      <c r="H19" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" s="263" customFormat="1" ht="15.75" customHeight="1">
+      <c r="D20" s="133" t="s">
+        <v>302</v>
+      </c>
+      <c r="E20" s="281" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" s="130" t="s">
+        <v>309</v>
+      </c>
+      <c r="G20" s="129"/>
+      <c r="H20" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D21" s="133" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21" s="281" t="s">
+        <v>265</v>
+      </c>
+      <c r="F21" s="130" t="s">
+        <v>318</v>
+      </c>
+      <c r="G21" s="129"/>
+      <c r="H21" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D22" s="133" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" s="281" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="130" t="s">
+        <v>317</v>
+      </c>
+      <c r="G22" s="129"/>
+      <c r="H22" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D23" s="133" t="s">
+        <v>267</v>
+      </c>
+      <c r="E23" s="281" t="s">
+        <v>265</v>
+      </c>
+      <c r="F23" s="130" t="s">
+        <v>309</v>
+      </c>
+      <c r="G23" s="129"/>
+      <c r="H23" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D24" s="133" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="281" t="s">
+        <v>265</v>
+      </c>
+      <c r="F24" s="130" t="s">
+        <v>320</v>
+      </c>
+      <c r="G24" s="129"/>
+      <c r="H24" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D25" s="133" t="s">
+        <v>312</v>
+      </c>
+      <c r="E25" s="281" t="s">
+        <v>265</v>
+      </c>
+      <c r="F25" s="130" t="s">
+        <v>309</v>
+      </c>
+      <c r="G25" s="129"/>
+      <c r="H25" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" s="263" customFormat="1" ht="15.75" customHeight="1">
+      <c r="D26" s="133" t="s">
+        <v>313</v>
+      </c>
+      <c r="E26" s="281" t="s">
+        <v>265</v>
+      </c>
+      <c r="F26" s="129" t="s">
+        <v>305</v>
+      </c>
+      <c r="G26" s="129"/>
+      <c r="H26" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" s="263" customFormat="1" ht="15.75" customHeight="1">
+      <c r="D27" s="127" t="s">
+        <v>314</v>
+      </c>
+      <c r="E27" s="281" t="s">
+        <v>265</v>
+      </c>
+      <c r="F27" s="129" t="s">
+        <v>322</v>
+      </c>
+      <c r="G27" s="129"/>
+      <c r="H27" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D28" s="133" t="s">
+        <v>316</v>
+      </c>
+      <c r="E28" s="282" t="s">
+        <v>304</v>
+      </c>
+      <c r="F28" s="130" t="s">
+        <v>307</v>
+      </c>
+      <c r="G28" s="129"/>
+      <c r="H28" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D29" s="133" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="282" t="s">
+        <v>304</v>
+      </c>
+      <c r="F29" s="130" t="s">
+        <v>319</v>
+      </c>
+      <c r="G29" s="129"/>
+      <c r="H29" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D30" s="133" t="s">
+        <v>295</v>
+      </c>
+      <c r="E30" s="282" t="s">
+        <v>304</v>
+      </c>
+      <c r="F30" s="130" t="s">
+        <v>321</v>
+      </c>
+      <c r="G30" s="129"/>
+      <c r="H30" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D31" s="133" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="282" t="s">
+        <v>304</v>
+      </c>
+      <c r="F31" s="130" t="s">
         <v>269</v>
       </c>
-      <c r="F15" s="128" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" s="129"/>
-      <c r="H15" s="130"/>
-    </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D16" s="282" t="s">
-        <v>270</v>
-      </c>
-      <c r="E16" s="283"/>
-      <c r="F16" s="283"/>
-      <c r="G16" s="283"/>
-      <c r="H16" s="284"/>
-    </row>
-    <row r="17" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D17" s="135" t="s">
-        <v>268</v>
-      </c>
-      <c r="E17" s="141" t="s">
+      <c r="G31" s="129"/>
+      <c r="H31" s="137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D32" s="133" t="s">
+        <v>271</v>
+      </c>
+      <c r="E32" s="282" t="s">
+        <v>304</v>
+      </c>
+      <c r="F32" s="130" t="s">
         <v>269</v>
       </c>
-      <c r="F17" s="131" t="s">
-        <v>275</v>
-      </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="140">
+      <c r="G32" s="129"/>
+      <c r="H32" s="136">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D18" s="135" t="s">
-        <v>271</v>
-      </c>
-      <c r="E18" s="141" t="s">
-        <v>269</v>
-      </c>
-      <c r="F18" s="131" t="s">
-        <v>275</v>
-      </c>
-      <c r="G18" s="129"/>
-      <c r="H18" s="140">
+    <row r="33" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D33" s="127" t="s">
+        <v>315</v>
+      </c>
+      <c r="E33" s="282" t="s">
+        <v>325</v>
+      </c>
+      <c r="F33" s="129" t="s">
+        <v>322</v>
+      </c>
+      <c r="G33" s="129"/>
+      <c r="H33" s="136">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D19" s="135" t="s">
-        <v>272</v>
-      </c>
-      <c r="E19" s="141" t="s">
-        <v>269</v>
-      </c>
-      <c r="F19" s="131" t="s">
-        <v>276</v>
-      </c>
-      <c r="G19" s="129"/>
-      <c r="H19" s="140">
+    <row r="34" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D34" s="133" t="s">
+        <v>301</v>
+      </c>
+      <c r="E34" s="282" t="s">
+        <v>304</v>
+      </c>
+      <c r="F34" s="130" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" s="129"/>
+      <c r="H34" s="136">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D20" s="135" t="s">
-        <v>282</v>
-      </c>
-      <c r="E20" s="141" t="s">
-        <v>269</v>
-      </c>
-      <c r="F20" s="131" t="s">
-        <v>276</v>
-      </c>
-      <c r="G20" s="129"/>
-      <c r="H20" s="140">
+    <row r="35" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D35" s="133" t="s">
+        <v>262</v>
+      </c>
+      <c r="E35" s="282" t="s">
+        <v>304</v>
+      </c>
+      <c r="F35" s="130" t="s">
+        <v>317</v>
+      </c>
+      <c r="G35" s="129"/>
+      <c r="H35" s="136">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D21" s="135" t="s">
-        <v>277</v>
-      </c>
-      <c r="E21" s="139" t="s">
-        <v>278</v>
-      </c>
-      <c r="F21" s="128" t="s">
-        <v>276</v>
-      </c>
-      <c r="G21" s="129"/>
-      <c r="H21" s="144">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D22" s="135" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="139" t="s">
-        <v>278</v>
-      </c>
-      <c r="F22" s="128" t="s">
-        <v>279</v>
-      </c>
-      <c r="G22" s="129"/>
-      <c r="H22" s="142">
+    <row r="36" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D36" s="133" t="s">
+        <v>326</v>
+      </c>
+      <c r="E36" s="136" t="s">
+        <v>327</v>
+      </c>
+      <c r="F36" s="130" t="s">
+        <v>328</v>
+      </c>
+      <c r="G36" s="129"/>
+      <c r="H36" s="137">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D23" s="135" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="139" t="s">
-        <v>278</v>
-      </c>
-      <c r="F23" s="128" t="s">
-        <v>279</v>
-      </c>
-      <c r="G23" s="129"/>
-      <c r="H23" s="142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D24" s="127" t="s">
-        <v>281</v>
-      </c>
-      <c r="E24" s="141" t="s">
-        <v>269</v>
-      </c>
-      <c r="F24" s="131" t="s">
-        <v>275</v>
-      </c>
-      <c r="G24" s="129"/>
-      <c r="H24" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D25" s="135" t="s">
-        <v>266</v>
-      </c>
-      <c r="E25" s="141" t="s">
-        <v>269</v>
-      </c>
-      <c r="F25" s="131" t="s">
-        <v>275</v>
-      </c>
-      <c r="G25" s="129"/>
-      <c r="H25" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D26" s="127"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="130"/>
-    </row>
-    <row r="27" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D27" s="127"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="130"/>
-    </row>
-    <row r="28" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D28" s="127"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="130"/>
-    </row>
-    <row r="29" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D29" s="127"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="130"/>
-    </row>
-    <row r="30" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D30" s="127"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="130"/>
-    </row>
-    <row r="31" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D31" s="127"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="130"/>
+    <row r="37" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D37" s="133"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="136"/>
+    </row>
+    <row r="38" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D38" s="133"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="136"/>
+    </row>
+    <row r="39" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D39" s="133"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="136"/>
+    </row>
+    <row r="40" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D40" s="133"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="136"/>
+    </row>
+    <row r="41" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D41" s="133"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="136"/>
+    </row>
+    <row r="42" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D42" s="133"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="136"/>
+    </row>
+    <row r="43" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D43" s="133"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="136"/>
+    </row>
+    <row r="44" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D44" s="133"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="136"/>
+    </row>
+    <row r="45" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D45" s="133"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="136"/>
+    </row>
+    <row r="46" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D46" s="133"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="136"/>
+    </row>
+    <row r="47" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D47" s="133"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="129"/>
+      <c r="H47" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <conditionalFormatting sqref="E17:E20">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="3Flags">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E25">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="3Flags">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6196,21 +6513,22 @@
   <dimension ref="B2:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" customWidth="1"/>
-    <col min="8" max="9" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="12" width="10.5546875" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
-    <col min="14" max="23" width="11.44140625" customWidth="1"/>
+    <col min="14" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21.75" customHeight="1">
@@ -6235,12 +6553,12 @@
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
-      <c r="H3" s="285"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="271"/>
-      <c r="K3" s="271"/>
-      <c r="L3" s="271"/>
-      <c r="M3" s="271"/>
+      <c r="H3" s="279"/>
+      <c r="I3" s="265"/>
+      <c r="J3" s="265"/>
+      <c r="K3" s="265"/>
+      <c r="L3" s="265"/>
+      <c r="M3" s="265"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1">
       <c r="B4" s="102"/>
@@ -6515,6 +6833,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003344BE67D7EB984A84C06E190413FBFD" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9bce8fe95ceaf62c75926160740d41e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9de94308-2297-4d04-a77d-26fce9df9395" xmlns:ns4="22375818-dcd7-42e4-9660-6b33e030de66" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d88e73fd87162f28f317e92bcb9f946" ns3:_="" ns4:_="">
     <xsd:import namespace="9de94308-2297-4d04-a77d-26fce9df9395"/>
@@ -6691,22 +7024,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B130DE0C-7A28-4B03-98EC-F451E5EF5DFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E8D0FC-D0F3-4D81-9707-E82360EDBF19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6723,21 +7058,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B130DE0C-7A28-4B03-98EC-F451E5EF5DFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Gestion_A_jmd.xlsx
+++ b/Gestion_A_jmd.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\ProjetDaleks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF5558F-8EB4-4875-BBAB-74336512EBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31511CD9-DDB8-435E-9A15-D7C9B41C9308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="-240" windowWidth="18900" windowHeight="11055" firstSheet="3" activeTab="2" xr2:uid="{E687526C-779E-492B-BB96-71999BB7EE79}"/>
-    <workbookView xWindow="-8895" yWindow="5310" windowWidth="18900" windowHeight="11055" activeTab="1" xr2:uid="{44350D87-A585-4608-884F-E6D7378710D6}"/>
+    <workbookView xWindow="0" yWindow="4095" windowWidth="18900" windowHeight="11055" firstSheet="3" activeTab="2" xr2:uid="{E687526C-779E-492B-BB96-71999BB7EE79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="6" xr2:uid="{44350D87-A585-4608-884F-E6D7378710D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="337">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -1232,6 +1232,27 @@
   <si>
     <t>en classe</t>
   </si>
+  <si>
+    <t>Run to End</t>
+  </si>
+  <si>
+    <t>Faible</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Run -1</t>
+  </si>
+  <si>
+    <t>Debrief</t>
+  </si>
+  <si>
+    <t>Notre dévéloppement logiciel c'est déroulé plûtot bien avec des prises de rendez-vous régulières et ponctuelle. Malheureseuement, la réalisation du Zappeur ainsi que la création du niveau suivant à la fin de la partie si gagné n'a pas pu être réalisé à temps. Nous avons pu suivre sans trop de soucis le planning prévu initialement, bien que nous avions sous-estimez les cas d'usages et scénario d'utilisation ainsi le scénarios.</t>
+  </si>
+  <si>
+    <t>Laurentiu Dilion -  Irvan Nayaradou</t>
+  </si>
 </sst>
 </file>
 
@@ -1242,7 +1263,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1360,6 +1381,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2194,7 +2221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2432,9 +2459,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2859,6 +2883,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="50" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2905,17 +2944,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="50" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3614,22 +3656,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="264"/>
-      <c r="G36" s="265"/>
-      <c r="H36" s="265"/>
-      <c r="I36" s="265"/>
+      <c r="F36" s="268"/>
+      <c r="G36" s="269"/>
+      <c r="H36" s="269"/>
+      <c r="I36" s="269"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="265"/>
-      <c r="G37" s="265"/>
-      <c r="H37" s="265"/>
-      <c r="I37" s="265"/>
+      <c r="F37" s="269"/>
+      <c r="G37" s="269"/>
+      <c r="H37" s="269"/>
+      <c r="I37" s="269"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="265"/>
-      <c r="G38" s="265"/>
-      <c r="H38" s="265"/>
-      <c r="I38" s="265"/>
+      <c r="F38" s="269"/>
+      <c r="G38" s="269"/>
+      <c r="H38" s="269"/>
+      <c r="I38" s="269"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="112"/>
@@ -3638,22 +3680,22 @@
       <c r="I39" s="112"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="264"/>
-      <c r="G40" s="265"/>
-      <c r="H40" s="265"/>
-      <c r="I40" s="265"/>
+      <c r="F40" s="268"/>
+      <c r="G40" s="269"/>
+      <c r="H40" s="269"/>
+      <c r="I40" s="269"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="265"/>
-      <c r="G41" s="265"/>
-      <c r="H41" s="265"/>
-      <c r="I41" s="265"/>
+      <c r="F41" s="269"/>
+      <c r="G41" s="269"/>
+      <c r="H41" s="269"/>
+      <c r="I41" s="269"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="265"/>
-      <c r="G42" s="265"/>
-      <c r="H42" s="265"/>
-      <c r="I42" s="265"/>
+      <c r="F42" s="269"/>
+      <c r="G42" s="269"/>
+      <c r="H42" s="269"/>
+      <c r="I42" s="269"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="112"/>
@@ -3668,34 +3710,34 @@
       <c r="I44" s="112"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="264"/>
-      <c r="G45" s="265"/>
-      <c r="H45" s="265"/>
-      <c r="I45" s="265"/>
+      <c r="F45" s="268"/>
+      <c r="G45" s="269"/>
+      <c r="H45" s="269"/>
+      <c r="I45" s="269"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="265"/>
-      <c r="G46" s="265"/>
-      <c r="H46" s="265"/>
-      <c r="I46" s="265"/>
+      <c r="F46" s="269"/>
+      <c r="G46" s="269"/>
+      <c r="H46" s="269"/>
+      <c r="I46" s="269"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="265"/>
-      <c r="G47" s="265"/>
-      <c r="H47" s="265"/>
-      <c r="I47" s="265"/>
+      <c r="F47" s="269"/>
+      <c r="G47" s="269"/>
+      <c r="H47" s="269"/>
+      <c r="I47" s="269"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="265"/>
-      <c r="G48" s="265"/>
-      <c r="H48" s="265"/>
-      <c r="I48" s="265"/>
+      <c r="F48" s="269"/>
+      <c r="G48" s="269"/>
+      <c r="H48" s="269"/>
+      <c r="I48" s="269"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="265"/>
-      <c r="G49" s="265"/>
-      <c r="H49" s="265"/>
-      <c r="I49" s="265"/>
+      <c r="F49" s="269"/>
+      <c r="G49" s="269"/>
+      <c r="H49" s="269"/>
+      <c r="I49" s="269"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3717,7 +3759,7 @@
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="1">
+    <sheetView topLeftCell="C7" workbookViewId="1">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -3820,7 +3862,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B13" s="266" t="s">
+      <c r="B13" s="270" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -3834,11 +3876,11 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B14" s="267"/>
+      <c r="B14" s="271"/>
       <c r="C14" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="125" t="s">
+      <c r="D14" s="124" t="s">
         <v>202</v>
       </c>
       <c r="E14" s="41" t="s">
@@ -3846,7 +3888,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B15" s="267"/>
+      <c r="B15" s="271"/>
       <c r="C15" s="22" t="s">
         <v>65</v>
       </c>
@@ -3858,11 +3900,11 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="267"/>
-      <c r="C16" s="126" t="s">
+      <c r="B16" s="271"/>
+      <c r="C16" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="124" t="s">
         <v>242</v>
       </c>
       <c r="E16" s="41" t="s">
@@ -3870,7 +3912,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="267"/>
+      <c r="B17" s="271"/>
       <c r="C17" s="22" t="s">
         <v>67</v>
       </c>
@@ -3882,7 +3924,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="267"/>
+      <c r="B18" s="271"/>
       <c r="C18" s="22" t="s">
         <v>180</v>
       </c>
@@ -3892,7 +3934,7 @@
       <c r="E18" s="41"/>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="267"/>
+      <c r="B19" s="271"/>
       <c r="C19" s="22" t="s">
         <v>69</v>
       </c>
@@ -3904,7 +3946,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="267"/>
+      <c r="B20" s="271"/>
       <c r="C20" s="22" t="s">
         <v>230</v>
       </c>
@@ -3916,7 +3958,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="267"/>
+      <c r="B21" s="271"/>
       <c r="C21" s="22" t="s">
         <v>90</v>
       </c>
@@ -3928,62 +3970,62 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="267"/>
+      <c r="B22" s="271"/>
       <c r="C22" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="E22" s="124" t="s">
+      <c r="E22" s="123" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="267"/>
+      <c r="B23" s="271"/>
       <c r="C23" s="22" t="s">
         <v>244</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="E23" s="124" t="s">
+      <c r="E23" s="123" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="267"/>
+      <c r="B24" s="271"/>
       <c r="C24" s="22" t="s">
         <v>245</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="E24" s="124" t="s">
+      <c r="E24" s="123" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="267"/>
+      <c r="B25" s="271"/>
       <c r="C25" s="22" t="s">
         <v>246</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="E25" s="124" t="s">
+      <c r="E25" s="123" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="268"/>
+      <c r="B26" s="272"/>
       <c r="C26" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="E26" s="123" t="s">
+      <c r="E26" s="122" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3995,12 +4037,12 @@
       <c r="D27" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="E27" s="124" t="s">
+      <c r="E27" s="123" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="266" t="s">
+      <c r="B28" s="270" t="s">
         <v>74</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -4014,7 +4056,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="267"/>
+      <c r="B29" s="271"/>
       <c r="C29" s="22" t="s">
         <v>233</v>
       </c>
@@ -4026,7 +4068,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="267"/>
+      <c r="B30" s="271"/>
       <c r="C30" s="22" t="s">
         <v>61</v>
       </c>
@@ -4038,7 +4080,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="267"/>
+      <c r="B31" s="271"/>
       <c r="C31" s="22" t="s">
         <v>71</v>
       </c>
@@ -4050,37 +4092,37 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="267"/>
+      <c r="B32" s="271"/>
       <c r="C32" s="22"/>
       <c r="D32" s="18"/>
       <c r="E32" s="41"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="267"/>
+      <c r="B33" s="271"/>
       <c r="C33" s="22"/>
       <c r="D33" s="18"/>
       <c r="E33" s="41"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="267"/>
+      <c r="B34" s="271"/>
       <c r="C34" s="22"/>
       <c r="D34" s="18"/>
       <c r="E34" s="41"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="267"/>
+      <c r="B35" s="271"/>
       <c r="C35" s="22"/>
       <c r="D35" s="18"/>
       <c r="E35" s="41"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="268"/>
+      <c r="B36" s="272"/>
       <c r="C36" s="19"/>
       <c r="D36" s="40"/>
       <c r="E36" s="20"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="266" t="s">
+      <c r="B37" s="270" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="23" t="s">
@@ -4094,55 +4136,55 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="267"/>
+      <c r="B38" s="271"/>
       <c r="C38" s="22"/>
       <c r="D38" s="18"/>
       <c r="E38" s="41"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="267"/>
+      <c r="B39" s="271"/>
       <c r="C39" s="22"/>
       <c r="D39" s="18"/>
       <c r="E39" s="41"/>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="267"/>
+      <c r="B40" s="271"/>
       <c r="C40" s="22"/>
       <c r="D40" s="18"/>
       <c r="E40" s="41"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="267"/>
+      <c r="B41" s="271"/>
       <c r="C41" s="22"/>
       <c r="D41" s="18"/>
       <c r="E41" s="41"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="267"/>
+      <c r="B42" s="271"/>
       <c r="C42" s="22"/>
       <c r="D42" s="18"/>
       <c r="E42" s="41"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="267"/>
+      <c r="B43" s="271"/>
       <c r="C43" s="22"/>
       <c r="D43" s="18"/>
       <c r="E43" s="41"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="267"/>
+      <c r="B44" s="271"/>
       <c r="C44" s="22"/>
       <c r="D44" s="18"/>
       <c r="E44" s="41"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="267"/>
+      <c r="B45" s="271"/>
       <c r="C45" s="22"/>
       <c r="D45" s="18"/>
       <c r="E45" s="41"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="268"/>
+      <c r="B46" s="272"/>
       <c r="C46" s="24"/>
       <c r="D46" s="25"/>
       <c r="E46" s="46"/>
@@ -4167,7 +4209,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C43" activeCellId="1" sqref="F68 C43"/>
     </sheetView>
-    <sheetView topLeftCell="C28" zoomScale="70" zoomScaleNormal="70" workbookViewId="1"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -4191,20 +4233,20 @@
     </row>
     <row r="3" spans="2:6" ht="89.45" customHeight="1">
       <c r="B3" s="109"/>
-      <c r="C3" s="269" t="s">
+      <c r="C3" s="273" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
       <c r="F3" s="109"/>
     </row>
     <row r="4" spans="2:6" ht="30.75" customHeight="1">
       <c r="B4" s="110"/>
-      <c r="C4" s="270" t="s">
+      <c r="C4" s="274" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
+      <c r="D4" s="269"/>
+      <c r="E4" s="269"/>
       <c r="F4" s="110"/>
     </row>
     <row r="5" spans="2:6" ht="21" customHeight="1">
@@ -4284,801 +4326,801 @@
       <c r="D12" s="32"/>
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1">
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="154" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="156" t="s">
+      <c r="C13" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="157" t="s">
+      <c r="D13" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="158"/>
-      <c r="F13" s="159"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="158"/>
     </row>
     <row r="14" spans="2:6" ht="18" customHeight="1">
-      <c r="B14" s="160"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="163" t="s">
+      <c r="B14" s="159"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="164"/>
+      <c r="F14" s="163"/>
     </row>
     <row r="15" spans="2:6" ht="18" customHeight="1">
-      <c r="B15" s="160"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="163" t="s">
+      <c r="B15" s="159"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="166"/>
+      <c r="F15" s="165"/>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B16" s="167"/>
-      <c r="C16" s="168" t="s">
+      <c r="B16" s="166"/>
+      <c r="C16" s="167" t="s">
         <v>314</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="163" t="s">
+      <c r="D16" s="168"/>
+      <c r="E16" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="164"/>
+      <c r="F16" s="163"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B17" s="167"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="169" t="s">
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="164"/>
+      <c r="F17" s="163"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B18" s="170"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="173" t="s">
+      <c r="B18" s="169"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="174" t="s">
+      <c r="F18" s="173" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B19" s="139" t="s">
+      <c r="B19" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="141" t="s">
+      <c r="D19" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="143" t="s">
+      <c r="E19" s="141"/>
+      <c r="F19" s="142" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B20" s="144"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146" t="s">
+      <c r="B20" s="143"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="147"/>
-    </row>
-    <row r="21" spans="2:6" s="263" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="144" t="s">
+      <c r="F20" s="146"/>
+    </row>
+    <row r="21" spans="2:6" s="262" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B21" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="280" t="s">
+      <c r="C21" s="264" t="s">
         <v>300</v>
       </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146" t="s">
+      <c r="D21" s="145"/>
+      <c r="E21" s="145" t="s">
         <v>292</v>
       </c>
-      <c r="F21" s="147" t="s">
+      <c r="F21" s="146" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B22" s="144"/>
-      <c r="C22" s="280" t="s">
+      <c r="B22" s="143"/>
+      <c r="C22" s="264" t="s">
         <v>301</v>
       </c>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146" t="s">
+      <c r="D22" s="145"/>
+      <c r="E22" s="145" t="s">
         <v>217</v>
       </c>
-      <c r="F22" s="147"/>
+      <c r="F22" s="146"/>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B23" s="144"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="146" t="s">
+      <c r="B23" s="143"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145" t="s">
         <v>218</v>
       </c>
-      <c r="E23" s="146"/>
-      <c r="F23" s="147"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="146"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B24" s="148" t="s">
+      <c r="B24" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="145"/>
-      <c r="D24" s="146" t="s">
+      <c r="C24" s="144"/>
+      <c r="D24" s="145" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="146"/>
-      <c r="F24" s="147"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="146"/>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B25" s="144"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146" t="s">
+      <c r="B25" s="143"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="F25" s="147" t="s">
+      <c r="F25" s="146" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" customHeight="1">
-      <c r="B26" s="144"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="146" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="147" t="s">
+      <c r="F26" s="146" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B27" s="144"/>
-      <c r="C27" s="280" t="s">
+      <c r="B27" s="143"/>
+      <c r="C27" s="264" t="s">
         <v>302</v>
       </c>
-      <c r="D27" s="149"/>
-      <c r="E27" s="146" t="s">
+      <c r="D27" s="148"/>
+      <c r="E27" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="147" t="s">
+      <c r="F27" s="146" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B28" s="150"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="153" t="s">
+      <c r="B28" s="149"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="154" t="s">
+      <c r="F28" s="153" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" hidden="1" customHeight="1">
-      <c r="B29" s="175" t="s">
+      <c r="B29" s="174" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="176" t="s">
+      <c r="C29" s="175" t="s">
         <v>264</v>
       </c>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="177" t="s">
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="176" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B30" s="178"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="180"/>
-      <c r="E30" s="181" t="s">
+      <c r="B30" s="177"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="180" t="s">
         <v>272</v>
       </c>
-      <c r="F30" s="182" t="s">
+      <c r="F30" s="181" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B31" s="183"/>
-      <c r="C31" s="187" t="s">
+      <c r="B31" s="182"/>
+      <c r="C31" s="186" t="s">
         <v>264</v>
       </c>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138" t="s">
+      <c r="D31" s="137"/>
+      <c r="E31" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="F31" s="185" t="s">
+      <c r="F31" s="184" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B32" s="183"/>
-      <c r="C32" s="184"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="138" t="s">
+      <c r="B32" s="182"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137" t="s">
         <v>281</v>
       </c>
-      <c r="F32" s="185" t="s">
+      <c r="F32" s="184" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B33" s="183"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138" t="s">
+      <c r="B33" s="182"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="137" t="s">
         <v>274</v>
       </c>
-      <c r="F33" s="185" t="s">
+      <c r="F33" s="184" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B34" s="183"/>
-      <c r="C34" s="184"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="138" t="s">
+      <c r="B34" s="182"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="137" t="s">
         <v>275</v>
       </c>
-      <c r="F34" s="185" t="s">
+      <c r="F34" s="184" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B35" s="183"/>
-      <c r="C35" s="184"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="138" t="s">
+      <c r="B35" s="182"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137" t="s">
         <v>282</v>
       </c>
-      <c r="F35" s="185" t="s">
+      <c r="F35" s="184" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B36" s="183"/>
-      <c r="C36" s="184"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="138" t="s">
+      <c r="B36" s="182"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="137" t="s">
         <v>276</v>
       </c>
-      <c r="F36" s="185" t="s">
+      <c r="F36" s="184" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B37" s="183"/>
-      <c r="C37" s="184"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="138" t="s">
+      <c r="B37" s="182"/>
+      <c r="C37" s="183"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="137" t="s">
         <v>277</v>
       </c>
-      <c r="F37" s="185" t="s">
+      <c r="F37" s="184" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B38" s="183"/>
-      <c r="C38" s="184"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="138" t="s">
+      <c r="B38" s="182"/>
+      <c r="C38" s="183"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="137" t="s">
         <v>278</v>
       </c>
-      <c r="F38" s="185" t="s">
+      <c r="F38" s="184" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B39" s="183"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="138" t="s">
+      <c r="B39" s="182"/>
+      <c r="C39" s="183"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="137" t="s">
         <v>279</v>
       </c>
-      <c r="F39" s="185" t="s">
+      <c r="F39" s="184" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B40" s="183"/>
-      <c r="C40" s="184"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138" t="s">
+      <c r="B40" s="182"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="137" t="s">
         <v>280</v>
       </c>
-      <c r="F40" s="185" t="s">
+      <c r="F40" s="184" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B41" s="183"/>
-      <c r="C41" s="187" t="s">
+      <c r="B41" s="182"/>
+      <c r="C41" s="186" t="s">
         <v>303</v>
       </c>
-      <c r="D41" s="138"/>
-      <c r="E41" s="186" t="s">
+      <c r="D41" s="137"/>
+      <c r="E41" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="F41" s="185"/>
+      <c r="F41" s="184"/>
     </row>
     <row r="42" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B42" s="183"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="138" t="s">
+      <c r="B42" s="182"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="F42" s="185" t="s">
+      <c r="F42" s="184" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B43" s="183" t="s">
+      <c r="B43" s="182" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="187" t="s">
+      <c r="C43" s="186" t="s">
         <v>267</v>
       </c>
-      <c r="D43" s="186"/>
-      <c r="E43" s="138" t="s">
+      <c r="D43" s="185"/>
+      <c r="E43" s="137" t="s">
         <v>257</v>
       </c>
-      <c r="F43" s="185" t="s">
+      <c r="F43" s="184" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B44" s="183"/>
-      <c r="C44" s="187" t="s">
+      <c r="B44" s="182"/>
+      <c r="C44" s="186" t="s">
         <v>268</v>
       </c>
-      <c r="D44" s="186"/>
-      <c r="E44" s="138" t="s">
+      <c r="D44" s="185"/>
+      <c r="E44" s="137" t="s">
         <v>258</v>
       </c>
-      <c r="F44" s="185" t="s">
+      <c r="F44" s="184" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B45" s="183"/>
-      <c r="C45" s="184"/>
-      <c r="D45" s="186"/>
-      <c r="E45" s="138" t="s">
+      <c r="B45" s="182"/>
+      <c r="C45" s="183"/>
+      <c r="D45" s="185"/>
+      <c r="E45" s="137" t="s">
         <v>259</v>
       </c>
-      <c r="F45" s="185" t="s">
+      <c r="F45" s="184" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B46" s="183"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="186"/>
-      <c r="E46" s="138" t="s">
+      <c r="B46" s="182"/>
+      <c r="C46" s="183"/>
+      <c r="D46" s="185"/>
+      <c r="E46" s="137" t="s">
         <v>221</v>
       </c>
-      <c r="F46" s="185" t="s">
+      <c r="F46" s="184" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B47" s="183"/>
-      <c r="C47" s="184"/>
-      <c r="D47" s="186"/>
-      <c r="E47" s="138" t="s">
+      <c r="B47" s="182"/>
+      <c r="C47" s="183"/>
+      <c r="D47" s="185"/>
+      <c r="E47" s="137" t="s">
         <v>219</v>
       </c>
-      <c r="F47" s="185" t="s">
+      <c r="F47" s="184" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B48" s="188"/>
-      <c r="C48" s="189"/>
-      <c r="D48" s="190"/>
-      <c r="E48" s="191" t="s">
+      <c r="B48" s="187"/>
+      <c r="C48" s="188"/>
+      <c r="D48" s="189"/>
+      <c r="E48" s="190" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="192"/>
+      <c r="F48" s="191"/>
     </row>
     <row r="49" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B49" s="193" t="s">
+      <c r="B49" s="192" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="194" t="s">
+      <c r="C49" s="193" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="195" t="s">
+      <c r="D49" s="194" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="196"/>
-      <c r="F49" s="197" t="s">
+      <c r="E49" s="195"/>
+      <c r="F49" s="196" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B50" s="198"/>
-      <c r="C50" s="203" t="s">
+      <c r="B50" s="197"/>
+      <c r="C50" s="202" t="s">
         <v>295</v>
       </c>
-      <c r="D50" s="200"/>
-      <c r="E50" s="201" t="s">
+      <c r="D50" s="199"/>
+      <c r="E50" s="200" t="s">
         <v>297</v>
       </c>
-      <c r="F50" s="202" t="s">
+      <c r="F50" s="201" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="51" spans="2:6" s="263" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B51" s="198"/>
-      <c r="C51" s="199"/>
-      <c r="D51" s="200"/>
-      <c r="E51" s="201" t="s">
+    <row r="51" spans="2:6" s="262" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B51" s="197"/>
+      <c r="C51" s="198"/>
+      <c r="D51" s="199"/>
+      <c r="E51" s="200" t="s">
         <v>298</v>
       </c>
-      <c r="F51" s="202" t="s">
+      <c r="F51" s="201" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B52" s="198"/>
-      <c r="C52" s="199"/>
-      <c r="D52" s="200"/>
-      <c r="E52" s="200" t="s">
+      <c r="B52" s="197"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="199"/>
+      <c r="E52" s="199" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="202"/>
+      <c r="F52" s="201"/>
     </row>
     <row r="53" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B53" s="198" t="s">
+      <c r="B53" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="203" t="s">
+      <c r="C53" s="202" t="s">
         <v>267</v>
       </c>
-      <c r="D53" s="200"/>
-      <c r="E53" s="201" t="s">
+      <c r="D53" s="199"/>
+      <c r="E53" s="200" t="s">
         <v>257</v>
       </c>
-      <c r="F53" s="202" t="s">
+      <c r="F53" s="201" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B54" s="198"/>
-      <c r="C54" s="203" t="s">
+      <c r="B54" s="197"/>
+      <c r="C54" s="202" t="s">
         <v>268</v>
       </c>
-      <c r="D54" s="200"/>
-      <c r="E54" s="201" t="s">
+      <c r="D54" s="199"/>
+      <c r="E54" s="200" t="s">
         <v>258</v>
       </c>
-      <c r="F54" s="202" t="s">
+      <c r="F54" s="201" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B55" s="198"/>
-      <c r="C55" s="204"/>
-      <c r="D55" s="200"/>
-      <c r="E55" s="201" t="s">
+      <c r="B55" s="197"/>
+      <c r="C55" s="203"/>
+      <c r="D55" s="199"/>
+      <c r="E55" s="200" t="s">
         <v>259</v>
       </c>
-      <c r="F55" s="202" t="s">
+      <c r="F55" s="201" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B56" s="198"/>
-      <c r="C56" s="204"/>
-      <c r="D56" s="200"/>
-      <c r="E56" s="201" t="s">
+      <c r="B56" s="197"/>
+      <c r="C56" s="203"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="200" t="s">
         <v>260</v>
       </c>
-      <c r="F56" s="205"/>
+      <c r="F56" s="204"/>
     </row>
     <row r="57" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B57" s="206"/>
-      <c r="C57" s="207"/>
-      <c r="D57" s="208"/>
-      <c r="E57" s="209" t="s">
+      <c r="B57" s="205"/>
+      <c r="C57" s="206"/>
+      <c r="D57" s="207"/>
+      <c r="E57" s="208" t="s">
         <v>101</v>
       </c>
-      <c r="F57" s="210"/>
+      <c r="F57" s="209"/>
     </row>
     <row r="58" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B58" s="211" t="s">
+      <c r="B58" s="210" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="212" t="s">
+      <c r="C58" s="211" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="213" t="s">
+      <c r="D58" s="212" t="s">
         <v>103</v>
       </c>
-      <c r="E58" s="214"/>
-      <c r="F58" s="215" t="s">
+      <c r="E58" s="213"/>
+      <c r="F58" s="214" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B59" s="216"/>
-      <c r="C59" s="217"/>
-      <c r="D59" s="218"/>
-      <c r="E59" s="219" t="s">
+      <c r="B59" s="215"/>
+      <c r="C59" s="216"/>
+      <c r="D59" s="217"/>
+      <c r="E59" s="218" t="s">
         <v>200</v>
       </c>
-      <c r="F59" s="220" t="s">
+      <c r="F59" s="219" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B60" s="216"/>
-      <c r="C60" s="217"/>
-      <c r="D60" s="218"/>
-      <c r="E60" s="219" t="s">
+      <c r="B60" s="215"/>
+      <c r="C60" s="216"/>
+      <c r="D60" s="217"/>
+      <c r="E60" s="218" t="s">
         <v>221</v>
       </c>
-      <c r="F60" s="220" t="s">
+      <c r="F60" s="219" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B61" s="216"/>
-      <c r="C61" s="217"/>
-      <c r="D61" s="218"/>
-      <c r="E61" s="219" t="s">
+      <c r="B61" s="215"/>
+      <c r="C61" s="216"/>
+      <c r="D61" s="217"/>
+      <c r="E61" s="218" t="s">
         <v>192</v>
       </c>
-      <c r="F61" s="220"/>
+      <c r="F61" s="219"/>
     </row>
     <row r="62" spans="2:6" ht="18" customHeight="1">
-      <c r="B62" s="216" t="s">
+      <c r="B62" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="C62" s="221" t="s">
+      <c r="C62" s="220" t="s">
         <v>267</v>
       </c>
-      <c r="D62" s="222"/>
-      <c r="E62" s="219" t="s">
+      <c r="D62" s="221"/>
+      <c r="E62" s="218" t="s">
         <v>257</v>
       </c>
-      <c r="F62" s="220" t="s">
+      <c r="F62" s="219" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="18" customHeight="1">
-      <c r="B63" s="216"/>
-      <c r="C63" s="221" t="s">
+      <c r="B63" s="215"/>
+      <c r="C63" s="220" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="222"/>
-      <c r="E63" s="219" t="s">
+      <c r="D63" s="221"/>
+      <c r="E63" s="218" t="s">
         <v>258</v>
       </c>
-      <c r="F63" s="220" t="s">
+      <c r="F63" s="219" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="18" customHeight="1">
-      <c r="B64" s="216"/>
-      <c r="C64" s="223"/>
-      <c r="D64" s="222"/>
-      <c r="E64" s="219" t="s">
+      <c r="B64" s="215"/>
+      <c r="C64" s="222"/>
+      <c r="D64" s="221"/>
+      <c r="E64" s="218" t="s">
         <v>260</v>
       </c>
-      <c r="F64" s="220" t="s">
+      <c r="F64" s="219" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="18" customHeight="1">
-      <c r="B65" s="224"/>
-      <c r="C65" s="225"/>
-      <c r="D65" s="226"/>
-      <c r="E65" s="227" t="s">
+      <c r="B65" s="223"/>
+      <c r="C65" s="224"/>
+      <c r="D65" s="225"/>
+      <c r="E65" s="226" t="s">
         <v>101</v>
       </c>
-      <c r="F65" s="228"/>
+      <c r="F65" s="227"/>
     </row>
     <row r="66" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B66" s="229" t="s">
+      <c r="B66" s="228" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="230" t="s">
+      <c r="C66" s="229" t="s">
         <v>262</v>
       </c>
-      <c r="D66" s="231"/>
-      <c r="E66" s="232" t="s">
+      <c r="D66" s="230"/>
+      <c r="E66" s="231" t="s">
         <v>204</v>
       </c>
-      <c r="F66" s="233" t="s">
+      <c r="F66" s="232" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B67" s="234"/>
-      <c r="C67" s="235"/>
-      <c r="D67" s="236"/>
-      <c r="E67" s="237" t="s">
+      <c r="B67" s="233"/>
+      <c r="C67" s="234"/>
+      <c r="D67" s="235"/>
+      <c r="E67" s="236" t="s">
         <v>206</v>
       </c>
-      <c r="F67" s="238" t="s">
+      <c r="F67" s="237" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="2:6" s="263" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B68" s="234"/>
-      <c r="C68" s="283"/>
-      <c r="D68" s="236"/>
-      <c r="E68" s="237" t="s">
+    <row r="68" spans="2:6" s="262" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B68" s="233"/>
+      <c r="C68" s="267"/>
+      <c r="D68" s="235"/>
+      <c r="E68" s="236" t="s">
         <v>294</v>
       </c>
-      <c r="F68" s="238"/>
+      <c r="F68" s="237"/>
     </row>
     <row r="69" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B69" s="234"/>
-      <c r="C69" s="239"/>
-      <c r="D69" s="236"/>
-      <c r="E69" s="237" t="s">
+      <c r="B69" s="233"/>
+      <c r="C69" s="238"/>
+      <c r="D69" s="235"/>
+      <c r="E69" s="236" t="s">
         <v>209</v>
       </c>
-      <c r="F69" s="238" t="s">
+      <c r="F69" s="237" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="2:6" s="263" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B70" s="234"/>
-      <c r="C70" s="235" t="s">
+    <row r="70" spans="2:6" s="262" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B70" s="233"/>
+      <c r="C70" s="234" t="s">
         <v>323</v>
       </c>
-      <c r="D70" s="236"/>
-      <c r="E70" s="237"/>
-      <c r="F70" s="238"/>
+      <c r="D70" s="235"/>
+      <c r="E70" s="236"/>
+      <c r="F70" s="237"/>
     </row>
     <row r="71" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B71" s="234"/>
-      <c r="C71" s="239"/>
-      <c r="D71" s="237" t="s">
+      <c r="B71" s="233"/>
+      <c r="C71" s="238"/>
+      <c r="D71" s="236" t="s">
         <v>210</v>
       </c>
-      <c r="E71" s="236"/>
-      <c r="F71" s="238" t="s">
+      <c r="E71" s="235"/>
+      <c r="F71" s="237" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B72" s="234"/>
-      <c r="C72" s="239"/>
-      <c r="D72" s="236"/>
-      <c r="E72" s="237" t="s">
+      <c r="B72" s="233"/>
+      <c r="C72" s="238"/>
+      <c r="D72" s="235"/>
+      <c r="E72" s="236" t="s">
         <v>94</v>
       </c>
-      <c r="F72" s="240"/>
+      <c r="F72" s="239"/>
     </row>
     <row r="73" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B73" s="234"/>
-      <c r="C73" s="239"/>
-      <c r="D73" s="236"/>
-      <c r="E73" s="236" t="s">
+      <c r="B73" s="233"/>
+      <c r="C73" s="238"/>
+      <c r="D73" s="235"/>
+      <c r="E73" s="235" t="s">
         <v>95</v>
       </c>
-      <c r="F73" s="240"/>
+      <c r="F73" s="239"/>
     </row>
     <row r="74" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B74" s="241"/>
-      <c r="C74" s="242"/>
-      <c r="D74" s="243"/>
-      <c r="E74" s="244" t="s">
+      <c r="B74" s="240"/>
+      <c r="C74" s="241"/>
+      <c r="D74" s="242"/>
+      <c r="E74" s="243" t="s">
         <v>96</v>
       </c>
-      <c r="F74" s="245" t="s">
+      <c r="F74" s="244" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B75" s="246" t="s">
+      <c r="B75" s="245" t="s">
         <v>88</v>
       </c>
-      <c r="C75" s="247" t="s">
+      <c r="C75" s="246" t="s">
         <v>315</v>
       </c>
-      <c r="D75" s="248" t="s">
+      <c r="D75" s="247" t="s">
         <v>212</v>
       </c>
-      <c r="E75" s="249"/>
-      <c r="F75" s="250" t="s">
+      <c r="E75" s="248"/>
+      <c r="F75" s="249" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B76" s="251"/>
-      <c r="C76" s="252"/>
-      <c r="D76" s="253"/>
-      <c r="E76" s="254" t="s">
+      <c r="B76" s="250"/>
+      <c r="C76" s="251"/>
+      <c r="D76" s="252"/>
+      <c r="E76" s="253" t="s">
         <v>215</v>
       </c>
-      <c r="F76" s="255"/>
+      <c r="F76" s="254"/>
     </row>
     <row r="77" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B77" s="251"/>
-      <c r="C77" s="252"/>
-      <c r="D77" s="253"/>
-      <c r="E77" s="254" t="s">
+      <c r="B77" s="250"/>
+      <c r="C77" s="251"/>
+      <c r="D77" s="252"/>
+      <c r="E77" s="253" t="s">
         <v>216</v>
       </c>
-      <c r="F77" s="255"/>
+      <c r="F77" s="254"/>
     </row>
     <row r="78" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B78" s="251"/>
-      <c r="C78" s="252"/>
-      <c r="D78" s="254" t="s">
+      <c r="B78" s="250"/>
+      <c r="C78" s="251"/>
+      <c r="D78" s="253" t="s">
         <v>210</v>
       </c>
-      <c r="E78" s="253"/>
-      <c r="F78" s="256" t="s">
+      <c r="E78" s="252"/>
+      <c r="F78" s="255" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B79" s="251"/>
-      <c r="C79" s="252"/>
-      <c r="D79" s="253"/>
-      <c r="E79" s="254" t="s">
+      <c r="B79" s="250"/>
+      <c r="C79" s="251"/>
+      <c r="D79" s="252"/>
+      <c r="E79" s="253" t="s">
         <v>96</v>
       </c>
-      <c r="F79" s="256" t="s">
+      <c r="F79" s="255" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B80" s="251" t="s">
+      <c r="B80" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="257" t="s">
+      <c r="C80" s="256" t="s">
         <v>271</v>
       </c>
-      <c r="D80" s="254" t="s">
+      <c r="D80" s="253" t="s">
         <v>226</v>
       </c>
-      <c r="E80" s="253"/>
-      <c r="F80" s="256" t="s">
+      <c r="E80" s="252"/>
+      <c r="F80" s="255" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B81" s="251"/>
-      <c r="C81" s="252"/>
-      <c r="D81" s="253"/>
-      <c r="E81" s="254" t="s">
+      <c r="B81" s="250"/>
+      <c r="C81" s="251"/>
+      <c r="D81" s="252"/>
+      <c r="E81" s="253" t="s">
         <v>227</v>
       </c>
-      <c r="F81" s="255"/>
+      <c r="F81" s="254"/>
     </row>
     <row r="82" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B82" s="251"/>
-      <c r="C82" s="252"/>
-      <c r="D82" s="253"/>
-      <c r="E82" s="254" t="s">
+      <c r="B82" s="250"/>
+      <c r="C82" s="251"/>
+      <c r="D82" s="252"/>
+      <c r="E82" s="253" t="s">
         <v>228</v>
       </c>
-      <c r="F82" s="255"/>
+      <c r="F82" s="254"/>
     </row>
     <row r="83" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B83" s="258"/>
-      <c r="C83" s="259"/>
-      <c r="D83" s="260"/>
-      <c r="E83" s="261" t="s">
+      <c r="B83" s="257"/>
+      <c r="C83" s="258"/>
+      <c r="D83" s="259"/>
+      <c r="E83" s="260" t="s">
         <v>229</v>
       </c>
-      <c r="F83" s="262"/>
+      <c r="F83" s="261"/>
     </row>
     <row r="115" spans="4:4" ht="15.75" customHeight="1">
       <c r="D115" t="s">
@@ -5279,13 +5321,13 @@
       <c r="J11" s="112"/>
       <c r="K11" s="112"/>
       <c r="L11" s="112"/>
-      <c r="M11" s="272"/>
-      <c r="N11" s="265"/>
-      <c r="O11" s="265"/>
+      <c r="M11" s="276"/>
+      <c r="N11" s="269"/>
+      <c r="O11" s="269"/>
       <c r="P11" s="112"/>
       <c r="Q11" s="112"/>
-      <c r="R11" s="272"/>
-      <c r="S11" s="273"/>
+      <c r="R11" s="276"/>
+      <c r="S11" s="277"/>
     </row>
     <row r="12" spans="7:19" ht="15">
       <c r="G12" s="38"/>
@@ -5491,9 +5533,9 @@
       <c r="W23" s="112"/>
     </row>
     <row r="24" spans="7:23" ht="15">
-      <c r="G24" s="271"/>
-      <c r="H24" s="265"/>
-      <c r="I24" s="265"/>
+      <c r="G24" s="275"/>
+      <c r="H24" s="269"/>
+      <c r="I24" s="269"/>
       <c r="J24" s="112"/>
       <c r="K24" s="112"/>
       <c r="L24" s="112"/>
@@ -5529,9 +5571,9 @@
       <c r="W25" s="112"/>
     </row>
     <row r="26" spans="7:23" ht="15">
-      <c r="G26" s="271"/>
-      <c r="H26" s="265"/>
-      <c r="I26" s="265"/>
+      <c r="G26" s="275"/>
+      <c r="H26" s="269"/>
+      <c r="I26" s="269"/>
       <c r="J26" s="112"/>
       <c r="K26" s="112"/>
       <c r="L26" s="112"/>
@@ -5576,14 +5618,14 @@
       <c r="M28" s="112"/>
       <c r="N28" s="112"/>
       <c r="O28" s="112"/>
-      <c r="P28" s="271"/>
-      <c r="Q28" s="265"/>
-      <c r="R28" s="265"/>
+      <c r="P28" s="275"/>
+      <c r="Q28" s="269"/>
+      <c r="R28" s="269"/>
       <c r="S28" s="112"/>
-      <c r="T28" s="271"/>
-      <c r="U28" s="265"/>
-      <c r="V28" s="265"/>
-      <c r="W28" s="265"/>
+      <c r="T28" s="275"/>
+      <c r="U28" s="269"/>
+      <c r="V28" s="269"/>
+      <c r="W28" s="269"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5626,14 +5668,14 @@
   <sheetData>
     <row r="1" spans="2:8" ht="87" customHeight="1">
       <c r="B1" s="110"/>
-      <c r="C1" s="269" t="s">
+      <c r="C1" s="273" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="112"/>
@@ -5757,12 +5799,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="64.5" customHeight="1">
-      <c r="C1" s="274" t="s">
+      <c r="C1" s="278" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
     </row>
     <row r="2" spans="2:11" ht="12.75"/>
     <row r="3" spans="2:11" ht="12.75">
@@ -5785,10 +5827,10 @@
       <c r="E6" s="113"/>
     </row>
     <row r="7" spans="2:11" ht="25.5">
-      <c r="B7" s="275" t="s">
+      <c r="B7" s="279" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="265"/>
+      <c r="C7" s="269"/>
       <c r="G7" s="113" t="s">
         <v>131</v>
       </c>
@@ -5879,13 +5921,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:H47"/>
+  <dimension ref="B1:M38"/>
   <sheetViews>
     <sheetView topLeftCell="C6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
-    <sheetView topLeftCell="D10" zoomScaleNormal="100" workbookViewId="1">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="1">
+      <selection activeCell="E36" sqref="E36:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5904,13 +5946,13 @@
     <row r="1" spans="2:8" ht="57" customHeight="1">
       <c r="B1" s="115"/>
       <c r="C1" s="116"/>
-      <c r="D1" s="274" t="s">
+      <c r="D1" s="278" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
       <c r="B2" s="115"/>
@@ -5933,21 +5975,24 @@
         <v>145</v>
       </c>
       <c r="C4" s="116"/>
-      <c r="D4" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="H4" s="115"/>
+      <c r="D4" s="287" t="s">
+        <v>336</v>
+      </c>
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288"/>
+      <c r="H4" s="288"/>
     </row>
     <row r="5" spans="2:8" ht="12.75">
       <c r="B5" s="115"/>
       <c r="C5" s="116"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
+      <c r="D5" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="115"/>
     </row>
     <row r="6" spans="2:8" ht="12.75" customHeight="1">
       <c r="B6" s="115"/>
@@ -5962,52 +6007,52 @@
         <v>147</v>
       </c>
       <c r="C7" s="116"/>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="119" t="s">
+      <c r="E7" s="118" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="119" t="s">
+      <c r="F7" s="118" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="119" t="s">
+      <c r="G7" s="118" t="s">
         <v>151</v>
       </c>
-      <c r="H7" s="120" t="s">
+      <c r="H7" s="119" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="13.5" customHeight="1">
       <c r="C8" s="116"/>
-      <c r="D8" s="131" t="s">
+      <c r="D8" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="132" t="s">
+      <c r="E8" s="131" t="s">
         <v>265</v>
       </c>
-      <c r="F8" s="134" t="s">
+      <c r="F8" s="133" t="s">
         <v>329</v>
       </c>
-      <c r="G8" s="132"/>
-      <c r="H8" s="136">
+      <c r="G8" s="131"/>
+      <c r="H8" s="135">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1">
       <c r="B9" s="115"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="133" t="s">
+      <c r="C9" s="120"/>
+      <c r="D9" s="132" t="s">
         <v>230</v>
       </c>
-      <c r="E9" s="128" t="s">
+      <c r="E9" s="127" t="s">
         <v>265</v>
       </c>
-      <c r="F9" s="134" t="s">
+      <c r="F9" s="133" t="s">
         <v>329</v>
       </c>
-      <c r="G9" s="135"/>
-      <c r="H9" s="136">
+      <c r="G9" s="134"/>
+      <c r="H9" s="135">
         <v>1</v>
       </c>
     </row>
@@ -6016,17 +6061,17 @@
         <v>154</v>
       </c>
       <c r="C10" s="116"/>
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="126" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="E10" s="128" t="s">
         <v>265</v>
       </c>
-      <c r="F10" s="134" t="s">
+      <c r="F10" s="133" t="s">
         <v>329</v>
       </c>
-      <c r="G10" s="129"/>
-      <c r="H10" s="136">
+      <c r="G10" s="128"/>
+      <c r="H10" s="135">
         <v>1</v>
       </c>
     </row>
@@ -6035,470 +6080,508 @@
         <v>155</v>
       </c>
       <c r="C11" s="116"/>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="126" t="s">
         <v>255</v>
       </c>
-      <c r="E11" s="128" t="s">
+      <c r="E11" s="127" t="s">
         <v>265</v>
       </c>
-      <c r="F11" s="134" t="s">
+      <c r="F11" s="133" t="s">
         <v>329</v>
       </c>
-      <c r="G11" s="129"/>
-      <c r="H11" s="136">
+      <c r="G11" s="128"/>
+      <c r="H11" s="135">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D12" s="127" t="s">
+      <c r="D12" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="129" t="s">
+      <c r="E12" s="128" t="s">
         <v>265</v>
       </c>
-      <c r="F12" s="134" t="s">
+      <c r="F12" s="133" t="s">
         <v>329</v>
       </c>
-      <c r="G12" s="129"/>
-      <c r="H12" s="136">
+      <c r="G12" s="128"/>
+      <c r="H12" s="135">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D13" s="127" t="s">
+      <c r="D13" s="126" t="s">
         <v>256</v>
       </c>
-      <c r="E13" s="129" t="s">
+      <c r="E13" s="128" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="134" t="s">
+      <c r="F13" s="133" t="s">
         <v>329</v>
       </c>
-      <c r="G13" s="129"/>
-      <c r="H13" s="136">
+      <c r="G13" s="128"/>
+      <c r="H13" s="135">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D14" s="127" t="s">
+      <c r="D14" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="129" t="s">
+      <c r="E14" s="128" t="s">
         <v>265</v>
       </c>
-      <c r="F14" s="134" t="s">
+      <c r="F14" s="133" t="s">
         <v>329</v>
       </c>
-      <c r="G14" s="129"/>
-      <c r="H14" s="136">
+      <c r="G14" s="128"/>
+      <c r="H14" s="135">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D15" s="127" t="s">
+      <c r="D15" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="128" t="s">
+      <c r="E15" s="127" t="s">
         <v>265</v>
       </c>
-      <c r="F15" s="134" t="s">
+      <c r="F15" s="133" t="s">
         <v>329</v>
       </c>
-      <c r="G15" s="129"/>
-      <c r="H15" s="136">
+      <c r="G15" s="128"/>
+      <c r="H15" s="135">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D16" s="276" t="s">
+      <c r="D16" s="280" t="s">
         <v>266</v>
       </c>
-      <c r="E16" s="277"/>
-      <c r="F16" s="277"/>
-      <c r="G16" s="277"/>
-      <c r="H16" s="278"/>
-    </row>
-    <row r="17" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D17" s="133" t="s">
+      <c r="E16" s="281"/>
+      <c r="F16" s="281"/>
+      <c r="G16" s="281"/>
+      <c r="H16" s="282"/>
+    </row>
+    <row r="17" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D17" s="132" t="s">
         <v>306</v>
       </c>
-      <c r="E17" s="281" t="s">
+      <c r="E17" s="265" t="s">
         <v>265</v>
       </c>
-      <c r="F17" s="130" t="s">
+      <c r="F17" s="129" t="s">
         <v>305</v>
       </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="136">
+      <c r="G17" s="128"/>
+      <c r="H17" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="4:8" s="263" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D18" s="133" t="s">
+      <c r="J17" s="286" t="s">
+        <v>334</v>
+      </c>
+      <c r="K17" s="286"/>
+      <c r="L17" s="286"/>
+      <c r="M17" s="286"/>
+    </row>
+    <row r="18" spans="4:13" s="262" customFormat="1" ht="15.75" customHeight="1">
+      <c r="D18" s="132" t="s">
         <v>310</v>
       </c>
-      <c r="E18" s="281" t="s">
+      <c r="E18" s="265" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="130" t="s">
+      <c r="F18" s="129" t="s">
         <v>324</v>
       </c>
-      <c r="G18" s="129"/>
-      <c r="H18" s="136">
+      <c r="G18" s="128"/>
+      <c r="H18" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D19" s="133" t="s">
+      <c r="J18" s="285" t="s">
+        <v>335</v>
+      </c>
+      <c r="K18" s="284"/>
+      <c r="L18" s="284"/>
+      <c r="M18" s="284"/>
+    </row>
+    <row r="19" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D19" s="132" t="s">
         <v>300</v>
       </c>
-      <c r="E19" s="281" t="s">
+      <c r="E19" s="265" t="s">
         <v>265</v>
       </c>
-      <c r="F19" s="130" t="s">
+      <c r="F19" s="129" t="s">
         <v>307</v>
       </c>
-      <c r="G19" s="129"/>
-      <c r="H19" s="136">
+      <c r="G19" s="128"/>
+      <c r="H19" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="4:8" s="263" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D20" s="133" t="s">
+      <c r="J19" s="284"/>
+      <c r="K19" s="284"/>
+      <c r="L19" s="284"/>
+      <c r="M19" s="284"/>
+    </row>
+    <row r="20" spans="4:13" s="262" customFormat="1" ht="15.75" customHeight="1">
+      <c r="D20" s="132" t="s">
         <v>302</v>
       </c>
-      <c r="E20" s="281" t="s">
+      <c r="E20" s="265" t="s">
         <v>265</v>
       </c>
-      <c r="F20" s="130" t="s">
+      <c r="F20" s="129" t="s">
         <v>309</v>
       </c>
-      <c r="G20" s="129"/>
-      <c r="H20" s="136">
+      <c r="G20" s="128"/>
+      <c r="H20" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D21" s="133" t="s">
+      <c r="J20" s="284"/>
+      <c r="K20" s="284"/>
+      <c r="L20" s="284"/>
+      <c r="M20" s="284"/>
+    </row>
+    <row r="21" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D21" s="132" t="s">
         <v>264</v>
       </c>
-      <c r="E21" s="281" t="s">
+      <c r="E21" s="265" t="s">
         <v>265</v>
       </c>
-      <c r="F21" s="130" t="s">
+      <c r="F21" s="129" t="s">
         <v>318</v>
       </c>
-      <c r="G21" s="129"/>
-      <c r="H21" s="136">
+      <c r="G21" s="128"/>
+      <c r="H21" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D22" s="133" t="s">
+      <c r="J21" s="284"/>
+      <c r="K21" s="284"/>
+      <c r="L21" s="284"/>
+      <c r="M21" s="284"/>
+    </row>
+    <row r="22" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D22" s="132" t="s">
         <v>303</v>
       </c>
-      <c r="E22" s="281" t="s">
+      <c r="E22" s="265" t="s">
         <v>265</v>
       </c>
-      <c r="F22" s="130" t="s">
+      <c r="F22" s="129" t="s">
         <v>317</v>
       </c>
-      <c r="G22" s="129"/>
-      <c r="H22" s="136">
+      <c r="G22" s="128"/>
+      <c r="H22" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D23" s="133" t="s">
+      <c r="J22" s="284"/>
+      <c r="K22" s="284"/>
+      <c r="L22" s="284"/>
+      <c r="M22" s="284"/>
+    </row>
+    <row r="23" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D23" s="132" t="s">
         <v>267</v>
       </c>
-      <c r="E23" s="281" t="s">
+      <c r="E23" s="265" t="s">
         <v>265</v>
       </c>
-      <c r="F23" s="130" t="s">
+      <c r="F23" s="129" t="s">
         <v>309</v>
       </c>
-      <c r="G23" s="129"/>
-      <c r="H23" s="136">
+      <c r="G23" s="128"/>
+      <c r="H23" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D24" s="133" t="s">
+      <c r="J23" s="284"/>
+      <c r="K23" s="284"/>
+      <c r="L23" s="284"/>
+      <c r="M23" s="284"/>
+    </row>
+    <row r="24" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D24" s="132" t="s">
         <v>268</v>
       </c>
-      <c r="E24" s="281" t="s">
+      <c r="E24" s="265" t="s">
         <v>265</v>
       </c>
-      <c r="F24" s="130" t="s">
+      <c r="F24" s="129" t="s">
         <v>320</v>
       </c>
-      <c r="G24" s="129"/>
-      <c r="H24" s="136">
+      <c r="G24" s="128"/>
+      <c r="H24" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D25" s="133" t="s">
+      <c r="J24" s="284"/>
+      <c r="K24" s="284"/>
+      <c r="L24" s="284"/>
+      <c r="M24" s="284"/>
+    </row>
+    <row r="25" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D25" s="132" t="s">
         <v>312</v>
       </c>
-      <c r="E25" s="281" t="s">
+      <c r="E25" s="265" t="s">
         <v>265</v>
       </c>
-      <c r="F25" s="130" t="s">
+      <c r="F25" s="129" t="s">
         <v>309</v>
       </c>
-      <c r="G25" s="129"/>
-      <c r="H25" s="136">
+      <c r="G25" s="128"/>
+      <c r="H25" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="4:8" s="263" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D26" s="133" t="s">
+      <c r="J25" s="284"/>
+      <c r="K25" s="284"/>
+      <c r="L25" s="284"/>
+      <c r="M25" s="284"/>
+    </row>
+    <row r="26" spans="4:13" s="262" customFormat="1" ht="15.75" customHeight="1">
+      <c r="D26" s="132" t="s">
         <v>313</v>
       </c>
-      <c r="E26" s="281" t="s">
+      <c r="E26" s="265" t="s">
         <v>265</v>
       </c>
-      <c r="F26" s="129" t="s">
+      <c r="F26" s="128" t="s">
         <v>305</v>
       </c>
-      <c r="G26" s="129"/>
-      <c r="H26" s="136">
+      <c r="G26" s="128"/>
+      <c r="H26" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="4:8" s="263" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D27" s="127" t="s">
+      <c r="J26" s="284"/>
+      <c r="K26" s="284"/>
+      <c r="L26" s="284"/>
+      <c r="M26" s="284"/>
+    </row>
+    <row r="27" spans="4:13" s="262" customFormat="1" ht="15.75" customHeight="1">
+      <c r="D27" s="126" t="s">
         <v>314</v>
       </c>
-      <c r="E27" s="281" t="s">
+      <c r="E27" s="265" t="s">
         <v>265</v>
       </c>
-      <c r="F27" s="129" t="s">
+      <c r="F27" s="128" t="s">
         <v>322</v>
       </c>
-      <c r="G27" s="129"/>
-      <c r="H27" s="136">
+      <c r="G27" s="128"/>
+      <c r="H27" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D28" s="133" t="s">
+      <c r="J27" s="284"/>
+      <c r="K27" s="284"/>
+      <c r="L27" s="284"/>
+      <c r="M27" s="284"/>
+    </row>
+    <row r="28" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D28" s="132" t="s">
         <v>316</v>
       </c>
-      <c r="E28" s="282" t="s">
+      <c r="E28" s="266" t="s">
         <v>304</v>
       </c>
-      <c r="F28" s="130" t="s">
+      <c r="F28" s="129" t="s">
         <v>307</v>
       </c>
-      <c r="G28" s="129"/>
-      <c r="H28" s="136">
+      <c r="G28" s="128"/>
+      <c r="H28" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D29" s="133" t="s">
+      <c r="J28" s="284"/>
+      <c r="K28" s="284"/>
+      <c r="L28" s="284"/>
+      <c r="M28" s="284"/>
+    </row>
+    <row r="29" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D29" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="282" t="s">
+      <c r="E29" s="266" t="s">
         <v>304</v>
       </c>
-      <c r="F29" s="130" t="s">
+      <c r="F29" s="129" t="s">
         <v>319</v>
       </c>
-      <c r="G29" s="129"/>
-      <c r="H29" s="136">
+      <c r="G29" s="128"/>
+      <c r="H29" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D30" s="133" t="s">
+      <c r="J29" s="284"/>
+      <c r="K29" s="284"/>
+      <c r="L29" s="284"/>
+      <c r="M29" s="284"/>
+    </row>
+    <row r="30" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D30" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="E30" s="282" t="s">
+      <c r="E30" s="266" t="s">
         <v>304</v>
       </c>
-      <c r="F30" s="130" t="s">
+      <c r="F30" s="129" t="s">
         <v>321</v>
       </c>
-      <c r="G30" s="129"/>
-      <c r="H30" s="136">
+      <c r="G30" s="128"/>
+      <c r="H30" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D31" s="133" t="s">
+      <c r="J30" s="284"/>
+      <c r="K30" s="284"/>
+      <c r="L30" s="284"/>
+      <c r="M30" s="284"/>
+    </row>
+    <row r="31" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D31" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="282" t="s">
+      <c r="E31" s="266" t="s">
         <v>304</v>
       </c>
-      <c r="F31" s="130" t="s">
+      <c r="F31" s="129" t="s">
         <v>269</v>
       </c>
-      <c r="G31" s="129"/>
-      <c r="H31" s="137">
+      <c r="G31" s="128"/>
+      <c r="H31" s="136">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D32" s="133" t="s">
+      <c r="J31" s="284"/>
+      <c r="K31" s="284"/>
+      <c r="L31" s="284"/>
+      <c r="M31" s="284"/>
+    </row>
+    <row r="32" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D32" s="132" t="s">
         <v>271</v>
       </c>
-      <c r="E32" s="282" t="s">
+      <c r="E32" s="266" t="s">
         <v>304</v>
       </c>
-      <c r="F32" s="130" t="s">
+      <c r="F32" s="129" t="s">
         <v>269</v>
       </c>
-      <c r="G32" s="129"/>
-      <c r="H32" s="136">
+      <c r="G32" s="128"/>
+      <c r="H32" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D33" s="127" t="s">
+      <c r="J32" s="284"/>
+      <c r="K32" s="284"/>
+      <c r="L32" s="284"/>
+      <c r="M32" s="284"/>
+    </row>
+    <row r="33" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D33" s="126" t="s">
         <v>315</v>
       </c>
-      <c r="E33" s="282" t="s">
+      <c r="E33" s="266" t="s">
         <v>325</v>
       </c>
-      <c r="F33" s="129" t="s">
+      <c r="F33" s="128" t="s">
         <v>322</v>
       </c>
-      <c r="G33" s="129"/>
-      <c r="H33" s="136">
+      <c r="G33" s="128"/>
+      <c r="H33" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D34" s="133" t="s">
+      <c r="J33" s="284"/>
+      <c r="K33" s="284"/>
+      <c r="L33" s="284"/>
+      <c r="M33" s="284"/>
+    </row>
+    <row r="34" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D34" s="132" t="s">
         <v>301</v>
       </c>
-      <c r="E34" s="282" t="s">
+      <c r="E34" s="266" t="s">
         <v>304</v>
       </c>
-      <c r="F34" s="130" t="s">
+      <c r="F34" s="129" t="s">
         <v>308</v>
       </c>
-      <c r="G34" s="129"/>
-      <c r="H34" s="136">
+      <c r="G34" s="128"/>
+      <c r="H34" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D35" s="133" t="s">
+      <c r="J34" s="284"/>
+      <c r="K34" s="284"/>
+      <c r="L34" s="284"/>
+      <c r="M34" s="284"/>
+    </row>
+    <row r="35" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D35" s="132" t="s">
         <v>262</v>
       </c>
-      <c r="E35" s="282" t="s">
+      <c r="E35" s="266" t="s">
         <v>304</v>
       </c>
-      <c r="F35" s="130" t="s">
+      <c r="F35" s="129" t="s">
         <v>317</v>
       </c>
-      <c r="G35" s="129"/>
-      <c r="H35" s="136">
+      <c r="G35" s="128"/>
+      <c r="H35" s="135">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D36" s="133" t="s">
+      <c r="J35" s="284"/>
+      <c r="K35" s="284"/>
+      <c r="L35" s="284"/>
+      <c r="M35" s="284"/>
+    </row>
+    <row r="36" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D36" s="132" t="s">
         <v>326</v>
       </c>
-      <c r="E36" s="136" t="s">
+      <c r="E36" s="135" t="s">
         <v>327</v>
       </c>
-      <c r="F36" s="130" t="s">
+      <c r="F36" s="129" t="s">
         <v>328</v>
       </c>
-      <c r="G36" s="129"/>
-      <c r="H36" s="137">
+      <c r="G36" s="128"/>
+      <c r="H36" s="136">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D37" s="133"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="136"/>
-    </row>
-    <row r="38" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D38" s="133"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="136"/>
-    </row>
-    <row r="39" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D39" s="133"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="136"/>
-    </row>
-    <row r="40" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D40" s="133"/>
-      <c r="E40" s="136"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="136"/>
-    </row>
-    <row r="41" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D41" s="133"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="136"/>
-    </row>
-    <row r="42" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D42" s="133"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="129"/>
-      <c r="H42" s="136"/>
-    </row>
-    <row r="43" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D43" s="133"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="136"/>
-    </row>
-    <row r="44" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D44" s="133"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="136"/>
-    </row>
-    <row r="45" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D45" s="133"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="136"/>
-    </row>
-    <row r="46" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D46" s="133"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="136"/>
-    </row>
-    <row r="47" spans="4:8" ht="15.75" customHeight="1">
-      <c r="D47" s="133"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="136"/>
+      <c r="J36" s="284"/>
+      <c r="K36" s="284"/>
+      <c r="L36" s="284"/>
+      <c r="M36" s="284"/>
+    </row>
+    <row r="37" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D37" s="132" t="s">
+        <v>330</v>
+      </c>
+      <c r="E37" s="135" t="s">
+        <v>331</v>
+      </c>
+      <c r="F37" s="129" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" s="128"/>
+      <c r="H37" s="136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D38" s="132" t="s">
+        <v>333</v>
+      </c>
+      <c r="E38" s="135" t="s">
+        <v>331</v>
+      </c>
+      <c r="F38" s="129"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="136">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D16:H16"/>
+    <mergeCell ref="J18:M36"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="D4:H4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6553,12 +6636,12 @@
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="265"/>
-      <c r="J3" s="265"/>
-      <c r="K3" s="265"/>
-      <c r="L3" s="265"/>
-      <c r="M3" s="265"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="269"/>
+      <c r="L3" s="269"/>
+      <c r="M3" s="269"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1">
       <c r="B4" s="102"/>
@@ -6666,7 +6749,7 @@
       <c r="B10" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="121" t="s">
         <v>167</v>
       </c>
       <c r="D10" s="86" t="s">
@@ -6833,21 +6916,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003344BE67D7EB984A84C06E190413FBFD" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9bce8fe95ceaf62c75926160740d41e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9de94308-2297-4d04-a77d-26fce9df9395" xmlns:ns4="22375818-dcd7-42e4-9660-6b33e030de66" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d88e73fd87162f28f317e92bcb9f946" ns3:_="" ns4:_="">
     <xsd:import namespace="9de94308-2297-4d04-a77d-26fce9df9395"/>
@@ -7024,24 +7092,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B130DE0C-7A28-4B03-98EC-F451E5EF5DFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E8D0FC-D0F3-4D81-9707-E82360EDBF19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7058,4 +7124,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B130DE0C-7A28-4B03-98EC-F451E5EF5DFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Gestion_A_jmd.xlsx
+++ b/Gestion_A_jmd.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\ProjetDaleks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ouaiouaihashish\Desktop\ProjetDaleks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31511CD9-DDB8-435E-9A15-D7C9B41C9308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B38376-50D1-435B-8795-B34194711D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4095" windowWidth="18900" windowHeight="11055" firstSheet="3" activeTab="2" xr2:uid="{E687526C-779E-492B-BB96-71999BB7EE79}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="6" xr2:uid="{44350D87-A585-4608-884F-E6D7378710D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{E687526C-779E-492B-BB96-71999BB7EE79}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="341">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -824,9 +823,6 @@
     <t>if mouvement existe(entre 1 et 9) and mouvement possible(reste dans l'air de jeux)</t>
   </si>
   <si>
-    <t>en fonction du docteur</t>
-  </si>
-  <si>
     <t>if position_dacleks = postion_docteur si vrai fin de partie(perdu)</t>
   </si>
   <si>
@@ -849,9 +845,6 @@
   </si>
   <si>
     <t>S approcher du docteur , supprimer un daleck</t>
-  </si>
-  <si>
-    <t>ferraille</t>
   </si>
   <si>
     <t xml:space="preserve">si fin partie </t>
@@ -1176,24 +1169,15 @@
     <t>créer un niveau</t>
   </si>
   <si>
-    <t>haute</t>
-  </si>
-  <si>
     <t>contact dalek ferraile</t>
   </si>
   <si>
-    <t>creation ferraile</t>
-  </si>
-  <si>
     <t>afficher menu initial</t>
   </si>
   <si>
     <t>afficher tout les scores</t>
   </si>
   <si>
-    <t>sauvegarder score joueur</t>
-  </si>
-  <si>
     <t>10 min</t>
   </si>
   <si>
@@ -1212,9 +1196,6 @@
     <t>15min</t>
   </si>
   <si>
-    <t>enregistre  le score du joueur</t>
-  </si>
-  <si>
     <t>30 min</t>
   </si>
   <si>
@@ -1248,10 +1229,40 @@
     <t>Debrief</t>
   </si>
   <si>
-    <t>Notre dévéloppement logiciel c'est déroulé plûtot bien avec des prises de rendez-vous régulières et ponctuelle. Malheureseuement, la réalisation du Zappeur ainsi que la création du niveau suivant à la fin de la partie si gagné n'a pas pu être réalisé à temps. Nous avons pu suivre sans trop de soucis le planning prévu initialement, bien que nous avions sous-estimez les cas d'usages et scénario d'utilisation ainsi le scénarios.</t>
-  </si>
-  <si>
     <t>Laurentiu Dilion -  Irvan Nayaradou</t>
+  </si>
+  <si>
+    <t>enrg_score_joueur</t>
+  </si>
+  <si>
+    <t>creation_ferraille</t>
+  </si>
+  <si>
+    <t>en fonction du docteur x +- 1 or y +-1</t>
+  </si>
+  <si>
+    <t>vague de dalek</t>
+  </si>
+  <si>
+    <t>docteur_emprisonner</t>
+  </si>
+  <si>
+    <t>for dalek in partie.dalek: if dalek.is_close_to_doctor() and dalek.can_kill_doctor(): break dalek.move_towards_doctor()</t>
+  </si>
+  <si>
+    <t>for dalek in partie.dalek: dalek.move_towards_doctor()</t>
+  </si>
+  <si>
+    <t>Daleks</t>
+  </si>
+  <si>
+    <t>Tas de ferraille</t>
+  </si>
+  <si>
+    <t>Air de jeu</t>
+  </si>
+  <si>
+    <t>Notre développement logiciel s'est déroulé plutôt bien, avec des prises de rendez-vous régulières et ponctuelles. Malheureusement, la réalisation du Zappeur ainsi que la création du niveau suivant à la fin de la partie en cas de victoire n'ont pas pu être réalisées à temps. Nous avons pu suivre le planning prévu initialement, bien que nous ayons sous-estimé les cas d'usage, les scénarios d'utilisation, ainsi que le scénario global."</t>
   </si>
 </sst>
 </file>
@@ -1386,12 +1397,12 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1463,8 +1474,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="63">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -1885,66 +1908,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2049,34 +2012,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -2216,12 +2153,394 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2266,7 +2585,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2372,9 +2690,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2404,24 +2722,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2459,9 +2777,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2472,9 +2787,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2484,409 +2796,388 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="46" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="50" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="50" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="46" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2932,32 +3223,153 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3301,7 +3713,6 @@
   <dimension ref="B2:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3334,36 +3745,36 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="112"/>
+      <c r="H3" s="111"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
     </row>
     <row r="5" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
     </row>
     <row r="7" spans="2:8" ht="17.25" customHeight="1">
       <c r="B7" s="2" t="s">
@@ -3371,18 +3782,18 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="110"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="35"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" customHeight="1">
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="110"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="6" t="s">
         <v>4</v>
       </c>
@@ -3397,7 +3808,7 @@
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="110"/>
+      <c r="E9" s="109"/>
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
@@ -3407,7 +3818,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="110"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="6"/>
       <c r="H10" s="5"/>
     </row>
@@ -3419,7 +3830,7 @@
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="110"/>
+      <c r="E11" s="109"/>
       <c r="F11" s="6"/>
       <c r="G11" s="13" t="s">
         <v>10</v>
@@ -3432,7 +3843,7 @@
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="110"/>
+      <c r="E12" s="109"/>
       <c r="F12" s="6"/>
       <c r="G12" s="13"/>
       <c r="H12" s="5" t="s">
@@ -3447,7 +3858,7 @@
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="110"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="6"/>
       <c r="H13" s="5" t="s">
         <v>15</v>
@@ -3457,7 +3868,7 @@
       <c r="B14" s="6"/>
       <c r="C14" s="13"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="110"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="6"/>
       <c r="H14" s="5" t="s">
         <v>16</v>
@@ -3471,34 +3882,34 @@
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="110"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="6"/>
       <c r="H15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B16" s="38"/>
-      <c r="C16" s="112"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="110"/>
-      <c r="F16" s="38"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="37"/>
       <c r="H16" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B18" s="38"/>
-      <c r="C18" s="112" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="111" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="110"/>
-      <c r="F18" s="38"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="13" t="s">
         <v>24</v>
       </c>
@@ -3507,95 +3918,95 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B19" s="38"/>
-      <c r="C19" s="112"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="111"/>
       <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="110"/>
-      <c r="F19" s="38"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="13"/>
       <c r="H19" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B20" s="38"/>
-      <c r="C20" s="112"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="38"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="37"/>
       <c r="H20" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B21" s="38"/>
-      <c r="C21" s="112" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="111" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="110"/>
-      <c r="F21" s="38"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="37"/>
       <c r="H21" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B22" s="38"/>
-      <c r="C22" s="112"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="112"/>
-      <c r="F22" s="38"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="37"/>
       <c r="H22" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B23" s="38"/>
-      <c r="C23" s="112"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="111"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="38"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="13"/>
       <c r="H23" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B24" s="38"/>
-      <c r="C24" s="112" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="111" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="112"/>
-      <c r="F24" s="38"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="37"/>
       <c r="H24" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B25" s="38"/>
-      <c r="C25" s="112"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="111"/>
       <c r="D25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="112"/>
-      <c r="F25" s="38"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="37"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B26" s="38"/>
-      <c r="C26" s="110"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="38"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="37"/>
       <c r="G26" s="13" t="s">
         <v>39</v>
       </c>
@@ -3604,24 +4015,24 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B27" s="38"/>
-      <c r="C27" s="110"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="109"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="38"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="37"/>
       <c r="H27" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="110"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="112"/>
+      <c r="E28" s="111"/>
       <c r="F28" s="9"/>
       <c r="H28" s="8" t="s">
         <v>44</v>
@@ -3635,19 +4046,19 @@
       <c r="D29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="112"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="112"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="111"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B30" s="38"/>
-      <c r="C30" s="110"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="112"/>
-      <c r="F30" s="38"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="13" t="s">
         <v>48</v>
       </c>
@@ -3656,88 +4067,88 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="268"/>
-      <c r="G36" s="269"/>
-      <c r="H36" s="269"/>
-      <c r="I36" s="269"/>
+      <c r="F36" s="256"/>
+      <c r="G36" s="257"/>
+      <c r="H36" s="257"/>
+      <c r="I36" s="257"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="269"/>
-      <c r="G37" s="269"/>
-      <c r="H37" s="269"/>
-      <c r="I37" s="269"/>
+      <c r="F37" s="257"/>
+      <c r="G37" s="257"/>
+      <c r="H37" s="257"/>
+      <c r="I37" s="257"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="269"/>
-      <c r="G38" s="269"/>
-      <c r="H38" s="269"/>
-      <c r="I38" s="269"/>
+      <c r="F38" s="257"/>
+      <c r="G38" s="257"/>
+      <c r="H38" s="257"/>
+      <c r="I38" s="257"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F39" s="112"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="112"/>
-      <c r="I39" s="112"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="268"/>
-      <c r="G40" s="269"/>
-      <c r="H40" s="269"/>
-      <c r="I40" s="269"/>
+      <c r="F40" s="256"/>
+      <c r="G40" s="257"/>
+      <c r="H40" s="257"/>
+      <c r="I40" s="257"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="269"/>
-      <c r="G41" s="269"/>
-      <c r="H41" s="269"/>
-      <c r="I41" s="269"/>
+      <c r="F41" s="257"/>
+      <c r="G41" s="257"/>
+      <c r="H41" s="257"/>
+      <c r="I41" s="257"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="269"/>
-      <c r="G42" s="269"/>
-      <c r="H42" s="269"/>
-      <c r="I42" s="269"/>
+      <c r="F42" s="257"/>
+      <c r="G42" s="257"/>
+      <c r="H42" s="257"/>
+      <c r="I42" s="257"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
     </row>
     <row r="44" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="112"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="268"/>
-      <c r="G45" s="269"/>
-      <c r="H45" s="269"/>
-      <c r="I45" s="269"/>
+      <c r="F45" s="256"/>
+      <c r="G45" s="257"/>
+      <c r="H45" s="257"/>
+      <c r="I45" s="257"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="269"/>
-      <c r="G46" s="269"/>
-      <c r="H46" s="269"/>
-      <c r="I46" s="269"/>
+      <c r="F46" s="257"/>
+      <c r="G46" s="257"/>
+      <c r="H46" s="257"/>
+      <c r="I46" s="257"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="269"/>
-      <c r="G47" s="269"/>
-      <c r="H47" s="269"/>
-      <c r="I47" s="269"/>
+      <c r="F47" s="257"/>
+      <c r="G47" s="257"/>
+      <c r="H47" s="257"/>
+      <c r="I47" s="257"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="269"/>
-      <c r="G48" s="269"/>
-      <c r="H48" s="269"/>
-      <c r="I48" s="269"/>
+      <c r="F48" s="257"/>
+      <c r="G48" s="257"/>
+      <c r="H48" s="257"/>
+      <c r="I48" s="257"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="269"/>
-      <c r="G49" s="269"/>
-      <c r="H49" s="269"/>
-      <c r="I49" s="269"/>
+      <c r="F49" s="257"/>
+      <c r="G49" s="257"/>
+      <c r="H49" s="257"/>
+      <c r="I49" s="257"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3756,11 +4167,8 @@
   </sheetPr>
   <dimension ref="B2:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
-    <sheetView topLeftCell="C7" workbookViewId="1">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3774,80 +4182,80 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B2" s="112"/>
+      <c r="B2" s="111"/>
       <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
     </row>
     <row r="3" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
     </row>
     <row r="4" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B4" s="112"/>
-      <c r="C4" s="112" t="s">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
     </row>
     <row r="5" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B5" s="112"/>
-      <c r="C5" s="112" t="s">
+      <c r="B5" s="111"/>
+      <c r="C5" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
     </row>
     <row r="6" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B6" s="112"/>
-      <c r="C6" s="112" t="s">
+      <c r="B6" s="111"/>
+      <c r="C6" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
     </row>
     <row r="7" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B7" s="112"/>
-      <c r="C7" s="112" t="s">
+      <c r="B7" s="111"/>
+      <c r="C7" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
     </row>
     <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="112"/>
-      <c r="C8" s="112" t="s">
+      <c r="B8" s="111"/>
+      <c r="C8" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B9" s="112"/>
-      <c r="C9" s="112" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B10" s="112"/>
-      <c r="C10" s="112" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
     </row>
     <row r="11" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
     </row>
     <row r="12" spans="2:5" ht="12.75" customHeight="1">
       <c r="B12" s="14"/>
@@ -3862,332 +4270,332 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B13" s="270" t="s">
+      <c r="B13" s="258" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="283" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B14" s="259"/>
+      <c r="C14" s="121" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B15" s="259"/>
+      <c r="C15" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B16" s="259"/>
+      <c r="C16" s="121" t="s">
+        <v>338</v>
+      </c>
+      <c r="D16" s="120" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B17" s="259"/>
+      <c r="C17" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B18" s="259"/>
+      <c r="C18" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B19" s="259"/>
+      <c r="C19" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B20" s="259"/>
+      <c r="C20" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B21" s="259"/>
+      <c r="C21" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B22" s="259"/>
+      <c r="C22" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22" s="119" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B23" s="259"/>
+      <c r="C23" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="119" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B24" s="259"/>
+      <c r="C24" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" s="119" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B25" s="259"/>
+      <c r="C25" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E25" s="119" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B26" s="260"/>
+      <c r="C26" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="118" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B27" s="285"/>
+      <c r="C27" s="286" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="287" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="288" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B28" s="284" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B29" s="259"/>
+      <c r="C29" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B30" s="259"/>
+      <c r="C30" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B14" s="271"/>
-      <c r="C14" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="124" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B15" s="271"/>
-      <c r="C15" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="271"/>
-      <c r="C16" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="124" t="s">
-        <v>242</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="271"/>
-      <c r="C17" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="271"/>
-      <c r="C18" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="41"/>
-    </row>
-    <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="271"/>
-      <c r="C19" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="41" t="s">
+      <c r="D30" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B31" s="259"/>
+      <c r="C31" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="271"/>
-      <c r="C20" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="271"/>
-      <c r="C21" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E21" s="41" t="s">
+      <c r="E31" s="40" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="271"/>
-      <c r="C22" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="E22" s="123" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="271"/>
-      <c r="C23" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="E23" s="123" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="271"/>
-      <c r="C24" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="E24" s="123" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="271"/>
-      <c r="C25" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E25" s="123" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="272"/>
-      <c r="C26" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="E26" s="122" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="108"/>
-      <c r="C27" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="E27" s="123" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="270" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="271"/>
-      <c r="C29" s="22" t="s">
+    <row r="32" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B32" s="259"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B33" s="259"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B34" s="259"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="40"/>
+    </row>
+    <row r="35" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B35" s="259"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="40"/>
+    </row>
+    <row r="36" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B36" s="260"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B37" s="258" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="E29" s="41" t="s">
+      <c r="D37" s="38" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="271"/>
-      <c r="C30" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="271"/>
-      <c r="C31" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="271"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="41"/>
-    </row>
-    <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="271"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="41"/>
-    </row>
-    <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="271"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="41"/>
-    </row>
-    <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="271"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="41"/>
-    </row>
-    <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="272"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="20"/>
-    </row>
-    <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="270" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="23" t="s">
+      <c r="E37" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D37" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>237</v>
-      </c>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="271"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="41"/>
+      <c r="B38" s="259"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="40"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="271"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="41"/>
+      <c r="B39" s="259"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="40"/>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="271"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="41"/>
+      <c r="B40" s="259"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="271"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="41"/>
+      <c r="B41" s="259"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="40"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="271"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="41"/>
+      <c r="B42" s="259"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="40"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="271"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="41"/>
+      <c r="B43" s="259"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="40"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="271"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="41"/>
+      <c r="B44" s="259"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="271"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="41"/>
+      <c r="B45" s="259"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="40"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="272"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="46"/>
+      <c r="B46" s="260"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4204,12 +4612,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:F115"/>
+  <dimension ref="B2:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C43" activeCellId="1" sqref="F68 C43"/>
+    <sheetView topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -4223,907 +4630,959 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.25" customHeight="1">
-      <c r="B2" s="109"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="2:6" ht="89.45" customHeight="1">
-      <c r="B3" s="109"/>
-      <c r="C3" s="273" t="s">
+      <c r="B3" s="108"/>
+      <c r="C3" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="109"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="108"/>
     </row>
     <row r="4" spans="2:6" ht="30.75" customHeight="1">
-      <c r="B4" s="110"/>
-      <c r="C4" s="274" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="262" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="109"/>
     </row>
     <row r="5" spans="2:6" ht="21" customHeight="1">
-      <c r="B5" s="109"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
     </row>
     <row r="6" spans="2:6" ht="21" customHeight="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="109"/>
+      <c r="C6" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="109"/>
     </row>
     <row r="7" spans="2:6" ht="18" customHeight="1">
-      <c r="B7" s="110"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="110"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="109"/>
     </row>
     <row r="8" spans="2:6" ht="18" customHeight="1">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="2:6" ht="19.5" customHeight="1">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1">
-      <c r="B10" s="110"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
     </row>
     <row r="11" spans="2:6" ht="18" customHeight="1">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>85</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18" customHeight="1">
-      <c r="B12" s="28"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="32"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1">
-      <c r="B13" s="154" t="s">
+      <c r="B13" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="155" t="s">
+      <c r="C13" s="145" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="156" t="s">
+      <c r="D13" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="158"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="148"/>
     </row>
     <row r="14" spans="2:6" ht="18" customHeight="1">
-      <c r="B14" s="159"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="162" t="s">
+      <c r="B14" s="149"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="163"/>
+      <c r="F14" s="153"/>
     </row>
     <row r="15" spans="2:6" ht="18" customHeight="1">
-      <c r="B15" s="159"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="162" t="s">
+      <c r="B15" s="149"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="165"/>
+      <c r="F15" s="155"/>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B16" s="166"/>
-      <c r="C16" s="167" t="s">
-        <v>314</v>
-      </c>
-      <c r="D16" s="168"/>
-      <c r="E16" s="162" t="s">
+      <c r="B16" s="278" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="272" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="158"/>
+      <c r="E16" s="152" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="163"/>
+      <c r="F16" s="153"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B17" s="166"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="168" t="s">
+      <c r="B17" s="156"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="163"/>
+      <c r="F17" s="153"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B18" s="169"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="172" t="s">
+      <c r="B18" s="159"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="173" t="s">
+      <c r="F18" s="163" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B19" s="138" t="s">
+      <c r="B19" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="139" t="s">
+      <c r="C19" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="140" t="s">
+      <c r="D19" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142" t="s">
+      <c r="E19" s="131"/>
+      <c r="F19" s="132" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B20" s="143"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145" t="s">
+      <c r="B20" s="133"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="146"/>
-    </row>
-    <row r="21" spans="2:6" s="262" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="143" t="s">
+      <c r="F20" s="136"/>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B21" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="264" t="s">
+      <c r="C21" s="252" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135" t="s">
+        <v>290</v>
+      </c>
+      <c r="F21" s="136" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B22" s="137" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="252" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" s="136"/>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B23" s="133"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="135" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="135"/>
+      <c r="F23" s="136"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B24" s="137" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="134"/>
+      <c r="D24" s="135" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="135"/>
+      <c r="F24" s="136"/>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B25" s="133"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="136" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15" customHeight="1">
+      <c r="B26" s="133"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="135" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="136" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B27" s="137" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="252" t="s">
         <v>300</v>
       </c>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145" t="s">
+      <c r="D27" s="138"/>
+      <c r="E27" s="135" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="136" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B28" s="139"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="142" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="143" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="B29" s="164" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="165" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="166" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B30" s="167"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="170" t="s">
+        <v>270</v>
+      </c>
+      <c r="F30" s="171" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B31" s="279" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="176" t="s">
+        <v>262</v>
+      </c>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="174" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B32" s="172"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" s="174" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B33" s="172"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127" t="s">
+        <v>272</v>
+      </c>
+      <c r="F33" s="174" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B34" s="172"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127" t="s">
+        <v>273</v>
+      </c>
+      <c r="F34" s="174" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B35" s="172"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127" t="s">
+        <v>280</v>
+      </c>
+      <c r="F35" s="174" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B36" s="172"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127" t="s">
+        <v>274</v>
+      </c>
+      <c r="F36" s="174" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B37" s="172"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127" t="s">
+        <v>275</v>
+      </c>
+      <c r="F37" s="174" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B38" s="172"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127" t="s">
+        <v>276</v>
+      </c>
+      <c r="F38" s="174" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B39" s="172"/>
+      <c r="C39" s="173"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127" t="s">
+        <v>277</v>
+      </c>
+      <c r="F39" s="174" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B40" s="172"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="F40" s="174" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B41" s="279" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="176" t="s">
+        <v>301</v>
+      </c>
+      <c r="D41" s="127"/>
+      <c r="E41" s="175" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="174"/>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B42" s="172"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127" t="s">
+        <v>192</v>
+      </c>
+      <c r="F42" s="174" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B43" s="172" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="176" t="s">
+        <v>265</v>
+      </c>
+      <c r="D43" s="175"/>
+      <c r="E43" s="127" t="s">
+        <v>255</v>
+      </c>
+      <c r="F43" s="174" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B44" s="279" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="176" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" s="175"/>
+      <c r="E44" s="127" t="s">
+        <v>256</v>
+      </c>
+      <c r="F44" s="174" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B45" s="172"/>
+      <c r="C45" s="173"/>
+      <c r="D45" s="175"/>
+      <c r="E45" s="127" t="s">
+        <v>257</v>
+      </c>
+      <c r="F45" s="174" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B46" s="172"/>
+      <c r="C46" s="173"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="127" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" s="174" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B47" s="172"/>
+      <c r="C47" s="176" t="s">
+        <v>331</v>
+      </c>
+      <c r="D47" s="175"/>
+      <c r="E47" s="127" t="s">
+        <v>217</v>
+      </c>
+      <c r="F47" s="174" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B48" s="177"/>
+      <c r="C48" s="178"/>
+      <c r="D48" s="179"/>
+      <c r="E48" s="180" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="181"/>
+    </row>
+    <row r="49" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B49" s="182" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="184" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="185"/>
+      <c r="F49" s="186" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B50" s="280" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="192" t="s">
+        <v>293</v>
+      </c>
+      <c r="D50" s="189"/>
+      <c r="E50" s="190" t="s">
+        <v>295</v>
+      </c>
+      <c r="F50" s="191" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B51" s="187"/>
+      <c r="C51" s="188"/>
+      <c r="D51" s="189"/>
+      <c r="E51" s="190" t="s">
+        <v>296</v>
+      </c>
+      <c r="F51" s="191" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B52" s="187"/>
+      <c r="C52" s="188"/>
+      <c r="D52" s="189"/>
+      <c r="E52" s="189" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="191"/>
+    </row>
+    <row r="53" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B53" s="187" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="192" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="189"/>
+      <c r="E53" s="190" t="s">
+        <v>255</v>
+      </c>
+      <c r="F53" s="191" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B54" s="280" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="192" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54" s="189"/>
+      <c r="E54" s="190" t="s">
+        <v>256</v>
+      </c>
+      <c r="F54" s="191" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B55" s="187"/>
+      <c r="C55" s="193"/>
+      <c r="D55" s="189"/>
+      <c r="E55" s="190" t="s">
+        <v>257</v>
+      </c>
+      <c r="F55" s="191" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B56" s="187"/>
+      <c r="C56" s="193"/>
+      <c r="D56" s="189"/>
+      <c r="E56" s="190" t="s">
+        <v>258</v>
+      </c>
+      <c r="F56" s="194"/>
+    </row>
+    <row r="57" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B57" s="195"/>
+      <c r="C57" s="196"/>
+      <c r="D57" s="197"/>
+      <c r="E57" s="198" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" s="199"/>
+    </row>
+    <row r="58" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B58" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="201" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="202" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="203"/>
+      <c r="F58" s="204" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B59" s="205"/>
+      <c r="C59" s="206"/>
+      <c r="D59" s="207"/>
+      <c r="E59" s="208" t="s">
+        <v>199</v>
+      </c>
+      <c r="F59" s="209" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B60" s="205"/>
+      <c r="C60" s="206"/>
+      <c r="D60" s="207"/>
+      <c r="E60" s="208" t="s">
+        <v>219</v>
+      </c>
+      <c r="F60" s="209" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B61" s="205"/>
+      <c r="C61" s="206"/>
+      <c r="D61" s="207"/>
+      <c r="E61" s="208" t="s">
+        <v>192</v>
+      </c>
+      <c r="F61" s="209"/>
+    </row>
+    <row r="62" spans="2:6" ht="18" customHeight="1">
+      <c r="B62" s="205" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="210" t="s">
+        <v>265</v>
+      </c>
+      <c r="D62" s="211"/>
+      <c r="E62" s="208" t="s">
+        <v>255</v>
+      </c>
+      <c r="F62" s="209" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="18" customHeight="1">
+      <c r="B63" s="281" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="210" t="s">
+        <v>266</v>
+      </c>
+      <c r="D63" s="211"/>
+      <c r="E63" s="208" t="s">
+        <v>256</v>
+      </c>
+      <c r="F63" s="209" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="18" customHeight="1">
+      <c r="B64" s="205"/>
+      <c r="C64" s="212"/>
+      <c r="D64" s="211"/>
+      <c r="E64" s="208" t="s">
+        <v>258</v>
+      </c>
+      <c r="F64" s="209" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="18" customHeight="1">
+      <c r="B65" s="213"/>
+      <c r="C65" s="214"/>
+      <c r="D65" s="215"/>
+      <c r="E65" s="216" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="217"/>
+    </row>
+    <row r="66" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B66" s="218" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="219" t="s">
+        <v>260</v>
+      </c>
+      <c r="D66" s="220"/>
+      <c r="E66" s="221" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" s="222" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B67" s="223"/>
+      <c r="C67" s="224"/>
+      <c r="D67" s="225"/>
+      <c r="E67" s="226" t="s">
+        <v>204</v>
+      </c>
+      <c r="F67" s="227" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B68" s="223"/>
+      <c r="C68" s="255"/>
+      <c r="D68" s="225"/>
+      <c r="E68" s="226" t="s">
         <v>292</v>
       </c>
-      <c r="F21" s="146" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B22" s="143"/>
-      <c r="C22" s="264" t="s">
-        <v>301</v>
-      </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145" t="s">
-        <v>217</v>
-      </c>
-      <c r="F22" s="146"/>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B23" s="143"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="145" t="s">
-        <v>218</v>
-      </c>
-      <c r="E23" s="145"/>
-      <c r="F23" s="146"/>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B24" s="147" t="s">
+      <c r="F68" s="227"/>
+    </row>
+    <row r="69" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B69" s="223"/>
+      <c r="C69" s="228"/>
+      <c r="D69" s="225"/>
+      <c r="E69" s="226" t="s">
+        <v>207</v>
+      </c>
+      <c r="F69" s="227" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B70" s="282" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="273" t="s">
+        <v>330</v>
+      </c>
+      <c r="D70" s="225"/>
+      <c r="E70" s="226"/>
+      <c r="F70" s="227"/>
+    </row>
+    <row r="71" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B71" s="223"/>
+      <c r="C71" s="228"/>
+      <c r="D71" s="226" t="s">
+        <v>208</v>
+      </c>
+      <c r="E71" s="225"/>
+      <c r="F71" s="227" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B72" s="223"/>
+      <c r="C72" s="228"/>
+      <c r="D72" s="225"/>
+      <c r="E72" s="226" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="229"/>
+    </row>
+    <row r="73" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B73" s="223"/>
+      <c r="C73" s="228"/>
+      <c r="D73" s="225"/>
+      <c r="E73" s="225" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" s="229"/>
+    </row>
+    <row r="74" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B74" s="230"/>
+      <c r="C74" s="231"/>
+      <c r="D74" s="232"/>
+      <c r="E74" s="233" t="s">
+        <v>96</v>
+      </c>
+      <c r="F74" s="234" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B75" s="275" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="277" t="s">
+        <v>324</v>
+      </c>
+      <c r="D75" s="274"/>
+      <c r="E75" s="275" t="s">
+        <v>333</v>
+      </c>
+      <c r="F75" s="276" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B76" s="275" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="277" t="s">
+        <v>327</v>
+      </c>
+      <c r="D76" s="274"/>
+      <c r="E76" s="275" t="s">
+        <v>334</v>
+      </c>
+      <c r="F76" s="276" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B77" s="235" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="236" t="s">
+        <v>311</v>
+      </c>
+      <c r="D77" s="237" t="s">
+        <v>210</v>
+      </c>
+      <c r="E77" s="238"/>
+      <c r="F77" s="239" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B78" s="240"/>
+      <c r="C78" s="241"/>
+      <c r="D78" s="242"/>
+      <c r="E78" s="243" t="s">
+        <v>213</v>
+      </c>
+      <c r="F78" s="244"/>
+    </row>
+    <row r="79" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B79" s="240"/>
+      <c r="C79" s="241"/>
+      <c r="D79" s="242"/>
+      <c r="E79" s="243" t="s">
+        <v>214</v>
+      </c>
+      <c r="F79" s="244"/>
+    </row>
+    <row r="80" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B80" s="240"/>
+      <c r="C80" s="241"/>
+      <c r="D80" s="243" t="s">
+        <v>208</v>
+      </c>
+      <c r="E80" s="242"/>
+      <c r="F80" s="245" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B81" s="240"/>
+      <c r="C81" s="241"/>
+      <c r="D81" s="242"/>
+      <c r="E81" s="243" t="s">
+        <v>96</v>
+      </c>
+      <c r="F81" s="245" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B82" s="240" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="145" t="s">
-        <v>188</v>
-      </c>
-      <c r="E24" s="145"/>
-      <c r="F24" s="146"/>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B25" s="143"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" s="146" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1">
-      <c r="B26" s="143"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="145" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="146" t="s">
+      <c r="C82" s="246" t="s">
+        <v>269</v>
+      </c>
+      <c r="D82" s="243" t="s">
+        <v>224</v>
+      </c>
+      <c r="E82" s="242"/>
+      <c r="F82" s="245" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B27" s="143"/>
-      <c r="C27" s="264" t="s">
-        <v>302</v>
-      </c>
-      <c r="D27" s="148"/>
-      <c r="E27" s="145" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="146" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B28" s="149"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="152" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="153" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" hidden="1" customHeight="1">
-      <c r="B29" s="174" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="175" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="176" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B30" s="177"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="180" t="s">
-        <v>272</v>
-      </c>
-      <c r="F30" s="181" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B31" s="182"/>
-      <c r="C31" s="186" t="s">
-        <v>264</v>
-      </c>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" s="184" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B32" s="182"/>
-      <c r="C32" s="183"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137" t="s">
-        <v>281</v>
-      </c>
-      <c r="F32" s="184" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B33" s="182"/>
-      <c r="C33" s="183"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="137" t="s">
-        <v>274</v>
-      </c>
-      <c r="F33" s="184" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B34" s="182"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="137" t="s">
-        <v>275</v>
-      </c>
-      <c r="F34" s="184" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B35" s="182"/>
-      <c r="C35" s="183"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="137" t="s">
-        <v>282</v>
-      </c>
-      <c r="F35" s="184" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B36" s="182"/>
-      <c r="C36" s="183"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137" t="s">
-        <v>276</v>
-      </c>
-      <c r="F36" s="184" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B37" s="182"/>
-      <c r="C37" s="183"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137" t="s">
-        <v>277</v>
-      </c>
-      <c r="F37" s="184" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B38" s="182"/>
-      <c r="C38" s="183"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="137" t="s">
-        <v>278</v>
-      </c>
-      <c r="F38" s="184" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B39" s="182"/>
-      <c r="C39" s="183"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="137" t="s">
-        <v>279</v>
-      </c>
-      <c r="F39" s="184" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B40" s="182"/>
-      <c r="C40" s="183"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="137" t="s">
-        <v>280</v>
-      </c>
-      <c r="F40" s="184" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B41" s="182"/>
-      <c r="C41" s="186" t="s">
-        <v>303</v>
-      </c>
-      <c r="D41" s="137"/>
-      <c r="E41" s="185" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="184"/>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B42" s="182"/>
-      <c r="C42" s="183"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137" t="s">
-        <v>192</v>
-      </c>
-      <c r="F42" s="184" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B43" s="182" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="186" t="s">
-        <v>267</v>
-      </c>
-      <c r="D43" s="185"/>
-      <c r="E43" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="F43" s="184" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B44" s="182"/>
-      <c r="C44" s="186" t="s">
-        <v>268</v>
-      </c>
-      <c r="D44" s="185"/>
-      <c r="E44" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="F44" s="184" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B45" s="182"/>
-      <c r="C45" s="183"/>
-      <c r="D45" s="185"/>
-      <c r="E45" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="F45" s="184" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B46" s="182"/>
-      <c r="C46" s="183"/>
-      <c r="D46" s="185"/>
-      <c r="E46" s="137" t="s">
-        <v>221</v>
-      </c>
-      <c r="F46" s="184" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B47" s="182"/>
-      <c r="C47" s="183"/>
-      <c r="D47" s="185"/>
-      <c r="E47" s="137" t="s">
-        <v>219</v>
-      </c>
-      <c r="F47" s="184" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B48" s="187"/>
-      <c r="C48" s="188"/>
-      <c r="D48" s="189"/>
-      <c r="E48" s="190" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="191"/>
-    </row>
-    <row r="49" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B49" s="192" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="193" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="194" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="195"/>
-      <c r="F49" s="196" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B50" s="197"/>
-      <c r="C50" s="202" t="s">
-        <v>295</v>
-      </c>
-      <c r="D50" s="199"/>
-      <c r="E50" s="200" t="s">
-        <v>297</v>
-      </c>
-      <c r="F50" s="201" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" s="262" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B51" s="197"/>
-      <c r="C51" s="198"/>
-      <c r="D51" s="199"/>
-      <c r="E51" s="200" t="s">
-        <v>298</v>
-      </c>
-      <c r="F51" s="201" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B52" s="197"/>
-      <c r="C52" s="198"/>
-      <c r="D52" s="199"/>
-      <c r="E52" s="199" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" s="201"/>
-    </row>
-    <row r="53" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B53" s="197" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="202" t="s">
-        <v>267</v>
-      </c>
-      <c r="D53" s="199"/>
-      <c r="E53" s="200" t="s">
-        <v>257</v>
-      </c>
-      <c r="F53" s="201" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B54" s="197"/>
-      <c r="C54" s="202" t="s">
-        <v>268</v>
-      </c>
-      <c r="D54" s="199"/>
-      <c r="E54" s="200" t="s">
-        <v>258</v>
-      </c>
-      <c r="F54" s="201" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B55" s="197"/>
-      <c r="C55" s="203"/>
-      <c r="D55" s="199"/>
-      <c r="E55" s="200" t="s">
-        <v>259</v>
-      </c>
-      <c r="F55" s="201" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B56" s="197"/>
-      <c r="C56" s="203"/>
-      <c r="D56" s="199"/>
-      <c r="E56" s="200" t="s">
-        <v>260</v>
-      </c>
-      <c r="F56" s="204"/>
-    </row>
-    <row r="57" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B57" s="205"/>
-      <c r="C57" s="206"/>
-      <c r="D57" s="207"/>
-      <c r="E57" s="208" t="s">
-        <v>101</v>
-      </c>
-      <c r="F57" s="209"/>
-    </row>
-    <row r="58" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B58" s="210" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="211" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="212" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="213"/>
-      <c r="F58" s="214" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B59" s="215"/>
-      <c r="C59" s="216"/>
-      <c r="D59" s="217"/>
-      <c r="E59" s="218" t="s">
-        <v>200</v>
-      </c>
-      <c r="F59" s="219" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B60" s="215"/>
-      <c r="C60" s="216"/>
-      <c r="D60" s="217"/>
-      <c r="E60" s="218" t="s">
-        <v>221</v>
-      </c>
-      <c r="F60" s="219" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B61" s="215"/>
-      <c r="C61" s="216"/>
-      <c r="D61" s="217"/>
-      <c r="E61" s="218" t="s">
-        <v>192</v>
-      </c>
-      <c r="F61" s="219"/>
-    </row>
-    <row r="62" spans="2:6" ht="18" customHeight="1">
-      <c r="B62" s="215" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="220" t="s">
-        <v>267</v>
-      </c>
-      <c r="D62" s="221"/>
-      <c r="E62" s="218" t="s">
-        <v>257</v>
-      </c>
-      <c r="F62" s="219" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="18" customHeight="1">
-      <c r="B63" s="215"/>
-      <c r="C63" s="220" t="s">
-        <v>268</v>
-      </c>
-      <c r="D63" s="221"/>
-      <c r="E63" s="218" t="s">
-        <v>258</v>
-      </c>
-      <c r="F63" s="219" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="18" customHeight="1">
-      <c r="B64" s="215"/>
-      <c r="C64" s="222"/>
-      <c r="D64" s="221"/>
-      <c r="E64" s="218" t="s">
-        <v>260</v>
-      </c>
-      <c r="F64" s="219" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" ht="18" customHeight="1">
-      <c r="B65" s="223"/>
-      <c r="C65" s="224"/>
-      <c r="D65" s="225"/>
-      <c r="E65" s="226" t="s">
-        <v>101</v>
-      </c>
-      <c r="F65" s="227"/>
-    </row>
-    <row r="66" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B66" s="228" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" s="229" t="s">
-        <v>262</v>
-      </c>
-      <c r="D66" s="230"/>
-      <c r="E66" s="231" t="s">
-        <v>204</v>
-      </c>
-      <c r="F66" s="232" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B67" s="233"/>
-      <c r="C67" s="234"/>
-      <c r="D67" s="235"/>
-      <c r="E67" s="236" t="s">
-        <v>206</v>
-      </c>
-      <c r="F67" s="237" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" s="262" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B68" s="233"/>
-      <c r="C68" s="267"/>
-      <c r="D68" s="235"/>
-      <c r="E68" s="236" t="s">
-        <v>294</v>
-      </c>
-      <c r="F68" s="237"/>
-    </row>
-    <row r="69" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B69" s="233"/>
-      <c r="C69" s="238"/>
-      <c r="D69" s="235"/>
-      <c r="E69" s="236" t="s">
-        <v>209</v>
-      </c>
-      <c r="F69" s="237" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" s="262" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B70" s="233"/>
-      <c r="C70" s="234" t="s">
-        <v>323</v>
-      </c>
-      <c r="D70" s="235"/>
-      <c r="E70" s="236"/>
-      <c r="F70" s="237"/>
-    </row>
-    <row r="71" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B71" s="233"/>
-      <c r="C71" s="238"/>
-      <c r="D71" s="236" t="s">
-        <v>210</v>
-      </c>
-      <c r="E71" s="235"/>
-      <c r="F71" s="237" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B72" s="233"/>
-      <c r="C72" s="238"/>
-      <c r="D72" s="235"/>
-      <c r="E72" s="236" t="s">
-        <v>94</v>
-      </c>
-      <c r="F72" s="239"/>
-    </row>
-    <row r="73" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B73" s="233"/>
-      <c r="C73" s="238"/>
-      <c r="D73" s="235"/>
-      <c r="E73" s="235" t="s">
-        <v>95</v>
-      </c>
-      <c r="F73" s="239"/>
-    </row>
-    <row r="74" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B74" s="240"/>
-      <c r="C74" s="241"/>
-      <c r="D74" s="242"/>
-      <c r="E74" s="243" t="s">
-        <v>96</v>
-      </c>
-      <c r="F74" s="244" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B75" s="245" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" s="246" t="s">
-        <v>315</v>
-      </c>
-      <c r="D75" s="247" t="s">
-        <v>212</v>
-      </c>
-      <c r="E75" s="248"/>
-      <c r="F75" s="249" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B76" s="250"/>
-      <c r="C76" s="251"/>
-      <c r="D76" s="252"/>
-      <c r="E76" s="253" t="s">
-        <v>215</v>
-      </c>
-      <c r="F76" s="254"/>
-    </row>
-    <row r="77" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B77" s="250"/>
-      <c r="C77" s="251"/>
-      <c r="D77" s="252"/>
-      <c r="E77" s="253" t="s">
-        <v>216</v>
-      </c>
-      <c r="F77" s="254"/>
-    </row>
-    <row r="78" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B78" s="250"/>
-      <c r="C78" s="251"/>
-      <c r="D78" s="253" t="s">
-        <v>210</v>
-      </c>
-      <c r="E78" s="252"/>
-      <c r="F78" s="255" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B79" s="250"/>
-      <c r="C79" s="251"/>
-      <c r="D79" s="252"/>
-      <c r="E79" s="253" t="s">
-        <v>96</v>
-      </c>
-      <c r="F79" s="255" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B80" s="250" t="s">
-        <v>90</v>
-      </c>
-      <c r="C80" s="256" t="s">
-        <v>271</v>
-      </c>
-      <c r="D80" s="253" t="s">
+    <row r="83" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B83" s="240"/>
+      <c r="C83" s="241"/>
+      <c r="D83" s="242"/>
+      <c r="E83" s="243" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" s="244"/>
+    </row>
+    <row r="84" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B84" s="240"/>
+      <c r="C84" s="241"/>
+      <c r="D84" s="242"/>
+      <c r="E84" s="243" t="s">
         <v>226</v>
       </c>
-      <c r="E80" s="252"/>
-      <c r="F80" s="255" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B81" s="250"/>
-      <c r="C81" s="251"/>
-      <c r="D81" s="252"/>
-      <c r="E81" s="253" t="s">
+      <c r="F84" s="244"/>
+    </row>
+    <row r="85" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B85" s="247"/>
+      <c r="C85" s="248"/>
+      <c r="D85" s="249"/>
+      <c r="E85" s="250" t="s">
         <v>227</v>
       </c>
-      <c r="F81" s="254"/>
-    </row>
-    <row r="82" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B82" s="250"/>
-      <c r="C82" s="251"/>
-      <c r="D82" s="252"/>
-      <c r="E82" s="253" t="s">
-        <v>228</v>
-      </c>
-      <c r="F82" s="254"/>
-    </row>
-    <row r="83" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B83" s="257"/>
-      <c r="C83" s="258"/>
-      <c r="D83" s="259"/>
-      <c r="E83" s="260" t="s">
-        <v>229</v>
-      </c>
-      <c r="F83" s="261"/>
-    </row>
-    <row r="115" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D115" t="s">
+      <c r="F85" s="251"/>
+    </row>
+    <row r="117" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D117" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5145,7 +5604,6 @@
   <dimension ref="G1:W28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5173,459 +5631,459 @@
       <c r="G2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
     </row>
     <row r="3" spans="7:19" ht="15">
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
     </row>
     <row r="4" spans="7:19" ht="15">
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
     </row>
     <row r="5" spans="7:19" ht="15">
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
     </row>
     <row r="6" spans="7:19" ht="15">
-      <c r="G6" s="112" t="s">
+      <c r="G6" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="112"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
     </row>
     <row r="7" spans="7:19" ht="15">
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
     </row>
     <row r="8" spans="7:19" ht="15">
-      <c r="G8" s="112" t="s">
+      <c r="G8" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
     </row>
     <row r="9" spans="7:19" ht="15">
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
     </row>
     <row r="10" spans="7:19">
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36" t="s">
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="37"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="36"/>
     </row>
     <row r="11" spans="7:19" ht="15">
-      <c r="G11" s="38"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="276"/>
-      <c r="N11" s="269"/>
-      <c r="O11" s="269"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="276"/>
-      <c r="S11" s="277"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="264"/>
+      <c r="N11" s="257"/>
+      <c r="O11" s="257"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="264"/>
+      <c r="S11" s="265"/>
     </row>
     <row r="12" spans="7:19" ht="15">
-      <c r="G12" s="38"/>
-      <c r="H12" s="112" t="s">
+      <c r="G12" s="37"/>
+      <c r="H12" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="42" t="s">
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="41"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="40"/>
     </row>
     <row r="13" spans="7:19" ht="15">
-      <c r="G13" s="38"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="41"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="40"/>
     </row>
     <row r="14" spans="7:19" ht="15">
-      <c r="G14" s="38"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="41"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="40"/>
     </row>
     <row r="15" spans="7:19" ht="15">
-      <c r="G15" s="38"/>
-      <c r="H15" s="112" t="s">
+      <c r="G15" s="37"/>
+      <c r="H15" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="42" t="s">
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="41"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="40"/>
     </row>
     <row r="16" spans="7:19" ht="15">
-      <c r="G16" s="38"/>
-      <c r="H16" s="112" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="41"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="40"/>
     </row>
     <row r="18" spans="7:23" ht="15">
-      <c r="G18" s="38"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="43" t="s">
+      <c r="G18" s="37"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="43" t="s">
+      <c r="K18" s="48"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="112"/>
-      <c r="U18" s="112"/>
-      <c r="V18" s="112"/>
-      <c r="W18" s="112"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="111"/>
     </row>
     <row r="19" spans="7:23" ht="15">
-      <c r="G19" s="38"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="112"/>
-      <c r="U19" s="112"/>
-      <c r="V19" s="112"/>
-      <c r="W19" s="112"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
     </row>
     <row r="20" spans="7:23" ht="15">
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="112"/>
-      <c r="U20" s="112"/>
-      <c r="V20" s="112"/>
-      <c r="W20" s="112"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
     </row>
     <row r="21" spans="7:23" ht="15">
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="112"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="112"/>
-      <c r="U21" s="112"/>
-      <c r="V21" s="112"/>
-      <c r="W21" s="112"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
     </row>
     <row r="22" spans="7:23" ht="15">
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="112"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="112"/>
-      <c r="U22" s="112"/>
-      <c r="V22" s="112"/>
-      <c r="W22" s="112"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
     </row>
     <row r="23" spans="7:23" ht="15">
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="112"/>
-      <c r="V23" s="112"/>
-      <c r="W23" s="112"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
     </row>
     <row r="24" spans="7:23" ht="15">
-      <c r="G24" s="275"/>
-      <c r="H24" s="269"/>
-      <c r="I24" s="269"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="112"/>
+      <c r="G24" s="263"/>
+      <c r="H24" s="257"/>
+      <c r="I24" s="257"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="111"/>
     </row>
     <row r="25" spans="7:23" ht="15">
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="112"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="112"/>
-      <c r="W25" s="112"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="111"/>
     </row>
     <row r="26" spans="7:23" ht="15">
-      <c r="G26" s="275"/>
-      <c r="H26" s="269"/>
-      <c r="I26" s="269"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="112"/>
+      <c r="G26" s="263"/>
+      <c r="H26" s="257"/>
+      <c r="I26" s="257"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="111"/>
+      <c r="W26" s="111"/>
     </row>
     <row r="27" spans="7:23" ht="15">
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="112"/>
-      <c r="V27" s="112"/>
-      <c r="W27" s="112"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
     </row>
     <row r="28" spans="7:23" ht="15">
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="275"/>
-      <c r="Q28" s="269"/>
-      <c r="R28" s="269"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="275"/>
-      <c r="U28" s="269"/>
-      <c r="V28" s="269"/>
-      <c r="W28" s="269"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="263"/>
+      <c r="Q28" s="257"/>
+      <c r="R28" s="257"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="263"/>
+      <c r="U28" s="257"/>
+      <c r="V28" s="257"/>
+      <c r="W28" s="257"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5648,7 +6106,6 @@
   <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5667,110 +6124,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="87" customHeight="1">
-      <c r="B1" s="110"/>
-      <c r="C1" s="273" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="261" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
     </row>
     <row r="3" spans="2:8" ht="12.75" customHeight="1">
       <c r="B3" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="18" customHeight="1">
-      <c r="B4" s="112"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1">
-      <c r="B5" s="112"/>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="111"/>
+      <c r="C5" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="112"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="111"/>
     </row>
     <row r="6" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="110"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="109"/>
     </row>
     <row r="7" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="48" t="s">
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="110"/>
+      <c r="H7" s="109"/>
     </row>
     <row r="8" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="51" t="s">
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="110"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="109"/>
     </row>
     <row r="9" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="110"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="109"/>
     </row>
     <row r="10" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="55" t="s">
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112" t="s">
+      <c r="E10" s="111"/>
+      <c r="F10" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="110"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5788,7 +6245,6 @@
   <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5799,113 +6255,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="64.5" customHeight="1">
-      <c r="C1" s="278" t="s">
+      <c r="C1" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
     </row>
     <row r="2" spans="2:11" ht="12.75"/>
     <row r="3" spans="2:11" ht="12.75">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="12.75">
-      <c r="B4" s="57"/>
+      <c r="B4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="12.75">
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
     </row>
     <row r="6" spans="2:11" ht="12.75">
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
     </row>
     <row r="7" spans="2:11" ht="25.5">
-      <c r="B7" s="279" t="s">
+      <c r="B7" s="267" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="269"/>
-      <c r="G7" s="113" t="s">
+      <c r="C7" s="257"/>
+      <c r="G7" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
     </row>
     <row r="8" spans="2:11" ht="12.75">
-      <c r="B8" s="113"/>
-      <c r="G8" s="113" t="s">
+      <c r="B8" s="112"/>
+      <c r="G8" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
     </row>
     <row r="9" spans="2:11" ht="12.75">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62" t="s">
+      <c r="G9" s="60"/>
+      <c r="H9" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="K9" s="62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="12.75">
-      <c r="B10" s="108"/>
-      <c r="D10" s="67"/>
-      <c r="G10" s="68" t="s">
+      <c r="B10" s="107"/>
+      <c r="D10" s="66"/>
+      <c r="G10" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="J10" s="113"/>
-      <c r="K10" s="111"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="110"/>
     </row>
     <row r="11" spans="2:11" ht="25.5">
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="113" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="K11" s="111"/>
+      <c r="K11" s="110"/>
     </row>
     <row r="12" spans="2:11" ht="12.75">
-      <c r="B12" s="108"/>
-      <c r="D12" s="67"/>
-      <c r="G12" s="68" t="s">
+      <c r="B12" s="107"/>
+      <c r="D12" s="66"/>
+      <c r="G12" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="111"/>
+      <c r="K12" s="110"/>
     </row>
     <row r="13" spans="2:11" ht="12.75">
-      <c r="B13" s="108"/>
-      <c r="D13" s="67"/>
-      <c r="G13" s="68" t="s">
+      <c r="B13" s="107"/>
+      <c r="D13" s="66"/>
+      <c r="G13" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="K13" s="111"/>
+      <c r="K13" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5921,13 +6377,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:M38"/>
+  <dimension ref="B1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="1">
-      <selection activeCell="E36" sqref="E36:E38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5944,643 +6397,606 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="57" customHeight="1">
-      <c r="B1" s="115"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="278" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="266" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="H2" s="115"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="H3" s="115"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="H3" s="114"/>
     </row>
     <row r="4" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="287" t="s">
-        <v>336</v>
-      </c>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288"/>
-      <c r="H4" s="288"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="269" t="s">
+        <v>329</v>
+      </c>
+      <c r="E4" s="270"/>
+      <c r="F4" s="270"/>
+      <c r="G4" s="270"/>
+      <c r="H4" s="270"/>
     </row>
     <row r="5" spans="2:8" ht="12.75">
-      <c r="B5" s="115"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="56" t="s">
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="115"/>
-    </row>
-    <row r="6" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B6" s="115"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="H6" s="115"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="H5" s="114"/>
+    </row>
+    <row r="6" spans="2:8" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="H6" s="114"/>
     </row>
     <row r="7" spans="2:8" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="117" t="s">
+      <c r="C7" s="115"/>
+      <c r="D7" s="314" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="315" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="118" t="s">
+      <c r="F7" s="315" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="118" t="s">
+      <c r="G7" s="315" t="s">
         <v>151</v>
       </c>
-      <c r="H7" s="119" t="s">
+      <c r="H7" s="316" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="13.5" customHeight="1">
-      <c r="C8" s="116"/>
-      <c r="D8" s="130" t="s">
+      <c r="C8" s="115"/>
+      <c r="D8" s="310" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="131" t="s">
+      <c r="E8" s="311" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" s="312" t="s">
+        <v>323</v>
+      </c>
+      <c r="G8" s="311"/>
+      <c r="H8" s="313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B9" s="114"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="302" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="122" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" s="125" t="s">
+        <v>323</v>
+      </c>
+      <c r="G9" s="126"/>
+      <c r="H9" s="301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="12.75" customHeight="1">
+      <c r="B10" s="112" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="115"/>
+      <c r="D10" s="303" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="123" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="123"/>
+      <c r="H10" s="301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="12.75" customHeight="1">
+      <c r="B11" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="115"/>
+      <c r="D11" s="303" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="122" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>323</v>
+      </c>
+      <c r="G11" s="123"/>
+      <c r="H11" s="301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D12" s="303" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="123" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="125" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" s="123"/>
+      <c r="H12" s="301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D13" s="303" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="123" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="125" t="s">
+        <v>323</v>
+      </c>
+      <c r="G13" s="123"/>
+      <c r="H13" s="301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D14" s="303" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="123" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" s="125" t="s">
+        <v>323</v>
+      </c>
+      <c r="G14" s="123"/>
+      <c r="H14" s="301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D15" s="303" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="122" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="125" t="s">
+        <v>323</v>
+      </c>
+      <c r="G15" s="123"/>
+      <c r="H15" s="301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D16" s="304" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="268"/>
+      <c r="F16" s="268"/>
+      <c r="G16" s="268"/>
+      <c r="H16" s="305"/>
+    </row>
+    <row r="17" spans="4:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D17" s="302" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" s="253" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="124" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="301">
+        <v>1</v>
+      </c>
+      <c r="J17" s="290" t="s">
+        <v>328</v>
+      </c>
+      <c r="K17" s="291"/>
+      <c r="L17" s="291"/>
+      <c r="M17" s="292"/>
+    </row>
+    <row r="18" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D18" s="302" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" s="253" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="124" t="s">
+        <v>318</v>
+      </c>
+      <c r="G18" s="123"/>
+      <c r="H18" s="301">
+        <v>1</v>
+      </c>
+      <c r="J18" s="289" t="s">
+        <v>340</v>
+      </c>
+      <c r="K18" s="293"/>
+      <c r="L18" s="293"/>
+      <c r="M18" s="294"/>
+    </row>
+    <row r="19" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D19" s="302" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" s="253" t="s">
+        <v>263</v>
+      </c>
+      <c r="F19" s="124" t="s">
+        <v>305</v>
+      </c>
+      <c r="G19" s="123"/>
+      <c r="H19" s="301">
+        <v>1</v>
+      </c>
+      <c r="J19" s="295"/>
+      <c r="K19" s="296"/>
+      <c r="L19" s="296"/>
+      <c r="M19" s="297"/>
+    </row>
+    <row r="20" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D20" s="302" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" s="253" t="s">
+        <v>263</v>
+      </c>
+      <c r="F20" s="124" t="s">
+        <v>307</v>
+      </c>
+      <c r="G20" s="123"/>
+      <c r="H20" s="301">
+        <v>1</v>
+      </c>
+      <c r="J20" s="295"/>
+      <c r="K20" s="296"/>
+      <c r="L20" s="296"/>
+      <c r="M20" s="297"/>
+    </row>
+    <row r="21" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D21" s="302" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21" s="253" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" s="124" t="s">
+        <v>313</v>
+      </c>
+      <c r="G21" s="123"/>
+      <c r="H21" s="301">
+        <v>1</v>
+      </c>
+      <c r="J21" s="295"/>
+      <c r="K21" s="296"/>
+      <c r="L21" s="296"/>
+      <c r="M21" s="297"/>
+    </row>
+    <row r="22" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D22" s="302" t="s">
+        <v>301</v>
+      </c>
+      <c r="E22" s="253" t="s">
+        <v>263</v>
+      </c>
+      <c r="F22" s="124" t="s">
+        <v>312</v>
+      </c>
+      <c r="G22" s="123"/>
+      <c r="H22" s="301">
+        <v>1</v>
+      </c>
+      <c r="J22" s="295"/>
+      <c r="K22" s="296"/>
+      <c r="L22" s="296"/>
+      <c r="M22" s="297"/>
+    </row>
+    <row r="23" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D23" s="302" t="s">
         <v>265</v>
       </c>
-      <c r="F8" s="133" t="s">
-        <v>329</v>
-      </c>
-      <c r="G8" s="131"/>
-      <c r="H8" s="135">
+      <c r="E23" s="253" t="s">
+        <v>263</v>
+      </c>
+      <c r="F23" s="124" t="s">
+        <v>307</v>
+      </c>
+      <c r="G23" s="123"/>
+      <c r="H23" s="301">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B9" s="115"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="132" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" s="127" t="s">
-        <v>265</v>
-      </c>
-      <c r="F9" s="133" t="s">
-        <v>329</v>
-      </c>
-      <c r="G9" s="134"/>
-      <c r="H9" s="135">
+      <c r="J23" s="295"/>
+      <c r="K23" s="296"/>
+      <c r="L23" s="296"/>
+      <c r="M23" s="297"/>
+    </row>
+    <row r="24" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D24" s="302" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24" s="253" t="s">
+        <v>263</v>
+      </c>
+      <c r="F24" s="124" t="s">
+        <v>315</v>
+      </c>
+      <c r="G24" s="123"/>
+      <c r="H24" s="301">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B10" s="113" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="126" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="128" t="s">
-        <v>265</v>
-      </c>
-      <c r="F10" s="133" t="s">
-        <v>329</v>
-      </c>
-      <c r="G10" s="128"/>
-      <c r="H10" s="135">
+      <c r="J24" s="295"/>
+      <c r="K24" s="296"/>
+      <c r="L24" s="296"/>
+      <c r="M24" s="297"/>
+    </row>
+    <row r="25" spans="4:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D25" s="302" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" s="253" t="s">
+        <v>263</v>
+      </c>
+      <c r="F25" s="124" t="s">
+        <v>307</v>
+      </c>
+      <c r="G25" s="123"/>
+      <c r="H25" s="301">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B11" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="126" t="s">
-        <v>255</v>
-      </c>
-      <c r="E11" s="127" t="s">
-        <v>265</v>
-      </c>
-      <c r="F11" s="133" t="s">
-        <v>329</v>
-      </c>
-      <c r="G11" s="128"/>
-      <c r="H11" s="135">
+      <c r="J25" s="298"/>
+      <c r="K25" s="299"/>
+      <c r="L25" s="299"/>
+      <c r="M25" s="300"/>
+    </row>
+    <row r="26" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D26" s="302" t="s">
+        <v>331</v>
+      </c>
+      <c r="E26" s="253" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26" s="123" t="s">
+        <v>303</v>
+      </c>
+      <c r="G26" s="123"/>
+      <c r="H26" s="301">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D12" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="128" t="s">
-        <v>265</v>
-      </c>
-      <c r="F12" s="133" t="s">
-        <v>329</v>
-      </c>
-      <c r="G12" s="128"/>
-      <c r="H12" s="135">
+    <row r="27" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D27" s="303" t="s">
+        <v>310</v>
+      </c>
+      <c r="E27" s="253" t="s">
+        <v>263</v>
+      </c>
+      <c r="F27" s="123" t="s">
+        <v>317</v>
+      </c>
+      <c r="G27" s="123"/>
+      <c r="H27" s="301">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D13" s="126" t="s">
-        <v>256</v>
-      </c>
-      <c r="E13" s="128" t="s">
-        <v>265</v>
-      </c>
-      <c r="F13" s="133" t="s">
-        <v>329</v>
-      </c>
-      <c r="G13" s="128"/>
-      <c r="H13" s="135">
+    <row r="28" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D28" s="302" t="s">
+        <v>330</v>
+      </c>
+      <c r="E28" s="254" t="s">
+        <v>302</v>
+      </c>
+      <c r="F28" s="124" t="s">
+        <v>305</v>
+      </c>
+      <c r="G28" s="123"/>
+      <c r="H28" s="301">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D14" s="126" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="128" t="s">
-        <v>265</v>
-      </c>
-      <c r="F14" s="133" t="s">
-        <v>329</v>
-      </c>
-      <c r="G14" s="128"/>
-      <c r="H14" s="135">
+    <row r="29" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D29" s="302" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="254" t="s">
+        <v>302</v>
+      </c>
+      <c r="F29" s="124" t="s">
+        <v>314</v>
+      </c>
+      <c r="G29" s="123"/>
+      <c r="H29" s="301">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D15" s="126" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="127" t="s">
-        <v>265</v>
-      </c>
-      <c r="F15" s="133" t="s">
-        <v>329</v>
-      </c>
-      <c r="G15" s="128"/>
-      <c r="H15" s="135">
+    <row r="30" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D30" s="302" t="s">
+        <v>293</v>
+      </c>
+      <c r="E30" s="254" t="s">
+        <v>302</v>
+      </c>
+      <c r="F30" s="124" t="s">
+        <v>316</v>
+      </c>
+      <c r="G30" s="123"/>
+      <c r="H30" s="301">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D16" s="280" t="s">
-        <v>266</v>
-      </c>
-      <c r="E16" s="281"/>
-      <c r="F16" s="281"/>
-      <c r="G16" s="281"/>
-      <c r="H16" s="282"/>
-    </row>
-    <row r="17" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D17" s="132" t="s">
+    <row r="31" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D31" s="302" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="254" t="s">
+        <v>302</v>
+      </c>
+      <c r="F31" s="124" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" s="123"/>
+      <c r="H31" s="306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D32" s="302" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" s="254" t="s">
+        <v>302</v>
+      </c>
+      <c r="F32" s="124" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" s="123"/>
+      <c r="H32" s="301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D33" s="303" t="s">
+        <v>311</v>
+      </c>
+      <c r="E33" s="254" t="s">
+        <v>319</v>
+      </c>
+      <c r="F33" s="123" t="s">
+        <v>317</v>
+      </c>
+      <c r="G33" s="123"/>
+      <c r="H33" s="301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D34" s="302" t="s">
+        <v>299</v>
+      </c>
+      <c r="E34" s="254" t="s">
+        <v>302</v>
+      </c>
+      <c r="F34" s="124" t="s">
         <v>306</v>
       </c>
-      <c r="E17" s="265" t="s">
-        <v>265</v>
-      </c>
-      <c r="F17" s="129" t="s">
-        <v>305</v>
-      </c>
-      <c r="G17" s="128"/>
-      <c r="H17" s="135">
+      <c r="G34" s="123"/>
+      <c r="H34" s="301">
         <v>1</v>
       </c>
-      <c r="J17" s="286" t="s">
-        <v>334</v>
-      </c>
-      <c r="K17" s="286"/>
-      <c r="L17" s="286"/>
-      <c r="M17" s="286"/>
-    </row>
-    <row r="18" spans="4:13" s="262" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D18" s="132" t="s">
-        <v>310</v>
-      </c>
-      <c r="E18" s="265" t="s">
-        <v>311</v>
-      </c>
-      <c r="F18" s="129" t="s">
+    </row>
+    <row r="35" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D35" s="302" t="s">
+        <v>260</v>
+      </c>
+      <c r="E35" s="254" t="s">
+        <v>302</v>
+      </c>
+      <c r="F35" s="124" t="s">
+        <v>312</v>
+      </c>
+      <c r="G35" s="123"/>
+      <c r="H35" s="301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D36" s="302" t="s">
+        <v>320</v>
+      </c>
+      <c r="E36" s="317" t="s">
+        <v>321</v>
+      </c>
+      <c r="F36" s="320" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" s="123"/>
+      <c r="H36" s="306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D37" s="302" t="s">
         <v>324</v>
       </c>
-      <c r="G18" s="128"/>
-      <c r="H18" s="135">
-        <v>1</v>
-      </c>
-      <c r="J18" s="285" t="s">
-        <v>335</v>
-      </c>
-      <c r="K18" s="284"/>
-      <c r="L18" s="284"/>
-      <c r="M18" s="284"/>
-    </row>
-    <row r="19" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D19" s="132" t="s">
-        <v>300</v>
-      </c>
-      <c r="E19" s="265" t="s">
-        <v>265</v>
-      </c>
-      <c r="F19" s="129" t="s">
-        <v>307</v>
-      </c>
-      <c r="G19" s="128"/>
-      <c r="H19" s="135">
-        <v>1</v>
-      </c>
-      <c r="J19" s="284"/>
-      <c r="K19" s="284"/>
-      <c r="L19" s="284"/>
-      <c r="M19" s="284"/>
-    </row>
-    <row r="20" spans="4:13" s="262" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D20" s="132" t="s">
-        <v>302</v>
-      </c>
-      <c r="E20" s="265" t="s">
-        <v>265</v>
-      </c>
-      <c r="F20" s="129" t="s">
-        <v>309</v>
-      </c>
-      <c r="G20" s="128"/>
-      <c r="H20" s="135">
-        <v>1</v>
-      </c>
-      <c r="J20" s="284"/>
-      <c r="K20" s="284"/>
-      <c r="L20" s="284"/>
-      <c r="M20" s="284"/>
-    </row>
-    <row r="21" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D21" s="132" t="s">
-        <v>264</v>
-      </c>
-      <c r="E21" s="265" t="s">
-        <v>265</v>
-      </c>
-      <c r="F21" s="129" t="s">
-        <v>318</v>
-      </c>
-      <c r="G21" s="128"/>
-      <c r="H21" s="135">
-        <v>1</v>
-      </c>
-      <c r="J21" s="284"/>
-      <c r="K21" s="284"/>
-      <c r="L21" s="284"/>
-      <c r="M21" s="284"/>
-    </row>
-    <row r="22" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D22" s="132" t="s">
-        <v>303</v>
-      </c>
-      <c r="E22" s="265" t="s">
-        <v>265</v>
-      </c>
-      <c r="F22" s="129" t="s">
-        <v>317</v>
-      </c>
-      <c r="G22" s="128"/>
-      <c r="H22" s="135">
-        <v>1</v>
-      </c>
-      <c r="J22" s="284"/>
-      <c r="K22" s="284"/>
-      <c r="L22" s="284"/>
-      <c r="M22" s="284"/>
-    </row>
-    <row r="23" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D23" s="132" t="s">
-        <v>267</v>
-      </c>
-      <c r="E23" s="265" t="s">
-        <v>265</v>
-      </c>
-      <c r="F23" s="129" t="s">
-        <v>309</v>
-      </c>
-      <c r="G23" s="128"/>
-      <c r="H23" s="135">
-        <v>1</v>
-      </c>
-      <c r="J23" s="284"/>
-      <c r="K23" s="284"/>
-      <c r="L23" s="284"/>
-      <c r="M23" s="284"/>
-    </row>
-    <row r="24" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D24" s="132" t="s">
-        <v>268</v>
-      </c>
-      <c r="E24" s="265" t="s">
-        <v>265</v>
-      </c>
-      <c r="F24" s="129" t="s">
-        <v>320</v>
-      </c>
-      <c r="G24" s="128"/>
-      <c r="H24" s="135">
-        <v>1</v>
-      </c>
-      <c r="J24" s="284"/>
-      <c r="K24" s="284"/>
-      <c r="L24" s="284"/>
-      <c r="M24" s="284"/>
-    </row>
-    <row r="25" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D25" s="132" t="s">
-        <v>312</v>
-      </c>
-      <c r="E25" s="265" t="s">
-        <v>265</v>
-      </c>
-      <c r="F25" s="129" t="s">
-        <v>309</v>
-      </c>
-      <c r="G25" s="128"/>
-      <c r="H25" s="135">
-        <v>1</v>
-      </c>
-      <c r="J25" s="284"/>
-      <c r="K25" s="284"/>
-      <c r="L25" s="284"/>
-      <c r="M25" s="284"/>
-    </row>
-    <row r="26" spans="4:13" s="262" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D26" s="132" t="s">
-        <v>313</v>
-      </c>
-      <c r="E26" s="265" t="s">
-        <v>265</v>
-      </c>
-      <c r="F26" s="128" t="s">
-        <v>305</v>
-      </c>
-      <c r="G26" s="128"/>
-      <c r="H26" s="135">
-        <v>1</v>
-      </c>
-      <c r="J26" s="284"/>
-      <c r="K26" s="284"/>
-      <c r="L26" s="284"/>
-      <c r="M26" s="284"/>
-    </row>
-    <row r="27" spans="4:13" s="262" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D27" s="126" t="s">
-        <v>314</v>
-      </c>
-      <c r="E27" s="265" t="s">
-        <v>265</v>
-      </c>
-      <c r="F27" s="128" t="s">
-        <v>322</v>
-      </c>
-      <c r="G27" s="128"/>
-      <c r="H27" s="135">
-        <v>1</v>
-      </c>
-      <c r="J27" s="284"/>
-      <c r="K27" s="284"/>
-      <c r="L27" s="284"/>
-      <c r="M27" s="284"/>
-    </row>
-    <row r="28" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D28" s="132" t="s">
-        <v>316</v>
-      </c>
-      <c r="E28" s="266" t="s">
-        <v>304</v>
-      </c>
-      <c r="F28" s="129" t="s">
-        <v>307</v>
-      </c>
-      <c r="G28" s="128"/>
-      <c r="H28" s="135">
-        <v>1</v>
-      </c>
-      <c r="J28" s="284"/>
-      <c r="K28" s="284"/>
-      <c r="L28" s="284"/>
-      <c r="M28" s="284"/>
-    </row>
-    <row r="29" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D29" s="132" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="266" t="s">
-        <v>304</v>
-      </c>
-      <c r="F29" s="129" t="s">
-        <v>319</v>
-      </c>
-      <c r="G29" s="128"/>
-      <c r="H29" s="135">
-        <v>1</v>
-      </c>
-      <c r="J29" s="284"/>
-      <c r="K29" s="284"/>
-      <c r="L29" s="284"/>
-      <c r="M29" s="284"/>
-    </row>
-    <row r="30" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D30" s="132" t="s">
-        <v>295</v>
-      </c>
-      <c r="E30" s="266" t="s">
-        <v>304</v>
-      </c>
-      <c r="F30" s="129" t="s">
-        <v>321</v>
-      </c>
-      <c r="G30" s="128"/>
-      <c r="H30" s="135">
-        <v>1</v>
-      </c>
-      <c r="J30" s="284"/>
-      <c r="K30" s="284"/>
-      <c r="L30" s="284"/>
-      <c r="M30" s="284"/>
-    </row>
-    <row r="31" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D31" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="266" t="s">
-        <v>304</v>
-      </c>
-      <c r="F31" s="129" t="s">
-        <v>269</v>
-      </c>
-      <c r="G31" s="128"/>
-      <c r="H31" s="136">
+      <c r="E37" s="317" t="s">
+        <v>325</v>
+      </c>
+      <c r="F37" s="320" t="s">
+        <v>326</v>
+      </c>
+      <c r="G37" s="123"/>
+      <c r="H37" s="306">
         <v>0</v>
       </c>
-      <c r="J31" s="284"/>
-      <c r="K31" s="284"/>
-      <c r="L31" s="284"/>
-      <c r="M31" s="284"/>
-    </row>
-    <row r="32" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D32" s="132" t="s">
-        <v>271</v>
-      </c>
-      <c r="E32" s="266" t="s">
-        <v>304</v>
-      </c>
-      <c r="F32" s="129" t="s">
-        <v>269</v>
-      </c>
-      <c r="G32" s="128"/>
-      <c r="H32" s="135">
-        <v>1</v>
-      </c>
-      <c r="J32" s="284"/>
-      <c r="K32" s="284"/>
-      <c r="L32" s="284"/>
-      <c r="M32" s="284"/>
-    </row>
-    <row r="33" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D33" s="126" t="s">
-        <v>315</v>
-      </c>
-      <c r="E33" s="266" t="s">
+    </row>
+    <row r="38" spans="4:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D38" s="307" t="s">
+        <v>327</v>
+      </c>
+      <c r="E38" s="318" t="s">
         <v>325</v>
       </c>
-      <c r="F33" s="128" t="s">
-        <v>322</v>
-      </c>
-      <c r="G33" s="128"/>
-      <c r="H33" s="135">
-        <v>1</v>
-      </c>
-      <c r="J33" s="284"/>
-      <c r="K33" s="284"/>
-      <c r="L33" s="284"/>
-      <c r="M33" s="284"/>
-    </row>
-    <row r="34" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D34" s="132" t="s">
-        <v>301</v>
-      </c>
-      <c r="E34" s="266" t="s">
-        <v>304</v>
-      </c>
-      <c r="F34" s="129" t="s">
-        <v>308</v>
-      </c>
-      <c r="G34" s="128"/>
-      <c r="H34" s="135">
-        <v>1</v>
-      </c>
-      <c r="J34" s="284"/>
-      <c r="K34" s="284"/>
-      <c r="L34" s="284"/>
-      <c r="M34" s="284"/>
-    </row>
-    <row r="35" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D35" s="132" t="s">
-        <v>262</v>
-      </c>
-      <c r="E35" s="266" t="s">
-        <v>304</v>
-      </c>
-      <c r="F35" s="129" t="s">
-        <v>317</v>
-      </c>
-      <c r="G35" s="128"/>
-      <c r="H35" s="135">
-        <v>1</v>
-      </c>
-      <c r="J35" s="284"/>
-      <c r="K35" s="284"/>
-      <c r="L35" s="284"/>
-      <c r="M35" s="284"/>
-    </row>
-    <row r="36" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D36" s="132" t="s">
+      <c r="F38" s="321" t="s">
         <v>326</v>
       </c>
-      <c r="E36" s="135" t="s">
-        <v>327</v>
-      </c>
-      <c r="F36" s="129" t="s">
-        <v>328</v>
-      </c>
-      <c r="G36" s="128"/>
-      <c r="H36" s="136">
+      <c r="G38" s="308"/>
+      <c r="H38" s="309">
         <v>0</v>
       </c>
-      <c r="J36" s="284"/>
-      <c r="K36" s="284"/>
-      <c r="L36" s="284"/>
-      <c r="M36" s="284"/>
-    </row>
-    <row r="37" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D37" s="132" t="s">
-        <v>330</v>
-      </c>
-      <c r="E37" s="135" t="s">
-        <v>331</v>
-      </c>
-      <c r="F37" s="129" t="s">
-        <v>332</v>
-      </c>
-      <c r="G37" s="128"/>
-      <c r="H37" s="136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D38" s="132" t="s">
-        <v>333</v>
-      </c>
-      <c r="E38" s="135" t="s">
-        <v>331</v>
-      </c>
-      <c r="F38" s="129"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="136">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="40" spans="4:8" ht="15.75" customHeight="1">
+      <c r="F40" s="319"/>
+    </row>
+    <row r="42" spans="4:8" ht="15.75" customHeight="1">
+      <c r="E42" s="319"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="J18:M25"/>
+    <mergeCell ref="J17:M17"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D16:H16"/>
-    <mergeCell ref="J18:M36"/>
-    <mergeCell ref="J17:M17"/>
     <mergeCell ref="D4:H4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6596,7 +7012,6 @@
   <dimension ref="B2:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -6615,290 +7030,290 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B2" s="70"/>
-      <c r="C2" s="71" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="269"/>
-      <c r="J3" s="269"/>
-      <c r="K3" s="269"/>
-      <c r="L3" s="269"/>
-      <c r="M3" s="269"/>
+      <c r="B3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="271"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
+      <c r="B4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="72" t="s">
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
     </row>
     <row r="7" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="76"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="75"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83" t="s">
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83" t="s">
+      <c r="I8" s="80"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="L8" s="81"/>
-      <c r="M8" s="82"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="2:13" ht="9.75" customHeight="1">
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="88"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="87"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1">
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1">
-      <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="92" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="92" t="s">
+      <c r="F11" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="H11" s="94" t="s">
+      <c r="H11" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="I11" s="92" t="s">
+      <c r="I11" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="J11" s="93" t="s">
+      <c r="J11" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="K11" s="94" t="s">
+      <c r="K11" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="L11" s="92" t="s">
+      <c r="L11" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="M11" s="93" t="s">
+      <c r="M11" s="92" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B12" s="95"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="99"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="98"/>
     </row>
     <row r="13" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="99"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="98"/>
     </row>
     <row r="14" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="103">
+      <c r="D14" s="105"/>
+      <c r="E14" s="102">
         <v>44090</v>
       </c>
-      <c r="F14" s="104">
+      <c r="F14" s="103">
         <v>44177</v>
       </c>
-      <c r="G14" s="99"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="99"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="98"/>
     </row>
     <row r="15" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B15" s="105"/>
-      <c r="C15" s="102" t="s">
+      <c r="B15" s="104"/>
+      <c r="C15" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="103">
+      <c r="D15" s="105"/>
+      <c r="E15" s="102">
         <v>44091</v>
       </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="99" t="s">
+      <c r="F15" s="101"/>
+      <c r="G15" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="99"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="98"/>
     </row>
     <row r="16" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B16" s="105"/>
-      <c r="C16" s="102" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="103">
+      <c r="D16" s="105"/>
+      <c r="E16" s="102">
         <v>44092</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="99"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="98"/>
     </row>
     <row r="20" spans="3:3" ht="20.25" customHeight="1">
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="106" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="20.25" customHeight="1">
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="106" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="22" spans="3:3" ht="20.25" customHeight="1">
-      <c r="C22" s="107" t="s">
+      <c r="C22" s="106" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6916,6 +7331,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003344BE67D7EB984A84C06E190413FBFD" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9bce8fe95ceaf62c75926160740d41e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9de94308-2297-4d04-a77d-26fce9df9395" xmlns:ns4="22375818-dcd7-42e4-9660-6b33e030de66" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d88e73fd87162f28f317e92bcb9f946" ns3:_="" ns4:_="">
     <xsd:import namespace="9de94308-2297-4d04-a77d-26fce9df9395"/>
@@ -7092,22 +7522,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B130DE0C-7A28-4B03-98EC-F451E5EF5DFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E8D0FC-D0F3-4D81-9707-E82360EDBF19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7124,21 +7556,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B130DE0C-7A28-4B03-98EC-F451E5EF5DFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Gestion_A_jmd.xlsx
+++ b/Gestion_A_jmd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irvan PC\Documents\ecole\DEC\2023 - automne\GÉNIE LOGICIEL 1\ProjetDaleks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ouaiouaihashish\Desktop\ProjetDaleks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711FC1ED-3CDD-4265-9493-D1933245687B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96771C4-1CBD-4DF0-BE9D-E7F85F34C553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{44350D87-A585-4608-884F-E6D7378710D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{44350D87-A585-4608-884F-E6D7378710D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="345">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -817,9 +817,6 @@
     <t>if mouvement existe(entre 1 et 9) and mouvement possible(reste dans l'air de jeux)</t>
   </si>
   <si>
-    <t>en fonction du docteur</t>
-  </si>
-  <si>
     <t>if position_dacleks = postion_docteur si vrai fin de partie(perdu)</t>
   </si>
   <si>
@@ -1154,24 +1151,15 @@
     <t>créer un niveau</t>
   </si>
   <si>
-    <t>haute</t>
-  </si>
-  <si>
     <t>contact dalek ferraile</t>
   </si>
   <si>
-    <t>creation ferraile</t>
-  </si>
-  <si>
     <t>afficher menu initial</t>
   </si>
   <si>
     <t>afficher tout les scores</t>
   </si>
   <si>
-    <t>sauvegarder score joueur</t>
-  </si>
-  <si>
     <t>10 min</t>
   </si>
   <si>
@@ -1190,9 +1178,6 @@
     <t>15min</t>
   </si>
   <si>
-    <t>enregistre  le score du joueur</t>
-  </si>
-  <si>
     <t>30 min</t>
   </si>
   <si>
@@ -1226,18 +1211,9 @@
     <t>Debrief</t>
   </si>
   <si>
-    <t>Notre dévéloppement logiciel c'est déroulé plûtot bien avec des prises de rendez-vous régulières et ponctuelle. Malheureseuement, la réalisation du Zappeur ainsi que la création du niveau suivant à la fin de la partie si gagné n'a pas pu être réalisé à temps. Nous avons pu suivre sans trop de soucis le planning prévu initialement, bien que nous avions sous-estimez les cas d'usages et scénario d'utilisation ainsi le scénarios.</t>
-  </si>
-  <si>
     <t>Laurentiu Dilion -  Irvan Nayaradou</t>
   </si>
   <si>
-    <t xml:space="preserve">vue accede au jeux qui stock les scores </t>
-  </si>
-  <si>
-    <t>print le tableau de score score par score</t>
-  </si>
-  <si>
     <t>ferraille,dalek,docteur</t>
   </si>
   <si>
@@ -1269,6 +1245,36 @@
   </si>
   <si>
     <t>verifier si est a proximté d'un dalek</t>
+  </si>
+  <si>
+    <t>en fonction du docteur x +- 1 or y +-1</t>
+  </si>
+  <si>
+    <t>creation_ferraille</t>
+  </si>
+  <si>
+    <t>enrg_score_joueur</t>
+  </si>
+  <si>
+    <t>vague de dalek</t>
+  </si>
+  <si>
+    <t>for dalek in partie.dalek: dalek.move_towards_doctor()</t>
+  </si>
+  <si>
+    <t>docteur_emprisonner</t>
+  </si>
+  <si>
+    <t>for dalek in partie.dalek: if dalek.is_close_to_doctor() and dalek.can_kill_doctor(): break dalek.move_towards_doctor()</t>
+  </si>
+  <si>
+    <t>vue accede a score</t>
+  </si>
+  <si>
+    <t>affiche l'ensemble des partie déja realisé avec le nom du jours ainsi que son score</t>
+  </si>
+  <si>
+    <t>Notre développement logiciel s'est déroulé plutôt bien, avec des prises de rendez-vous régulières et ponctuelles. Malheureusement, la réalisation du Zappeur ainsi que la création du niveau suivant à la fin de la partie en cas de victoire n'ont pas pu être réalisées à temps. Nous avons pu suivre le planning prévu initialement, bien que nous ayons sous-estimé les cas d'usage, les scénarios d'utilisation, ainsi que le scénario global."</t>
   </si>
 </sst>
 </file>
@@ -1402,19 +1408,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1486,8 +1492,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="64">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -1692,9 +1710,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1709,80 +1725,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1908,66 +1854,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2072,34 +1958,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -2250,12 +2110,473 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2297,19 +2618,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2322,10 +2632,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2341,26 +2651,26 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2369,19 +2679,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2399,16 +2709,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2424,10 +2734,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2438,24 +2748,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2493,22 +2803,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2518,403 +2819,388 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="40" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="50" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="50" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="40" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2926,6 +3212,116 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="40" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2937,6 +3333,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2960,22 +3359,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2984,17 +3383,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3370,36 +3787,36 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="112"/>
+      <c r="H3" s="103"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
     </row>
     <row r="5" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="2:8" ht="17.25" customHeight="1">
       <c r="B7" s="2" t="s">
@@ -3407,18 +3824,18 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="110"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="35"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" customHeight="1">
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="110"/>
+      <c r="E8" s="101"/>
       <c r="F8" s="6" t="s">
         <v>4</v>
       </c>
@@ -3433,7 +3850,7 @@
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="110"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
@@ -3443,7 +3860,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="110"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="6"/>
       <c r="H10" s="5"/>
     </row>
@@ -3455,7 +3872,7 @@
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="110"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="6"/>
       <c r="G11" s="13" t="s">
         <v>10</v>
@@ -3468,7 +3885,7 @@
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="110"/>
+      <c r="E12" s="101"/>
       <c r="F12" s="6"/>
       <c r="G12" s="13"/>
       <c r="H12" s="5" t="s">
@@ -3483,7 +3900,7 @@
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="110"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="6"/>
       <c r="H13" s="5" t="s">
         <v>15</v>
@@ -3493,7 +3910,7 @@
       <c r="B14" s="6"/>
       <c r="C14" s="13"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="110"/>
+      <c r="E14" s="101"/>
       <c r="F14" s="6"/>
       <c r="H14" s="5" t="s">
         <v>16</v>
@@ -3507,34 +3924,34 @@
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="110"/>
+      <c r="E15" s="101"/>
       <c r="F15" s="6"/>
       <c r="H15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B16" s="38"/>
-      <c r="C16" s="112"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="103"/>
       <c r="D16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="110"/>
-      <c r="F16" s="38"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="29"/>
       <c r="H16" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B18" s="38"/>
-      <c r="C18" s="112" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="103" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="110"/>
-      <c r="F18" s="38"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="13" t="s">
         <v>24</v>
       </c>
@@ -3543,95 +3960,95 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B19" s="38"/>
-      <c r="C19" s="112"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="110"/>
-      <c r="F19" s="38"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="13"/>
       <c r="H19" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B20" s="38"/>
-      <c r="C20" s="112"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="103"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="38"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="29"/>
       <c r="H20" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B21" s="38"/>
-      <c r="C21" s="112" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="103" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="110"/>
-      <c r="F21" s="38"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="29"/>
       <c r="H21" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B22" s="38"/>
-      <c r="C22" s="112"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="112"/>
-      <c r="F22" s="38"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="29"/>
       <c r="H22" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B23" s="38"/>
-      <c r="C23" s="112"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="38"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="13"/>
       <c r="H23" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B24" s="38"/>
-      <c r="C24" s="112" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="112"/>
-      <c r="F24" s="38"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="29"/>
       <c r="H24" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B25" s="38"/>
-      <c r="C25" s="112"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="112"/>
-      <c r="F25" s="38"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="29"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B26" s="38"/>
-      <c r="C26" s="110"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="38"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="29"/>
       <c r="G26" s="13" t="s">
         <v>39</v>
       </c>
@@ -3640,24 +4057,24 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B27" s="38"/>
-      <c r="C27" s="110"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="38"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="29"/>
       <c r="H27" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="110"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="112"/>
+      <c r="E28" s="103"/>
       <c r="F28" s="9"/>
       <c r="H28" s="8" t="s">
         <v>44</v>
@@ -3671,19 +4088,19 @@
       <c r="D29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="112"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="112"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="103"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B30" s="38"/>
-      <c r="C30" s="110"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="112"/>
-      <c r="F30" s="38"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="29"/>
       <c r="G30" s="13" t="s">
         <v>48</v>
       </c>
@@ -3692,88 +4109,88 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="266"/>
-      <c r="G36" s="267"/>
-      <c r="H36" s="267"/>
-      <c r="I36" s="267"/>
+      <c r="F36" s="293"/>
+      <c r="G36" s="294"/>
+      <c r="H36" s="294"/>
+      <c r="I36" s="294"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="267"/>
-      <c r="G37" s="267"/>
-      <c r="H37" s="267"/>
-      <c r="I37" s="267"/>
+      <c r="F37" s="294"/>
+      <c r="G37" s="294"/>
+      <c r="H37" s="294"/>
+      <c r="I37" s="294"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="267"/>
-      <c r="G38" s="267"/>
-      <c r="H38" s="267"/>
-      <c r="I38" s="267"/>
+      <c r="F38" s="294"/>
+      <c r="G38" s="294"/>
+      <c r="H38" s="294"/>
+      <c r="I38" s="294"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F39" s="112"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="112"/>
-      <c r="I39" s="112"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="266"/>
-      <c r="G40" s="267"/>
-      <c r="H40" s="267"/>
-      <c r="I40" s="267"/>
+      <c r="F40" s="293"/>
+      <c r="G40" s="294"/>
+      <c r="H40" s="294"/>
+      <c r="I40" s="294"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="267"/>
-      <c r="G41" s="267"/>
-      <c r="H41" s="267"/>
-      <c r="I41" s="267"/>
+      <c r="F41" s="294"/>
+      <c r="G41" s="294"/>
+      <c r="H41" s="294"/>
+      <c r="I41" s="294"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="267"/>
-      <c r="G42" s="267"/>
-      <c r="H42" s="267"/>
-      <c r="I42" s="267"/>
+      <c r="F42" s="294"/>
+      <c r="G42" s="294"/>
+      <c r="H42" s="294"/>
+      <c r="I42" s="294"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
     </row>
     <row r="44" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="112"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="266"/>
-      <c r="G45" s="267"/>
-      <c r="H45" s="267"/>
-      <c r="I45" s="267"/>
+      <c r="F45" s="293"/>
+      <c r="G45" s="294"/>
+      <c r="H45" s="294"/>
+      <c r="I45" s="294"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="267"/>
-      <c r="G46" s="267"/>
-      <c r="H46" s="267"/>
-      <c r="I46" s="267"/>
+      <c r="F46" s="294"/>
+      <c r="G46" s="294"/>
+      <c r="H46" s="294"/>
+      <c r="I46" s="294"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="267"/>
-      <c r="G47" s="267"/>
-      <c r="H47" s="267"/>
-      <c r="I47" s="267"/>
+      <c r="F47" s="294"/>
+      <c r="G47" s="294"/>
+      <c r="H47" s="294"/>
+      <c r="I47" s="294"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="267"/>
-      <c r="G48" s="267"/>
-      <c r="H48" s="267"/>
-      <c r="I48" s="267"/>
+      <c r="F48" s="294"/>
+      <c r="G48" s="294"/>
+      <c r="H48" s="294"/>
+      <c r="I48" s="294"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="267"/>
-      <c r="G49" s="267"/>
-      <c r="H49" s="267"/>
-      <c r="I49" s="267"/>
+      <c r="F49" s="294"/>
+      <c r="G49" s="294"/>
+      <c r="H49" s="294"/>
+      <c r="I49" s="294"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3792,8 +4209,8 @@
   </sheetPr>
   <dimension ref="B2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3807,444 +4224,444 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B2" s="112"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
     </row>
     <row r="3" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B4" s="112"/>
-      <c r="C4" s="112" t="s">
+      <c r="B4" s="103"/>
+      <c r="C4" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
     </row>
     <row r="5" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B5" s="112"/>
-      <c r="C5" s="112" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
     </row>
     <row r="6" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B6" s="112"/>
-      <c r="C6" s="112" t="s">
+      <c r="B6" s="103"/>
+      <c r="C6" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
     </row>
     <row r="7" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B7" s="112"/>
-      <c r="C7" s="112" t="s">
+      <c r="B7" s="103"/>
+      <c r="C7" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
     </row>
     <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="112"/>
-      <c r="C8" s="112" t="s">
+      <c r="B8" s="103"/>
+      <c r="C8" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B9" s="112"/>
-      <c r="C9" s="112" t="s">
+      <c r="B9" s="103"/>
+      <c r="C9" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B10" s="112"/>
-      <c r="C10" s="112" t="s">
+      <c r="B10" s="103"/>
+      <c r="C10" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-    </row>
-    <row r="12" spans="2:5" ht="12.75" customHeight="1">
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+    </row>
+    <row r="12" spans="2:5" ht="12.75" customHeight="1" thickBot="1">
       <c r="B12" s="14"/>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="274" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="275" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="276" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B13" s="268" t="s">
+    <row r="13" spans="2:5" ht="12.75" customHeight="1" thickTop="1">
+      <c r="B13" s="295" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="277" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="278" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B14" s="269"/>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="296"/>
+      <c r="C14" s="279" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="124" t="s">
+      <c r="D14" s="110" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="280" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B15" s="296"/>
+      <c r="C15" s="279" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="280" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B16" s="296"/>
+      <c r="C16" s="281" t="s">
         <v>200</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="D16" s="110" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="280" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B15" s="269"/>
-      <c r="C15" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="269"/>
-      <c r="C16" s="125" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" s="124" t="s">
+    <row r="17" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B17" s="296"/>
+      <c r="C17" s="279" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="280" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B18" s="296"/>
+      <c r="C18" s="279" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="280"/>
+    </row>
+    <row r="19" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B19" s="296"/>
+      <c r="C19" s="282" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" s="110" t="s">
+        <v>330</v>
+      </c>
+      <c r="E19" s="280"/>
+    </row>
+    <row r="20" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B20" s="296"/>
+      <c r="C20" s="279" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="280" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B21" s="296"/>
+      <c r="C21" s="279" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="280" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B22" s="296"/>
+      <c r="C22" s="279" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22" s="283" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B23" s="296"/>
+      <c r="C23" s="279" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="283" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B24" s="296"/>
+      <c r="C24" s="279" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="283" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B25" s="296"/>
+      <c r="C25" s="279" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="283" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B26" s="296"/>
+      <c r="C26" s="279" t="s">
+        <v>324</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="283"/>
+    </row>
+    <row r="27" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B27" s="296"/>
+      <c r="C27" s="279"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="283" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B28" s="296"/>
+      <c r="C28" s="279" t="s">
+        <v>327</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E28" s="283"/>
+    </row>
+    <row r="29" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B29" s="296"/>
+      <c r="C29" s="284" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E29" s="285" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B30" s="297" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="286" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="287" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B31" s="296"/>
+      <c r="C31" s="279" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E31" s="280" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B32" s="296"/>
+      <c r="C32" s="279" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="280" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B33" s="296"/>
+      <c r="C33" s="279" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E16" s="41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="269"/>
-      <c r="C17" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="269"/>
-      <c r="C18" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" s="41"/>
-    </row>
-    <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="269"/>
-      <c r="C19" s="287" t="s">
-        <v>337</v>
-      </c>
-      <c r="D19" s="124" t="s">
-        <v>338</v>
-      </c>
-      <c r="E19" s="41"/>
-    </row>
-    <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="269"/>
-      <c r="C20" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="41" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="269"/>
-      <c r="C21" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="269"/>
-      <c r="C22" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="E22" s="123" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="269"/>
-      <c r="C23" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="E23" s="123" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="269"/>
-      <c r="C24" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" s="123" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="269"/>
-      <c r="C25" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="E25" s="123" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="269"/>
-      <c r="C26" s="22" t="s">
+      <c r="E33" s="280" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B34" s="296"/>
+      <c r="C34" s="279" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34" s="110" t="s">
+        <v>331</v>
+      </c>
+      <c r="E34" s="283" t="s">
         <v>332</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="123"/>
-    </row>
-    <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="269"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="123" t="s">
+    </row>
+    <row r="35" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B35" s="296"/>
+      <c r="C35" s="279"/>
+      <c r="D35" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="E35" s="280"/>
+    </row>
+    <row r="36" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B36" s="296"/>
+      <c r="C36" s="279"/>
+      <c r="D36" s="288" t="s">
+        <v>333</v>
+      </c>
+      <c r="E36" s="280"/>
+    </row>
+    <row r="37" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B37" s="296"/>
+      <c r="C37" s="279"/>
+      <c r="D37" s="110" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="269"/>
-      <c r="C28" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="E28" s="123"/>
-    </row>
-    <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="269"/>
-      <c r="C29" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="E29" s="122" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="289" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="269"/>
-      <c r="C31" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="E31" s="41" t="s">
+      <c r="E37" s="280"/>
+    </row>
+    <row r="38" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B38" s="298"/>
+      <c r="C38" s="284"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="289"/>
+    </row>
+    <row r="39" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B39" s="295" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="286" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="269"/>
-      <c r="C32" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="269"/>
-      <c r="C33" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="269"/>
-      <c r="C34" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="D34" s="124" t="s">
-        <v>339</v>
-      </c>
-      <c r="E34" s="123" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="269"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="E35" s="41"/>
-    </row>
-    <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="269"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="288" t="s">
-        <v>341</v>
-      </c>
-      <c r="E36" s="41"/>
-    </row>
-    <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="269"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="124" t="s">
-        <v>342</v>
-      </c>
-      <c r="E37" s="41"/>
-    </row>
-    <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="270"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="20"/>
-    </row>
-    <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="268" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="23" t="s">
+      <c r="D39" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="E39" s="287" t="s">
         <v>231</v>
       </c>
-      <c r="E39" s="21" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="269"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="41"/>
+      <c r="B40" s="296"/>
+      <c r="C40" s="279"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="280"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="269"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="41"/>
+      <c r="B41" s="296"/>
+      <c r="C41" s="279"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="280"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="269"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="41"/>
+      <c r="B42" s="296"/>
+      <c r="C42" s="279"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="280"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="269"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="41"/>
+      <c r="B43" s="296"/>
+      <c r="C43" s="279"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="280"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="269"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="41"/>
+      <c r="B44" s="296"/>
+      <c r="C44" s="279"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="280"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="269"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="41"/>
+      <c r="B45" s="296"/>
+      <c r="C45" s="279"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="280"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="269"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="41"/>
+      <c r="B46" s="296"/>
+      <c r="C46" s="279"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="280"/>
     </row>
     <row r="47" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B47" s="269"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="41"/>
-    </row>
-    <row r="48" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B48" s="270"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="46"/>
+      <c r="B47" s="296"/>
+      <c r="C47" s="279"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="280"/>
+    </row>
+    <row r="48" spans="2:5" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B48" s="298"/>
+      <c r="C48" s="290"/>
+      <c r="D48" s="291"/>
+      <c r="E48" s="292"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4263,8 +4680,8 @@
   </sheetPr>
   <dimension ref="B2:F115"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4279,904 +4696,956 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.25" customHeight="1">
-      <c r="B2" s="109"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
     </row>
     <row r="3" spans="2:6" ht="89.45" customHeight="1">
-      <c r="B3" s="109"/>
-      <c r="C3" s="271" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="299" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="109"/>
+      <c r="D3" s="294"/>
+      <c r="E3" s="294"/>
+      <c r="F3" s="100"/>
     </row>
     <row r="4" spans="2:6" ht="30.75" customHeight="1">
-      <c r="B4" s="110"/>
-      <c r="C4" s="272" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="300" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="294"/>
+      <c r="E4" s="294"/>
+      <c r="F4" s="101"/>
     </row>
     <row r="5" spans="2:6" ht="21" customHeight="1">
-      <c r="B5" s="109"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="100"/>
+      <c r="C5" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
     </row>
     <row r="6" spans="2:6" ht="21" customHeight="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="110"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="101"/>
     </row>
     <row r="7" spans="2:6" ht="18" customHeight="1">
-      <c r="B7" s="110"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="110"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="101"/>
     </row>
     <row r="8" spans="2:6" ht="18" customHeight="1">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="2:6" ht="19.5" customHeight="1">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1">
-      <c r="B10" s="110"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
     </row>
     <row r="11" spans="2:6" ht="18" customHeight="1">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="23" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18" customHeight="1">
-      <c r="B12" s="28"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="32"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1">
-      <c r="B13" s="154" t="s">
+      <c r="B13" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="155" t="s">
+      <c r="C13" s="134" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="156" t="s">
+      <c r="D13" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="158"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="137"/>
     </row>
     <row r="14" spans="2:6" ht="18" customHeight="1">
-      <c r="B14" s="159"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="162" t="s">
+      <c r="B14" s="138"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="163"/>
+      <c r="F14" s="142"/>
     </row>
     <row r="15" spans="2:6" ht="18" customHeight="1">
-      <c r="B15" s="159"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="162" t="s">
+      <c r="B15" s="138"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="165"/>
+      <c r="F15" s="144"/>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B16" s="166"/>
-      <c r="C16" s="167" t="s">
-        <v>307</v>
-      </c>
-      <c r="D16" s="168"/>
-      <c r="E16" s="162" t="s">
+      <c r="B16" s="245" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="246" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="147"/>
+      <c r="E16" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="163"/>
+      <c r="F16" s="142"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B17" s="166"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="168" t="s">
+      <c r="B17" s="145"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="163"/>
+      <c r="F17" s="142"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B18" s="169"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="172" t="s">
+      <c r="B18" s="148"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="173" t="s">
+      <c r="F18" s="152" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B19" s="138" t="s">
+      <c r="B19" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="139" t="s">
+      <c r="C19" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="140" t="s">
+      <c r="D19" s="119" t="s">
         <v>184</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142" t="s">
+      <c r="E19" s="120"/>
+      <c r="F19" s="121" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B20" s="143"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145" t="s">
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="146"/>
+      <c r="F20" s="125"/>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="262" t="s">
+      <c r="C21" s="241" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124" t="s">
+        <v>284</v>
+      </c>
+      <c r="F21" s="125" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B22" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="241" t="s">
         <v>293</v>
       </c>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145" t="s">
-        <v>285</v>
-      </c>
-      <c r="F21" s="146" t="s">
+      <c r="D22" s="124"/>
+      <c r="E22" s="124" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="125"/>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" s="124"/>
+      <c r="F23" s="125"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B24" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="123"/>
+      <c r="D24" s="124" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="124"/>
+      <c r="F24" s="125"/>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B25" s="122"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="125" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15" customHeight="1">
+      <c r="B26" s="122"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="125" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B27" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="241" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="127"/>
+      <c r="E27" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="125" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="13.5" customHeight="1">
+      <c r="B28" s="128"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="131" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="132" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="B29" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="154" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="155" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B30" s="156"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="159" t="s">
+        <v>264</v>
+      </c>
+      <c r="F30" s="160" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B31" s="247" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="165" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="163" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B32" s="161"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116" t="s">
+        <v>273</v>
+      </c>
+      <c r="F32" s="163" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B33" s="161"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116" t="s">
+        <v>266</v>
+      </c>
+      <c r="F33" s="163" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B34" s="161"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="163" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B35" s="161"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116" t="s">
+        <v>274</v>
+      </c>
+      <c r="F35" s="163" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B36" s="161"/>
+      <c r="C36" s="162"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116" t="s">
+        <v>268</v>
+      </c>
+      <c r="F36" s="163" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B37" s="161"/>
+      <c r="C37" s="162"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116" t="s">
+        <v>269</v>
+      </c>
+      <c r="F37" s="163" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B38" s="161"/>
+      <c r="C38" s="162"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116" t="s">
+        <v>270</v>
+      </c>
+      <c r="F38" s="163" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B39" s="161"/>
+      <c r="C39" s="162"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116" t="s">
+        <v>271</v>
+      </c>
+      <c r="F39" s="163" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B40" s="161"/>
+      <c r="C40" s="162"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40" s="163" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B41" s="247" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="165" t="s">
+        <v>295</v>
+      </c>
+      <c r="D41" s="116"/>
+      <c r="E41" s="164" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="163"/>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B42" s="161"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" s="163" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B43" s="161" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="165" t="s">
+        <v>259</v>
+      </c>
+      <c r="D43" s="164"/>
+      <c r="E43" s="116" t="s">
+        <v>249</v>
+      </c>
+      <c r="F43" s="163" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B44" s="247" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="165" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" s="164"/>
+      <c r="E44" s="116" t="s">
+        <v>250</v>
+      </c>
+      <c r="F44" s="163" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B45" s="161"/>
+      <c r="C45" s="162"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="116" t="s">
+        <v>251</v>
+      </c>
+      <c r="F45" s="163" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B46" s="161"/>
+      <c r="C46" s="162"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="116" t="s">
+        <v>216</v>
+      </c>
+      <c r="F46" s="163" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B47" s="161"/>
+      <c r="C47" s="165" t="s">
+        <v>336</v>
+      </c>
+      <c r="D47" s="164"/>
+      <c r="E47" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="F47" s="163" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B48" s="166"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="169" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="170"/>
+    </row>
+    <row r="49" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B49" s="171" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="172" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="173" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="174"/>
+      <c r="F49" s="175" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B50" s="248" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="181" t="s">
+        <v>287</v>
+      </c>
+      <c r="D50" s="178"/>
+      <c r="E50" s="179" t="s">
+        <v>289</v>
+      </c>
+      <c r="F50" s="180" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B51" s="176"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="179" t="s">
+        <v>290</v>
+      </c>
+      <c r="F51" s="180" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B52" s="176"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="178" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="180"/>
+    </row>
+    <row r="53" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B53" s="176" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="181" t="s">
+        <v>259</v>
+      </c>
+      <c r="D53" s="178"/>
+      <c r="E53" s="179" t="s">
+        <v>249</v>
+      </c>
+      <c r="F53" s="180" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B54" s="248" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="181" t="s">
+        <v>260</v>
+      </c>
+      <c r="D54" s="178"/>
+      <c r="E54" s="179" t="s">
+        <v>250</v>
+      </c>
+      <c r="F54" s="180" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B55" s="176"/>
+      <c r="C55" s="182"/>
+      <c r="D55" s="178"/>
+      <c r="E55" s="179" t="s">
+        <v>251</v>
+      </c>
+      <c r="F55" s="180" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B56" s="176"/>
+      <c r="C56" s="182"/>
+      <c r="D56" s="178"/>
+      <c r="E56" s="179" t="s">
+        <v>252</v>
+      </c>
+      <c r="F56" s="183"/>
+    </row>
+    <row r="57" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B57" s="184"/>
+      <c r="C57" s="185"/>
+      <c r="D57" s="186"/>
+      <c r="E57" s="187" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="188"/>
+    </row>
+    <row r="58" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B58" s="189" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="190" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="191" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="192"/>
+      <c r="F58" s="193" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B59" s="194"/>
+      <c r="C59" s="195"/>
+      <c r="D59" s="196"/>
+      <c r="E59" s="197" t="s">
+        <v>197</v>
+      </c>
+      <c r="F59" s="198" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B60" s="194"/>
+      <c r="C60" s="195"/>
+      <c r="D60" s="196"/>
+      <c r="E60" s="197" t="s">
+        <v>216</v>
+      </c>
+      <c r="F60" s="198" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B61" s="194"/>
+      <c r="C61" s="195"/>
+      <c r="D61" s="196"/>
+      <c r="E61" s="197" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61" s="198"/>
+    </row>
+    <row r="62" spans="2:6" ht="18" customHeight="1">
+      <c r="B62" s="194" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="199" t="s">
+        <v>259</v>
+      </c>
+      <c r="D62" s="200"/>
+      <c r="E62" s="197" t="s">
+        <v>249</v>
+      </c>
+      <c r="F62" s="198" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="18" customHeight="1">
+      <c r="B63" s="249" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="199" t="s">
+        <v>260</v>
+      </c>
+      <c r="D63" s="200"/>
+      <c r="E63" s="197" t="s">
+        <v>250</v>
+      </c>
+      <c r="F63" s="198" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="18" customHeight="1">
+      <c r="B64" s="194"/>
+      <c r="C64" s="201"/>
+      <c r="D64" s="200"/>
+      <c r="E64" s="197" t="s">
+        <v>252</v>
+      </c>
+      <c r="F64" s="198" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="18" customHeight="1">
+      <c r="B65" s="202"/>
+      <c r="C65" s="203"/>
+      <c r="D65" s="204"/>
+      <c r="E65" s="205" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" s="206"/>
+    </row>
+    <row r="66" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B66" s="207" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="208" t="s">
+        <v>254</v>
+      </c>
+      <c r="D66" s="209"/>
+      <c r="E66" s="210" t="s">
+        <v>201</v>
+      </c>
+      <c r="F66" s="211" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B67" s="212"/>
+      <c r="C67" s="213"/>
+      <c r="D67" s="214"/>
+      <c r="E67" s="215" t="s">
+        <v>203</v>
+      </c>
+      <c r="F67" s="216" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B68" s="212"/>
+      <c r="C68" s="244"/>
+      <c r="D68" s="214"/>
+      <c r="E68" s="215" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B22" s="143"/>
-      <c r="C22" s="262" t="s">
-        <v>294</v>
-      </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145" t="s">
-        <v>213</v>
-      </c>
-      <c r="F22" s="146"/>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B23" s="143"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="145" t="s">
-        <v>214</v>
-      </c>
-      <c r="E23" s="145"/>
-      <c r="F23" s="146"/>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B24" s="147" t="s">
+      <c r="F68" s="216"/>
+    </row>
+    <row r="69" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B69" s="212"/>
+      <c r="C69" s="217"/>
+      <c r="D69" s="214"/>
+      <c r="E69" s="215" t="s">
+        <v>206</v>
+      </c>
+      <c r="F69" s="216" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B70" s="250" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="251" t="s">
+        <v>337</v>
+      </c>
+      <c r="D70" s="214"/>
+      <c r="E70" s="215"/>
+      <c r="F70" s="216"/>
+    </row>
+    <row r="71" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B71" s="212"/>
+      <c r="C71" s="217"/>
+      <c r="D71" s="215" t="s">
+        <v>207</v>
+      </c>
+      <c r="E71" s="214"/>
+      <c r="F71" s="216" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B72" s="212"/>
+      <c r="C72" s="217"/>
+      <c r="D72" s="214"/>
+      <c r="E72" s="215" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72" s="218"/>
+    </row>
+    <row r="73" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B73" s="212"/>
+      <c r="C73" s="217"/>
+      <c r="D73" s="214"/>
+      <c r="E73" s="214" t="s">
+        <v>93</v>
+      </c>
+      <c r="F73" s="218"/>
+    </row>
+    <row r="74" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B74" s="219"/>
+      <c r="C74" s="220"/>
+      <c r="D74" s="221"/>
+      <c r="E74" s="222" t="s">
+        <v>94</v>
+      </c>
+      <c r="F74" s="223" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B75" s="252" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="253" t="s">
+        <v>318</v>
+      </c>
+      <c r="D75" s="254"/>
+      <c r="E75" s="252" t="s">
+        <v>338</v>
+      </c>
+      <c r="F75" s="255" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B76" s="252" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="253" t="s">
+        <v>321</v>
+      </c>
+      <c r="D76" s="254"/>
+      <c r="E76" s="252" t="s">
+        <v>340</v>
+      </c>
+      <c r="F76" s="255" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B77" s="224" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="225" t="s">
+        <v>305</v>
+      </c>
+      <c r="D77" s="226" t="s">
+        <v>209</v>
+      </c>
+      <c r="E77" s="227"/>
+      <c r="F77" s="228" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B78" s="229"/>
+      <c r="C78" s="230"/>
+      <c r="D78" s="231"/>
+      <c r="E78" s="232" t="s">
+        <v>342</v>
+      </c>
+      <c r="F78" s="233"/>
+    </row>
+    <row r="79" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B79" s="229"/>
+      <c r="C79" s="230"/>
+      <c r="D79" s="231"/>
+      <c r="E79" s="232" t="s">
+        <v>343</v>
+      </c>
+      <c r="F79" s="233"/>
+    </row>
+    <row r="80" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B80" s="229"/>
+      <c r="C80" s="230"/>
+      <c r="D80" s="232" t="s">
+        <v>207</v>
+      </c>
+      <c r="E80" s="231"/>
+      <c r="F80" s="234" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B81" s="229"/>
+      <c r="C81" s="230"/>
+      <c r="D81" s="231"/>
+      <c r="E81" s="232" t="s">
+        <v>94</v>
+      </c>
+      <c r="F81" s="234" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B82" s="229" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="145"/>
-      <c r="F24" s="146"/>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B25" s="143"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25" s="146" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1">
-      <c r="B26" s="143"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="145" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="146" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B27" s="143"/>
-      <c r="C27" s="262" t="s">
-        <v>295</v>
-      </c>
-      <c r="D27" s="148"/>
-      <c r="E27" s="145" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="146" t="s">
+      <c r="C82" s="235" t="s">
+        <v>263</v>
+      </c>
+      <c r="D82" s="232" t="s">
+        <v>221</v>
+      </c>
+      <c r="E82" s="231"/>
+      <c r="F82" s="234" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B28" s="149"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="152" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="153" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" hidden="1" customHeight="1">
-      <c r="B29" s="174" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="175" t="s">
-        <v>257</v>
-      </c>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="176" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B30" s="177"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="180" t="s">
-        <v>265</v>
-      </c>
-      <c r="F30" s="181" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B31" s="182"/>
-      <c r="C31" s="186" t="s">
-        <v>257</v>
-      </c>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137" t="s">
-        <v>189</v>
-      </c>
-      <c r="F31" s="184" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B32" s="182"/>
-      <c r="C32" s="183"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137" t="s">
-        <v>274</v>
-      </c>
-      <c r="F32" s="184" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B33" s="182"/>
-      <c r="C33" s="183"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="137" t="s">
-        <v>267</v>
-      </c>
-      <c r="F33" s="184" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B34" s="182"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="137" t="s">
-        <v>268</v>
-      </c>
-      <c r="F34" s="184" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B35" s="182"/>
-      <c r="C35" s="183"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="137" t="s">
-        <v>275</v>
-      </c>
-      <c r="F35" s="184" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B36" s="182"/>
-      <c r="C36" s="183"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137" t="s">
-        <v>269</v>
-      </c>
-      <c r="F36" s="184" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B37" s="182"/>
-      <c r="C37" s="183"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137" t="s">
-        <v>270</v>
-      </c>
-      <c r="F37" s="184" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B38" s="182"/>
-      <c r="C38" s="183"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="137" t="s">
-        <v>271</v>
-      </c>
-      <c r="F38" s="184" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B39" s="182"/>
-      <c r="C39" s="183"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="137" t="s">
-        <v>272</v>
-      </c>
-      <c r="F39" s="184" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B40" s="182"/>
-      <c r="C40" s="183"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="137" t="s">
-        <v>273</v>
-      </c>
-      <c r="F40" s="184" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B41" s="182"/>
-      <c r="C41" s="186" t="s">
-        <v>296</v>
-      </c>
-      <c r="D41" s="137"/>
-      <c r="E41" s="185" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="184"/>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B42" s="182"/>
-      <c r="C42" s="183"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137" t="s">
-        <v>190</v>
-      </c>
-      <c r="F42" s="184" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B43" s="182" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="186" t="s">
-        <v>260</v>
-      </c>
-      <c r="D43" s="185"/>
-      <c r="E43" s="137" t="s">
-        <v>250</v>
-      </c>
-      <c r="F43" s="184" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B44" s="182"/>
-      <c r="C44" s="186" t="s">
-        <v>261</v>
-      </c>
-      <c r="D44" s="185"/>
-      <c r="E44" s="137" t="s">
-        <v>251</v>
-      </c>
-      <c r="F44" s="184" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B45" s="182"/>
-      <c r="C45" s="183"/>
-      <c r="D45" s="185"/>
-      <c r="E45" s="137" t="s">
-        <v>252</v>
-      </c>
-      <c r="F45" s="184" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B46" s="182"/>
-      <c r="C46" s="183"/>
-      <c r="D46" s="185"/>
-      <c r="E46" s="137" t="s">
-        <v>217</v>
-      </c>
-      <c r="F46" s="184" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B47" s="182"/>
-      <c r="C47" s="183"/>
-      <c r="D47" s="185"/>
-      <c r="E47" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="F47" s="184" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B48" s="187"/>
-      <c r="C48" s="188"/>
-      <c r="D48" s="189"/>
-      <c r="E48" s="190" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" s="191"/>
-    </row>
-    <row r="49" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B49" s="192" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="193" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="194" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="195"/>
-      <c r="F49" s="196" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B50" s="197"/>
-      <c r="C50" s="202" t="s">
-        <v>288</v>
-      </c>
-      <c r="D50" s="199"/>
-      <c r="E50" s="200" t="s">
-        <v>290</v>
-      </c>
-      <c r="F50" s="201" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B51" s="197"/>
-      <c r="C51" s="198"/>
-      <c r="D51" s="199"/>
-      <c r="E51" s="200" t="s">
-        <v>291</v>
-      </c>
-      <c r="F51" s="201" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B52" s="197"/>
-      <c r="C52" s="198"/>
-      <c r="D52" s="199"/>
-      <c r="E52" s="199" t="s">
-        <v>103</v>
-      </c>
-      <c r="F52" s="201"/>
-    </row>
-    <row r="53" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B53" s="197" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="202" t="s">
-        <v>260</v>
-      </c>
-      <c r="D53" s="199"/>
-      <c r="E53" s="200" t="s">
-        <v>250</v>
-      </c>
-      <c r="F53" s="201" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B54" s="197"/>
-      <c r="C54" s="202" t="s">
-        <v>261</v>
-      </c>
-      <c r="D54" s="199"/>
-      <c r="E54" s="200" t="s">
-        <v>251</v>
-      </c>
-      <c r="F54" s="201" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B55" s="197"/>
-      <c r="C55" s="203"/>
-      <c r="D55" s="199"/>
-      <c r="E55" s="200" t="s">
-        <v>252</v>
-      </c>
-      <c r="F55" s="201" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B56" s="197"/>
-      <c r="C56" s="203"/>
-      <c r="D56" s="199"/>
-      <c r="E56" s="200" t="s">
-        <v>253</v>
-      </c>
-      <c r="F56" s="204"/>
-    </row>
-    <row r="57" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B57" s="205"/>
-      <c r="C57" s="206"/>
-      <c r="D57" s="207"/>
-      <c r="E57" s="208" t="s">
-        <v>99</v>
-      </c>
-      <c r="F57" s="209"/>
-    </row>
-    <row r="58" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B58" s="210" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="211" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="212" t="s">
-        <v>101</v>
-      </c>
-      <c r="E58" s="213"/>
-      <c r="F58" s="214" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B59" s="215"/>
-      <c r="C59" s="216"/>
-      <c r="D59" s="217"/>
-      <c r="E59" s="218" t="s">
-        <v>198</v>
-      </c>
-      <c r="F59" s="219" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B60" s="215"/>
-      <c r="C60" s="216"/>
-      <c r="D60" s="217"/>
-      <c r="E60" s="218" t="s">
-        <v>217</v>
-      </c>
-      <c r="F60" s="219" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B61" s="215"/>
-      <c r="C61" s="216"/>
-      <c r="D61" s="217"/>
-      <c r="E61" s="218" t="s">
-        <v>190</v>
-      </c>
-      <c r="F61" s="219"/>
-    </row>
-    <row r="62" spans="2:6" ht="18" customHeight="1">
-      <c r="B62" s="215" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="220" t="s">
-        <v>260</v>
-      </c>
-      <c r="D62" s="221"/>
-      <c r="E62" s="218" t="s">
-        <v>250</v>
-      </c>
-      <c r="F62" s="219" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="18" customHeight="1">
-      <c r="B63" s="215"/>
-      <c r="C63" s="220" t="s">
-        <v>261</v>
-      </c>
-      <c r="D63" s="221"/>
-      <c r="E63" s="218" t="s">
-        <v>251</v>
-      </c>
-      <c r="F63" s="219" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="18" customHeight="1">
-      <c r="B64" s="215"/>
-      <c r="C64" s="222"/>
-      <c r="D64" s="221"/>
-      <c r="E64" s="218" t="s">
-        <v>253</v>
-      </c>
-      <c r="F64" s="219" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" ht="18" customHeight="1">
-      <c r="B65" s="223"/>
-      <c r="C65" s="224"/>
-      <c r="D65" s="225"/>
-      <c r="E65" s="226" t="s">
-        <v>99</v>
-      </c>
-      <c r="F65" s="227"/>
-    </row>
-    <row r="66" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B66" s="228" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="229" t="s">
-        <v>255</v>
-      </c>
-      <c r="D66" s="230"/>
-      <c r="E66" s="231" t="s">
-        <v>202</v>
-      </c>
-      <c r="F66" s="232" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B67" s="233"/>
-      <c r="C67" s="234"/>
-      <c r="D67" s="235"/>
-      <c r="E67" s="236" t="s">
-        <v>204</v>
-      </c>
-      <c r="F67" s="237" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B68" s="233"/>
-      <c r="C68" s="265"/>
-      <c r="D68" s="235"/>
-      <c r="E68" s="236" t="s">
-        <v>287</v>
-      </c>
-      <c r="F68" s="237"/>
-    </row>
-    <row r="69" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B69" s="233"/>
-      <c r="C69" s="238"/>
-      <c r="D69" s="235"/>
-      <c r="E69" s="236" t="s">
-        <v>207</v>
-      </c>
-      <c r="F69" s="237" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B70" s="233"/>
-      <c r="C70" s="234" t="s">
-        <v>316</v>
-      </c>
-      <c r="D70" s="235"/>
-      <c r="E70" s="236"/>
-      <c r="F70" s="237"/>
-    </row>
-    <row r="71" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B71" s="233"/>
-      <c r="C71" s="238"/>
-      <c r="D71" s="236" t="s">
-        <v>208</v>
-      </c>
-      <c r="E71" s="235"/>
-      <c r="F71" s="237" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B72" s="233"/>
-      <c r="C72" s="238"/>
-      <c r="D72" s="235"/>
-      <c r="E72" s="236" t="s">
-        <v>92</v>
-      </c>
-      <c r="F72" s="239"/>
-    </row>
-    <row r="73" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B73" s="233"/>
-      <c r="C73" s="238"/>
-      <c r="D73" s="235"/>
-      <c r="E73" s="235" t="s">
-        <v>93</v>
-      </c>
-      <c r="F73" s="239"/>
-    </row>
-    <row r="74" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B74" s="240"/>
-      <c r="C74" s="241"/>
-      <c r="D74" s="242"/>
-      <c r="E74" s="243" t="s">
-        <v>94</v>
-      </c>
-      <c r="F74" s="244" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B75" s="245" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" s="246" t="s">
-        <v>308</v>
-      </c>
-      <c r="D75" s="247" t="s">
-        <v>210</v>
-      </c>
-      <c r="E75" s="248"/>
-      <c r="F75" s="249" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B76" s="250"/>
-      <c r="C76" s="251"/>
-      <c r="D76" s="252"/>
-      <c r="E76" s="253" t="s">
-        <v>330</v>
-      </c>
-      <c r="F76" s="254"/>
-    </row>
-    <row r="77" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B77" s="250"/>
-      <c r="C77" s="251"/>
-      <c r="D77" s="252"/>
-      <c r="E77" s="253" t="s">
-        <v>331</v>
-      </c>
-      <c r="F77" s="254"/>
-    </row>
-    <row r="78" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B78" s="250"/>
-      <c r="C78" s="251"/>
-      <c r="D78" s="253" t="s">
-        <v>208</v>
-      </c>
-      <c r="E78" s="252"/>
-      <c r="F78" s="255" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B79" s="250"/>
-      <c r="C79" s="251"/>
-      <c r="D79" s="252"/>
-      <c r="E79" s="253" t="s">
-        <v>94</v>
-      </c>
-      <c r="F79" s="255" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B80" s="250" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="256" t="s">
-        <v>264</v>
-      </c>
-      <c r="D80" s="253" t="s">
+    <row r="83" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B83" s="229"/>
+      <c r="C83" s="230"/>
+      <c r="D83" s="231"/>
+      <c r="E83" s="232" t="s">
         <v>222</v>
       </c>
-      <c r="E80" s="252"/>
-      <c r="F80" s="255" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B81" s="250"/>
-      <c r="C81" s="251"/>
-      <c r="D81" s="252"/>
-      <c r="E81" s="253" t="s">
+      <c r="F83" s="233"/>
+    </row>
+    <row r="84" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B84" s="229"/>
+      <c r="C84" s="230"/>
+      <c r="D84" s="231"/>
+      <c r="E84" s="232" t="s">
         <v>223</v>
       </c>
-      <c r="F81" s="254"/>
-    </row>
-    <row r="82" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B82" s="250"/>
-      <c r="C82" s="251"/>
-      <c r="D82" s="252"/>
-      <c r="E82" s="253" t="s">
+      <c r="F84" s="233"/>
+    </row>
+    <row r="85" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B85" s="236"/>
+      <c r="C85" s="237"/>
+      <c r="D85" s="238"/>
+      <c r="E85" s="239" t="s">
         <v>224</v>
       </c>
-      <c r="F82" s="254"/>
-    </row>
-    <row r="83" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B83" s="257"/>
-      <c r="C83" s="258"/>
-      <c r="D83" s="259"/>
-      <c r="E83" s="260" t="s">
-        <v>225</v>
-      </c>
-      <c r="F83" s="261"/>
+      <c r="F85" s="240"/>
     </row>
     <row r="115" spans="4:4" ht="15.75" customHeight="1">
       <c r="D115" t="s">
@@ -5228,459 +5697,459 @@
       <c r="G2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
     </row>
     <row r="3" spans="7:19" ht="15">
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
     </row>
     <row r="4" spans="7:19" ht="15">
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
     </row>
     <row r="5" spans="7:19" ht="15">
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
     </row>
     <row r="6" spans="7:19" ht="15">
-      <c r="G6" s="112" t="s">
+      <c r="G6" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="112"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
     </row>
     <row r="7" spans="7:19" ht="15">
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
     </row>
     <row r="8" spans="7:19" ht="15">
-      <c r="G8" s="112" t="s">
+      <c r="G8" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
     </row>
     <row r="9" spans="7:19" ht="15">
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103"/>
     </row>
     <row r="10" spans="7:19">
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36" t="s">
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="37"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="7:19" ht="15">
-      <c r="G11" s="38"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="274"/>
-      <c r="N11" s="267"/>
-      <c r="O11" s="267"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="274"/>
-      <c r="S11" s="275"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="302"/>
+      <c r="N11" s="294"/>
+      <c r="O11" s="294"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="302"/>
+      <c r="S11" s="303"/>
     </row>
     <row r="12" spans="7:19" ht="15">
-      <c r="G12" s="38"/>
-      <c r="H12" s="112" t="s">
+      <c r="G12" s="29"/>
+      <c r="H12" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="42" t="s">
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="41"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="32"/>
     </row>
     <row r="13" spans="7:19" ht="15">
-      <c r="G13" s="38"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="41"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="32"/>
     </row>
     <row r="14" spans="7:19" ht="15">
-      <c r="G14" s="38"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="41"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="32"/>
     </row>
     <row r="15" spans="7:19" ht="15">
-      <c r="G15" s="38"/>
-      <c r="H15" s="112" t="s">
+      <c r="G15" s="29"/>
+      <c r="H15" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="42" t="s">
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="41"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="32"/>
     </row>
     <row r="16" spans="7:19" ht="15">
-      <c r="G16" s="38"/>
-      <c r="H16" s="112" t="s">
+      <c r="G16" s="29"/>
+      <c r="H16" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="41"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="32"/>
     </row>
     <row r="18" spans="7:23" ht="15">
-      <c r="G18" s="38"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="43" t="s">
+      <c r="G18" s="29"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="43" t="s">
+      <c r="K18" s="40"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="112"/>
-      <c r="U18" s="112"/>
-      <c r="V18" s="112"/>
-      <c r="W18" s="112"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="103"/>
     </row>
     <row r="19" spans="7:23" ht="15">
-      <c r="G19" s="38"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="112"/>
-      <c r="U19" s="112"/>
-      <c r="V19" s="112"/>
-      <c r="W19" s="112"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="103"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="103"/>
+      <c r="W19" s="103"/>
     </row>
     <row r="20" spans="7:23" ht="15">
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="112"/>
-      <c r="U20" s="112"/>
-      <c r="V20" s="112"/>
-      <c r="W20" s="112"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="103"/>
     </row>
     <row r="21" spans="7:23" ht="15">
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="112"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="112"/>
-      <c r="U21" s="112"/>
-      <c r="V21" s="112"/>
-      <c r="W21" s="112"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="103"/>
+      <c r="U21" s="103"/>
+      <c r="V21" s="103"/>
+      <c r="W21" s="103"/>
     </row>
     <row r="22" spans="7:23" ht="15">
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="112"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="112"/>
-      <c r="U22" s="112"/>
-      <c r="V22" s="112"/>
-      <c r="W22" s="112"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="103"/>
+      <c r="U22" s="103"/>
+      <c r="V22" s="103"/>
+      <c r="W22" s="103"/>
     </row>
     <row r="23" spans="7:23" ht="15">
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="112"/>
-      <c r="V23" s="112"/>
-      <c r="W23" s="112"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="103"/>
+      <c r="T23" s="103"/>
+      <c r="U23" s="103"/>
+      <c r="V23" s="103"/>
+      <c r="W23" s="103"/>
     </row>
     <row r="24" spans="7:23" ht="15">
-      <c r="G24" s="273"/>
-      <c r="H24" s="267"/>
-      <c r="I24" s="267"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="112"/>
+      <c r="G24" s="301"/>
+      <c r="H24" s="294"/>
+      <c r="I24" s="294"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
     </row>
     <row r="25" spans="7:23" ht="15">
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="112"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="112"/>
-      <c r="W25" s="112"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="103"/>
+      <c r="V25" s="103"/>
+      <c r="W25" s="103"/>
     </row>
     <row r="26" spans="7:23" ht="15">
-      <c r="G26" s="273"/>
-      <c r="H26" s="267"/>
-      <c r="I26" s="267"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="112"/>
+      <c r="G26" s="301"/>
+      <c r="H26" s="294"/>
+      <c r="I26" s="294"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="103"/>
+      <c r="W26" s="103"/>
     </row>
     <row r="27" spans="7:23" ht="15">
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="112"/>
-      <c r="V27" s="112"/>
-      <c r="W27" s="112"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="103"/>
     </row>
     <row r="28" spans="7:23" ht="15">
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="273"/>
-      <c r="Q28" s="267"/>
-      <c r="R28" s="267"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="273"/>
-      <c r="U28" s="267"/>
-      <c r="V28" s="267"/>
-      <c r="W28" s="267"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="301"/>
+      <c r="Q28" s="294"/>
+      <c r="R28" s="294"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="301"/>
+      <c r="U28" s="294"/>
+      <c r="V28" s="294"/>
+      <c r="W28" s="294"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5721,110 +6190,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="87" customHeight="1">
-      <c r="B1" s="110"/>
-      <c r="C1" s="271" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="299" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="2:8" ht="12.75" customHeight="1">
       <c r="B3" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="2:8" ht="18" customHeight="1">
-      <c r="B4" s="112"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1">
-      <c r="B5" s="112"/>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="112"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="103"/>
     </row>
     <row r="6" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="110"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="48" t="s">
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="110"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="51" t="s">
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="110"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="110"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="55" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112" t="s">
+      <c r="E10" s="103"/>
+      <c r="F10" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="110"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5852,113 +6321,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="64.5" customHeight="1">
-      <c r="C1" s="276" t="s">
+      <c r="C1" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
     </row>
     <row r="2" spans="2:11" ht="12.75"/>
     <row r="3" spans="2:11" ht="12.75">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="47" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="12.75">
-      <c r="B4" s="57"/>
+      <c r="B4" s="48"/>
     </row>
     <row r="5" spans="2:11" ht="12.75">
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
     </row>
     <row r="6" spans="2:11" ht="12.75">
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" spans="2:11" ht="25.5">
-      <c r="B7" s="277" t="s">
+      <c r="B7" s="305" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="267"/>
-      <c r="G7" s="113" t="s">
+      <c r="C7" s="294"/>
+      <c r="G7" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
     </row>
     <row r="8" spans="2:11" ht="12.75">
-      <c r="B8" s="113"/>
-      <c r="G8" s="113" t="s">
+      <c r="B8" s="104"/>
+      <c r="G8" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
     </row>
     <row r="9" spans="2:11" ht="12.75">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62" t="s">
+      <c r="G9" s="52"/>
+      <c r="H9" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="K9" s="54" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="12.75">
-      <c r="B10" s="108"/>
-      <c r="D10" s="67"/>
-      <c r="G10" s="68" t="s">
+      <c r="B10" s="99"/>
+      <c r="D10" s="58"/>
+      <c r="G10" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="J10" s="113"/>
-      <c r="K10" s="111"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="102"/>
     </row>
     <row r="11" spans="2:11" ht="25.5">
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="113" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="K11" s="111"/>
+      <c r="K11" s="102"/>
     </row>
     <row r="12" spans="2:11" ht="12.75">
-      <c r="B12" s="108"/>
-      <c r="D12" s="67"/>
-      <c r="G12" s="68" t="s">
+      <c r="B12" s="99"/>
+      <c r="D12" s="58"/>
+      <c r="G12" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="111"/>
+      <c r="K12" s="102"/>
     </row>
     <row r="13" spans="2:11" ht="12.75">
-      <c r="B13" s="108"/>
-      <c r="D13" s="67"/>
-      <c r="G13" s="68" t="s">
+      <c r="B13" s="99"/>
+      <c r="D13" s="58"/>
+      <c r="G13" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="K13" s="111"/>
+      <c r="K13" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5976,8 +6445,8 @@
   </sheetPr>
   <dimension ref="B1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:M36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5994,633 +6463,591 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="57" customHeight="1">
-      <c r="B1" s="115"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="276" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="304" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="H2" s="115"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="H3" s="115"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="H3" s="106"/>
     </row>
     <row r="4" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="284" t="s">
-        <v>329</v>
-      </c>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285"/>
-      <c r="H4" s="285"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="312" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
     </row>
     <row r="5" spans="2:8" ht="12.75">
-      <c r="B5" s="115"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="56" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="H5" s="115"/>
-    </row>
-    <row r="6" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B6" s="115"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="H6" s="115"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="H5" s="106"/>
+    </row>
+    <row r="6" spans="2:8" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B6" s="106"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="H6" s="106"/>
     </row>
     <row r="7" spans="2:8" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="117" t="s">
+      <c r="C7" s="107"/>
+      <c r="D7" s="256" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="257" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="118" t="s">
+      <c r="F7" s="257" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="118" t="s">
+      <c r="G7" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="H7" s="119" t="s">
+      <c r="H7" s="258" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="13.5" customHeight="1">
-      <c r="C8" s="116"/>
-      <c r="D8" s="130" t="s">
+      <c r="C8" s="107"/>
+      <c r="D8" s="259" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="131" t="s">
+      <c r="E8" s="260" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="261" t="s">
+        <v>317</v>
+      </c>
+      <c r="G8" s="260"/>
+      <c r="H8" s="262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B9" s="106"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="263" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="111" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" s="114" t="s">
+        <v>317</v>
+      </c>
+      <c r="G9" s="115"/>
+      <c r="H9" s="264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="12.75" customHeight="1">
+      <c r="B10" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="107"/>
+      <c r="D10" s="265" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="112" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="114" t="s">
+        <v>317</v>
+      </c>
+      <c r="G10" s="112"/>
+      <c r="H10" s="264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="12.75" customHeight="1">
+      <c r="B11" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="107"/>
+      <c r="D11" s="265" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="111" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" s="114" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" s="112"/>
+      <c r="H11" s="264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D12" s="265" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="112" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="114" t="s">
+        <v>317</v>
+      </c>
+      <c r="G12" s="112"/>
+      <c r="H12" s="264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D13" s="265" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="112" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="114" t="s">
+        <v>317</v>
+      </c>
+      <c r="G13" s="112"/>
+      <c r="H13" s="264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D14" s="265" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="112" t="s">
+        <v>257</v>
+      </c>
+      <c r="F14" s="114" t="s">
+        <v>317</v>
+      </c>
+      <c r="G14" s="112"/>
+      <c r="H14" s="264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D15" s="265" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="111" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="114" t="s">
+        <v>317</v>
+      </c>
+      <c r="G15" s="112"/>
+      <c r="H15" s="264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D16" s="306" t="s">
         <v>258</v>
       </c>
-      <c r="F8" s="133" t="s">
+      <c r="E16" s="307"/>
+      <c r="F16" s="307"/>
+      <c r="G16" s="307"/>
+      <c r="H16" s="308"/>
+    </row>
+    <row r="17" spans="4:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D17" s="263" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" s="242" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="G17" s="112"/>
+      <c r="H17" s="264">
+        <v>1</v>
+      </c>
+      <c r="J17" s="309" t="s">
         <v>322</v>
       </c>
-      <c r="G8" s="131"/>
-      <c r="H8" s="135">
+      <c r="K17" s="310"/>
+      <c r="L17" s="310"/>
+      <c r="M17" s="311"/>
+    </row>
+    <row r="18" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D18" s="263" t="s">
+        <v>302</v>
+      </c>
+      <c r="E18" s="242" t="s">
+        <v>257</v>
+      </c>
+      <c r="F18" s="113" t="s">
+        <v>312</v>
+      </c>
+      <c r="G18" s="112"/>
+      <c r="H18" s="264">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B9" s="115"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="132" t="s">
-        <v>226</v>
-      </c>
-      <c r="E9" s="127" t="s">
-        <v>258</v>
-      </c>
-      <c r="F9" s="133" t="s">
-        <v>322</v>
-      </c>
-      <c r="G9" s="134"/>
-      <c r="H9" s="135">
+      <c r="J18" s="314" t="s">
+        <v>344</v>
+      </c>
+      <c r="K18" s="315"/>
+      <c r="L18" s="315"/>
+      <c r="M18" s="316"/>
+    </row>
+    <row r="19" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D19" s="263" t="s">
+        <v>292</v>
+      </c>
+      <c r="E19" s="242" t="s">
+        <v>257</v>
+      </c>
+      <c r="F19" s="113" t="s">
+        <v>299</v>
+      </c>
+      <c r="G19" s="112"/>
+      <c r="H19" s="264">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B10" s="113" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="126" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="128" t="s">
-        <v>258</v>
-      </c>
-      <c r="F10" s="133" t="s">
-        <v>322</v>
-      </c>
-      <c r="G10" s="128"/>
-      <c r="H10" s="135">
+      <c r="J19" s="317"/>
+      <c r="K19" s="318"/>
+      <c r="L19" s="318"/>
+      <c r="M19" s="319"/>
+    </row>
+    <row r="20" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D20" s="263" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="242" t="s">
+        <v>257</v>
+      </c>
+      <c r="F20" s="113" t="s">
+        <v>301</v>
+      </c>
+      <c r="G20" s="112"/>
+      <c r="H20" s="264">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B11" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="126" t="s">
-        <v>248</v>
-      </c>
-      <c r="E11" s="127" t="s">
-        <v>258</v>
-      </c>
-      <c r="F11" s="133" t="s">
-        <v>322</v>
-      </c>
-      <c r="G11" s="128"/>
-      <c r="H11" s="135">
+      <c r="J20" s="317"/>
+      <c r="K20" s="318"/>
+      <c r="L20" s="318"/>
+      <c r="M20" s="319"/>
+    </row>
+    <row r="21" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D21" s="263" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="242" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="113" t="s">
+        <v>307</v>
+      </c>
+      <c r="G21" s="112"/>
+      <c r="H21" s="264">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D12" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="128" t="s">
-        <v>258</v>
-      </c>
-      <c r="F12" s="133" t="s">
-        <v>322</v>
-      </c>
-      <c r="G12" s="128"/>
-      <c r="H12" s="135">
+      <c r="J21" s="317"/>
+      <c r="K21" s="318"/>
+      <c r="L21" s="318"/>
+      <c r="M21" s="319"/>
+    </row>
+    <row r="22" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D22" s="263" t="s">
+        <v>295</v>
+      </c>
+      <c r="E22" s="242" t="s">
+        <v>257</v>
+      </c>
+      <c r="F22" s="113" t="s">
+        <v>306</v>
+      </c>
+      <c r="G22" s="112"/>
+      <c r="H22" s="264">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D13" s="126" t="s">
-        <v>249</v>
-      </c>
-      <c r="E13" s="128" t="s">
-        <v>258</v>
-      </c>
-      <c r="F13" s="133" t="s">
-        <v>322</v>
-      </c>
-      <c r="G13" s="128"/>
-      <c r="H13" s="135">
+      <c r="J22" s="317"/>
+      <c r="K22" s="318"/>
+      <c r="L22" s="318"/>
+      <c r="M22" s="319"/>
+    </row>
+    <row r="23" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D23" s="263" t="s">
+        <v>259</v>
+      </c>
+      <c r="E23" s="242" t="s">
+        <v>257</v>
+      </c>
+      <c r="F23" s="113" t="s">
+        <v>301</v>
+      </c>
+      <c r="G23" s="112"/>
+      <c r="H23" s="264">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D14" s="126" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="128" t="s">
-        <v>258</v>
-      </c>
-      <c r="F14" s="133" t="s">
-        <v>322</v>
-      </c>
-      <c r="G14" s="128"/>
-      <c r="H14" s="135">
+      <c r="J23" s="317"/>
+      <c r="K23" s="318"/>
+      <c r="L23" s="318"/>
+      <c r="M23" s="319"/>
+    </row>
+    <row r="24" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D24" s="263" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" s="242" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" s="113" t="s">
+        <v>309</v>
+      </c>
+      <c r="G24" s="112"/>
+      <c r="H24" s="264">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D15" s="126" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="127" t="s">
-        <v>258</v>
-      </c>
-      <c r="F15" s="133" t="s">
-        <v>322</v>
-      </c>
-      <c r="G15" s="128"/>
-      <c r="H15" s="135">
+      <c r="J24" s="317"/>
+      <c r="K24" s="318"/>
+      <c r="L24" s="318"/>
+      <c r="M24" s="319"/>
+    </row>
+    <row r="25" spans="4:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D25" s="263" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" s="242" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25" s="113" t="s">
+        <v>301</v>
+      </c>
+      <c r="G25" s="112"/>
+      <c r="H25" s="264">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1">
-      <c r="D16" s="278" t="s">
-        <v>259</v>
-      </c>
-      <c r="E16" s="279"/>
-      <c r="F16" s="279"/>
-      <c r="G16" s="279"/>
-      <c r="H16" s="280"/>
-    </row>
-    <row r="17" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D17" s="132" t="s">
+      <c r="J25" s="320"/>
+      <c r="K25" s="321"/>
+      <c r="L25" s="321"/>
+      <c r="M25" s="322"/>
+    </row>
+    <row r="26" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D26" s="263" t="s">
+        <v>336</v>
+      </c>
+      <c r="E26" s="242" t="s">
+        <v>257</v>
+      </c>
+      <c r="F26" s="112" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="112"/>
+      <c r="H26" s="264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D27" s="265" t="s">
+        <v>304</v>
+      </c>
+      <c r="E27" s="242" t="s">
+        <v>257</v>
+      </c>
+      <c r="F27" s="112" t="s">
+        <v>311</v>
+      </c>
+      <c r="G27" s="112"/>
+      <c r="H27" s="264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D28" s="263" t="s">
+        <v>337</v>
+      </c>
+      <c r="E28" s="243" t="s">
+        <v>296</v>
+      </c>
+      <c r="F28" s="113" t="s">
         <v>299</v>
       </c>
-      <c r="E17" s="263" t="s">
-        <v>258</v>
-      </c>
-      <c r="F17" s="129" t="s">
-        <v>298</v>
-      </c>
-      <c r="G17" s="128"/>
-      <c r="H17" s="135">
+      <c r="G28" s="112"/>
+      <c r="H28" s="264">
         <v>1</v>
       </c>
-      <c r="J17" s="283" t="s">
-        <v>327</v>
-      </c>
-      <c r="K17" s="283"/>
-      <c r="L17" s="283"/>
-      <c r="M17" s="283"/>
-    </row>
-    <row r="18" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D18" s="132" t="s">
-        <v>303</v>
-      </c>
-      <c r="E18" s="263" t="s">
-        <v>304</v>
-      </c>
-      <c r="F18" s="129" t="s">
-        <v>317</v>
-      </c>
-      <c r="G18" s="128"/>
-      <c r="H18" s="135">
+    </row>
+    <row r="29" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D29" s="263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="243" t="s">
+        <v>296</v>
+      </c>
+      <c r="F29" s="113" t="s">
+        <v>308</v>
+      </c>
+      <c r="G29" s="112"/>
+      <c r="H29" s="264">
         <v>1</v>
       </c>
-      <c r="J18" s="281" t="s">
-        <v>328</v>
-      </c>
-      <c r="K18" s="282"/>
-      <c r="L18" s="282"/>
-      <c r="M18" s="282"/>
-    </row>
-    <row r="19" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D19" s="132" t="s">
+    </row>
+    <row r="30" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D30" s="263" t="s">
+        <v>287</v>
+      </c>
+      <c r="E30" s="243" t="s">
+        <v>296</v>
+      </c>
+      <c r="F30" s="113" t="s">
+        <v>310</v>
+      </c>
+      <c r="G30" s="112"/>
+      <c r="H30" s="264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D31" s="263" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="243" t="s">
+        <v>296</v>
+      </c>
+      <c r="F31" s="113" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" s="112"/>
+      <c r="H31" s="266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" ht="15.75" customHeight="1">
+      <c r="D32" s="263" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" s="243" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32" s="113" t="s">
+        <v>261</v>
+      </c>
+      <c r="G32" s="112"/>
+      <c r="H32" s="264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D33" s="265" t="s">
+        <v>305</v>
+      </c>
+      <c r="E33" s="243" t="s">
+        <v>313</v>
+      </c>
+      <c r="F33" s="112" t="s">
+        <v>311</v>
+      </c>
+      <c r="G33" s="112"/>
+      <c r="H33" s="264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D34" s="263" t="s">
         <v>293</v>
       </c>
-      <c r="E19" s="263" t="s">
-        <v>258</v>
-      </c>
-      <c r="F19" s="129" t="s">
+      <c r="E34" s="243" t="s">
+        <v>296</v>
+      </c>
+      <c r="F34" s="113" t="s">
         <v>300</v>
       </c>
-      <c r="G19" s="128"/>
-      <c r="H19" s="135">
+      <c r="G34" s="112"/>
+      <c r="H34" s="264">
         <v>1</v>
       </c>
-      <c r="J19" s="282"/>
-      <c r="K19" s="282"/>
-      <c r="L19" s="282"/>
-      <c r="M19" s="282"/>
-    </row>
-    <row r="20" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D20" s="132" t="s">
-        <v>295</v>
-      </c>
-      <c r="E20" s="263" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="129" t="s">
-        <v>302</v>
-      </c>
-      <c r="G20" s="128"/>
-      <c r="H20" s="135">
+    </row>
+    <row r="35" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D35" s="263" t="s">
+        <v>254</v>
+      </c>
+      <c r="E35" s="243" t="s">
+        <v>296</v>
+      </c>
+      <c r="F35" s="113" t="s">
+        <v>306</v>
+      </c>
+      <c r="G35" s="112"/>
+      <c r="H35" s="264">
         <v>1</v>
       </c>
-      <c r="J20" s="282"/>
-      <c r="K20" s="282"/>
-      <c r="L20" s="282"/>
-      <c r="M20" s="282"/>
-    </row>
-    <row r="21" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D21" s="132" t="s">
-        <v>257</v>
-      </c>
-      <c r="E21" s="263" t="s">
-        <v>258</v>
-      </c>
-      <c r="F21" s="129" t="s">
-        <v>311</v>
-      </c>
-      <c r="G21" s="128"/>
-      <c r="H21" s="135">
-        <v>1</v>
-      </c>
-      <c r="J21" s="282"/>
-      <c r="K21" s="282"/>
-      <c r="L21" s="282"/>
-      <c r="M21" s="282"/>
-    </row>
-    <row r="22" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D22" s="132" t="s">
-        <v>296</v>
-      </c>
-      <c r="E22" s="263" t="s">
-        <v>258</v>
-      </c>
-      <c r="F22" s="129" t="s">
-        <v>310</v>
-      </c>
-      <c r="G22" s="128"/>
-      <c r="H22" s="135">
-        <v>1</v>
-      </c>
-      <c r="J22" s="282"/>
-      <c r="K22" s="282"/>
-      <c r="L22" s="282"/>
-      <c r="M22" s="282"/>
-    </row>
-    <row r="23" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D23" s="132" t="s">
-        <v>260</v>
-      </c>
-      <c r="E23" s="263" t="s">
-        <v>258</v>
-      </c>
-      <c r="F23" s="129" t="s">
-        <v>302</v>
-      </c>
-      <c r="G23" s="128"/>
-      <c r="H23" s="135">
-        <v>1</v>
-      </c>
-      <c r="J23" s="282"/>
-      <c r="K23" s="282"/>
-      <c r="L23" s="282"/>
-      <c r="M23" s="282"/>
-    </row>
-    <row r="24" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D24" s="132" t="s">
-        <v>261</v>
-      </c>
-      <c r="E24" s="263" t="s">
-        <v>258</v>
-      </c>
-      <c r="F24" s="129" t="s">
-        <v>313</v>
-      </c>
-      <c r="G24" s="128"/>
-      <c r="H24" s="135">
-        <v>1</v>
-      </c>
-      <c r="J24" s="282"/>
-      <c r="K24" s="282"/>
-      <c r="L24" s="282"/>
-      <c r="M24" s="282"/>
-    </row>
-    <row r="25" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D25" s="132" t="s">
-        <v>305</v>
-      </c>
-      <c r="E25" s="263" t="s">
-        <v>258</v>
-      </c>
-      <c r="F25" s="129" t="s">
-        <v>302</v>
-      </c>
-      <c r="G25" s="128"/>
-      <c r="H25" s="135">
-        <v>1</v>
-      </c>
-      <c r="J25" s="282"/>
-      <c r="K25" s="282"/>
-      <c r="L25" s="282"/>
-      <c r="M25" s="282"/>
-    </row>
-    <row r="26" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D26" s="132" t="s">
-        <v>306</v>
-      </c>
-      <c r="E26" s="263" t="s">
-        <v>258</v>
-      </c>
-      <c r="F26" s="128" t="s">
-        <v>298</v>
-      </c>
-      <c r="G26" s="128"/>
-      <c r="H26" s="135">
-        <v>1</v>
-      </c>
-      <c r="J26" s="282"/>
-      <c r="K26" s="282"/>
-      <c r="L26" s="282"/>
-      <c r="M26" s="282"/>
-    </row>
-    <row r="27" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D27" s="126" t="s">
-        <v>307</v>
-      </c>
-      <c r="E27" s="263" t="s">
-        <v>258</v>
-      </c>
-      <c r="F27" s="128" t="s">
+    </row>
+    <row r="36" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D36" s="263" t="s">
+        <v>314</v>
+      </c>
+      <c r="E36" s="267" t="s">
         <v>315</v>
       </c>
-      <c r="G27" s="128"/>
-      <c r="H27" s="135">
-        <v>1</v>
-      </c>
-      <c r="J27" s="282"/>
-      <c r="K27" s="282"/>
-      <c r="L27" s="282"/>
-      <c r="M27" s="282"/>
-    </row>
-    <row r="28" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D28" s="132" t="s">
-        <v>309</v>
-      </c>
-      <c r="E28" s="264" t="s">
-        <v>297</v>
-      </c>
-      <c r="F28" s="129" t="s">
-        <v>300</v>
-      </c>
-      <c r="G28" s="128"/>
-      <c r="H28" s="135">
-        <v>1</v>
-      </c>
-      <c r="J28" s="282"/>
-      <c r="K28" s="282"/>
-      <c r="L28" s="282"/>
-      <c r="M28" s="282"/>
-    </row>
-    <row r="29" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D29" s="132" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="264" t="s">
-        <v>297</v>
-      </c>
-      <c r="F29" s="129" t="s">
-        <v>312</v>
-      </c>
-      <c r="G29" s="128"/>
-      <c r="H29" s="135">
-        <v>1</v>
-      </c>
-      <c r="J29" s="282"/>
-      <c r="K29" s="282"/>
-      <c r="L29" s="282"/>
-      <c r="M29" s="282"/>
-    </row>
-    <row r="30" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D30" s="132" t="s">
-        <v>288</v>
-      </c>
-      <c r="E30" s="264" t="s">
-        <v>297</v>
-      </c>
-      <c r="F30" s="129" t="s">
-        <v>314</v>
-      </c>
-      <c r="G30" s="128"/>
-      <c r="H30" s="135">
-        <v>1</v>
-      </c>
-      <c r="J30" s="282"/>
-      <c r="K30" s="282"/>
-      <c r="L30" s="282"/>
-      <c r="M30" s="282"/>
-    </row>
-    <row r="31" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D31" s="132" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="264" t="s">
-        <v>297</v>
-      </c>
-      <c r="F31" s="129" t="s">
-        <v>262</v>
-      </c>
-      <c r="G31" s="128"/>
-      <c r="H31" s="136">
+      <c r="F36" s="268" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" s="112"/>
+      <c r="H36" s="266">
         <v>0</v>
       </c>
-      <c r="J31" s="282"/>
-      <c r="K31" s="282"/>
-      <c r="L31" s="282"/>
-      <c r="M31" s="282"/>
-    </row>
-    <row r="32" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D32" s="132" t="s">
-        <v>264</v>
-      </c>
-      <c r="E32" s="264" t="s">
-        <v>297</v>
-      </c>
-      <c r="F32" s="129" t="s">
-        <v>262</v>
-      </c>
-      <c r="G32" s="128"/>
-      <c r="H32" s="135">
-        <v>1</v>
-      </c>
-      <c r="J32" s="282"/>
-      <c r="K32" s="282"/>
-      <c r="L32" s="282"/>
-      <c r="M32" s="282"/>
-    </row>
-    <row r="33" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D33" s="126" t="s">
-        <v>308</v>
-      </c>
-      <c r="E33" s="264" t="s">
+    </row>
+    <row r="37" spans="4:8" ht="15.75" customHeight="1">
+      <c r="D37" s="263" t="s">
         <v>318</v>
       </c>
-      <c r="F33" s="128" t="s">
-        <v>315</v>
-      </c>
-      <c r="G33" s="128"/>
-      <c r="H33" s="135">
-        <v>1</v>
-      </c>
-      <c r="J33" s="282"/>
-      <c r="K33" s="282"/>
-      <c r="L33" s="282"/>
-      <c r="M33" s="282"/>
-    </row>
-    <row r="34" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D34" s="132" t="s">
-        <v>294</v>
-      </c>
-      <c r="E34" s="264" t="s">
-        <v>297</v>
-      </c>
-      <c r="F34" s="129" t="s">
-        <v>301</v>
-      </c>
-      <c r="G34" s="128"/>
-      <c r="H34" s="135">
-        <v>1</v>
-      </c>
-      <c r="J34" s="282"/>
-      <c r="K34" s="282"/>
-      <c r="L34" s="282"/>
-      <c r="M34" s="282"/>
-    </row>
-    <row r="35" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D35" s="132" t="s">
-        <v>255</v>
-      </c>
-      <c r="E35" s="264" t="s">
-        <v>297</v>
-      </c>
-      <c r="F35" s="129" t="s">
-        <v>310</v>
-      </c>
-      <c r="G35" s="128"/>
-      <c r="H35" s="135">
-        <v>1</v>
-      </c>
-      <c r="J35" s="282"/>
-      <c r="K35" s="282"/>
-      <c r="L35" s="282"/>
-      <c r="M35" s="282"/>
-    </row>
-    <row r="36" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D36" s="132" t="s">
+      <c r="E37" s="267" t="s">
         <v>319</v>
       </c>
-      <c r="E36" s="135" t="s">
+      <c r="F37" s="268" t="s">
         <v>320</v>
       </c>
-      <c r="F36" s="129" t="s">
+      <c r="G37" s="112"/>
+      <c r="H37" s="266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D38" s="269" t="s">
         <v>321</v>
       </c>
-      <c r="G36" s="128"/>
-      <c r="H36" s="136">
-        <v>0</v>
-      </c>
-      <c r="J36" s="282"/>
-      <c r="K36" s="282"/>
-      <c r="L36" s="282"/>
-      <c r="M36" s="282"/>
-    </row>
-    <row r="37" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D37" s="132" t="s">
-        <v>323</v>
-      </c>
-      <c r="E37" s="135" t="s">
-        <v>324</v>
-      </c>
-      <c r="F37" s="129" t="s">
-        <v>325</v>
-      </c>
-      <c r="G37" s="128"/>
-      <c r="H37" s="136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="4:13" ht="15.75" customHeight="1">
-      <c r="D38" s="132" t="s">
-        <v>326</v>
-      </c>
-      <c r="E38" s="135" t="s">
-        <v>324</v>
-      </c>
-      <c r="F38" s="129"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="136">
+      <c r="E38" s="270" t="s">
+        <v>319</v>
+      </c>
+      <c r="F38" s="271" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" s="272"/>
+      <c r="H38" s="273">
         <v>0</v>
       </c>
     </row>
@@ -6628,9 +7055,9 @@
   <mergeCells count="5">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D16:H16"/>
-    <mergeCell ref="J18:M36"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="D4:H4"/>
+    <mergeCell ref="J18:M25"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6663,290 +7090,290 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B2" s="70"/>
-      <c r="C2" s="71" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
     </row>
     <row r="3" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
-      <c r="K3" s="267"/>
-      <c r="L3" s="267"/>
-      <c r="M3" s="267"/>
+      <c r="B3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="323"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="294"/>
+      <c r="K3" s="294"/>
+      <c r="L3" s="294"/>
+      <c r="M3" s="294"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
+      <c r="B4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
     </row>
     <row r="5" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="72" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65"/>
     </row>
     <row r="6" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
     </row>
     <row r="7" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="76"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="67"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
     </row>
     <row r="8" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83" t="s">
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83" t="s">
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="L8" s="81"/>
-      <c r="M8" s="82"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" spans="2:13" ht="9.75" customHeight="1">
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="88"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1">
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="109" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1">
-      <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="92" t="s">
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="92" t="s">
+      <c r="F11" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="H11" s="94" t="s">
+      <c r="H11" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="I11" s="92" t="s">
+      <c r="I11" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="93" t="s">
+      <c r="J11" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="K11" s="94" t="s">
+      <c r="K11" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="L11" s="92" t="s">
+      <c r="L11" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="M11" s="93" t="s">
+      <c r="M11" s="84" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B12" s="95"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="99"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="90"/>
     </row>
     <row r="13" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="99"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="90"/>
     </row>
     <row r="14" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="103">
+      <c r="D14" s="97"/>
+      <c r="E14" s="94">
         <v>44090</v>
       </c>
-      <c r="F14" s="104">
+      <c r="F14" s="95">
         <v>44177</v>
       </c>
-      <c r="G14" s="99"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="99"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="90"/>
     </row>
     <row r="15" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B15" s="105"/>
-      <c r="C15" s="102" t="s">
+      <c r="B15" s="96"/>
+      <c r="C15" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="103">
+      <c r="D15" s="97"/>
+      <c r="E15" s="94">
         <v>44091</v>
       </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="99" t="s">
+      <c r="F15" s="93"/>
+      <c r="G15" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="99"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="90"/>
     </row>
     <row r="16" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B16" s="105"/>
-      <c r="C16" s="102" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="103">
+      <c r="D16" s="97"/>
+      <c r="E16" s="94">
         <v>44092</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="99"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="90"/>
     </row>
     <row r="20" spans="3:3" ht="20.25" customHeight="1">
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="98" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="20.25" customHeight="1">
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="98" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="22" spans="3:3" ht="20.25" customHeight="1">
-      <c r="C22" s="107" t="s">
+      <c r="C22" s="98" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6964,12 +7391,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6978,7 +7399,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003344BE67D7EB984A84C06E190413FBFD" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9bce8fe95ceaf62c75926160740d41e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9de94308-2297-4d04-a77d-26fce9df9395" xmlns:ns4="22375818-dcd7-42e4-9660-6b33e030de66" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d88e73fd87162f28f317e92bcb9f946" ns3:_="" ns4:_="">
     <xsd:import namespace="9de94308-2297-4d04-a77d-26fce9df9395"/>
@@ -7155,16 +7576,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B130DE0C-7A28-4B03-98EC-F451E5EF5DFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039DF66-AB83-49D2-BABD-681C7E045BB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -7172,7 +7590,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E8D0FC-D0F3-4D81-9707-E82360EDBF19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7189,4 +7607,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B130DE0C-7A28-4B03-98EC-F451E5EF5DFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>